--- a/Apple 3 Statement Model.xlsx
+++ b/Apple 3 Statement Model.xlsx
@@ -58,7 +58,7 @@
     <definedName name="Products">[2]Array0!$B$5:$C$7</definedName>
     <definedName name="Rev">'[1]Forecast Drivers'!$E$25:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="autoNoTable" iterate="1"/>
 </workbook>
 </file>
 
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="160">
   <si>
     <t>Tax rate</t>
   </si>
@@ -546,6 +546,102 @@
   </si>
   <si>
     <t>Stock repurchases</t>
+  </si>
+  <si>
+    <t>RETAINED EARNINGS &amp; OCI</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Plus: Net income</t>
+  </si>
+  <si>
+    <t>Less: Common dividends</t>
+  </si>
+  <si>
+    <t>Dividend payout ratio</t>
+  </si>
+  <si>
+    <t>Common dividends</t>
+  </si>
+  <si>
+    <t>Plus: Income / (loss)</t>
+  </si>
+  <si>
+    <t>CASH FLOW STATEMENT</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-cash (PIK) interest </t>
+  </si>
+  <si>
+    <t>Cash from operating activities</t>
+  </si>
+  <si>
+    <t>Capital expenditures</t>
+  </si>
+  <si>
+    <t>Purchases of intangible assets</t>
+  </si>
+  <si>
+    <t>Cash from investing activities</t>
+  </si>
+  <si>
+    <t>New share issuances</t>
+  </si>
+  <si>
+    <t>Share repurchases</t>
+  </si>
+  <si>
+    <t>Cash from financing activities</t>
+  </si>
+  <si>
+    <t>Net change in cash during period</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>MODEL PLUG: REVOLVER &amp; CASH</t>
+  </si>
+  <si>
+    <t>Maximum availability</t>
+  </si>
+  <si>
+    <t>Compliance check</t>
+  </si>
+  <si>
+    <t>Revolver needs analysis</t>
+  </si>
+  <si>
+    <t>Less: Minimum cash desired</t>
+  </si>
+  <si>
+    <t>Equals: Excess cash at BOP</t>
+  </si>
+  <si>
+    <t>Plus: Free cash flows generated during period</t>
+  </si>
+  <si>
+    <t>Equals: Cash available (needed) to paydown (draw from) revolver</t>
+  </si>
+  <si>
+    <t>Interest rate on revolver</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>+/- additions</t>
+  </si>
+  <si>
+    <t>Interest rate on cash</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2266,7 @@
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="231" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2267,7 +2363,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="98" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="98" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2348,11 +2443,29 @@
     <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="119" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="236" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="232" fontId="61" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="100" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="242" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="235" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="236" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="236" fontId="101" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="236" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="$" xfId="1"/>
@@ -3508,84 +3621,84 @@
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="2:15" ht="12.75" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="2:15" ht="12.75" customHeight="1">
       <c r="B15" s="36"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="2:15" ht="11.25" customHeight="1">
       <c r="B16" s="36"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="2:15" ht="11.25" customHeight="1">
       <c r="B17" s="36"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
       <c r="O17" s="39"/>
     </row>
     <row r="18" spans="2:15">
@@ -3652,12 +3765,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J239"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3096" topLeftCell="A213" activePane="bottomLeft"/>
-      <selection activeCell="F45" sqref="F45"/>
-      <selection pane="bottomLeft" activeCell="B220" sqref="B220"/>
+      <pane ySplit="2160" topLeftCell="A302" activePane="bottomLeft"/>
+      <selection activeCell="D220" sqref="D220"/>
+      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -3670,8 +3783,8 @@
     <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16.2" thickBot="1"/>
-    <row r="2" spans="2:10" ht="26.4" thickBot="1">
+    <row r="1" spans="1:10" ht="16.2" thickBot="1"/>
+    <row r="2" spans="1:10" ht="26.4" thickBot="1">
       <c r="B2" s="27" t="str">
         <f>"Financial Statement Model for "&amp;Model!C5</f>
         <v>Financial Statement Model for Apple</v>
@@ -3685,7 +3798,7 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
@@ -3696,12 +3809,12 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
       <c r="B4" s="13"/>
       <c r="C4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="1:10">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -3710,7 +3823,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="1:10">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -3719,7 +3832,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="1:10">
       <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
@@ -3732,7 +3845,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="1:10">
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -3745,7 +3858,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="1:10">
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +3871,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="1:10">
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
@@ -3772,7 +3885,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="1:10">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3781,7 +3894,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -3794,7 +3910,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +3947,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
       <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
@@ -3865,7 +3981,7 @@
         <v>43373</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="1:10">
       <c r="B15" s="14"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -3876,17 +3992,17 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="1:10">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="122">
         <v>108249</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="76">
         <v>156508</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="76">
         <v>170910</v>
       </c>
       <c r="F16" s="52">
@@ -3914,32 +4030,32 @@
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="122">
         <v>-64431</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="76">
         <v>-87846</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="76">
         <v>-106606</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <f>-(F16*(1-F38))</f>
         <v>-112763.37581459999</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="70">
         <f t="shared" ref="G17:J17" si="3">-(G16*(1-G38))</f>
         <v>-118026.11827816373</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="70">
         <f t="shared" si="3"/>
         <v>-123313.04199393329</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="70">
         <f t="shared" si="3"/>
         <v>-129378.10675824653</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="70">
         <f t="shared" si="3"/>
         <v>-136348.30809337116</v>
       </c>
@@ -3948,35 +4064,35 @@
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="123">
         <f>C16+C17</f>
         <v>43818</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="123">
         <f t="shared" ref="D18:E18" si="4">D16+D17</f>
         <v>68662</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="123">
         <f t="shared" si="4"/>
         <v>64304</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="61">
         <f t="shared" ref="F18" si="5">F16+F17</f>
         <v>66510.671585399992</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="61">
         <f t="shared" ref="G18" si="6">G16+G17</f>
         <v>70514.006766826249</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="61">
         <f t="shared" ref="H18" si="7">H16+H17</f>
         <v>73672.648092222138</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="61">
         <f t="shared" ref="I18" si="8">I16+I17</f>
         <v>77296.185187834184</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="61">
         <f t="shared" ref="J18" si="9">J16+J17</f>
         <v>81460.49077782876</v>
       </c>
@@ -3985,32 +4101,32 @@
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="122">
         <v>-2429</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="76">
         <v>-3381</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="76">
         <v>-4475</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="70">
         <f>-(F16*F39)</f>
         <v>-5198.9473745999994</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="70">
         <f>-(G16*G39)</f>
         <v>-5844.7438763946893</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="70">
         <f>-(H16*H39)</f>
         <v>-6106.5563926708182</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="70">
         <f>-(I16*I39)</f>
         <v>-6406.9030503285021</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="70">
         <f>-(J16*J39)</f>
         <v>-6752.0727650071976</v>
       </c>
@@ -4019,32 +4135,32 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="122">
         <v>-7599</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="76">
         <v>-10040</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="76">
         <v>-10830</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="70">
         <f>-(F16*F40)</f>
         <v>-12190.635223199999</v>
       </c>
-      <c r="G20" s="71">
+      <c r="G20" s="70">
         <f>-(G16*G40)</f>
         <v>-12820.728503059319</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="70">
         <f>-(H16*H40)</f>
         <v>-13395.02692585857</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="70">
         <f>-(I16*I40)</f>
         <v>-14053.85185233349</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="70">
         <f>-(J16*J40)</f>
         <v>-14810.998323241596</v>
       </c>
@@ -4053,35 +4169,35 @@
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <f>C18+C20+C19</f>
         <v>33790</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <f t="shared" ref="D21:E21" si="10">D18+D20+D19</f>
         <v>55241</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="62">
         <f t="shared" si="10"/>
         <v>48999</v>
       </c>
-      <c r="F21" s="63">
+      <c r="F21" s="62">
         <f t="shared" ref="F21" si="11">F18+F20+F19</f>
         <v>49121.088987599993</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="62">
         <f t="shared" ref="G21" si="12">G18+G20+G19</f>
         <v>51848.534387372238</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="62">
         <f t="shared" ref="H21" si="13">H18+H20+H19</f>
         <v>54171.064773692749</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="62">
         <f t="shared" ref="I21" si="14">I18+I20+I19</f>
         <v>56835.430285172188</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="62">
         <f t="shared" ref="J21" si="15">J18+J20+J19</f>
         <v>59897.419689579961</v>
       </c>
@@ -4090,13 +4206,13 @@
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="63">
         <v>519</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="60">
         <v>1088</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="60">
         <v>1616</v>
       </c>
       <c r="F22"/>
@@ -4109,47 +4225,62 @@
       <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="64">
-        <v>0</v>
-      </c>
-      <c r="D23" s="64">
-        <v>0</v>
-      </c>
-      <c r="E23" s="77">
+      <c r="C23" s="63">
+        <v>0</v>
+      </c>
+      <c r="D23" s="63">
+        <v>0</v>
+      </c>
+      <c r="E23" s="76">
         <v>-136</v>
       </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="F23">
+        <f ca="1">F312</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:J23" ca="1" si="16">G312</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="76">
         <v>-104</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="76">
         <v>-566</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="76">
         <v>-324</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="76">
         <v>-324</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="76">
         <v>-324</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="76">
         <v>-324</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="76">
         <v>-324</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="76">
         <v>-324</v>
       </c>
     </row>
@@ -4157,36 +4288,36 @@
       <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="62">
         <f>C21+C24+C23+C22</f>
         <v>34205</v>
       </c>
-      <c r="D25" s="63">
-        <f t="shared" ref="D25:E25" si="16">D21+D24+D23+D22</f>
+      <c r="D25" s="62">
+        <f t="shared" ref="D25:E25" si="17">D21+D24+D23+D22</f>
         <v>55763</v>
       </c>
-      <c r="E25" s="63">
-        <f t="shared" si="16"/>
+      <c r="E25" s="62">
+        <f t="shared" si="17"/>
         <v>50155</v>
       </c>
-      <c r="F25" s="63">
-        <f t="shared" ref="F25" si="17">F21+F24+F23+F22</f>
+      <c r="F25" s="62">
+        <f t="shared" ref="F25" ca="1" si="18">F21+F24+F23+F22</f>
         <v>48797.088987599993</v>
       </c>
-      <c r="G25" s="63">
-        <f t="shared" ref="G25" si="18">G21+G24+G23+G22</f>
+      <c r="G25" s="62">
+        <f t="shared" ref="G25" ca="1" si="19">G21+G24+G23+G22</f>
         <v>51524.534387372238</v>
       </c>
-      <c r="H25" s="63">
-        <f t="shared" ref="H25" si="19">H21+H24+H23+H22</f>
+      <c r="H25" s="62">
+        <f t="shared" ref="H25" ca="1" si="20">H21+H24+H23+H22</f>
         <v>53847.064773692749</v>
       </c>
-      <c r="I25" s="63">
-        <f t="shared" ref="I25" si="20">I21+I24+I23+I22</f>
+      <c r="I25" s="62">
+        <f t="shared" ref="I25" ca="1" si="21">I21+I24+I23+I22</f>
         <v>56511.430285172188</v>
       </c>
-      <c r="J25" s="63">
-        <f t="shared" ref="J25" si="21">J21+J24+J23+J22</f>
+      <c r="J25" s="62">
+        <f t="shared" ref="J25" ca="1" si="22">J21+J24+J23+J22</f>
         <v>59573.419689579961</v>
       </c>
     </row>
@@ -4194,33 +4325,33 @@
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="76">
         <v>-8283</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="76">
         <v>-14030</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="76">
         <v>-13118</v>
       </c>
-      <c r="F26" s="73">
-        <f>-(F25*F41)</f>
+      <c r="F26" s="72">
+        <f ca="1">-(F25*F41)</f>
         <v>-12833.634403738799</v>
       </c>
-      <c r="G26" s="73">
-        <f>-(G25*G41)</f>
+      <c r="G26" s="72">
+        <f ca="1">-(G25*G41)</f>
         <v>-13396.378940716782</v>
       </c>
-      <c r="H26" s="73">
-        <f>-(H25*H41)</f>
+      <c r="H26" s="72">
+        <f ca="1">-(H25*H41)</f>
         <v>-14000.236841160115</v>
       </c>
-      <c r="I26" s="73">
-        <f>-(I25*I41)</f>
+      <c r="I26" s="72">
+        <f ca="1">-(I25*I41)</f>
         <v>-14692.971874144769</v>
       </c>
-      <c r="J26" s="71">
-        <f>-(J25*J41)</f>
+      <c r="J26" s="70">
+        <f ca="1">-(J25*J41)</f>
         <v>-15489.089119290791</v>
       </c>
     </row>
@@ -4228,36 +4359,36 @@
       <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="62">
         <f>C25+C26</f>
         <v>25922</v>
       </c>
-      <c r="D27" s="63">
-        <f t="shared" ref="D27:E27" si="22">D25+D26</f>
+      <c r="D27" s="62">
+        <f t="shared" ref="D27:E27" si="23">D25+D26</f>
         <v>41733</v>
       </c>
-      <c r="E27" s="63">
-        <f t="shared" si="22"/>
+      <c r="E27" s="62">
+        <f t="shared" si="23"/>
         <v>37037</v>
       </c>
-      <c r="F27" s="63">
-        <f t="shared" ref="F27" si="23">F25+F26</f>
+      <c r="F27" s="62">
+        <f t="shared" ref="F27" ca="1" si="24">F25+F26</f>
         <v>35963.454583861196</v>
       </c>
-      <c r="G27" s="63">
-        <f t="shared" ref="G27" si="24">G25+G26</f>
+      <c r="G27" s="62">
+        <f t="shared" ref="G27" ca="1" si="25">G25+G26</f>
         <v>38128.155446655452</v>
       </c>
-      <c r="H27" s="63">
-        <f t="shared" ref="H27" si="25">H25+H26</f>
+      <c r="H27" s="62">
+        <f t="shared" ref="H27" ca="1" si="26">H25+H26</f>
         <v>39846.827932532637</v>
       </c>
-      <c r="I27" s="63">
-        <f t="shared" ref="I27" si="26">I25+I26</f>
+      <c r="I27" s="62">
+        <f t="shared" ref="I27" ca="1" si="27">I25+I26</f>
         <v>41818.458411027415</v>
       </c>
-      <c r="J27" s="63">
-        <f t="shared" ref="J27" si="27">J25+J26</f>
+      <c r="J27" s="62">
+        <f t="shared" ref="J27" ca="1" si="28">J25+J26</f>
         <v>44084.330570289167</v>
       </c>
     </row>
@@ -4275,13 +4406,13 @@
       <c r="B29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="60">
         <v>925331</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="60">
         <v>934818</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="60">
         <v>925331</v>
       </c>
       <c r="F29"/>
@@ -4294,16 +4425,16 @@
       <c r="B30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="64">
         <f>C31-C29</f>
         <v>6331</v>
       </c>
-      <c r="D30" s="65">
-        <f t="shared" ref="D30:E30" si="28">D31-D29</f>
+      <c r="D30" s="64">
+        <f t="shared" ref="D30:E30" si="29">D31-D29</f>
         <v>10537</v>
       </c>
-      <c r="E30" s="65">
-        <f t="shared" si="28"/>
+      <c r="E30" s="64">
+        <f t="shared" si="29"/>
         <v>6331</v>
       </c>
       <c r="F30"/>
@@ -4316,13 +4447,13 @@
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="60">
         <v>931662</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="60">
         <v>945355</v>
       </c>
-      <c r="E31" s="61">
+      <c r="E31" s="60">
         <v>931662</v>
       </c>
       <c r="F31"/>
@@ -4341,7 +4472,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="1:10">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4354,7 +4485,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="1:10">
       <c r="B34" s="18" t="s">
         <v>19</v>
       </c>
@@ -4367,7 +4498,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="1:10">
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -4377,7 +4508,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="1:10">
       <c r="B36" s="19" t="s">
         <v>48</v>
       </c>
@@ -4390,56 +4521,56 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="1:10">
       <c r="B37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="65">
         <f>D16/C16-1</f>
         <v>0.44581474193756976</v>
       </c>
-      <c r="E37" s="66">
+      <c r="E37" s="65">
         <f>E16/D16-1</f>
         <v>9.2020855163953197E-2</v>
       </c>
-      <c r="F37" s="66">
-        <f t="shared" ref="F37:J37" si="29">F16/E16-1</f>
+      <c r="F37" s="65">
+        <f t="shared" ref="F37:J37" si="30">F16/E16-1</f>
         <v>4.893831490258016E-2</v>
       </c>
-      <c r="G37" s="66">
-        <f t="shared" si="29"/>
+      <c r="G37" s="65">
+        <f t="shared" si="30"/>
         <v>5.1686665077156135E-2</v>
       </c>
-      <c r="H37" s="66">
-        <f t="shared" si="29"/>
+      <c r="H37" s="65">
+        <f t="shared" si="30"/>
         <v>4.4794523389385388E-2</v>
       </c>
-      <c r="I37" s="66">
-        <f t="shared" si="29"/>
+      <c r="I37" s="65">
+        <f t="shared" si="30"/>
         <v>4.9184292806689678E-2</v>
       </c>
-      <c r="J37" s="66">
-        <f t="shared" si="29"/>
+      <c r="J37" s="65">
+        <f t="shared" si="30"/>
         <v>5.3874658624808891E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="1:10">
       <c r="B38" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="66">
+      <c r="C38" s="65">
         <f>C18/C16</f>
         <v>0.40478895878945764</v>
       </c>
-      <c r="D38" s="66">
-        <f t="shared" ref="D38:E38" si="30">D18/D16</f>
+      <c r="D38" s="65">
+        <f t="shared" ref="D38:E38" si="31">D18/D16</f>
         <v>0.43871239808827661</v>
       </c>
-      <c r="E38" s="66">
-        <f t="shared" si="30"/>
+      <c r="E38" s="65">
+        <f t="shared" si="31"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="F38" s="56">
@@ -4458,19 +4589,19 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="1:10">
       <c r="B39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="66">
+      <c r="C39" s="65">
         <f>-(C19/C16)</f>
         <v>2.2439006364954873E-2</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="65">
         <f>-(D19/D16)</f>
         <v>2.1602729572929181E-2</v>
       </c>
-      <c r="E39" s="66">
+      <c r="E39" s="65">
         <f>-(E19/E16)</f>
         <v>2.6183371365045931E-2</v>
       </c>
@@ -4490,19 +4621,19 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="1:10">
       <c r="B40" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="65">
         <f>-(C20/C16)</f>
         <v>7.0199262810741903E-2</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="65">
         <f>-(D20/D16)</f>
         <v>6.4150075395506934E-2</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="65">
         <f>-(E20/E16)</f>
         <v>6.3366684219764782E-2</v>
       </c>
@@ -4522,19 +4653,19 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="1:10">
       <c r="B41" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="66">
+      <c r="C41" s="65">
         <f>-(C26/C25)</f>
         <v>0.24215757930127174</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="65">
         <f>-(D26/D25)</f>
         <v>0.25160052364471064</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="65">
         <f>-(E26/E25)</f>
         <v>0.26154919748778788</v>
       </c>
@@ -4554,7 +4685,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="1:10">
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -4564,7 +4695,7 @@
       <c r="I42" s="56"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="1:10">
       <c r="B43" s="22" t="s">
         <v>47</v>
       </c>
@@ -4577,97 +4708,112 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="1:10">
       <c r="B44" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="61">
+      <c r="C44" s="60">
         <v>1814</v>
       </c>
-      <c r="D44" s="61">
+      <c r="D44" s="60">
         <v>3277</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="60">
         <v>6757</v>
       </c>
-      <c r="F44" s="97">
+      <c r="F44" s="96">
         <f>-(F177+F164)</f>
         <v>7145.3176115999995</v>
       </c>
-      <c r="G44" s="97">
-        <f t="shared" ref="G44:J44" si="31">-(G177+G164)</f>
+      <c r="G44" s="96">
+        <f t="shared" ref="G44:J44" si="32">-(G177+G164)</f>
         <v>7540.5401478143021</v>
       </c>
-      <c r="H44" s="97">
-        <f t="shared" si="31"/>
+      <c r="H44" s="96">
+        <f t="shared" si="32"/>
         <v>7682.1924442956242</v>
       </c>
-      <c r="I44" s="97">
-        <f t="shared" si="31"/>
+      <c r="I44" s="96">
+        <f t="shared" si="32"/>
         <v>7792.0651309652267</v>
       </c>
-      <c r="J44" s="97">
-        <f t="shared" si="31"/>
+      <c r="J44" s="96">
+        <f t="shared" si="32"/>
         <v>8007.2119367516216</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="1:10">
       <c r="B45" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="61">
+      <c r="C45" s="60">
         <v>1168</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="60">
         <v>1740</v>
       </c>
-      <c r="E45" s="61">
+      <c r="E45" s="60">
         <v>2253</v>
       </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="96">
+        <f>F231</f>
+        <v>2212.6002930107998</v>
+      </c>
+      <c r="G45" s="96">
+        <f t="shared" ref="G45:J45" si="33">G231</f>
+        <v>2187.0654505218836</v>
+      </c>
+      <c r="H45" s="96">
+        <f t="shared" si="33"/>
+        <v>2285.0340049994029</v>
+      </c>
+      <c r="I45" s="96">
+        <f t="shared" si="33"/>
+        <v>2397.4217865745363</v>
+      </c>
+      <c r="J45" s="96">
+        <f t="shared" si="33"/>
+        <v>2526.5820669059194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="B46" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="62">
         <f>C21+C45+C44</f>
         <v>36772</v>
       </c>
-      <c r="D46" s="63">
-        <f t="shared" ref="D46:J46" si="32">D21+D45+D44</f>
+      <c r="D46" s="62">
+        <f t="shared" ref="D46:J46" si="34">D21+D45+D44</f>
         <v>60258</v>
       </c>
-      <c r="E46" s="63">
-        <f t="shared" si="32"/>
+      <c r="E46" s="62">
+        <f t="shared" si="34"/>
         <v>58009</v>
       </c>
-      <c r="F46" s="63">
-        <f t="shared" si="32"/>
-        <v>56266.406599199996</v>
-      </c>
-      <c r="G46" s="63">
-        <f t="shared" si="32"/>
-        <v>59389.074535186541</v>
-      </c>
-      <c r="H46" s="63">
-        <f t="shared" si="32"/>
-        <v>61853.257217988372</v>
-      </c>
-      <c r="I46" s="63">
-        <f t="shared" si="32"/>
-        <v>64627.495416137412</v>
-      </c>
-      <c r="J46" s="63">
-        <f t="shared" si="32"/>
-        <v>67904.631626331582</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="62">
+        <f t="shared" si="34"/>
+        <v>58479.006892210789</v>
+      </c>
+      <c r="G46" s="62">
+        <f t="shared" si="34"/>
+        <v>61576.139985708425</v>
+      </c>
+      <c r="H46" s="62">
+        <f t="shared" si="34"/>
+        <v>64138.291222987777</v>
+      </c>
+      <c r="I46" s="62">
+        <f t="shared" si="34"/>
+        <v>67024.917202711949</v>
+      </c>
+      <c r="J46" s="62">
+        <f t="shared" si="34"/>
+        <v>70431.2136932375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -4677,7 +4823,10 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B48" s="4" t="s">
         <v>50</v>
       </c>
@@ -4692,7 +4841,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="3" t="str">
-        <f t="shared" ref="B49:B50" si="33">B13</f>
+        <f t="shared" ref="B49:B50" si="35">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C49" s="58">
@@ -4712,25 +4861,25 @@
         <v>2014</v>
       </c>
       <c r="G49" s="59">
-        <f t="shared" ref="G49:J49" si="34">F49+1</f>
+        <f t="shared" ref="G49:J49" si="36">F49+1</f>
         <v>2015</v>
       </c>
       <c r="H49" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2016</v>
       </c>
       <c r="I49" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2017</v>
       </c>
       <c r="J49" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2018</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="15" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C50" s="34">
@@ -4750,19 +4899,19 @@
         <v>41912</v>
       </c>
       <c r="G50" s="57">
-        <f t="shared" ref="G50:J50" si="35">EOMONTH(F50,12)</f>
+        <f t="shared" ref="G50:J50" si="37">EOMONTH(F50,12)</f>
         <v>42277</v>
       </c>
       <c r="H50" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>42643</v>
       </c>
       <c r="I50" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>43008</v>
       </c>
       <c r="J50" s="57">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>43373</v>
       </c>
     </row>
@@ -4783,33 +4932,33 @@
       <c r="B52" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="61">
+      <c r="C52" s="60">
         <v>45998</v>
       </c>
-      <c r="D52" s="61">
+      <c r="D52" s="60">
         <v>78692</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="60">
         <v>91279</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="70">
         <f>(F62*F72)/1000</f>
         <v>97967.925119999971</v>
       </c>
-      <c r="G52" s="71">
-        <f t="shared" ref="G52:J52" si="36">(G62*G72)/1000</f>
+      <c r="G52" s="70">
+        <f t="shared" ref="G52:J52" si="38">(G62*G72)/1000</f>
         <v>105021.61572863998</v>
       </c>
-      <c r="H52" s="71">
-        <f t="shared" si="36"/>
+      <c r="H52" s="70">
+        <f t="shared" si="38"/>
         <v>108172.26420049919</v>
       </c>
-      <c r="I52" s="71">
-        <f t="shared" si="36"/>
+      <c r="I52" s="70">
+        <f t="shared" si="38"/>
         <v>111417.43212651416</v>
       </c>
-      <c r="J52" s="71">
-        <f t="shared" si="36"/>
+      <c r="J52" s="70">
+        <f t="shared" si="38"/>
         <v>114759.95509030961</v>
       </c>
     </row>
@@ -4817,33 +4966,33 @@
       <c r="B53" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="61">
+      <c r="C53" s="60">
         <v>19168</v>
       </c>
-      <c r="D53" s="61">
+      <c r="D53" s="60">
         <v>30945</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="60">
         <v>31980</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="70">
         <f>(F64*F74)/1000</f>
         <v>31590.195779999995</v>
       </c>
-      <c r="G53" s="71">
-        <f t="shared" ref="G53:J53" si="37">(G64*G74)/1000</f>
+      <c r="G53" s="70">
+        <f t="shared" ref="G53:J53" si="39">(G64*G74)/1000</f>
         <v>31590.195779999995</v>
       </c>
-      <c r="H53" s="71">
-        <f t="shared" si="37"/>
+      <c r="H53" s="70">
+        <f t="shared" si="39"/>
         <v>31590.195779999995</v>
       </c>
-      <c r="I53" s="71">
-        <f t="shared" si="37"/>
+      <c r="I53" s="70">
+        <f t="shared" si="39"/>
         <v>31590.195779999995</v>
       </c>
-      <c r="J53" s="71">
-        <f t="shared" si="37"/>
+      <c r="J53" s="70">
+        <f t="shared" si="39"/>
         <v>31590.195779999995</v>
       </c>
     </row>
@@ -4851,33 +5000,33 @@
       <c r="B54" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="60">
         <v>21783</v>
       </c>
-      <c r="D54" s="61">
+      <c r="D54" s="60">
         <v>23221</v>
       </c>
-      <c r="E54" s="61">
+      <c r="E54" s="60">
         <v>21483</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="70">
         <f>(F66*F76)/1000</f>
         <v>20902.958999999999</v>
       </c>
-      <c r="G54" s="71">
-        <f t="shared" ref="G54:J54" si="38">(G66*G76)/1000</f>
+      <c r="G54" s="70">
+        <f t="shared" ref="G54:J54" si="40">(G66*G76)/1000</f>
         <v>18860.217331724998</v>
       </c>
-      <c r="H54" s="71">
-        <f t="shared" si="38"/>
+      <c r="H54" s="70">
+        <f t="shared" si="40"/>
         <v>18860.217331724998</v>
       </c>
-      <c r="I54" s="71">
-        <f t="shared" si="38"/>
+      <c r="I54" s="70">
+        <f t="shared" si="40"/>
         <v>18860.217331724998</v>
       </c>
-      <c r="J54" s="71">
-        <f t="shared" si="38"/>
+      <c r="J54" s="70">
+        <f t="shared" si="40"/>
         <v>18860.217331724998</v>
       </c>
     </row>
@@ -4885,33 +5034,33 @@
       <c r="B55" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="61">
+      <c r="C55" s="60">
         <v>7453</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="60">
         <v>5615</v>
       </c>
-      <c r="E55" s="61">
+      <c r="E55" s="60">
         <v>4411</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="70">
         <f>(F68*F78)/1000</f>
         <v>3275.1675</v>
       </c>
-      <c r="G55" s="71">
-        <f t="shared" ref="G55:J55" si="39">(G68*G78)/1000</f>
+      <c r="G55" s="70">
+        <f t="shared" ref="G55:J55" si="41">(G68*G78)/1000</f>
         <v>2736.566204625</v>
       </c>
-      <c r="H55" s="71">
-        <f t="shared" si="39"/>
+      <c r="H55" s="70">
+        <f t="shared" si="41"/>
         <v>2326.0812739312501</v>
       </c>
-      <c r="I55" s="71">
-        <f t="shared" si="39"/>
+      <c r="I55" s="70">
+        <f t="shared" si="41"/>
         <v>1977.1690828415624</v>
       </c>
-      <c r="J55" s="71">
-        <f t="shared" si="39"/>
+      <c r="J55" s="70">
+        <f t="shared" si="41"/>
         <v>1680.5937204153279</v>
       </c>
     </row>
@@ -4919,33 +5068,33 @@
       <c r="B56" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="61">
+      <c r="C56" s="60">
         <v>9373</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="60">
         <v>12890</v>
       </c>
-      <c r="E56" s="61">
+      <c r="E56" s="60">
         <v>16051</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="70">
         <f>E56*(1+F81)</f>
         <v>19261.2</v>
       </c>
-      <c r="G56" s="71">
-        <f t="shared" ref="G56:J56" si="40">F56*(1+G81)</f>
+      <c r="G56" s="70">
+        <f t="shared" ref="G56:J56" si="42">F56*(1+G81)</f>
         <v>23113.439999999999</v>
       </c>
-      <c r="H56" s="71">
-        <f t="shared" si="40"/>
+      <c r="H56" s="70">
+        <f t="shared" si="42"/>
         <v>27736.127999999997</v>
       </c>
-      <c r="I56" s="71">
-        <f t="shared" si="40"/>
+      <c r="I56" s="70">
+        <f t="shared" si="42"/>
         <v>33283.353599999995</v>
       </c>
-      <c r="J56" s="71">
-        <f t="shared" si="40"/>
+      <c r="J56" s="70">
+        <f t="shared" si="42"/>
         <v>39940.02431999999</v>
       </c>
     </row>
@@ -4953,33 +5102,33 @@
       <c r="B57" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="61">
+      <c r="C57" s="60">
         <v>4474</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="60">
         <v>5145</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="60">
         <v>5706</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="70">
         <f>E57*(1+F82)</f>
         <v>6276.6</v>
       </c>
-      <c r="G57" s="71">
-        <f t="shared" ref="G57:J57" si="41">F57*(1+G82)</f>
+      <c r="G57" s="70">
+        <f t="shared" ref="G57:J57" si="43">F57*(1+G82)</f>
         <v>7218.09</v>
       </c>
-      <c r="H57" s="71">
-        <f t="shared" si="41"/>
+      <c r="H57" s="70">
+        <f t="shared" si="43"/>
         <v>8300.8035</v>
       </c>
-      <c r="I57" s="71">
-        <f t="shared" si="41"/>
+      <c r="I57" s="70">
+        <f t="shared" si="43"/>
         <v>9545.9240249999984</v>
       </c>
-      <c r="J57" s="71">
-        <f t="shared" si="41"/>
+      <c r="J57" s="70">
+        <f t="shared" si="43"/>
         <v>10977.812628749998</v>
       </c>
     </row>
@@ -4987,36 +5136,36 @@
       <c r="B58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="65">
+      <c r="C58" s="64">
         <f>SUM(C52:C57)</f>
         <v>108249</v>
       </c>
-      <c r="D58" s="65">
-        <f t="shared" ref="D58:E58" si="42">SUM(D52:D57)</f>
+      <c r="D58" s="64">
+        <f t="shared" ref="D58:E58" si="44">SUM(D52:D57)</f>
         <v>156508</v>
       </c>
-      <c r="E58" s="65">
-        <f t="shared" si="42"/>
+      <c r="E58" s="64">
+        <f t="shared" si="44"/>
         <v>170910</v>
       </c>
-      <c r="F58" s="65">
-        <f t="shared" ref="F58" si="43">SUM(F52:F57)</f>
+      <c r="F58" s="64">
+        <f t="shared" ref="F58" si="45">SUM(F52:F57)</f>
         <v>179274.04739999998</v>
       </c>
-      <c r="G58" s="65">
-        <f t="shared" ref="G58" si="44">SUM(G52:G57)</f>
+      <c r="G58" s="64">
+        <f t="shared" ref="G58" si="46">SUM(G52:G57)</f>
         <v>188540.12504498998</v>
       </c>
-      <c r="H58" s="65">
-        <f t="shared" ref="H58" si="45">SUM(H52:H57)</f>
+      <c r="H58" s="64">
+        <f t="shared" ref="H58" si="47">SUM(H52:H57)</f>
         <v>196985.69008615543</v>
       </c>
-      <c r="I58" s="65">
-        <f t="shared" ref="I58" si="46">SUM(I52:I57)</f>
+      <c r="I58" s="64">
+        <f t="shared" ref="I58" si="48">SUM(I52:I57)</f>
         <v>206674.29194608072</v>
       </c>
-      <c r="J58" s="65">
-        <f t="shared" ref="J58" si="47">SUM(J52:J57)</f>
+      <c r="J58" s="64">
+        <f t="shared" ref="J58" si="49">SUM(J52:J57)</f>
         <v>217808.79887119992</v>
       </c>
     </row>
@@ -5025,32 +5174,32 @@
         <v>21</v>
       </c>
       <c r="C59"/>
-      <c r="D59" s="66">
+      <c r="D59" s="65">
         <f>D58/C58-1</f>
         <v>0.44581474193756976</v>
       </c>
-      <c r="E59" s="66">
+      <c r="E59" s="65">
         <f>E58/D58-1</f>
         <v>9.2020855163953197E-2</v>
       </c>
-      <c r="F59" s="66">
-        <f t="shared" ref="F59:J59" si="48">F58/E58-1</f>
+      <c r="F59" s="65">
+        <f t="shared" ref="F59:J59" si="50">F58/E58-1</f>
         <v>4.893831490258016E-2</v>
       </c>
-      <c r="G59" s="66">
-        <f t="shared" si="48"/>
+      <c r="G59" s="65">
+        <f t="shared" si="50"/>
         <v>5.1686665077156135E-2</v>
       </c>
-      <c r="H59" s="66">
-        <f t="shared" si="48"/>
+      <c r="H59" s="65">
+        <f t="shared" si="50"/>
         <v>4.4794523389385388E-2</v>
       </c>
-      <c r="I59" s="66">
-        <f t="shared" si="48"/>
+      <c r="I59" s="65">
+        <f t="shared" si="50"/>
         <v>4.9184292806689678E-2</v>
       </c>
-      <c r="J59" s="66">
-        <f t="shared" si="48"/>
+      <c r="J59" s="65">
+        <f t="shared" si="50"/>
         <v>5.3874658624808891E-2</v>
       </c>
     </row>
@@ -5082,33 +5231,33 @@
       <c r="B62" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C62" s="60">
         <v>72293.000000000015</v>
       </c>
-      <c r="D62" s="61">
+      <c r="D62" s="60">
         <v>125046</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="60">
         <v>150257</v>
       </c>
-      <c r="F62" s="73">
+      <c r="F62" s="72">
         <f>E62*(1+F63)</f>
         <v>167987.32599999997</v>
       </c>
-      <c r="G62" s="73">
-        <f t="shared" ref="G62:J62" si="49">F62*(1+G63)</f>
+      <c r="G62" s="72">
+        <f t="shared" ref="G62:J62" si="51">F62*(1+G63)</f>
         <v>180082.41347199999</v>
       </c>
-      <c r="H62" s="73">
-        <f t="shared" si="49"/>
+      <c r="H62" s="72">
+        <f t="shared" si="51"/>
         <v>185484.88587616</v>
       </c>
-      <c r="I62" s="73">
-        <f t="shared" si="49"/>
+      <c r="I62" s="72">
+        <f t="shared" si="51"/>
         <v>191049.4324524448</v>
       </c>
-      <c r="J62" s="73">
-        <f t="shared" si="49"/>
+      <c r="J62" s="72">
+        <f t="shared" si="51"/>
         <v>196780.91542601815</v>
       </c>
     </row>
@@ -5117,27 +5266,27 @@
         <v>21</v>
       </c>
       <c r="C63"/>
-      <c r="D63" s="68">
+      <c r="D63" s="67">
         <f>D62/C62-1</f>
         <v>0.72971103702986428</v>
       </c>
-      <c r="E63" s="68">
+      <c r="E63" s="67">
         <f>E62/D62-1</f>
         <v>0.20161380611934798</v>
       </c>
-      <c r="F63" s="70">
+      <c r="F63" s="69">
         <v>0.11799999999999999</v>
       </c>
-      <c r="G63" s="70">
+      <c r="G63" s="69">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H63" s="70">
+      <c r="H63" s="69">
         <v>0.03</v>
       </c>
-      <c r="I63" s="70">
+      <c r="I63" s="69">
         <v>0.03</v>
       </c>
-      <c r="J63" s="70">
+      <c r="J63" s="69">
         <v>0.03</v>
       </c>
     </row>
@@ -5145,33 +5294,33 @@
       <c r="B64" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C64" s="60">
         <v>32394</v>
       </c>
-      <c r="D64" s="61">
+      <c r="D64" s="60">
         <v>58310</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="60">
         <v>71033</v>
       </c>
-      <c r="F64" s="73">
+      <c r="F64" s="72">
         <f>E64*(F65+1)</f>
         <v>71672.296999999991</v>
       </c>
-      <c r="G64" s="73">
-        <f t="shared" ref="G64:J64" si="50">F64*(G65+1)</f>
+      <c r="G64" s="72">
+        <f t="shared" ref="G64:J64" si="52">F64*(G65+1)</f>
         <v>71672.296999999991</v>
       </c>
-      <c r="H64" s="73">
-        <f t="shared" si="50"/>
+      <c r="H64" s="72">
+        <f t="shared" si="52"/>
         <v>71672.296999999991</v>
       </c>
-      <c r="I64" s="73">
-        <f t="shared" si="50"/>
+      <c r="I64" s="72">
+        <f t="shared" si="52"/>
         <v>71672.296999999991</v>
       </c>
-      <c r="J64" s="73">
-        <f t="shared" si="50"/>
+      <c r="J64" s="72">
+        <f t="shared" si="52"/>
         <v>71672.296999999991</v>
       </c>
     </row>
@@ -5180,27 +5329,27 @@
         <v>21</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="68">
+      <c r="D65" s="67">
         <f>D64/C64-1</f>
         <v>0.80002469593134529</v>
       </c>
-      <c r="E65" s="68">
+      <c r="E65" s="67">
         <f>E64/D64-1</f>
         <v>0.21819584976847883</v>
       </c>
-      <c r="F65" s="70">
+      <c r="F65" s="69">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G65" s="70">
-        <v>0</v>
-      </c>
-      <c r="H65" s="70">
-        <v>0</v>
-      </c>
-      <c r="I65" s="70">
-        <v>0</v>
-      </c>
-      <c r="J65" s="70">
+      <c r="G65" s="69">
+        <v>0</v>
+      </c>
+      <c r="H65" s="69">
+        <v>0</v>
+      </c>
+      <c r="I65" s="69">
+        <v>0</v>
+      </c>
+      <c r="J65" s="69">
         <v>0</v>
       </c>
     </row>
@@ -5208,33 +5357,33 @@
       <c r="B66" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="61">
+      <c r="C66" s="60">
         <v>16735</v>
       </c>
-      <c r="D66" s="61">
+      <c r="D66" s="60">
         <v>18157.999999999996</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="60">
         <v>16341.000000000004</v>
       </c>
-      <c r="F66" s="73">
+      <c r="F66" s="72">
         <f>E66*(1+F67)</f>
         <v>15899.793000000003</v>
       </c>
-      <c r="G66" s="73">
-        <f t="shared" ref="G66:J66" si="51">F66*(1+G67)</f>
+      <c r="G66" s="72">
+        <f t="shared" ref="G66:J66" si="53">F66*(1+G67)</f>
         <v>15343.300245000002</v>
       </c>
-      <c r="H66" s="73">
-        <f t="shared" si="51"/>
+      <c r="H66" s="72">
+        <f t="shared" si="53"/>
         <v>15343.300245000002</v>
       </c>
-      <c r="I66" s="73">
-        <f t="shared" si="51"/>
+      <c r="I66" s="72">
+        <f t="shared" si="53"/>
         <v>15343.300245000002</v>
       </c>
-      <c r="J66" s="73">
-        <f t="shared" si="51"/>
+      <c r="J66" s="72">
+        <f t="shared" si="53"/>
         <v>15343.300245000002</v>
       </c>
     </row>
@@ -5243,27 +5392,27 @@
         <v>21</v>
       </c>
       <c r="C67"/>
-      <c r="D67" s="68">
+      <c r="D67" s="67">
         <f>D66/C66-1</f>
         <v>8.5031371377352727E-2</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E67" s="67">
         <f>E66/D66-1</f>
         <v>-0.10006608657341076</v>
       </c>
-      <c r="F67" s="70">
+      <c r="F67" s="69">
         <v>-2.7E-2</v>
       </c>
-      <c r="G67" s="70">
+      <c r="G67" s="69">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="H67" s="70">
-        <v>0</v>
-      </c>
-      <c r="I67" s="70">
-        <v>0</v>
-      </c>
-      <c r="J67" s="70">
+      <c r="H67" s="69">
+        <v>0</v>
+      </c>
+      <c r="I67" s="69">
+        <v>0</v>
+      </c>
+      <c r="J67" s="69">
         <v>0</v>
       </c>
     </row>
@@ -5271,33 +5420,33 @@
       <c r="B68" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="61">
+      <c r="C68" s="60">
         <v>42620</v>
       </c>
-      <c r="D68" s="61">
+      <c r="D68" s="60">
         <v>35165</v>
       </c>
-      <c r="E68" s="61">
+      <c r="E68" s="60">
         <v>26379</v>
       </c>
-      <c r="F68" s="73">
+      <c r="F68" s="72">
         <f>E68*(1+F69)</f>
         <v>19784.25</v>
       </c>
-      <c r="G68" s="73">
-        <f t="shared" ref="G68:J68" si="52">F68*(1+G69)</f>
+      <c r="G68" s="72">
+        <f t="shared" ref="G68:J68" si="54">F68*(1+G69)</f>
         <v>16816.612499999999</v>
       </c>
-      <c r="H68" s="73">
-        <f t="shared" si="52"/>
+      <c r="H68" s="72">
+        <f t="shared" si="54"/>
         <v>14294.120625</v>
       </c>
-      <c r="I68" s="73">
-        <f t="shared" si="52"/>
+      <c r="I68" s="72">
+        <f t="shared" si="54"/>
         <v>12150.00253125</v>
       </c>
-      <c r="J68" s="73">
-        <f t="shared" si="52"/>
+      <c r="J68" s="72">
+        <f t="shared" si="54"/>
         <v>10327.502151562499</v>
       </c>
     </row>
@@ -5306,27 +5455,27 @@
         <v>21</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="66">
+      <c r="D69" s="65">
         <f>D68/C68-1</f>
         <v>-0.17491787893007982</v>
       </c>
-      <c r="E69" s="66">
+      <c r="E69" s="65">
         <f>E68/D68-1</f>
         <v>-0.24985070382482577</v>
       </c>
-      <c r="F69" s="70">
+      <c r="F69" s="69">
         <v>-0.25</v>
       </c>
-      <c r="G69" s="70">
+      <c r="G69" s="69">
         <v>-0.15</v>
       </c>
-      <c r="H69" s="70">
+      <c r="H69" s="69">
         <v>-0.15</v>
       </c>
-      <c r="I69" s="70">
+      <c r="I69" s="69">
         <v>-0.15</v>
       </c>
-      <c r="J69" s="70">
+      <c r="J69" s="69">
         <v>-0.15</v>
       </c>
     </row>
@@ -5358,36 +5507,36 @@
       <c r="B72" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="67">
+      <c r="C72" s="66">
         <f>C52/C62*1000</f>
         <v>636.27183821393487</v>
       </c>
-      <c r="D72" s="67">
-        <f t="shared" ref="D72:E72" si="53">D52/D62*1000</f>
+      <c r="D72" s="66">
+        <f t="shared" ref="D72:E72" si="55">D52/D62*1000</f>
         <v>629.30441597492131</v>
       </c>
-      <c r="E72" s="67">
-        <f t="shared" si="53"/>
+      <c r="E72" s="66">
+        <f t="shared" si="55"/>
         <v>607.48584092588032</v>
       </c>
-      <c r="F72" s="67">
+      <c r="F72" s="66">
         <f>E72*(1+F73)</f>
         <v>583.18640728884509</v>
       </c>
-      <c r="G72" s="67">
-        <f t="shared" ref="G72:J72" si="54">F72*(1+G73)</f>
+      <c r="G72" s="66">
+        <f t="shared" ref="G72:J72" si="56">F72*(1+G73)</f>
         <v>583.18640728884509</v>
       </c>
-      <c r="H72" s="67">
-        <f t="shared" si="54"/>
+      <c r="H72" s="66">
+        <f t="shared" si="56"/>
         <v>583.18640728884509</v>
       </c>
-      <c r="I72" s="67">
-        <f t="shared" si="54"/>
+      <c r="I72" s="66">
+        <f t="shared" si="56"/>
         <v>583.18640728884509</v>
       </c>
-      <c r="J72" s="67">
-        <f t="shared" si="54"/>
+      <c r="J72" s="66">
+        <f t="shared" si="56"/>
         <v>583.18640728884509</v>
       </c>
     </row>
@@ -5396,27 +5545,27 @@
         <v>21</v>
       </c>
       <c r="C73"/>
-      <c r="D73" s="66">
+      <c r="D73" s="65">
         <f>D72/C72-1</f>
         <v>-1.0950386015152969E-2</v>
       </c>
-      <c r="E73" s="66">
+      <c r="E73" s="65">
         <f>E72/D72-1</f>
         <v>-3.4670939048218052E-2</v>
       </c>
-      <c r="F73" s="70">
+      <c r="F73" s="69">
         <v>-0.04</v>
       </c>
-      <c r="G73" s="70">
-        <v>0</v>
-      </c>
-      <c r="H73" s="70">
-        <v>0</v>
-      </c>
-      <c r="I73" s="70">
-        <v>0</v>
-      </c>
-      <c r="J73" s="70">
+      <c r="G73" s="69">
+        <v>0</v>
+      </c>
+      <c r="H73" s="69">
+        <v>0</v>
+      </c>
+      <c r="I73" s="69">
+        <v>0</v>
+      </c>
+      <c r="J73" s="69">
         <v>0</v>
       </c>
     </row>
@@ -5424,36 +5573,36 @@
       <c r="B74" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="67">
+      <c r="C74" s="66">
         <f>C53/C64*1000</f>
         <v>591.71451503364824</v>
       </c>
-      <c r="D74" s="67">
-        <f t="shared" ref="D74:E74" si="55">D53/D64*1000</f>
+      <c r="D74" s="66">
+        <f t="shared" ref="D74:E74" si="57">D53/D64*1000</f>
         <v>530.69799348310755</v>
       </c>
-      <c r="E74" s="67">
-        <f t="shared" si="55"/>
+      <c r="E74" s="66">
+        <f t="shared" si="57"/>
         <v>450.21328115101431</v>
       </c>
-      <c r="F74" s="67">
+      <c r="F74" s="66">
         <f>E74*(1+F75)</f>
         <v>440.758802246843</v>
       </c>
-      <c r="G74" s="67">
-        <f t="shared" ref="G74:J74" si="56">F74*(1+G75)</f>
+      <c r="G74" s="66">
+        <f t="shared" ref="G74:J74" si="58">F74*(1+G75)</f>
         <v>440.758802246843</v>
       </c>
-      <c r="H74" s="67">
-        <f t="shared" si="56"/>
+      <c r="H74" s="66">
+        <f t="shared" si="58"/>
         <v>440.758802246843</v>
       </c>
-      <c r="I74" s="67">
-        <f t="shared" si="56"/>
+      <c r="I74" s="66">
+        <f t="shared" si="58"/>
         <v>440.758802246843</v>
       </c>
-      <c r="J74" s="67">
-        <f t="shared" si="56"/>
+      <c r="J74" s="66">
+        <f t="shared" si="58"/>
         <v>440.758802246843</v>
       </c>
     </row>
@@ -5462,27 +5611,27 @@
         <v>21</v>
       </c>
       <c r="C75"/>
-      <c r="D75" s="66">
+      <c r="D75" s="65">
         <f>D74/C74-1</f>
         <v>-0.10311817608035345</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="65">
         <f>E74/D74-1</f>
         <v>-0.15165821864871087</v>
       </c>
-      <c r="F75" s="70">
+      <c r="F75" s="69">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="G75" s="70">
-        <v>0</v>
-      </c>
-      <c r="H75" s="70">
-        <v>0</v>
-      </c>
-      <c r="I75" s="70">
-        <v>0</v>
-      </c>
-      <c r="J75" s="70">
+      <c r="G75" s="69">
+        <v>0</v>
+      </c>
+      <c r="H75" s="69">
+        <v>0</v>
+      </c>
+      <c r="I75" s="69">
+        <v>0</v>
+      </c>
+      <c r="J75" s="69">
         <v>0</v>
       </c>
     </row>
@@ -5490,36 +5639,36 @@
       <c r="B76" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="67">
+      <c r="C76" s="66">
         <f>C54/C66*1000</f>
         <v>1301.6432626232445</v>
       </c>
-      <c r="D76" s="67">
-        <f t="shared" ref="D76:E76" si="57">D54/D66*1000</f>
+      <c r="D76" s="66">
+        <f t="shared" ref="D76:E76" si="59">D54/D66*1000</f>
         <v>1278.8302676506225</v>
       </c>
-      <c r="E76" s="67">
-        <f t="shared" si="57"/>
+      <c r="E76" s="66">
+        <f t="shared" si="59"/>
         <v>1314.6686249311545</v>
       </c>
-      <c r="F76" s="67">
+      <c r="F76" s="66">
         <f>E76*(1+F77)</f>
         <v>1314.6686249311545</v>
       </c>
-      <c r="G76" s="67">
-        <f t="shared" ref="G76:J76" si="58">F76*(1+G77)</f>
+      <c r="G76" s="66">
+        <f t="shared" ref="G76:J76" si="60">F76*(1+G77)</f>
         <v>1229.2151643106295</v>
       </c>
-      <c r="H76" s="67">
-        <f t="shared" si="58"/>
+      <c r="H76" s="66">
+        <f t="shared" si="60"/>
         <v>1229.2151643106295</v>
       </c>
-      <c r="I76" s="67">
-        <f t="shared" si="58"/>
+      <c r="I76" s="66">
+        <f t="shared" si="60"/>
         <v>1229.2151643106295</v>
       </c>
-      <c r="J76" s="67">
-        <f t="shared" si="58"/>
+      <c r="J76" s="66">
+        <f t="shared" si="60"/>
         <v>1229.2151643106295</v>
       </c>
     </row>
@@ -5528,27 +5677,27 @@
         <v>21</v>
       </c>
       <c r="C77"/>
-      <c r="D77" s="66">
+      <c r="D77" s="65">
         <f>D76/C76-1</f>
         <v>-1.7526303579251112E-2</v>
       </c>
-      <c r="E77" s="66">
+      <c r="E77" s="65">
         <f>E76/D76-1</f>
         <v>2.8024326751642903E-2</v>
       </c>
-      <c r="F77" s="70">
-        <v>0</v>
-      </c>
-      <c r="G77" s="70">
+      <c r="F77" s="69">
+        <v>0</v>
+      </c>
+      <c r="G77" s="69">
         <v>-6.5000000000000002E-2</v>
       </c>
-      <c r="H77" s="70">
-        <v>0</v>
-      </c>
-      <c r="I77" s="70">
-        <v>0</v>
-      </c>
-      <c r="J77" s="70">
+      <c r="H77" s="69">
+        <v>0</v>
+      </c>
+      <c r="I77" s="69">
+        <v>0</v>
+      </c>
+      <c r="J77" s="69">
         <v>0</v>
       </c>
     </row>
@@ -5556,36 +5705,36 @@
       <c r="B78" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="67">
+      <c r="C78" s="66">
         <f>C55/C68*1000</f>
         <v>174.87095260441106</v>
       </c>
-      <c r="D78" s="67">
-        <f t="shared" ref="D78:E78" si="59">D55/D68*1000</f>
+      <c r="D78" s="66">
+        <f t="shared" ref="D78:E78" si="61">D55/D68*1000</f>
         <v>159.67581401962178</v>
       </c>
-      <c r="E78" s="67">
-        <f t="shared" si="59"/>
+      <c r="E78" s="66">
+        <f t="shared" si="61"/>
         <v>167.21634633610068</v>
       </c>
-      <c r="F78" s="67">
+      <c r="F78" s="66">
         <f>E78*(1+F79)</f>
         <v>165.54418287273967</v>
       </c>
-      <c r="G78" s="67">
-        <f t="shared" ref="G78:J78" si="60">F78*(1+G79)</f>
+      <c r="G78" s="66">
+        <f t="shared" ref="G78:J78" si="62">F78*(1+G79)</f>
         <v>162.7299317639031</v>
       </c>
-      <c r="H78" s="67">
-        <f t="shared" si="60"/>
+      <c r="H78" s="66">
+        <f t="shared" si="62"/>
         <v>162.7299317639031</v>
       </c>
-      <c r="I78" s="67">
-        <f t="shared" si="60"/>
+      <c r="I78" s="66">
+        <f t="shared" si="62"/>
         <v>162.7299317639031</v>
       </c>
-      <c r="J78" s="67">
-        <f t="shared" si="60"/>
+      <c r="J78" s="66">
+        <f t="shared" si="62"/>
         <v>162.7299317639031</v>
       </c>
     </row>
@@ -5594,99 +5743,99 @@
         <v>21</v>
       </c>
       <c r="C79"/>
-      <c r="D79" s="66">
+      <c r="D79" s="65">
         <f>D78/C78-1</f>
         <v>-8.6893439753618518E-2</v>
       </c>
-      <c r="E79" s="66">
+      <c r="E79" s="65">
         <f>E78/D78-1</f>
         <v>4.7224010491359047E-2</v>
       </c>
-      <c r="F79" s="70">
+      <c r="F79" s="69">
         <v>-0.01</v>
       </c>
-      <c r="G79" s="70">
+      <c r="G79" s="69">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="H79" s="70">
-        <v>0</v>
-      </c>
-      <c r="I79" s="70">
-        <v>0</v>
-      </c>
-      <c r="J79" s="70">
+      <c r="H79" s="69">
+        <v>0</v>
+      </c>
+      <c r="I79" s="69">
+        <v>0</v>
+      </c>
+      <c r="J79" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="C80"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="76"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
+    </row>
+    <row r="81" spans="1:10">
       <c r="B81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C81"/>
-      <c r="D81" s="66">
+      <c r="D81" s="65">
         <f>D56/C56-1</f>
         <v>0.37522671503254035</v>
       </c>
-      <c r="E81" s="66">
+      <c r="E81" s="65">
         <f>E56/D56-1</f>
         <v>0.24522885958107055</v>
       </c>
-      <c r="F81" s="70">
+      <c r="F81" s="69">
         <v>0.2</v>
       </c>
-      <c r="G81" s="70">
+      <c r="G81" s="69">
         <v>0.2</v>
       </c>
-      <c r="H81" s="70">
+      <c r="H81" s="69">
         <v>0.2</v>
       </c>
-      <c r="I81" s="70">
+      <c r="I81" s="69">
         <v>0.2</v>
       </c>
-      <c r="J81" s="70">
+      <c r="J81" s="69">
         <v>0.2</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="1:10">
       <c r="B82" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C82"/>
-      <c r="D82" s="66">
+      <c r="D82" s="65">
         <f>D57/C57-1</f>
         <v>0.14997764863656693</v>
       </c>
-      <c r="E82" s="66">
+      <c r="E82" s="65">
         <f>E57/D57-1</f>
         <v>0.10903790087463561</v>
       </c>
-      <c r="F82" s="70">
+      <c r="F82" s="69">
         <v>0.1</v>
       </c>
-      <c r="G82" s="70">
+      <c r="G82" s="69">
         <v>0.15</v>
       </c>
-      <c r="H82" s="70">
+      <c r="H82" s="69">
         <v>0.15</v>
       </c>
-      <c r="I82" s="70">
+      <c r="I82" s="69">
         <v>0.15</v>
       </c>
-      <c r="J82" s="70">
+      <c r="J82" s="69">
         <v>0.15</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="1:10">
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
@@ -5696,99 +5845,102 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B84" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="79"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="80" t="str">
+    <row r="85" spans="1:10">
+      <c r="B85" s="79" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81">
-        <f t="shared" ref="D85:J86" si="61">D13</f>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80">
+        <f t="shared" ref="D85:J86" si="63">D13</f>
         <v>2012</v>
       </c>
-      <c r="E85" s="81">
-        <f t="shared" si="61"/>
+      <c r="E85" s="80">
+        <f t="shared" si="63"/>
         <v>2013</v>
       </c>
-      <c r="F85" s="82">
-        <f t="shared" si="61"/>
+      <c r="F85" s="81">
+        <f t="shared" si="63"/>
         <v>2014</v>
       </c>
-      <c r="G85" s="82">
-        <f t="shared" si="61"/>
+      <c r="G85" s="81">
+        <f t="shared" si="63"/>
         <v>2015</v>
       </c>
-      <c r="H85" s="82">
-        <f t="shared" si="61"/>
+      <c r="H85" s="81">
+        <f t="shared" si="63"/>
         <v>2016</v>
       </c>
-      <c r="I85" s="82">
-        <f t="shared" si="61"/>
+      <c r="I85" s="81">
+        <f t="shared" si="63"/>
         <v>2017</v>
       </c>
-      <c r="J85" s="82">
-        <f t="shared" si="61"/>
+      <c r="J85" s="81">
+        <f t="shared" si="63"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="1:10">
       <c r="B86" s="2" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83">
-        <f t="shared" si="61"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82">
+        <f t="shared" si="63"/>
         <v>41181</v>
       </c>
-      <c r="E86" s="83">
-        <f t="shared" si="61"/>
+      <c r="E86" s="82">
+        <f t="shared" si="63"/>
         <v>41545</v>
       </c>
-      <c r="F86" s="83">
-        <f t="shared" si="61"/>
+      <c r="F86" s="82">
+        <f t="shared" si="63"/>
         <v>41912</v>
       </c>
-      <c r="G86" s="83">
-        <f t="shared" si="61"/>
+      <c r="G86" s="82">
+        <f t="shared" si="63"/>
         <v>42277</v>
       </c>
-      <c r="H86" s="83">
-        <f t="shared" si="61"/>
+      <c r="H86" s="82">
+        <f t="shared" si="63"/>
         <v>42643</v>
       </c>
-      <c r="I86" s="83">
-        <f t="shared" si="61"/>
+      <c r="I86" s="82">
+        <f t="shared" si="63"/>
         <v>43008</v>
       </c>
-      <c r="J86" s="83">
-        <f t="shared" si="61"/>
+      <c r="J86" s="82">
+        <f t="shared" si="63"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="1:10">
       <c r="B87" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C87" s="84"/>
-      <c r="D87" s="73">
+      <c r="C87" s="83"/>
+      <c r="D87" s="72">
         <f>10746+18383+92122</f>
         <v>121251</v>
       </c>
-      <c r="E87" s="73">
+      <c r="E87" s="72">
         <f>14259+26287+106215</f>
         <v>146761</v>
       </c>
@@ -5798,166 +5950,271 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="1:10">
       <c r="B88" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C88" s="85"/>
-      <c r="D88" s="77">
+      <c r="C88" s="84"/>
+      <c r="D88" s="76">
         <v>10930</v>
       </c>
-      <c r="E88" s="77">
+      <c r="E88" s="76">
         <v>13102</v>
       </c>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="F88" s="109">
+        <f>F126</f>
+        <v>13535.190578699998</v>
+      </c>
+      <c r="G88" s="109">
+        <f t="shared" ref="G88:J88" si="64">G126</f>
+        <v>14329.049503419239</v>
+      </c>
+      <c r="H88" s="109">
+        <f t="shared" si="64"/>
+        <v>14970.912446547813</v>
+      </c>
+      <c r="I88" s="109">
+        <f t="shared" si="64"/>
+        <v>15707.246187902134</v>
+      </c>
+      <c r="J88" s="109">
+        <f t="shared" si="64"/>
+        <v>16553.468714211194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="B89" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C89" s="85"/>
-      <c r="D89" s="77">
+      <c r="C89" s="84"/>
+      <c r="D89" s="76">
         <v>791</v>
       </c>
-      <c r="E89" s="77">
+      <c r="E89" s="76">
         <v>1764</v>
       </c>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="F89" s="96">
+        <f>F134</f>
+        <v>1804.2140130335999</v>
+      </c>
+      <c r="G89" s="96">
+        <f t="shared" ref="G89:J89" si="65">G134</f>
+        <v>1947.4309515897016</v>
+      </c>
+      <c r="H89" s="96">
+        <f t="shared" si="65"/>
+        <v>2034.6651928998995</v>
+      </c>
+      <c r="I89" s="96">
+        <f t="shared" si="65"/>
+        <v>2134.7387615110679</v>
+      </c>
+      <c r="J89" s="96">
+        <f t="shared" si="65"/>
+        <v>2249.7470835406243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="B90" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C90" s="85"/>
-      <c r="D90" s="77">
+      <c r="C90" s="84"/>
+      <c r="D90" s="76">
         <v>2583</v>
       </c>
-      <c r="E90" s="77">
+      <c r="E90" s="76">
         <v>3453</v>
       </c>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="F90" s="96">
+        <f>F192</f>
+        <v>3453</v>
+      </c>
+      <c r="G90" s="96">
+        <f t="shared" ref="G90:J90" si="66">G192</f>
+        <v>3453</v>
+      </c>
+      <c r="H90" s="96">
+        <f t="shared" si="66"/>
+        <v>3453</v>
+      </c>
+      <c r="I90" s="96">
+        <f t="shared" si="66"/>
+        <v>3453</v>
+      </c>
+      <c r="J90" s="96">
+        <f t="shared" si="66"/>
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="B91" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="85"/>
-      <c r="D91" s="73">
+      <c r="C91" s="84"/>
+      <c r="D91" s="72">
         <f>7762+6458</f>
         <v>14220</v>
       </c>
-      <c r="E91" s="73">
+      <c r="E91" s="72">
         <f>7539+6882</f>
         <v>14421</v>
       </c>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="F91" s="96">
+        <f>F187</f>
+        <v>14421</v>
+      </c>
+      <c r="G91" s="96">
+        <f t="shared" ref="G91:J91" si="67">G187</f>
+        <v>14421</v>
+      </c>
+      <c r="H91" s="96">
+        <f t="shared" si="67"/>
+        <v>14421</v>
+      </c>
+      <c r="I91" s="96">
+        <f t="shared" si="67"/>
+        <v>14421</v>
+      </c>
+      <c r="J91" s="96">
+        <f t="shared" si="67"/>
+        <v>14421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="B92" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C92" s="85"/>
-      <c r="D92" s="77">
+      <c r="C92" s="84"/>
+      <c r="D92" s="76">
         <v>15452</v>
       </c>
-      <c r="E92" s="77">
+      <c r="E92" s="76">
         <v>16597</v>
       </c>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="F92" s="96">
+        <f>F173</f>
+        <v>19465.3847584</v>
+      </c>
+      <c r="G92" s="96">
+        <f t="shared" ref="G92:J92" si="68">G173</f>
+        <v>23656.631738150129</v>
+      </c>
+      <c r="H92" s="96">
+        <f t="shared" si="68"/>
+        <v>28035.623628765366</v>
+      </c>
+      <c r="I92" s="96">
+        <f t="shared" si="68"/>
+        <v>32629.993138726739</v>
+      </c>
+      <c r="J92" s="96">
+        <f t="shared" si="68"/>
+        <v>37471.882737633518</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="B93" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C93" s="85"/>
-      <c r="D93" s="73">
+      <c r="C93" s="84"/>
+      <c r="D93" s="72">
         <f>4224+1135</f>
         <v>5359</v>
       </c>
-      <c r="E93" s="73">
+      <c r="E93" s="72">
         <f>4179+1577</f>
         <v>5756</v>
       </c>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="86" t="s">
+      <c r="F93" s="96">
+        <f>F161</f>
+        <v>4706</v>
+      </c>
+      <c r="G93" s="96">
+        <f t="shared" ref="G93:J93" si="69">G161</f>
+        <v>3721</v>
+      </c>
+      <c r="H93" s="96">
+        <f t="shared" si="69"/>
+        <v>2888</v>
+      </c>
+      <c r="I93" s="96">
+        <f t="shared" si="69"/>
+        <v>2282</v>
+      </c>
+      <c r="J93" s="96">
+        <f t="shared" si="69"/>
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="87"/>
-      <c r="D94" s="77">
+      <c r="C94" s="86"/>
+      <c r="D94" s="76">
         <v>5478</v>
       </c>
-      <c r="E94" s="77">
+      <c r="E94" s="76">
         <v>5146</v>
       </c>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="88" t="s">
+      <c r="F94" s="96">
+        <f>F197</f>
+        <v>5146</v>
+      </c>
+      <c r="G94" s="96">
+        <f t="shared" ref="G94:J94" si="70">G197</f>
+        <v>5146</v>
+      </c>
+      <c r="H94" s="96">
+        <f t="shared" si="70"/>
+        <v>5146</v>
+      </c>
+      <c r="I94" s="96">
+        <f t="shared" si="70"/>
+        <v>5146</v>
+      </c>
+      <c r="J94" s="96">
+        <f t="shared" si="70"/>
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C95" s="89"/>
-      <c r="D95" s="90">
+      <c r="C95" s="88"/>
+      <c r="D95" s="89">
         <f>SUM(D87:D94)</f>
         <v>176064</v>
       </c>
-      <c r="E95" s="90">
+      <c r="E95" s="89">
         <f>SUM(E87:E94)</f>
         <v>207000</v>
       </c>
-      <c r="F95" s="90">
-        <f t="shared" ref="F95:J95" si="62">SUM(F87:F94)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="90">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="90">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="90">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="90">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="91"/>
-      <c r="C96" s="92"/>
+      <c r="F95" s="89">
+        <f t="shared" ref="F95:J95" si="71">SUM(F87:F94)</f>
+        <v>62530.789350133593</v>
+      </c>
+      <c r="G95" s="89">
+        <f t="shared" si="71"/>
+        <v>66674.112193159061</v>
+      </c>
+      <c r="H95" s="89">
+        <f t="shared" si="71"/>
+        <v>70949.201268213073</v>
+      </c>
+      <c r="I95" s="89">
+        <f t="shared" si="71"/>
+        <v>75773.978088139949</v>
+      </c>
+      <c r="J95" s="89">
+        <f t="shared" si="71"/>
+        <v>81143.098535385332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="B96" s="90"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="53"/>
       <c r="E96" s="53"/>
       <c r="F96"/>
@@ -5967,129 +6224,204 @@
       <c r="J96"/>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="91" t="s">
+      <c r="B97" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="93"/>
-      <c r="D97" s="77">
+      <c r="C97" s="92"/>
+      <c r="D97" s="76">
         <v>21175</v>
       </c>
-      <c r="E97" s="77">
+      <c r="E97" s="76">
         <v>22367</v>
       </c>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
+      <c r="F97" s="96">
+        <f>F142</f>
+        <v>22890.965290363798</v>
+      </c>
+      <c r="G97" s="96">
+        <f t="shared" ref="G97:J97" si="72">G142</f>
+        <v>24313.380365301728</v>
+      </c>
+      <c r="H97" s="96">
+        <f t="shared" si="72"/>
+        <v>25402.486650750256</v>
+      </c>
+      <c r="I97" s="96">
+        <f t="shared" si="72"/>
+        <v>26651.889992198783</v>
+      </c>
+      <c r="J97" s="96">
+        <f t="shared" si="72"/>
+        <v>28087.751467234459</v>
+      </c>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="91" t="s">
+      <c r="B98" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="93"/>
-      <c r="D98" s="73">
+      <c r="C98" s="92"/>
+      <c r="D98" s="72">
         <f>11414+5953+2648</f>
         <v>20015</v>
       </c>
-      <c r="E98" s="73">
+      <c r="E98" s="72">
         <f>13856+7435+2625</f>
         <v>23916</v>
       </c>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
+      <c r="F98" s="96">
+        <f>F150</f>
+        <v>23843.448304199999</v>
+      </c>
+      <c r="G98" s="96">
+        <f t="shared" ref="G98:J98" si="73">G150</f>
+        <v>23850.325818191232</v>
+      </c>
+      <c r="H98" s="96">
+        <f t="shared" si="73"/>
+        <v>23835.268500424805</v>
+      </c>
+      <c r="I98" s="96">
+        <f t="shared" si="73"/>
+        <v>23974.217865745366</v>
+      </c>
+      <c r="J98" s="96">
+        <f t="shared" si="73"/>
+        <v>23958.96787583199</v>
+      </c>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="91" t="s">
+      <c r="B99" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="93"/>
-      <c r="D99" s="71">
-        <v>0</v>
-      </c>
-      <c r="E99" s="71">
-        <v>0</v>
-      </c>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="70">
+        <v>0</v>
+      </c>
+      <c r="E99" s="70">
+        <v>0</v>
+      </c>
+      <c r="F99" s="96">
+        <f ca="1">F299</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="96">
+        <f ca="1">G299</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="96">
+        <f ca="1">H299</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="96">
+        <f ca="1">I299</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="96">
+        <f ca="1">J299</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="91" t="s">
+      <c r="B100" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="89"/>
-      <c r="D100" s="77">
-        <v>0</v>
-      </c>
-      <c r="E100" s="77">
+      <c r="C100" s="88"/>
+      <c r="D100" s="76">
+        <v>0</v>
+      </c>
+      <c r="E100" s="76">
         <v>16960</v>
       </c>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
+      <c r="F100" s="96">
+        <f>F212</f>
+        <v>16960</v>
+      </c>
+      <c r="G100" s="96">
+        <f t="shared" ref="G100:J100" si="74">G212</f>
+        <v>16960</v>
+      </c>
+      <c r="H100" s="96">
+        <f t="shared" si="74"/>
+        <v>14460</v>
+      </c>
+      <c r="I100" s="96">
+        <f t="shared" si="74"/>
+        <v>14460</v>
+      </c>
+      <c r="J100" s="96">
+        <f t="shared" si="74"/>
+        <v>8460</v>
+      </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="86" t="s">
+      <c r="B101" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="89"/>
-      <c r="D101" s="77">
+      <c r="C101" s="88"/>
+      <c r="D101" s="76">
         <v>16664</v>
       </c>
-      <c r="E101" s="77">
+      <c r="E101" s="76">
         <v>20208</v>
       </c>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
+      <c r="F101" s="96">
+        <f>F202</f>
+        <v>23208</v>
+      </c>
+      <c r="G101" s="96">
+        <f t="shared" ref="G101:J101" si="75">G202</f>
+        <v>26208</v>
+      </c>
+      <c r="H101" s="96">
+        <f t="shared" si="75"/>
+        <v>29208</v>
+      </c>
+      <c r="I101" s="96">
+        <f t="shared" si="75"/>
+        <v>32208</v>
+      </c>
+      <c r="J101" s="96">
+        <f t="shared" si="75"/>
+        <v>35208</v>
+      </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="90">
+      <c r="C102" s="88"/>
+      <c r="D102" s="89">
         <f>SUM(D97:D101)</f>
         <v>57854</v>
       </c>
-      <c r="E102" s="90">
+      <c r="E102" s="89">
         <f>SUM(E97:E101)</f>
         <v>83451</v>
       </c>
-      <c r="F102" s="90">
-        <f t="shared" ref="F102:J102" si="63">SUM(F97:F101)</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="90">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="90">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="90">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="90">
-        <f t="shared" si="63"/>
-        <v>0</v>
+      <c r="F102" s="89">
+        <f t="shared" ref="F102:J102" ca="1" si="76">SUM(F97:F101)</f>
+        <v>86902.413594563797</v>
+      </c>
+      <c r="G102" s="89">
+        <f t="shared" ca="1" si="76"/>
+        <v>91331.706183492963</v>
+      </c>
+      <c r="H102" s="89">
+        <f t="shared" ca="1" si="76"/>
+        <v>92905.755151175064</v>
+      </c>
+      <c r="I102" s="89">
+        <f t="shared" ca="1" si="76"/>
+        <v>97294.107857944153</v>
+      </c>
+      <c r="J102" s="89">
+        <f t="shared" ca="1" si="76"/>
+        <v>95714.719343066448</v>
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="88"/>
-      <c r="C103" s="89"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="88"/>
       <c r="D103" s="53"/>
       <c r="E103" s="53"/>
       <c r="F103"/>
@@ -6099,110 +6431,170 @@
       <c r="J103"/>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="91" t="s">
+      <c r="B104" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C104" s="93"/>
-      <c r="D104" s="77">
+      <c r="C104" s="92"/>
+      <c r="D104" s="76">
         <v>16422</v>
       </c>
-      <c r="E104" s="77">
+      <c r="E104" s="76">
         <v>19764</v>
       </c>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
+      <c r="F104" s="96">
+        <f>F228</f>
+        <v>21976.600293010801</v>
+      </c>
+      <c r="G104" s="96">
+        <f t="shared" ref="G104:J104" si="77">G228</f>
+        <v>24163.665743532685</v>
+      </c>
+      <c r="H104" s="96">
+        <f t="shared" si="77"/>
+        <v>26448.69974853209</v>
+      </c>
+      <c r="I104" s="96">
+        <f t="shared" si="77"/>
+        <v>28846.121535106628</v>
+      </c>
+      <c r="J104" s="96">
+        <f t="shared" si="77"/>
+        <v>31372.703602012545</v>
+      </c>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="91" t="s">
+      <c r="B105" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="93"/>
-      <c r="D105" s="71">
-        <v>0</v>
-      </c>
-      <c r="E105" s="71">
-        <v>0</v>
-      </c>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="70">
+        <v>0</v>
+      </c>
+      <c r="E105" s="70">
+        <v>0</v>
+      </c>
+      <c r="F105" s="96">
+        <f>F237</f>
+        <v>-23968</v>
+      </c>
+      <c r="G105" s="96">
+        <f t="shared" ref="G105:J105" si="78">G237</f>
+        <v>-47936</v>
+      </c>
+      <c r="H105" s="96">
+        <f t="shared" si="78"/>
+        <v>-71904</v>
+      </c>
+      <c r="I105" s="96">
+        <f t="shared" si="78"/>
+        <v>-95872</v>
+      </c>
+      <c r="J105" s="96">
+        <f t="shared" si="78"/>
+        <v>-119840</v>
+      </c>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106" s="91" t="s">
+      <c r="B106" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="87"/>
-      <c r="D106" s="77">
+      <c r="C106" s="86"/>
+      <c r="D106" s="76">
         <v>101289</v>
       </c>
-      <c r="E106" s="77">
+      <c r="E106" s="76">
         <v>104256</v>
       </c>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
+      <c r="F106" s="52">
+        <f ca="1">F249</f>
+        <v>129430.41820870283</v>
+      </c>
+      <c r="G106" s="52">
+        <f t="shared" ref="G106:J106" ca="1" si="79">G249</f>
+        <v>158407.81634816097</v>
+      </c>
+      <c r="H106" s="52">
+        <f t="shared" ca="1" si="79"/>
+        <v>188691.40557688577</v>
+      </c>
+      <c r="I106" s="52">
+        <f t="shared" ca="1" si="79"/>
+        <v>220473.4339692666</v>
+      </c>
+      <c r="J106" s="52">
+        <f t="shared" ca="1" si="79"/>
+        <v>253977.52520268637</v>
+      </c>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107" s="91" t="s">
+      <c r="B107" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C107" s="87"/>
-      <c r="D107" s="77">
+      <c r="C107" s="86"/>
+      <c r="D107" s="76">
         <v>499</v>
       </c>
-      <c r="E107" s="77">
+      <c r="E107" s="76">
         <v>-471</v>
       </c>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107"/>
+      <c r="F107" s="96">
+        <f>F258</f>
+        <v>-471</v>
+      </c>
+      <c r="G107" s="96">
+        <f t="shared" ref="G107:J107" si="80">G258</f>
+        <v>-471</v>
+      </c>
+      <c r="H107" s="96">
+        <f t="shared" si="80"/>
+        <v>-471</v>
+      </c>
+      <c r="I107" s="96">
+        <f t="shared" si="80"/>
+        <v>-471</v>
+      </c>
+      <c r="J107" s="96">
+        <f t="shared" si="80"/>
+        <v>-471</v>
+      </c>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108" s="88" t="s">
+      <c r="B108" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C108" s="94"/>
-      <c r="D108" s="90">
+      <c r="C108" s="93"/>
+      <c r="D108" s="89">
         <f>SUM(D104:D107)</f>
         <v>118210</v>
       </c>
-      <c r="E108" s="90">
+      <c r="E108" s="89">
         <f>SUM(E104:E107)</f>
         <v>123549</v>
       </c>
-      <c r="F108" s="90">
-        <f t="shared" ref="F108:J108" si="64">SUM(F104:F107)</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="90">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="90">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="90">
-        <f t="shared" si="64"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="90">
-        <f t="shared" si="64"/>
-        <v>0</v>
+      <c r="F108" s="89">
+        <f t="shared" ref="F108:J108" ca="1" si="81">SUM(F104:F107)</f>
+        <v>126968.01850171364</v>
+      </c>
+      <c r="G108" s="89">
+        <f t="shared" ca="1" si="81"/>
+        <v>134164.48209169364</v>
+      </c>
+      <c r="H108" s="89">
+        <f t="shared" ca="1" si="81"/>
+        <v>142765.10532541786</v>
+      </c>
+      <c r="I108" s="89">
+        <f t="shared" ca="1" si="81"/>
+        <v>152976.55550437322</v>
+      </c>
+      <c r="J108" s="89">
+        <f t="shared" ca="1" si="81"/>
+        <v>165039.22880469891</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="3"/>
-      <c r="C109" s="95"/>
+      <c r="C109" s="94"/>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109"/>
@@ -6215,23 +6607,38 @@
       <c r="B110" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C110" s="96"/>
-      <c r="D110" s="97">
+      <c r="C110" s="95"/>
+      <c r="D110" s="96">
         <f>D95-(D102+D108)</f>
         <v>0</v>
       </c>
-      <c r="E110" s="97">
+      <c r="E110" s="96">
         <f>E95-(E102+E108)</f>
         <v>0</v>
       </c>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
+      <c r="F110" s="96">
+        <f t="shared" ref="F110:J110" ca="1" si="82">F95-(F102+F108)</f>
+        <v>-151339.64274614383</v>
+      </c>
+      <c r="G110" s="96">
+        <f t="shared" ca="1" si="82"/>
+        <v>-158822.07608202755</v>
+      </c>
+      <c r="H110" s="96">
+        <f t="shared" ca="1" si="82"/>
+        <v>-164721.65920837983</v>
+      </c>
+      <c r="I110" s="96">
+        <f t="shared" ca="1" si="82"/>
+        <v>-174496.68527417741</v>
+      </c>
+      <c r="J110" s="96">
+        <f t="shared" ca="1" si="82"/>
+        <v>-179610.84961238003</v>
+      </c>
     </row>
     <row r="111" spans="2:10">
-      <c r="C111" s="98"/>
+      <c r="C111" s="97"/>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111"/>
@@ -6244,7 +6651,7 @@
       <c r="B112" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C112" s="98"/>
+      <c r="C112" s="97"/>
       <c r="D112"/>
       <c r="E112"/>
       <c r="F112"/>
@@ -6253,16 +6660,16 @@
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="1:10">
       <c r="B113" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C113" s="98"/>
-      <c r="D113" s="97">
+      <c r="C113" s="97"/>
+      <c r="D113" s="96">
         <f>D100-D87</f>
         <v>-121251</v>
       </c>
-      <c r="E113" s="97">
+      <c r="E113" s="96">
         <f>E100-E87</f>
         <v>-129801</v>
       </c>
@@ -6272,16 +6679,16 @@
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="1:10">
       <c r="B114" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="98"/>
-      <c r="D114" s="99">
+      <c r="C114" s="97"/>
+      <c r="D114" s="98">
         <f>D16/D95</f>
         <v>0.88892675390766995</v>
       </c>
-      <c r="E114" s="99">
+      <c r="E114" s="98">
         <f>E16/E95</f>
         <v>0.82565217391304346</v>
       </c>
@@ -6291,11 +6698,11 @@
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="1:10">
       <c r="B115" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C115" s="98"/>
+      <c r="C115" s="97"/>
       <c r="D115" s="56">
         <f>D27/D16</f>
         <v>0.26665090602397323</v>
@@ -6310,11 +6717,11 @@
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="1:10">
       <c r="B116" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C116" s="98"/>
+      <c r="C116" s="97"/>
       <c r="D116" s="56">
         <f>D27/D95</f>
         <v>0.23703312431842966</v>
@@ -6329,11 +6736,11 @@
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="1:10">
       <c r="B117" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C117" s="98"/>
+      <c r="C117" s="97"/>
       <c r="D117" s="56">
         <f>D27/D108</f>
         <v>0.35304119786820065</v>
@@ -6348,96 +6755,99 @@
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B119" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="79"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="79"/>
+      <c r="C119" s="78"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="78"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="2:10">
-      <c r="B120" s="80" t="str">
+    <row r="120" spans="1:10">
+      <c r="B120" s="79" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C120" s="81"/>
-      <c r="D120" s="81">
-        <f t="shared" ref="D120:J121" si="65">D13</f>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80">
+        <f t="shared" ref="D120:J121" si="83">D13</f>
         <v>2012</v>
       </c>
-      <c r="E120" s="81">
-        <f t="shared" si="65"/>
+      <c r="E120" s="80">
+        <f t="shared" si="83"/>
         <v>2013</v>
       </c>
-      <c r="F120" s="82">
-        <f t="shared" si="65"/>
+      <c r="F120" s="81">
+        <f t="shared" si="83"/>
         <v>2014</v>
       </c>
-      <c r="G120" s="82">
-        <f t="shared" si="65"/>
+      <c r="G120" s="81">
+        <f t="shared" si="83"/>
         <v>2015</v>
       </c>
-      <c r="H120" s="82">
-        <f t="shared" si="65"/>
+      <c r="H120" s="81">
+        <f t="shared" si="83"/>
         <v>2016</v>
       </c>
-      <c r="I120" s="82">
-        <f t="shared" si="65"/>
+      <c r="I120" s="81">
+        <f t="shared" si="83"/>
         <v>2017</v>
       </c>
-      <c r="J120" s="82">
-        <f t="shared" si="65"/>
+      <c r="J120" s="81">
+        <f t="shared" si="83"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="1:10">
       <c r="B121" s="2" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83">
-        <f t="shared" si="65"/>
+      <c r="C121" s="82"/>
+      <c r="D121" s="82">
+        <f t="shared" si="83"/>
         <v>41181</v>
       </c>
-      <c r="E121" s="83">
-        <f t="shared" si="65"/>
+      <c r="E121" s="82">
+        <f t="shared" si="83"/>
         <v>41545</v>
       </c>
-      <c r="F121" s="83">
-        <f t="shared" si="65"/>
+      <c r="F121" s="82">
+        <f t="shared" si="83"/>
         <v>41912</v>
       </c>
-      <c r="G121" s="83">
-        <f t="shared" si="65"/>
+      <c r="G121" s="82">
+        <f t="shared" si="83"/>
         <v>42277</v>
       </c>
-      <c r="H121" s="83">
-        <f t="shared" si="65"/>
+      <c r="H121" s="82">
+        <f t="shared" si="83"/>
         <v>42643</v>
       </c>
-      <c r="I121" s="83">
-        <f t="shared" si="65"/>
+      <c r="I121" s="82">
+        <f t="shared" si="83"/>
         <v>43008</v>
       </c>
-      <c r="J121" s="83">
-        <f t="shared" si="65"/>
+      <c r="J121" s="82">
+        <f t="shared" si="83"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="1:10">
       <c r="B122" s="3"/>
-      <c r="C122" s="100"/>
-      <c r="D122" s="101"/>
-      <c r="E122" s="101"/>
-    </row>
-    <row r="123" spans="2:10">
+      <c r="C122" s="99"/>
+      <c r="D122" s="100"/>
+      <c r="E122" s="100"/>
+    </row>
+    <row r="123" spans="1:10">
       <c r="B123" s="5" t="s">
         <v>58</v>
       </c>
@@ -6445,126 +6855,126 @@
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="1:10">
       <c r="B124" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="111"/>
-      <c r="F124" s="112">
-        <f t="shared" ref="F124:J124" si="66">E126</f>
+      <c r="E124" s="110"/>
+      <c r="F124" s="111">
+        <f t="shared" ref="F124:J124" si="84">E126</f>
         <v>13102</v>
       </c>
-      <c r="G124" s="112">
-        <f t="shared" si="66"/>
+      <c r="G124" s="111">
+        <f t="shared" si="84"/>
         <v>13535.190578699998</v>
       </c>
-      <c r="H124" s="112">
-        <f t="shared" si="66"/>
+      <c r="H124" s="111">
+        <f t="shared" si="84"/>
         <v>14329.049503419239</v>
       </c>
-      <c r="I124" s="112">
-        <f t="shared" si="66"/>
+      <c r="I124" s="111">
+        <f t="shared" si="84"/>
         <v>14970.912446547813</v>
       </c>
-      <c r="J124" s="112">
-        <f t="shared" si="66"/>
+      <c r="J124" s="111">
+        <f t="shared" si="84"/>
         <v>15707.246187902134</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="103" t="s">
+    <row r="125" spans="1:10">
+      <c r="B125" s="102" t="s">
         <v>86</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="102">
+      <c r="E125" s="110"/>
+      <c r="F125" s="101">
         <f>F126-F124</f>
         <v>433.19057869999779</v>
       </c>
-      <c r="G125" s="102">
-        <f t="shared" ref="G125:J125" si="67">G126-G124</f>
+      <c r="G125" s="101">
+        <f t="shared" ref="G125:J125" si="85">G126-G124</f>
         <v>793.85892471924126</v>
       </c>
-      <c r="H125" s="102">
-        <f t="shared" si="67"/>
+      <c r="H125" s="101">
+        <f t="shared" si="85"/>
         <v>641.86294312857353</v>
       </c>
-      <c r="I125" s="102">
-        <f t="shared" si="67"/>
+      <c r="I125" s="101">
+        <f t="shared" si="85"/>
         <v>736.33374135432132</v>
       </c>
-      <c r="J125" s="102">
-        <f t="shared" si="67"/>
+      <c r="J125" s="101">
+        <f t="shared" si="85"/>
         <v>846.22252630906041</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="1:10">
       <c r="B126" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C126" s="104"/>
-      <c r="D126" s="102">
+      <c r="C126" s="103"/>
+      <c r="D126" s="101">
         <f>D88</f>
         <v>10930</v>
       </c>
-      <c r="E126" s="102">
+      <c r="E126" s="101">
         <f>E88</f>
         <v>13102</v>
       </c>
-      <c r="F126" s="102">
+      <c r="F126" s="101">
         <f>IF(F128,(F128*F16), F124*(F16/E16))</f>
         <v>13535.190578699998</v>
       </c>
-      <c r="G126" s="102">
-        <f t="shared" ref="G126:J126" si="68">IF(G128,(G128*G16), G124*(G16/F16))</f>
+      <c r="G126" s="101">
+        <f t="shared" ref="G126:J126" si="86">IF(G128,(G128*G16), G124*(G16/F16))</f>
         <v>14329.049503419239</v>
       </c>
-      <c r="H126" s="102">
-        <f t="shared" si="68"/>
+      <c r="H126" s="101">
+        <f t="shared" si="86"/>
         <v>14970.912446547813</v>
       </c>
-      <c r="I126" s="102">
-        <f t="shared" si="68"/>
+      <c r="I126" s="101">
+        <f t="shared" si="86"/>
         <v>15707.246187902134</v>
       </c>
-      <c r="J126" s="102">
-        <f t="shared" si="68"/>
+      <c r="J126" s="101">
+        <f t="shared" si="86"/>
         <v>16553.468714211194</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="1:10">
       <c r="B127" s="3"/>
-      <c r="C127" s="105"/>
-    </row>
-    <row r="128" spans="2:10">
+      <c r="C127" s="104"/>
+    </row>
+    <row r="128" spans="1:10">
       <c r="B128" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C128" s="106"/>
-      <c r="D128" s="107">
+      <c r="C128" s="105"/>
+      <c r="D128" s="106">
         <f>D126/D16</f>
         <v>6.9836685664630568E-2</v>
       </c>
-      <c r="E128" s="107">
+      <c r="E128" s="106">
         <f>E126/E16</f>
         <v>7.6660230530688669E-2</v>
       </c>
-      <c r="F128" s="113">
+      <c r="F128" s="112">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="G128" s="113">
+      <c r="G128" s="112">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H128" s="113">
+      <c r="H128" s="112">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="I128" s="113">
+      <c r="I128" s="112">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="J128" s="113">
+      <c r="J128" s="112">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
@@ -6572,40 +6982,40 @@
       <c r="B129" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C129" s="106"/>
-      <c r="D129" s="108">
+      <c r="C129" s="105"/>
+      <c r="D129" s="107">
         <f>365*D128</f>
         <v>25.490390267590158</v>
       </c>
-      <c r="E129" s="108">
+      <c r="E129" s="107">
         <f>365*E128</f>
         <v>27.980984143701363</v>
       </c>
-      <c r="F129" s="108">
-        <f t="shared" ref="F129:J129" si="69">365*F128</f>
+      <c r="F129" s="107">
+        <f t="shared" ref="F129:J129" si="87">365*F128</f>
         <v>27.557499999999997</v>
       </c>
-      <c r="G129" s="108">
-        <f t="shared" si="69"/>
+      <c r="G129" s="107">
+        <f t="shared" si="87"/>
         <v>27.74</v>
       </c>
-      <c r="H129" s="108">
-        <f t="shared" si="69"/>
+      <c r="H129" s="107">
+        <f t="shared" si="87"/>
         <v>27.74</v>
       </c>
-      <c r="I129" s="108">
-        <f t="shared" si="69"/>
+      <c r="I129" s="107">
+        <f t="shared" si="87"/>
         <v>27.74</v>
       </c>
-      <c r="J129" s="108">
-        <f t="shared" si="69"/>
+      <c r="J129" s="107">
+        <f t="shared" si="87"/>
         <v>27.74</v>
       </c>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="3"/>
-      <c r="C130" s="106"/>
-      <c r="D130" s="107"/>
+      <c r="C130" s="105"/>
+      <c r="D130" s="106"/>
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130"/>
@@ -6618,7 +7028,7 @@
         <v>90</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="108"/>
+      <c r="D131" s="107"/>
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131"/>
@@ -6633,52 +7043,52 @@
       <c r="C132" s="3"/>
       <c r="D132"/>
       <c r="E132"/>
-      <c r="F132" s="109">
+      <c r="F132" s="108">
         <f>E134</f>
         <v>1764</v>
       </c>
-      <c r="G132" s="109">
+      <c r="G132" s="108">
         <f>F134</f>
         <v>1804.2140130335999</v>
       </c>
-      <c r="H132" s="109">
-        <f t="shared" ref="H132:J132" si="70">G134</f>
+      <c r="H132" s="108">
+        <f t="shared" ref="H132:J132" si="88">G134</f>
         <v>1947.4309515897016</v>
       </c>
-      <c r="I132" s="109">
-        <f t="shared" si="70"/>
+      <c r="I132" s="108">
+        <f t="shared" si="88"/>
         <v>2034.6651928998995</v>
       </c>
-      <c r="J132" s="109">
-        <f t="shared" si="70"/>
+      <c r="J132" s="108">
+        <f t="shared" si="88"/>
         <v>2134.7387615110679</v>
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="103" t="s">
+      <c r="B133" s="102" t="s">
         <v>86</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133"/>
       <c r="E133"/>
-      <c r="F133" s="73">
+      <c r="F133" s="72">
         <f>F134-F132</f>
         <v>40.21401303359994</v>
       </c>
-      <c r="G133" s="73">
-        <f t="shared" ref="G133:J133" si="71">G134-G132</f>
+      <c r="G133" s="72">
+        <f t="shared" ref="G133:J133" si="89">G134-G132</f>
         <v>143.2169385561017</v>
       </c>
-      <c r="H133" s="73">
-        <f t="shared" si="71"/>
+      <c r="H133" s="72">
+        <f t="shared" si="89"/>
         <v>87.234241310197831</v>
       </c>
-      <c r="I133" s="73">
-        <f t="shared" si="71"/>
+      <c r="I133" s="72">
+        <f t="shared" si="89"/>
         <v>100.07356861116841</v>
       </c>
-      <c r="J133" s="73">
-        <f t="shared" si="71"/>
+      <c r="J133" s="72">
+        <f t="shared" si="89"/>
         <v>115.00832202955644</v>
       </c>
     </row>
@@ -6686,39 +7096,39 @@
       <c r="B134" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C134" s="104"/>
-      <c r="D134" s="109">
+      <c r="C134" s="103"/>
+      <c r="D134" s="108">
         <f>D89</f>
         <v>791</v>
       </c>
-      <c r="E134" s="109">
+      <c r="E134" s="108">
         <f>E89</f>
         <v>1764</v>
       </c>
-      <c r="F134" s="73">
+      <c r="F134" s="72">
         <f>-(IF(F136,(F136*F17),(E134*(F16/E16))))</f>
         <v>1804.2140130335999</v>
       </c>
-      <c r="G134" s="73">
+      <c r="G134" s="72">
         <f>-(IF(G136,(G136*G17),(F134*(G16/F16))))</f>
         <v>1947.4309515897016</v>
       </c>
-      <c r="H134" s="73">
-        <f t="shared" ref="H134:J134" si="72">-(IF(H136,(H136*H17),(G134*(H16/G16))))</f>
+      <c r="H134" s="72">
+        <f t="shared" ref="H134:J134" si="90">-(IF(H136,(H136*H17),(G134*(H16/G16))))</f>
         <v>2034.6651928998995</v>
       </c>
-      <c r="I134" s="73">
-        <f t="shared" si="72"/>
+      <c r="I134" s="72">
+        <f t="shared" si="90"/>
         <v>2134.7387615110679</v>
       </c>
-      <c r="J134" s="73">
-        <f t="shared" si="72"/>
+      <c r="J134" s="72">
+        <f t="shared" si="90"/>
         <v>2249.7470835406243</v>
       </c>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="3"/>
-      <c r="C135" s="105"/>
+      <c r="C135" s="104"/>
       <c r="D135"/>
       <c r="E135"/>
       <c r="F135"/>
@@ -6731,28 +7141,28 @@
       <c r="B136" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C136" s="106"/>
-      <c r="D136" s="66">
+      <c r="C136" s="105"/>
+      <c r="D136" s="65">
         <f>-(D134/D17)</f>
         <v>9.0043940532295152E-3</v>
       </c>
-      <c r="E136" s="66">
+      <c r="E136" s="65">
         <f>-(E134/E17)</f>
         <v>1.6546911055662909E-2</v>
       </c>
-      <c r="F136" s="70">
+      <c r="F136" s="69">
         <v>1.6E-2</v>
       </c>
-      <c r="G136" s="70">
+      <c r="G136" s="69">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="H136" s="70">
+      <c r="H136" s="69">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="I136" s="70">
+      <c r="I136" s="69">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="J136" s="70">
+      <c r="J136" s="69">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -6760,39 +7170,39 @@
       <c r="B137" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C137" s="106"/>
-      <c r="D137" s="74">
-        <f t="shared" ref="D137:J137" si="73">-(D17/D134)</f>
+      <c r="C137" s="105"/>
+      <c r="D137" s="73">
+        <f t="shared" ref="D137:J137" si="91">-(D17/D134)</f>
         <v>111.05689001264223</v>
       </c>
-      <c r="E137" s="74">
-        <f t="shared" si="73"/>
+      <c r="E137" s="73">
+        <f t="shared" si="91"/>
         <v>60.434240362811792</v>
       </c>
-      <c r="F137" s="74">
-        <f t="shared" si="73"/>
+      <c r="F137" s="73">
+        <f t="shared" si="91"/>
         <v>62.499999999999993</v>
       </c>
-      <c r="G137" s="74">
-        <f t="shared" si="73"/>
+      <c r="G137" s="73">
+        <f t="shared" si="91"/>
         <v>60.606060606060602</v>
       </c>
-      <c r="H137" s="74">
-        <f t="shared" si="73"/>
+      <c r="H137" s="73">
+        <f t="shared" si="91"/>
         <v>60.606060606060602</v>
       </c>
-      <c r="I137" s="74">
-        <f t="shared" si="73"/>
+      <c r="I137" s="73">
+        <f t="shared" si="91"/>
         <v>60.606060606060602</v>
       </c>
-      <c r="J137" s="74">
-        <f t="shared" si="73"/>
+      <c r="J137" s="73">
+        <f t="shared" si="91"/>
         <v>60.606060606060602</v>
       </c>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="3"/>
-      <c r="C138" s="106"/>
+      <c r="C138" s="105"/>
       <c r="D138"/>
       <c r="E138"/>
       <c r="F138"/>
@@ -6820,53 +7230,53 @@
       </c>
       <c r="C140" s="3"/>
       <c r="D140"/>
-      <c r="E140" s="110"/>
-      <c r="F140" s="109">
+      <c r="E140" s="109"/>
+      <c r="F140" s="108">
         <f>E142</f>
         <v>22367</v>
       </c>
-      <c r="G140" s="109">
-        <f t="shared" ref="G140:J140" si="74">F142</f>
+      <c r="G140" s="108">
+        <f t="shared" ref="G140:J140" si="92">F142</f>
         <v>22890.965290363798</v>
       </c>
-      <c r="H140" s="109">
-        <f t="shared" si="74"/>
+      <c r="H140" s="108">
+        <f t="shared" si="92"/>
         <v>24313.380365301728</v>
       </c>
-      <c r="I140" s="109">
-        <f t="shared" si="74"/>
+      <c r="I140" s="108">
+        <f t="shared" si="92"/>
         <v>25402.486650750256</v>
       </c>
-      <c r="J140" s="109">
-        <f t="shared" si="74"/>
+      <c r="J140" s="108">
+        <f t="shared" si="92"/>
         <v>26651.889992198783</v>
       </c>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="103" t="s">
+      <c r="B141" s="102" t="s">
         <v>86</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141"/>
       <c r="E141"/>
-      <c r="F141" s="73">
+      <c r="F141" s="72">
         <f>F142-F140</f>
         <v>523.96529036379798</v>
       </c>
-      <c r="G141" s="73">
-        <f t="shared" ref="G141:J141" si="75">G142-G140</f>
+      <c r="G141" s="72">
+        <f t="shared" ref="G141:J141" si="93">G142-G140</f>
         <v>1422.4150749379296</v>
       </c>
-      <c r="H141" s="73">
-        <f t="shared" si="75"/>
+      <c r="H141" s="72">
+        <f t="shared" si="93"/>
         <v>1089.1062854485281</v>
       </c>
-      <c r="I141" s="73">
-        <f t="shared" si="75"/>
+      <c r="I141" s="72">
+        <f t="shared" si="93"/>
         <v>1249.4033414485275</v>
       </c>
-      <c r="J141" s="73">
-        <f t="shared" si="75"/>
+      <c r="J141" s="72">
+        <f t="shared" si="93"/>
         <v>1435.8614750356755</v>
       </c>
     </row>
@@ -6874,39 +7284,39 @@
       <c r="B142" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C142" s="104"/>
-      <c r="D142" s="109">
+      <c r="C142" s="103"/>
+      <c r="D142" s="108">
         <f>D97</f>
         <v>21175</v>
       </c>
-      <c r="E142" s="109">
+      <c r="E142" s="108">
         <f>E97</f>
         <v>22367</v>
       </c>
-      <c r="F142" s="73">
+      <c r="F142" s="72">
         <f>-IF(F144,(F144*F17),(E142*(F17/E17)))</f>
         <v>22890.965290363798</v>
       </c>
-      <c r="G142" s="73">
-        <f t="shared" ref="G142:J142" si="76">-IF(G144,(G144*G17),(F142*(G17/F17)))</f>
+      <c r="G142" s="72">
+        <f t="shared" ref="G142:J142" si="94">-IF(G144,(G144*G17),(F142*(G17/F17)))</f>
         <v>24313.380365301728</v>
       </c>
-      <c r="H142" s="73">
-        <f t="shared" si="76"/>
+      <c r="H142" s="72">
+        <f t="shared" si="94"/>
         <v>25402.486650750256</v>
       </c>
-      <c r="I142" s="73">
-        <f t="shared" si="76"/>
+      <c r="I142" s="72">
+        <f t="shared" si="94"/>
         <v>26651.889992198783</v>
       </c>
-      <c r="J142" s="73">
-        <f t="shared" si="76"/>
+      <c r="J142" s="72">
+        <f t="shared" si="94"/>
         <v>28087.751467234459</v>
       </c>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="3"/>
-      <c r="C143" s="106"/>
+      <c r="C143" s="105"/>
       <c r="D143"/>
       <c r="E143"/>
       <c r="F143"/>
@@ -6919,68 +7329,68 @@
       <c r="B144" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C144" s="106"/>
-      <c r="D144" s="66">
+      <c r="C144" s="105"/>
+      <c r="D144" s="65">
         <f>-(D142/D17)</f>
         <v>0.24104683195592286</v>
       </c>
-      <c r="E144" s="66">
+      <c r="E144" s="65">
         <f>-(E142/E17)</f>
         <v>0.20980995441157158</v>
       </c>
-      <c r="F144" s="70">
+      <c r="F144" s="69">
         <v>0.20300000000000001</v>
       </c>
-      <c r="G144" s="70">
+      <c r="G144" s="69">
         <v>0.20599999999999999</v>
       </c>
-      <c r="H144" s="70">
+      <c r="H144" s="69">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I144" s="70">
+      <c r="I144" s="69">
         <v>0.20599999999999999</v>
       </c>
-      <c r="J144" s="70">
+      <c r="J144" s="69">
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="1:10">
       <c r="B145" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="106"/>
-      <c r="D145" s="72">
+      <c r="C145" s="105"/>
+      <c r="D145" s="71">
         <f>365*D144</f>
         <v>87.98209366391184</v>
       </c>
-      <c r="E145" s="72">
+      <c r="E145" s="71">
         <f>365*E144</f>
         <v>76.580633360223629</v>
       </c>
-      <c r="F145" s="72">
-        <f t="shared" ref="F145:J145" si="77">365*F144</f>
+      <c r="F145" s="71">
+        <f t="shared" ref="F145:J145" si="95">365*F144</f>
         <v>74.094999999999999</v>
       </c>
-      <c r="G145" s="72">
-        <f t="shared" si="77"/>
+      <c r="G145" s="71">
+        <f t="shared" si="95"/>
         <v>75.19</v>
       </c>
-      <c r="H145" s="72">
-        <f t="shared" si="77"/>
+      <c r="H145" s="71">
+        <f t="shared" si="95"/>
         <v>75.19</v>
       </c>
-      <c r="I145" s="72">
-        <f t="shared" si="77"/>
+      <c r="I145" s="71">
+        <f t="shared" si="95"/>
         <v>75.19</v>
       </c>
-      <c r="J145" s="72">
-        <f t="shared" si="77"/>
+      <c r="J145" s="71">
+        <f t="shared" si="95"/>
         <v>75.19</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="1:10">
       <c r="B146" s="3"/>
-      <c r="C146" s="106"/>
+      <c r="C146" s="105"/>
       <c r="D146"/>
       <c r="E146"/>
       <c r="F146"/>
@@ -6989,11 +7399,11 @@
       <c r="I146"/>
       <c r="J146"/>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="1:10">
       <c r="B147" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C147" s="106"/>
+      <c r="C147" s="105"/>
       <c r="D147"/>
       <c r="E147"/>
       <c r="F147"/>
@@ -7002,99 +7412,99 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="1:10">
       <c r="B148" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C148" s="106"/>
+      <c r="C148" s="105"/>
       <c r="D148"/>
       <c r="E148"/>
-      <c r="F148" s="109">
+      <c r="F148" s="108">
         <f>E150</f>
         <v>23916</v>
       </c>
-      <c r="G148" s="109">
-        <f t="shared" ref="G148:J148" si="78">F150</f>
+      <c r="G148" s="108">
+        <f t="shared" ref="G148:J148" si="96">F150</f>
         <v>23843.448304199999</v>
       </c>
-      <c r="H148" s="109">
-        <f t="shared" si="78"/>
+      <c r="H148" s="108">
+        <f t="shared" si="96"/>
         <v>23850.325818191232</v>
       </c>
-      <c r="I148" s="109">
-        <f t="shared" si="78"/>
+      <c r="I148" s="108">
+        <f t="shared" si="96"/>
         <v>23835.268500424805</v>
       </c>
-      <c r="J148" s="109">
-        <f t="shared" si="78"/>
+      <c r="J148" s="108">
+        <f t="shared" si="96"/>
         <v>23974.217865745366</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
-      <c r="B149" s="103" t="s">
+    <row r="149" spans="1:10">
+      <c r="B149" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="C149" s="106"/>
+      <c r="C149" s="105"/>
       <c r="D149"/>
       <c r="E149"/>
-      <c r="F149" s="73">
+      <c r="F149" s="72">
         <f>F150-F148</f>
         <v>-72.551695800000743</v>
       </c>
-      <c r="G149" s="73">
-        <f t="shared" ref="G149:J149" si="79">G150-G148</f>
+      <c r="G149" s="72">
+        <f t="shared" ref="G149:J149" si="97">G150-G148</f>
         <v>6.8775139912322629</v>
       </c>
-      <c r="H149" s="73">
-        <f t="shared" si="79"/>
+      <c r="H149" s="72">
+        <f t="shared" si="97"/>
         <v>-15.057317766426422</v>
       </c>
-      <c r="I149" s="73">
-        <f t="shared" si="79"/>
+      <c r="I149" s="72">
+        <f t="shared" si="97"/>
         <v>138.9493653205609</v>
       </c>
-      <c r="J149" s="73">
-        <f t="shared" si="79"/>
+      <c r="J149" s="72">
+        <f t="shared" si="97"/>
         <v>-15.249989913376339</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="1:10">
       <c r="B150" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="106"/>
-      <c r="D150" s="109">
+      <c r="C150" s="105"/>
+      <c r="D150" s="108">
         <f>D98</f>
         <v>20015</v>
       </c>
-      <c r="E150" s="109">
+      <c r="E150" s="108">
         <f>E98</f>
         <v>23916</v>
       </c>
-      <c r="F150" s="73">
+      <c r="F150" s="72">
         <f>IF(F152, (F16*F152), (E150*(F16/E16)))</f>
         <v>23843.448304199999</v>
       </c>
-      <c r="G150" s="73">
-        <f t="shared" ref="G150:J150" si="80">IF(G152, (G16*G152), (F150*(G16/F16)))</f>
+      <c r="G150" s="72">
+        <f t="shared" ref="G150:J150" si="98">IF(G152, (G16*G152), (F150*(G16/F16)))</f>
         <v>23850.325818191232</v>
       </c>
-      <c r="H150" s="73">
-        <f t="shared" si="80"/>
+      <c r="H150" s="72">
+        <f t="shared" si="98"/>
         <v>23835.268500424805</v>
       </c>
-      <c r="I150" s="73">
-        <f t="shared" si="80"/>
+      <c r="I150" s="72">
+        <f t="shared" si="98"/>
         <v>23974.217865745366</v>
       </c>
-      <c r="J150" s="73">
-        <f t="shared" si="80"/>
+      <c r="J150" s="72">
+        <f t="shared" si="98"/>
         <v>23958.96787583199</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="1:10">
       <c r="B151" s="3"/>
-      <c r="C151" s="106"/>
+      <c r="C151" s="105"/>
       <c r="D151"/>
       <c r="E151"/>
       <c r="F151"/>
@@ -7103,36 +7513,39 @@
       <c r="I151"/>
       <c r="J151"/>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="1:10">
       <c r="B152" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C152" s="106"/>
-      <c r="D152" s="66">
+      <c r="C152" s="105"/>
+      <c r="D152" s="65">
         <f>D150/D16</f>
         <v>0.12788483655787564</v>
       </c>
-      <c r="E152" s="66">
+      <c r="E152" s="65">
         <f>E150/E16</f>
         <v>0.1399332982271371</v>
       </c>
-      <c r="F152" s="75">
+      <c r="F152" s="74">
         <v>0.13300000000000001</v>
       </c>
-      <c r="G152" s="75">
+      <c r="G152" s="74">
         <v>0.1265</v>
       </c>
-      <c r="H152" s="75">
+      <c r="H152" s="74">
         <v>0.121</v>
       </c>
-      <c r="I152" s="75">
+      <c r="I152" s="74">
         <v>0.11600000000000001</v>
       </c>
-      <c r="J152" s="75">
+      <c r="J152" s="74">
         <v>0.11</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="1:10">
+      <c r="A154" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B154" s="4" t="s">
         <v>97</v>
       </c>
@@ -7145,204 +7558,204 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="2:10">
-      <c r="B155" s="80" t="str">
-        <f t="shared" ref="B155:J156" si="81">B13</f>
+    <row r="155" spans="1:10">
+      <c r="B155" s="79" t="str">
+        <f t="shared" ref="B155:J156" si="99">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C155" s="81">
-        <f t="shared" si="81"/>
+      <c r="C155" s="80">
+        <f t="shared" si="99"/>
         <v>2011</v>
       </c>
-      <c r="D155" s="81">
-        <f t="shared" si="81"/>
+      <c r="D155" s="80">
+        <f t="shared" si="99"/>
         <v>2012</v>
       </c>
-      <c r="E155" s="81">
-        <f t="shared" si="81"/>
+      <c r="E155" s="80">
+        <f t="shared" si="99"/>
         <v>2013</v>
       </c>
-      <c r="F155" s="82">
-        <f t="shared" si="81"/>
+      <c r="F155" s="81">
+        <f t="shared" si="99"/>
         <v>2014</v>
       </c>
-      <c r="G155" s="82">
-        <f t="shared" si="81"/>
+      <c r="G155" s="81">
+        <f t="shared" si="99"/>
         <v>2015</v>
       </c>
-      <c r="H155" s="82">
-        <f t="shared" si="81"/>
+      <c r="H155" s="81">
+        <f t="shared" si="99"/>
         <v>2016</v>
       </c>
-      <c r="I155" s="82">
-        <f t="shared" si="81"/>
+      <c r="I155" s="81">
+        <f t="shared" si="99"/>
         <v>2017</v>
       </c>
-      <c r="J155" s="82">
-        <f t="shared" si="81"/>
+      <c r="J155" s="81">
+        <f t="shared" si="99"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="1:10">
       <c r="B156" s="2" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="99"/>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C156" s="83">
-        <f t="shared" si="81"/>
+      <c r="C156" s="82">
+        <f t="shared" si="99"/>
         <v>40810</v>
       </c>
-      <c r="D156" s="83">
-        <f t="shared" si="81"/>
+      <c r="D156" s="82">
+        <f t="shared" si="99"/>
         <v>41181</v>
       </c>
-      <c r="E156" s="83">
-        <f t="shared" si="81"/>
+      <c r="E156" s="82">
+        <f t="shared" si="99"/>
         <v>41545</v>
       </c>
-      <c r="F156" s="83">
-        <f t="shared" si="81"/>
+      <c r="F156" s="82">
+        <f t="shared" si="99"/>
         <v>41912</v>
       </c>
-      <c r="G156" s="83">
-        <f t="shared" si="81"/>
+      <c r="G156" s="82">
+        <f t="shared" si="99"/>
         <v>42277</v>
       </c>
-      <c r="H156" s="83">
-        <f t="shared" si="81"/>
+      <c r="H156" s="82">
+        <f t="shared" si="99"/>
         <v>42643</v>
       </c>
-      <c r="I156" s="83">
-        <f t="shared" si="81"/>
+      <c r="I156" s="82">
+        <f t="shared" si="99"/>
         <v>43008</v>
       </c>
-      <c r="J156" s="83">
-        <f t="shared" si="81"/>
+      <c r="J156" s="82">
+        <f t="shared" si="99"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="1:10">
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="1:10">
       <c r="B158" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
-      <c r="F158" s="73">
+      <c r="F158" s="72">
         <f>E161</f>
         <v>5756</v>
       </c>
-      <c r="G158" s="73">
-        <f t="shared" ref="G158:J158" si="82">F161</f>
+      <c r="G158" s="72">
+        <f t="shared" ref="G158:J158" si="100">F161</f>
         <v>4706</v>
       </c>
-      <c r="H158" s="73">
-        <f t="shared" si="82"/>
+      <c r="H158" s="72">
+        <f t="shared" si="100"/>
         <v>3721</v>
       </c>
-      <c r="I158" s="73">
-        <f t="shared" si="82"/>
+      <c r="I158" s="72">
+        <f t="shared" si="100"/>
         <v>2888</v>
       </c>
-      <c r="J158" s="73">
-        <f t="shared" si="82"/>
+      <c r="J158" s="72">
+        <f t="shared" si="100"/>
         <v>2282</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
-      <c r="B159" s="103" t="s">
+    <row r="159" spans="1:10">
+      <c r="B159" s="102" t="s">
         <v>98</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
-      <c r="F159" s="69">
+      <c r="F159" s="68">
         <f>F163</f>
         <v>0</v>
       </c>
-      <c r="G159" s="69">
-        <f t="shared" ref="G159:J159" si="83">G163</f>
-        <v>0</v>
-      </c>
-      <c r="H159" s="69">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="I159" s="69">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="69">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:10">
-      <c r="B160" s="103" t="s">
+      <c r="G159" s="68">
+        <f t="shared" ref="G159:J159" si="101">G163</f>
+        <v>0</v>
+      </c>
+      <c r="H159" s="68">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="I159" s="68">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="68">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160" s="102" t="s">
         <v>99</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
-      <c r="F160" s="73">
+      <c r="F160" s="72">
         <f>F164</f>
         <v>-1050</v>
       </c>
-      <c r="G160" s="73">
-        <f t="shared" ref="G160:J160" si="84">G164</f>
+      <c r="G160" s="72">
+        <f t="shared" ref="G160:J160" si="102">G164</f>
         <v>-985</v>
       </c>
-      <c r="H160" s="73">
-        <f t="shared" si="84"/>
+      <c r="H160" s="72">
+        <f t="shared" si="102"/>
         <v>-833</v>
       </c>
-      <c r="I160" s="73">
-        <f t="shared" si="84"/>
+      <c r="I160" s="72">
+        <f t="shared" si="102"/>
         <v>-606</v>
       </c>
-      <c r="J160" s="73">
-        <f t="shared" si="84"/>
+      <c r="J160" s="72">
+        <f t="shared" si="102"/>
         <v>-434</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="1:10">
       <c r="B161" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C161"/>
-      <c r="D161" s="73">
+      <c r="D161" s="72">
         <f>D93</f>
         <v>5359</v>
       </c>
-      <c r="E161" s="73">
+      <c r="E161" s="72">
         <f>E93</f>
         <v>5756</v>
       </c>
-      <c r="F161" s="73">
+      <c r="F161" s="72">
         <f>SUM(F158:F160)</f>
         <v>4706</v>
       </c>
-      <c r="G161" s="73">
-        <f t="shared" ref="G161:J161" si="85">SUM(G158:G160)</f>
+      <c r="G161" s="72">
+        <f t="shared" ref="G161:J161" si="103">SUM(G158:G160)</f>
         <v>3721</v>
       </c>
-      <c r="H161" s="73">
-        <f t="shared" si="85"/>
+      <c r="H161" s="72">
+        <f t="shared" si="103"/>
         <v>2888</v>
       </c>
-      <c r="I161" s="73">
-        <f t="shared" si="85"/>
+      <c r="I161" s="72">
+        <f t="shared" si="103"/>
         <v>2282</v>
       </c>
-      <c r="J161" s="73">
-        <f t="shared" si="85"/>
+      <c r="J161" s="72">
+        <f t="shared" si="103"/>
         <v>1848</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="1:10">
       <c r="B162" s="3"/>
       <c r="C162"/>
       <c r="D162"/>
@@ -7353,68 +7766,71 @@
       <c r="I162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="1:10">
       <c r="B163" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C163" s="64">
+      <c r="C163" s="63">
         <v>3192</v>
       </c>
-      <c r="D163" s="64">
+      <c r="D163" s="63">
         <v>1107</v>
       </c>
-      <c r="E163" s="64">
+      <c r="E163" s="63">
         <v>911</v>
       </c>
-      <c r="F163" s="64">
-        <v>0</v>
-      </c>
-      <c r="G163" s="64">
-        <v>0</v>
-      </c>
-      <c r="H163" s="64">
-        <v>0</v>
-      </c>
-      <c r="I163" s="64">
-        <v>0</v>
-      </c>
-      <c r="J163" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10">
+      <c r="F163" s="63">
+        <v>0</v>
+      </c>
+      <c r="G163" s="63">
+        <v>0</v>
+      </c>
+      <c r="H163" s="63">
+        <v>0</v>
+      </c>
+      <c r="I163" s="63">
+        <v>0</v>
+      </c>
+      <c r="J163" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="B164" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C164" s="77">
+      <c r="C164" s="76">
         <v>-192</v>
       </c>
-      <c r="D164" s="77">
+      <c r="D164" s="76">
         <v>-605</v>
       </c>
-      <c r="E164" s="77">
+      <c r="E164" s="76">
         <v>-960</v>
       </c>
-      <c r="F164" s="77">
+      <c r="F164" s="76">
         <v>-1050</v>
       </c>
-      <c r="G164" s="77">
+      <c r="G164" s="76">
         <v>-985</v>
       </c>
-      <c r="H164" s="77">
+      <c r="H164" s="76">
         <v>-833</v>
       </c>
-      <c r="I164" s="77">
+      <c r="I164" s="76">
         <v>-606</v>
       </c>
-      <c r="J164" s="77">
+      <c r="J164" s="76">
         <v>-434</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="1:10">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="1:10">
+      <c r="A166" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B166" s="4" t="s">
         <v>102</v>
       </c>
@@ -7427,210 +7843,210 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="2:10">
-      <c r="B167" s="80" t="str">
-        <f t="shared" ref="B167:J168" si="86">B13</f>
+    <row r="167" spans="1:10">
+      <c r="B167" s="79" t="str">
+        <f t="shared" ref="B167:J168" si="104">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C167" s="81">
-        <f t="shared" si="86"/>
+      <c r="C167" s="80">
+        <f t="shared" si="104"/>
         <v>2011</v>
       </c>
-      <c r="D167" s="81">
-        <f t="shared" si="86"/>
+      <c r="D167" s="80">
+        <f t="shared" si="104"/>
         <v>2012</v>
       </c>
-      <c r="E167" s="81">
-        <f t="shared" si="86"/>
+      <c r="E167" s="80">
+        <f t="shared" si="104"/>
         <v>2013</v>
       </c>
-      <c r="F167" s="82">
-        <f t="shared" si="86"/>
+      <c r="F167" s="81">
+        <f t="shared" si="104"/>
         <v>2014</v>
       </c>
-      <c r="G167" s="82">
-        <f t="shared" si="86"/>
+      <c r="G167" s="81">
+        <f t="shared" si="104"/>
         <v>2015</v>
       </c>
-      <c r="H167" s="82">
-        <f t="shared" si="86"/>
+      <c r="H167" s="81">
+        <f t="shared" si="104"/>
         <v>2016</v>
       </c>
-      <c r="I167" s="82">
-        <f t="shared" si="86"/>
+      <c r="I167" s="81">
+        <f t="shared" si="104"/>
         <v>2017</v>
       </c>
-      <c r="J167" s="82">
-        <f t="shared" si="86"/>
+      <c r="J167" s="81">
+        <f t="shared" si="104"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="1:10">
       <c r="B168" s="2" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="104"/>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C168" s="83">
-        <f t="shared" si="86"/>
+      <c r="C168" s="82">
+        <f t="shared" si="104"/>
         <v>40810</v>
       </c>
-      <c r="D168" s="83">
-        <f t="shared" si="86"/>
+      <c r="D168" s="82">
+        <f t="shared" si="104"/>
         <v>41181</v>
       </c>
-      <c r="E168" s="83">
-        <f t="shared" si="86"/>
+      <c r="E168" s="82">
+        <f t="shared" si="104"/>
         <v>41545</v>
       </c>
-      <c r="F168" s="83">
-        <f t="shared" si="86"/>
+      <c r="F168" s="82">
+        <f t="shared" si="104"/>
         <v>41912</v>
       </c>
-      <c r="G168" s="83">
-        <f t="shared" si="86"/>
+      <c r="G168" s="82">
+        <f t="shared" si="104"/>
         <v>42277</v>
       </c>
-      <c r="H168" s="83">
-        <f t="shared" si="86"/>
+      <c r="H168" s="82">
+        <f t="shared" si="104"/>
         <v>42643</v>
       </c>
-      <c r="I168" s="83">
-        <f t="shared" si="86"/>
+      <c r="I168" s="82">
+        <f t="shared" si="104"/>
         <v>43008</v>
       </c>
-      <c r="J168" s="83">
-        <f t="shared" si="86"/>
+      <c r="J168" s="82">
+        <f t="shared" si="104"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="1:10">
       <c r="B169" s="5"/>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="1:10">
       <c r="B170" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
-      <c r="F170" s="73">
+      <c r="F170" s="72">
         <f>E173</f>
         <v>16597</v>
       </c>
-      <c r="G170" s="73">
-        <f t="shared" ref="G170:J170" si="87">F173</f>
+      <c r="G170" s="72">
+        <f t="shared" ref="G170:J170" si="105">F173</f>
         <v>19465.3847584</v>
       </c>
-      <c r="H170" s="73">
-        <f t="shared" si="87"/>
+      <c r="H170" s="72">
+        <f t="shared" si="105"/>
         <v>23656.631738150129</v>
       </c>
-      <c r="I170" s="73">
-        <f t="shared" si="87"/>
+      <c r="I170" s="72">
+        <f t="shared" si="105"/>
         <v>28035.623628765366</v>
       </c>
-      <c r="J170" s="73">
-        <f t="shared" si="87"/>
+      <c r="J170" s="72">
+        <f t="shared" si="105"/>
         <v>32629.993138726739</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
-      <c r="B171" s="103" t="s">
+    <row r="171" spans="1:10">
+      <c r="B171" s="102" t="s">
         <v>103</v>
       </c>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
-      <c r="F171" s="73">
+      <c r="F171" s="72">
         <f>F175</f>
         <v>8963.7023699999991</v>
       </c>
-      <c r="G171" s="73">
-        <f t="shared" ref="G171:J171" si="88">G175</f>
+      <c r="G171" s="72">
+        <f t="shared" ref="G171:J171" si="106">G175</f>
         <v>10746.78712756443</v>
       </c>
-      <c r="H171" s="73">
-        <f t="shared" si="88"/>
+      <c r="H171" s="72">
+        <f t="shared" si="106"/>
         <v>11228.18433491086</v>
       </c>
-      <c r="I171" s="73">
-        <f t="shared" si="88"/>
+      <c r="I171" s="72">
+        <f t="shared" si="106"/>
         <v>11780.434640926602</v>
       </c>
-      <c r="J171" s="73">
-        <f t="shared" si="88"/>
+      <c r="J171" s="72">
+        <f t="shared" si="106"/>
         <v>12415.101535658396</v>
       </c>
     </row>
-    <row r="172" spans="2:10">
-      <c r="B172" s="103" t="s">
+    <row r="172" spans="1:10">
+      <c r="B172" s="102" t="s">
         <v>104</v>
       </c>
       <c r="C172" s="52"/>
-      <c r="D172" s="73">
+      <c r="D172" s="72">
         <f>D177</f>
         <v>-2672</v>
       </c>
-      <c r="E172" s="73">
+      <c r="E172" s="72">
         <f>E177</f>
         <v>-5797</v>
       </c>
-      <c r="F172" s="73">
+      <c r="F172" s="72">
         <f>-(F44+F160)</f>
         <v>-6095.3176115999995</v>
       </c>
-      <c r="G172" s="73">
+      <c r="G172" s="72">
         <f>-(G44+G160)</f>
         <v>-6555.5401478143021</v>
       </c>
-      <c r="H172" s="73">
+      <c r="H172" s="72">
         <f>-(H44+H160)</f>
         <v>-6849.1924442956242</v>
       </c>
-      <c r="I172" s="73">
+      <c r="I172" s="72">
         <f>-(I44+I160)</f>
         <v>-7186.0651309652267</v>
       </c>
-      <c r="J172" s="73">
+      <c r="J172" s="72">
         <f>-(J44+J160)</f>
         <v>-7573.2119367516216</v>
       </c>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="1:10">
       <c r="B173" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C173"/>
-      <c r="D173" s="73">
+      <c r="D173" s="72">
         <f>D92</f>
         <v>15452</v>
       </c>
-      <c r="E173" s="73">
+      <c r="E173" s="72">
         <f>E92</f>
         <v>16597</v>
       </c>
-      <c r="F173" s="73">
+      <c r="F173" s="72">
         <f>SUM(F170:F172)</f>
         <v>19465.3847584</v>
       </c>
-      <c r="G173" s="73">
-        <f t="shared" ref="G173:J173" si="89">SUM(G170:G172)</f>
+      <c r="G173" s="72">
+        <f t="shared" ref="G173:J173" si="107">SUM(G170:G172)</f>
         <v>23656.631738150129</v>
       </c>
-      <c r="H173" s="73">
-        <f t="shared" si="89"/>
+      <c r="H173" s="72">
+        <f t="shared" si="107"/>
         <v>28035.623628765366</v>
       </c>
-      <c r="I173" s="73">
-        <f t="shared" si="89"/>
+      <c r="I173" s="72">
+        <f t="shared" si="107"/>
         <v>32629.993138726739</v>
       </c>
-      <c r="J173" s="73">
-        <f t="shared" si="89"/>
+      <c r="J173" s="72">
+        <f t="shared" si="107"/>
         <v>37471.882737633518</v>
       </c>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="1:10">
       <c r="B174" s="20"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -7641,142 +8057,145 @@
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="1:10">
       <c r="B175" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C175" s="61">
+      <c r="C175" s="60">
         <v>4260</v>
       </c>
-      <c r="D175" s="61">
+      <c r="D175" s="60">
         <v>8295</v>
       </c>
-      <c r="E175" s="61">
+      <c r="E175" s="60">
         <v>8165</v>
       </c>
-      <c r="F175" s="73">
+      <c r="F175" s="72">
         <f>IF(F176,F176*F16,(E175*(F16/E16)))</f>
         <v>8963.7023699999991</v>
       </c>
-      <c r="G175" s="73">
-        <f t="shared" ref="G175:J175" si="90">IF(G176,G176*G16,(F175*(G16/F16)))</f>
+      <c r="G175" s="72">
+        <f t="shared" ref="G175:J175" si="108">IF(G176,G176*G16,(F175*(G16/F16)))</f>
         <v>10746.78712756443</v>
       </c>
-      <c r="H175" s="73">
-        <f t="shared" si="90"/>
+      <c r="H175" s="72">
+        <f t="shared" si="108"/>
         <v>11228.18433491086</v>
       </c>
-      <c r="I175" s="73">
-        <f t="shared" si="90"/>
+      <c r="I175" s="72">
+        <f t="shared" si="108"/>
         <v>11780.434640926602</v>
       </c>
-      <c r="J175" s="73">
-        <f t="shared" si="90"/>
+      <c r="J175" s="72">
+        <f t="shared" si="108"/>
         <v>12415.101535658396</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="1:10">
       <c r="B176" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C176" s="66">
+      <c r="C176" s="65">
         <f>C175/C16</f>
         <v>3.9353712274478286E-2</v>
       </c>
-      <c r="D176" s="66">
-        <f t="shared" ref="D176:E176" si="91">D175/D16</f>
+      <c r="D176" s="65">
+        <f t="shared" ref="D176:E176" si="109">D175/D16</f>
         <v>5.3000485598180283E-2</v>
       </c>
-      <c r="E176" s="66">
-        <f t="shared" si="91"/>
+      <c r="E176" s="65">
+        <f t="shared" si="109"/>
         <v>4.7773682054882687E-2</v>
       </c>
-      <c r="F176" s="70">
+      <c r="F176" s="69">
         <v>0.05</v>
       </c>
-      <c r="G176" s="70">
+      <c r="G176" s="69">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H176" s="70">
+      <c r="H176" s="69">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I176" s="70">
+      <c r="I176" s="69">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J176" s="70">
+      <c r="J176" s="69">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="1:10">
       <c r="B177" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C177" s="73">
+      <c r="C177" s="72">
         <f>-(C44+C164)</f>
         <v>-1622</v>
       </c>
-      <c r="D177" s="73">
+      <c r="D177" s="72">
         <f>-(D44+D164)</f>
         <v>-2672</v>
       </c>
-      <c r="E177" s="73">
+      <c r="E177" s="72">
         <f>-(E44+E164)</f>
         <v>-5797</v>
       </c>
-      <c r="F177" s="73">
+      <c r="F177" s="72">
         <f>-(F178*F175)</f>
         <v>-6095.3176115999995</v>
       </c>
-      <c r="G177" s="73">
-        <f t="shared" ref="G177:J177" si="92">-(G178*G175)</f>
+      <c r="G177" s="72">
+        <f t="shared" ref="G177:J177" si="110">-(G178*G175)</f>
         <v>-6555.5401478143021</v>
       </c>
-      <c r="H177" s="73">
-        <f t="shared" si="92"/>
+      <c r="H177" s="72">
+        <f t="shared" si="110"/>
         <v>-6849.1924442956242</v>
       </c>
-      <c r="I177" s="73">
-        <f t="shared" si="92"/>
+      <c r="I177" s="72">
+        <f t="shared" si="110"/>
         <v>-7186.0651309652267</v>
       </c>
-      <c r="J177" s="73">
-        <f t="shared" si="92"/>
+      <c r="J177" s="72">
+        <f t="shared" si="110"/>
         <v>-7573.2119367516216</v>
       </c>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="1:10">
       <c r="B178" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C178" s="66">
+      <c r="C178" s="65">
         <f>-(C177/C175)</f>
         <v>0.3807511737089202</v>
       </c>
-      <c r="D178" s="66">
+      <c r="D178" s="65">
         <f>-(D177/D175)</f>
         <v>0.32212176009644367</v>
       </c>
-      <c r="E178" s="66">
+      <c r="E178" s="65">
         <f>-(E177/E175)</f>
         <v>0.70998162890385796</v>
       </c>
-      <c r="F178" s="70">
+      <c r="F178" s="69">
         <v>0.68</v>
       </c>
-      <c r="G178" s="70">
+      <c r="G178" s="69">
         <v>0.61</v>
       </c>
-      <c r="H178" s="70">
+      <c r="H178" s="69">
         <v>0.61</v>
       </c>
-      <c r="I178" s="70">
+      <c r="I178" s="69">
         <v>0.61</v>
       </c>
-      <c r="J178" s="70">
+      <c r="J178" s="69">
         <v>0.61</v>
       </c>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="1:10">
+      <c r="A180" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B180" s="4" t="s">
         <v>109</v>
       </c>
@@ -7789,173 +8208,173 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="2:10">
-      <c r="B181" s="80" t="str">
-        <f t="shared" ref="B181:J182" si="93">B13</f>
+    <row r="181" spans="1:10">
+      <c r="B181" s="79" t="str">
+        <f t="shared" ref="B181:J182" si="111">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C181" s="81">
-        <f t="shared" si="93"/>
+      <c r="C181" s="80">
+        <f t="shared" si="111"/>
         <v>2011</v>
       </c>
-      <c r="D181" s="81">
-        <f t="shared" si="93"/>
+      <c r="D181" s="80">
+        <f t="shared" si="111"/>
         <v>2012</v>
       </c>
-      <c r="E181" s="81">
-        <f t="shared" si="93"/>
+      <c r="E181" s="80">
+        <f t="shared" si="111"/>
         <v>2013</v>
       </c>
-      <c r="F181" s="82">
-        <f t="shared" si="93"/>
+      <c r="F181" s="81">
+        <f t="shared" si="111"/>
         <v>2014</v>
       </c>
-      <c r="G181" s="82">
-        <f t="shared" si="93"/>
+      <c r="G181" s="81">
+        <f t="shared" si="111"/>
         <v>2015</v>
       </c>
-      <c r="H181" s="82">
-        <f t="shared" si="93"/>
+      <c r="H181" s="81">
+        <f t="shared" si="111"/>
         <v>2016</v>
       </c>
-      <c r="I181" s="82">
-        <f t="shared" si="93"/>
+      <c r="I181" s="81">
+        <f t="shared" si="111"/>
         <v>2017</v>
       </c>
-      <c r="J181" s="82">
-        <f t="shared" si="93"/>
+      <c r="J181" s="81">
+        <f t="shared" si="111"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="1:10">
       <c r="B182" s="2" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C182" s="83">
-        <f t="shared" si="93"/>
+      <c r="C182" s="82">
+        <f t="shared" si="111"/>
         <v>40810</v>
       </c>
-      <c r="D182" s="83">
-        <f t="shared" si="93"/>
+      <c r="D182" s="82">
+        <f t="shared" si="111"/>
         <v>41181</v>
       </c>
-      <c r="E182" s="83">
-        <f t="shared" si="93"/>
+      <c r="E182" s="82">
+        <f t="shared" si="111"/>
         <v>41545</v>
       </c>
-      <c r="F182" s="83">
-        <f t="shared" si="93"/>
+      <c r="F182" s="82">
+        <f t="shared" si="111"/>
         <v>41912</v>
       </c>
-      <c r="G182" s="83">
-        <f t="shared" si="93"/>
+      <c r="G182" s="82">
+        <f t="shared" si="111"/>
         <v>42277</v>
       </c>
-      <c r="H182" s="83">
-        <f t="shared" si="93"/>
+      <c r="H182" s="82">
+        <f t="shared" si="111"/>
         <v>42643</v>
       </c>
-      <c r="I182" s="83">
-        <f t="shared" si="93"/>
+      <c r="I182" s="82">
+        <f t="shared" si="111"/>
         <v>43008</v>
       </c>
-      <c r="J182" s="83">
-        <f t="shared" si="93"/>
+      <c r="J182" s="82">
+        <f t="shared" si="111"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="1:10">
       <c r="B183" s="5"/>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="1:10">
       <c r="B184" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="1:10">
       <c r="B185" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D185"/>
       <c r="E185"/>
-      <c r="F185" s="73">
+      <c r="F185" s="72">
         <f>E187</f>
         <v>14421</v>
       </c>
-      <c r="G185" s="73">
-        <f t="shared" ref="G185:J185" si="94">F187</f>
+      <c r="G185" s="72">
+        <f t="shared" ref="G185:J185" si="112">F187</f>
         <v>14421</v>
       </c>
-      <c r="H185" s="73">
-        <f t="shared" si="94"/>
+      <c r="H185" s="72">
+        <f t="shared" si="112"/>
         <v>14421</v>
       </c>
-      <c r="I185" s="73">
-        <f t="shared" si="94"/>
+      <c r="I185" s="72">
+        <f t="shared" si="112"/>
         <v>14421</v>
       </c>
-      <c r="J185" s="73">
-        <f t="shared" si="94"/>
+      <c r="J185" s="72">
+        <f t="shared" si="112"/>
         <v>14421</v>
       </c>
     </row>
-    <row r="186" spans="2:10">
-      <c r="B186" s="103" t="s">
+    <row r="186" spans="1:10">
+      <c r="B186" s="102" t="s">
         <v>86</v>
       </c>
       <c r="D186"/>
       <c r="E186"/>
-      <c r="F186" s="64">
-        <v>0</v>
-      </c>
-      <c r="G186" s="64">
-        <v>0</v>
-      </c>
-      <c r="H186" s="64">
-        <v>0</v>
-      </c>
-      <c r="I186" s="64">
-        <v>0</v>
-      </c>
-      <c r="J186" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:10">
+      <c r="F186" s="63">
+        <v>0</v>
+      </c>
+      <c r="G186" s="63">
+        <v>0</v>
+      </c>
+      <c r="H186" s="63">
+        <v>0</v>
+      </c>
+      <c r="I186" s="63">
+        <v>0</v>
+      </c>
+      <c r="J186" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="B187" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D187" s="73">
+      <c r="D187" s="72">
         <f>D91</f>
         <v>14220</v>
       </c>
-      <c r="E187" s="73">
+      <c r="E187" s="72">
         <f>E91</f>
         <v>14421</v>
       </c>
-      <c r="F187" s="73">
+      <c r="F187" s="72">
         <f>SUM(F185:F186)</f>
         <v>14421</v>
       </c>
-      <c r="G187" s="73">
-        <f t="shared" ref="G187:J187" si="95">SUM(G185:G186)</f>
+      <c r="G187" s="72">
+        <f t="shared" ref="G187:J187" si="113">SUM(G185:G186)</f>
         <v>14421</v>
       </c>
-      <c r="H187" s="73">
-        <f t="shared" si="95"/>
+      <c r="H187" s="72">
+        <f t="shared" si="113"/>
         <v>14421</v>
       </c>
-      <c r="I187" s="73">
-        <f t="shared" si="95"/>
+      <c r="I187" s="72">
+        <f t="shared" si="113"/>
         <v>14421</v>
       </c>
-      <c r="J187" s="73">
-        <f t="shared" si="95"/>
+      <c r="J187" s="72">
+        <f t="shared" si="113"/>
         <v>14421</v>
       </c>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="1:10">
       <c r="B188" s="3"/>
       <c r="D188"/>
       <c r="E188"/>
@@ -7965,8 +8384,8 @@
       <c r="I188"/>
       <c r="J188"/>
     </row>
-    <row r="189" spans="2:10">
-      <c r="B189" s="114" t="s">
+    <row r="189" spans="1:10">
+      <c r="B189" s="113" t="s">
         <v>110</v>
       </c>
       <c r="D189"/>
@@ -7977,89 +8396,89 @@
       <c r="I189"/>
       <c r="J189"/>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="1:10">
       <c r="B190" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D190"/>
       <c r="E190"/>
-      <c r="F190" s="73">
+      <c r="F190" s="72">
         <f>E192</f>
         <v>3453</v>
       </c>
-      <c r="G190" s="73">
-        <f t="shared" ref="G190:J190" si="96">F192</f>
+      <c r="G190" s="72">
+        <f t="shared" ref="G190:J190" si="114">F192</f>
         <v>3453</v>
       </c>
-      <c r="H190" s="73">
-        <f t="shared" si="96"/>
+      <c r="H190" s="72">
+        <f t="shared" si="114"/>
         <v>3453</v>
       </c>
-      <c r="I190" s="73">
-        <f t="shared" si="96"/>
+      <c r="I190" s="72">
+        <f t="shared" si="114"/>
         <v>3453</v>
       </c>
-      <c r="J190" s="73">
-        <f t="shared" si="96"/>
+      <c r="J190" s="72">
+        <f t="shared" si="114"/>
         <v>3453</v>
       </c>
     </row>
-    <row r="191" spans="2:10">
-      <c r="B191" s="103" t="s">
+    <row r="191" spans="1:10">
+      <c r="B191" s="102" t="s">
         <v>86</v>
       </c>
       <c r="D191"/>
       <c r="E191"/>
-      <c r="F191" s="64">
-        <v>0</v>
-      </c>
-      <c r="G191" s="64">
-        <v>0</v>
-      </c>
-      <c r="H191" s="64">
-        <v>0</v>
-      </c>
-      <c r="I191" s="64">
-        <v>0</v>
-      </c>
-      <c r="J191" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:10">
+      <c r="F191" s="63">
+        <v>0</v>
+      </c>
+      <c r="G191" s="63">
+        <v>0</v>
+      </c>
+      <c r="H191" s="63">
+        <v>0</v>
+      </c>
+      <c r="I191" s="63">
+        <v>0</v>
+      </c>
+      <c r="J191" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="B192" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D192" s="73">
+      <c r="D192" s="72">
         <f>D90</f>
         <v>2583</v>
       </c>
-      <c r="E192" s="73">
+      <c r="E192" s="72">
         <f>E90</f>
         <v>3453</v>
       </c>
-      <c r="F192" s="73">
+      <c r="F192" s="72">
         <f>SUM(F190:F191)</f>
         <v>3453</v>
       </c>
-      <c r="G192" s="73">
-        <f t="shared" ref="G192:J192" si="97">SUM(G190:G191)</f>
+      <c r="G192" s="72">
+        <f t="shared" ref="G192:J192" si="115">SUM(G190:G191)</f>
         <v>3453</v>
       </c>
-      <c r="H192" s="73">
-        <f t="shared" si="97"/>
+      <c r="H192" s="72">
+        <f t="shared" si="115"/>
         <v>3453</v>
       </c>
-      <c r="I192" s="73">
-        <f t="shared" si="97"/>
+      <c r="I192" s="72">
+        <f t="shared" si="115"/>
         <v>3453</v>
       </c>
-      <c r="J192" s="73">
-        <f t="shared" si="97"/>
+      <c r="J192" s="72">
+        <f t="shared" si="115"/>
         <v>3453</v>
       </c>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="1:10">
       <c r="B193" s="3"/>
       <c r="D193"/>
       <c r="E193"/>
@@ -8069,8 +8488,8 @@
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194" spans="2:10">
-      <c r="B194" s="114" t="s">
+    <row r="194" spans="1:10">
+      <c r="B194" s="113" t="s">
         <v>64</v>
       </c>
       <c r="D194"/>
@@ -8081,89 +8500,89 @@
       <c r="I194"/>
       <c r="J194"/>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="1:10">
       <c r="B195" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D195"/>
       <c r="E195"/>
-      <c r="F195" s="73">
+      <c r="F195" s="72">
         <f>E197</f>
         <v>5146</v>
       </c>
-      <c r="G195" s="73">
-        <f t="shared" ref="G195:J195" si="98">F197</f>
+      <c r="G195" s="72">
+        <f t="shared" ref="G195:J195" si="116">F197</f>
         <v>5146</v>
       </c>
-      <c r="H195" s="73">
-        <f t="shared" si="98"/>
+      <c r="H195" s="72">
+        <f t="shared" si="116"/>
         <v>5146</v>
       </c>
-      <c r="I195" s="73">
-        <f t="shared" si="98"/>
+      <c r="I195" s="72">
+        <f t="shared" si="116"/>
         <v>5146</v>
       </c>
-      <c r="J195" s="73">
-        <f t="shared" si="98"/>
+      <c r="J195" s="72">
+        <f t="shared" si="116"/>
         <v>5146</v>
       </c>
     </row>
-    <row r="196" spans="2:10">
-      <c r="B196" s="103" t="s">
+    <row r="196" spans="1:10">
+      <c r="B196" s="102" t="s">
         <v>86</v>
       </c>
       <c r="D196"/>
       <c r="E196"/>
-      <c r="F196" s="64">
-        <v>0</v>
-      </c>
-      <c r="G196" s="64">
-        <v>0</v>
-      </c>
-      <c r="H196" s="64">
-        <v>0</v>
-      </c>
-      <c r="I196" s="64">
-        <v>0</v>
-      </c>
-      <c r="J196" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:10">
+      <c r="F196" s="63">
+        <v>0</v>
+      </c>
+      <c r="G196" s="63">
+        <v>0</v>
+      </c>
+      <c r="H196" s="63">
+        <v>0</v>
+      </c>
+      <c r="I196" s="63">
+        <v>0</v>
+      </c>
+      <c r="J196" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="B197" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D197" s="73">
+      <c r="D197" s="72">
         <f>D94</f>
         <v>5478</v>
       </c>
-      <c r="E197" s="73">
+      <c r="E197" s="72">
         <f>E94</f>
         <v>5146</v>
       </c>
-      <c r="F197" s="73">
+      <c r="F197" s="72">
         <f>SUM(F195:F196)</f>
         <v>5146</v>
       </c>
-      <c r="G197" s="73">
-        <f t="shared" ref="G197:J197" si="99">SUM(G195:G196)</f>
+      <c r="G197" s="72">
+        <f t="shared" ref="G197:J197" si="117">SUM(G195:G196)</f>
         <v>5146</v>
       </c>
-      <c r="H197" s="73">
-        <f t="shared" si="99"/>
+      <c r="H197" s="72">
+        <f t="shared" si="117"/>
         <v>5146</v>
       </c>
-      <c r="I197" s="73">
-        <f t="shared" si="99"/>
+      <c r="I197" s="72">
+        <f t="shared" si="117"/>
         <v>5146</v>
       </c>
-      <c r="J197" s="73">
-        <f t="shared" si="99"/>
+      <c r="J197" s="72">
+        <f t="shared" si="117"/>
         <v>5146</v>
       </c>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="1:10">
       <c r="B198" s="3"/>
       <c r="D198"/>
       <c r="E198"/>
@@ -8173,7 +8592,7 @@
       <c r="I198"/>
       <c r="J198"/>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="1:10">
       <c r="B199" s="5" t="s">
         <v>111</v>
       </c>
@@ -8185,90 +8604,93 @@
       <c r="I199"/>
       <c r="J199"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="1:10">
       <c r="B200" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D200"/>
       <c r="E200"/>
-      <c r="F200" s="73">
+      <c r="F200" s="72">
         <f>E202</f>
         <v>20208</v>
       </c>
-      <c r="G200" s="73">
-        <f t="shared" ref="G200:J200" si="100">F202</f>
+      <c r="G200" s="72">
+        <f t="shared" ref="G200:J200" si="118">F202</f>
         <v>23208</v>
       </c>
-      <c r="H200" s="73">
-        <f t="shared" si="100"/>
+      <c r="H200" s="72">
+        <f t="shared" si="118"/>
         <v>26208</v>
       </c>
-      <c r="I200" s="73">
-        <f t="shared" si="100"/>
+      <c r="I200" s="72">
+        <f t="shared" si="118"/>
         <v>29208</v>
       </c>
-      <c r="J200" s="73">
-        <f t="shared" si="100"/>
+      <c r="J200" s="72">
+        <f t="shared" si="118"/>
         <v>32208</v>
       </c>
     </row>
-    <row r="201" spans="2:10">
-      <c r="B201" s="103" t="s">
+    <row r="201" spans="1:10">
+      <c r="B201" s="102" t="s">
         <v>86</v>
       </c>
       <c r="D201"/>
       <c r="E201"/>
-      <c r="F201" s="77">
+      <c r="F201" s="76">
         <v>3000</v>
       </c>
-      <c r="G201" s="77">
+      <c r="G201" s="76">
         <v>3000</v>
       </c>
-      <c r="H201" s="77">
+      <c r="H201" s="76">
         <v>3000</v>
       </c>
-      <c r="I201" s="77">
+      <c r="I201" s="76">
         <v>3000</v>
       </c>
-      <c r="J201" s="77">
+      <c r="J201" s="76">
         <v>3000</v>
       </c>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="1:10">
       <c r="B202" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C202" s="117"/>
-      <c r="D202" s="73">
+      <c r="D202" s="72">
         <f>D101</f>
         <v>16664</v>
       </c>
-      <c r="E202" s="73">
+      <c r="E202" s="72">
         <f>E101</f>
         <v>20208</v>
       </c>
-      <c r="F202" s="73">
+      <c r="F202" s="72">
         <f>SUM(F200:F201)</f>
         <v>23208</v>
       </c>
-      <c r="G202" s="73">
+      <c r="G202" s="72">
         <f>SUM(G200:G201)</f>
         <v>26208</v>
       </c>
-      <c r="H202" s="73">
-        <f t="shared" ref="G202:J202" si="101">SUM(H200:H201)</f>
+      <c r="H202" s="72">
+        <f t="shared" ref="G202:J202" si="119">SUM(H200:H201)</f>
         <v>29208</v>
       </c>
-      <c r="I202" s="73">
-        <f t="shared" si="101"/>
+      <c r="I202" s="72">
+        <f t="shared" si="119"/>
         <v>32208</v>
       </c>
-      <c r="J202" s="73">
-        <f t="shared" si="101"/>
+      <c r="J202" s="72">
+        <f t="shared" si="119"/>
         <v>35208</v>
       </c>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="1:10">
+      <c r="A204" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B204" s="4" t="s">
         <v>112</v>
       </c>
@@ -8281,112 +8703,112 @@
       <c r="I204" s="119"/>
       <c r="J204" s="119"/>
     </row>
-    <row r="205" spans="2:10">
-      <c r="B205" s="80" t="str">
+    <row r="205" spans="1:10">
+      <c r="B205" s="79" t="str">
         <f>B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C205" s="81"/>
-      <c r="D205" s="81">
-        <f t="shared" ref="D205:J206" si="102">D13</f>
+      <c r="C205" s="80"/>
+      <c r="D205" s="80">
+        <f t="shared" ref="D205:J206" si="120">D13</f>
         <v>2012</v>
       </c>
-      <c r="E205" s="81">
-        <f t="shared" si="102"/>
+      <c r="E205" s="80">
+        <f t="shared" si="120"/>
         <v>2013</v>
       </c>
-      <c r="F205" s="82">
-        <f t="shared" si="102"/>
+      <c r="F205" s="81">
+        <f t="shared" si="120"/>
         <v>2014</v>
       </c>
-      <c r="G205" s="82">
-        <f t="shared" si="102"/>
+      <c r="G205" s="81">
+        <f t="shared" si="120"/>
         <v>2015</v>
       </c>
-      <c r="H205" s="82">
-        <f t="shared" si="102"/>
+      <c r="H205" s="81">
+        <f t="shared" si="120"/>
         <v>2016</v>
       </c>
-      <c r="I205" s="82">
-        <f t="shared" si="102"/>
+      <c r="I205" s="81">
+        <f t="shared" si="120"/>
         <v>2017</v>
       </c>
-      <c r="J205" s="82">
-        <f t="shared" si="102"/>
+      <c r="J205" s="81">
+        <f t="shared" si="120"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="1:10">
       <c r="B206" s="2" t="str">
         <f>B14</f>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C206" s="83"/>
-      <c r="D206" s="83">
-        <f t="shared" si="102"/>
+      <c r="C206" s="82"/>
+      <c r="D206" s="82">
+        <f t="shared" si="120"/>
         <v>41181</v>
       </c>
-      <c r="E206" s="83">
-        <f t="shared" si="102"/>
+      <c r="E206" s="82">
+        <f t="shared" si="120"/>
         <v>41545</v>
       </c>
-      <c r="F206" s="83">
-        <f t="shared" si="102"/>
+      <c r="F206" s="82">
+        <f t="shared" si="120"/>
         <v>41912</v>
       </c>
-      <c r="G206" s="83">
-        <f t="shared" si="102"/>
+      <c r="G206" s="82">
+        <f t="shared" si="120"/>
         <v>42277</v>
       </c>
-      <c r="H206" s="83">
-        <f t="shared" si="102"/>
+      <c r="H206" s="82">
+        <f t="shared" si="120"/>
         <v>42643</v>
       </c>
-      <c r="I206" s="83">
-        <f t="shared" si="102"/>
+      <c r="I206" s="82">
+        <f t="shared" si="120"/>
         <v>43008</v>
       </c>
-      <c r="J206" s="83">
-        <f t="shared" si="102"/>
+      <c r="J206" s="82">
+        <f t="shared" si="120"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="1:10">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="2:10">
-      <c r="B208" s="88" t="s">
+    <row r="208" spans="1:10">
+      <c r="B208" s="87" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="209" spans="2:10">
+    <row r="209" spans="1:10">
       <c r="B209" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D209"/>
       <c r="E209"/>
-      <c r="F209" s="97">
+      <c r="F209" s="96">
         <f>E212</f>
         <v>16960</v>
       </c>
-      <c r="G209" s="97">
-        <f t="shared" ref="G209:J209" si="103">F212</f>
+      <c r="G209" s="96">
+        <f t="shared" ref="G209:J209" si="121">F212</f>
         <v>16960</v>
       </c>
-      <c r="H209" s="97">
-        <f t="shared" si="103"/>
+      <c r="H209" s="96">
+        <f t="shared" si="121"/>
         <v>16960</v>
       </c>
-      <c r="I209" s="97">
-        <f t="shared" si="103"/>
+      <c r="I209" s="96">
+        <f t="shared" si="121"/>
         <v>14460</v>
       </c>
-      <c r="J209" s="97">
-        <f t="shared" si="103"/>
+      <c r="J209" s="96">
+        <f t="shared" si="121"/>
         <v>14460</v>
       </c>
     </row>
-    <row r="210" spans="2:10">
+    <row r="210" spans="1:10">
       <c r="B210" s="20" t="s">
         <v>114</v>
       </c>
@@ -8400,17 +8822,17 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H210" s="71">
+      <c r="H210" s="70">
         <v>-2500</v>
       </c>
       <c r="I210">
         <v>0</v>
       </c>
-      <c r="J210" s="71">
+      <c r="J210" s="70">
         <v>-6000</v>
       </c>
     </row>
-    <row r="211" spans="2:10">
+    <row r="211" spans="1:10">
       <c r="B211" s="20" t="s">
         <v>115</v>
       </c>
@@ -8421,56 +8843,56 @@
         <v>0</v>
       </c>
       <c r="G211">
-        <f t="shared" ref="G211:J211" si="104">G214*G218</f>
+        <f t="shared" ref="G211:J211" si="122">G214*G218</f>
         <v>0</v>
       </c>
       <c r="H211">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="I211">
-        <f t="shared" si="104"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="2:10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="B212" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D212" s="97">
+      <c r="D212" s="96">
         <f>D100</f>
         <v>0</v>
       </c>
-      <c r="E212" s="97">
+      <c r="E212" s="96">
         <f>E100</f>
         <v>16960</v>
       </c>
-      <c r="F212" s="97">
+      <c r="F212" s="96">
         <f>SUM(F209:F211)</f>
         <v>16960</v>
       </c>
-      <c r="G212" s="97">
-        <f t="shared" ref="G212:J212" si="105">SUM(G209:G211)</f>
+      <c r="G212" s="96">
+        <f t="shared" ref="G212:J212" si="123">SUM(G209:G211)</f>
         <v>16960</v>
       </c>
-      <c r="H212" s="97">
-        <f t="shared" si="105"/>
+      <c r="H212" s="96">
+        <f t="shared" si="123"/>
         <v>14460</v>
       </c>
-      <c r="I212" s="97">
-        <f t="shared" si="105"/>
+      <c r="I212" s="96">
+        <f t="shared" si="123"/>
         <v>14460</v>
       </c>
-      <c r="J212" s="97">
-        <f t="shared" si="105"/>
+      <c r="J212" s="96">
+        <f t="shared" si="123"/>
         <v>8460</v>
       </c>
     </row>
-    <row r="213" spans="2:10">
+    <row r="213" spans="1:10">
       <c r="B213" s="3"/>
       <c r="D213"/>
       <c r="E213"/>
@@ -8480,7 +8902,7 @@
       <c r="I213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="2:10">
+    <row r="214" spans="1:10">
       <c r="B214" s="20" t="s">
         <v>116</v>
       </c>
@@ -8499,7 +8921,7 @@
         <v>316.70000000000005</v>
       </c>
       <c r="I214" s="120">
-        <f t="shared" ref="I214:J214" si="106">0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
+        <f t="shared" ref="I214:J214" si="124">0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
         <v>316.70000000000005</v>
       </c>
       <c r="J214" s="120">
@@ -8507,7 +8929,7 @@
         <v>251.50000000000003</v>
       </c>
     </row>
-    <row r="215" spans="2:10">
+    <row r="215" spans="1:10">
       <c r="B215" s="20" t="s">
         <v>117</v>
       </c>
@@ -8518,23 +8940,23 @@
         <v>1.9425117924528303E-2</v>
       </c>
       <c r="G215" s="56">
-        <f t="shared" ref="G215:J215" si="107">G214/AVERAGE(G212,G209)</f>
+        <f t="shared" ref="G215:J215" si="125">G214/AVERAGE(G212,G209)</f>
         <v>1.9425117924528303E-2</v>
       </c>
       <c r="H215" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>2.0159134309357101E-2</v>
       </c>
       <c r="I215" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>2.1901798063623794E-2</v>
       </c>
       <c r="J215" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="125"/>
         <v>2.1945898778359514E-2</v>
       </c>
     </row>
-    <row r="216" spans="2:10">
+    <row r="216" spans="1:10">
       <c r="B216" s="20"/>
       <c r="D216"/>
       <c r="E216"/>
@@ -8544,7 +8966,7 @@
       <c r="I216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="2:10">
+    <row r="217" spans="1:10">
       <c r="B217" s="20" t="s">
         <v>118</v>
       </c>
@@ -8566,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:10">
+    <row r="218" spans="1:10">
       <c r="B218" s="20" t="s">
         <v>119</v>
       </c>
@@ -8577,23 +8999,26 @@
         <v>0</v>
       </c>
       <c r="G218" s="121">
-        <f t="shared" ref="G218:J218" si="108">1-G217</f>
+        <f t="shared" ref="G218:J218" si="126">1-G217</f>
         <v>0</v>
       </c>
       <c r="H218" s="121">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="I218" s="121">
-        <f t="shared" si="108"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J218" s="121">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="2:10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B220" s="4" t="s">
         <v>120</v>
       </c>
@@ -8606,80 +9031,80 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="2:10">
-      <c r="B221" s="80" t="str">
-        <f t="shared" ref="B221:B222" si="109">B13</f>
+    <row r="221" spans="1:10">
+      <c r="B221" s="79" t="str">
+        <f t="shared" ref="B221:B222" si="127">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
-      <c r="C221" s="81"/>
-      <c r="D221" s="81">
-        <f t="shared" ref="D221:J222" si="110">D13</f>
+      <c r="C221" s="80"/>
+      <c r="D221" s="80">
+        <f t="shared" ref="D221:J222" si="128">D13</f>
         <v>2012</v>
       </c>
-      <c r="E221" s="81">
-        <f t="shared" si="110"/>
+      <c r="E221" s="80">
+        <f t="shared" si="128"/>
         <v>2013</v>
       </c>
-      <c r="F221" s="82">
-        <f t="shared" si="110"/>
+      <c r="F221" s="81">
+        <f t="shared" si="128"/>
         <v>2014</v>
       </c>
-      <c r="G221" s="82">
-        <f t="shared" si="110"/>
+      <c r="G221" s="81">
+        <f t="shared" si="128"/>
         <v>2015</v>
       </c>
-      <c r="H221" s="82">
-        <f t="shared" si="110"/>
+      <c r="H221" s="81">
+        <f t="shared" si="128"/>
         <v>2016</v>
       </c>
-      <c r="I221" s="82">
-        <f t="shared" si="110"/>
+      <c r="I221" s="81">
+        <f t="shared" si="128"/>
         <v>2017</v>
       </c>
-      <c r="J221" s="82">
-        <f t="shared" si="110"/>
+      <c r="J221" s="81">
+        <f t="shared" si="128"/>
         <v>2018</v>
       </c>
     </row>
-    <row r="222" spans="2:10">
+    <row r="222" spans="1:10">
       <c r="B222" s="2" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="127"/>
         <v>Fiscal year end date</v>
       </c>
-      <c r="C222" s="83"/>
-      <c r="D222" s="83">
-        <f t="shared" si="110"/>
+      <c r="C222" s="82"/>
+      <c r="D222" s="82">
+        <f t="shared" si="128"/>
         <v>41181</v>
       </c>
-      <c r="E222" s="83">
-        <f t="shared" si="110"/>
+      <c r="E222" s="82">
+        <f t="shared" si="128"/>
         <v>41545</v>
       </c>
-      <c r="F222" s="83">
-        <f t="shared" si="110"/>
+      <c r="F222" s="82">
+        <f t="shared" si="128"/>
         <v>41912</v>
       </c>
-      <c r="G222" s="83">
-        <f t="shared" si="110"/>
+      <c r="G222" s="82">
+        <f t="shared" si="128"/>
         <v>42277</v>
       </c>
-      <c r="H222" s="83">
-        <f t="shared" si="110"/>
+      <c r="H222" s="82">
+        <f t="shared" si="128"/>
         <v>42643</v>
       </c>
-      <c r="I222" s="83">
-        <f t="shared" si="110"/>
+      <c r="I222" s="82">
+        <f t="shared" si="128"/>
         <v>43008</v>
       </c>
-      <c r="J222" s="83">
-        <f t="shared" si="110"/>
+      <c r="J222" s="82">
+        <f t="shared" si="128"/>
         <v>43373</v>
       </c>
     </row>
-    <row r="223" spans="2:10">
+    <row r="223" spans="1:10">
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="2:10">
+    <row r="224" spans="1:10">
       <c r="B224" s="5" t="s">
         <v>121</v>
       </c>
@@ -8691,50 +9116,116 @@
       <c r="C225"/>
       <c r="D225"/>
       <c r="E225"/>
-      <c r="F225"/>
-      <c r="G225"/>
-      <c r="H225"/>
-      <c r="I225"/>
-      <c r="J225"/>
+      <c r="F225" s="72">
+        <f>E228</f>
+        <v>19764</v>
+      </c>
+      <c r="G225" s="72">
+        <f t="shared" ref="G225:J225" si="129">F228</f>
+        <v>21976.600293010801</v>
+      </c>
+      <c r="H225" s="72">
+        <f t="shared" si="129"/>
+        <v>24163.665743532685</v>
+      </c>
+      <c r="I225" s="72">
+        <f t="shared" si="129"/>
+        <v>26448.69974853209</v>
+      </c>
+      <c r="J225" s="72">
+        <f t="shared" si="129"/>
+        <v>28846.121535106628</v>
+      </c>
     </row>
     <row r="226" spans="2:10">
-      <c r="B226" s="103" t="s">
+      <c r="B226" s="102" t="s">
         <v>122</v>
       </c>
       <c r="C226"/>
       <c r="D226"/>
       <c r="E226"/>
-      <c r="F226"/>
-      <c r="G226"/>
-      <c r="H226"/>
-      <c r="I226"/>
-      <c r="J226"/>
+      <c r="F226" s="68">
+        <f>F230</f>
+        <v>0</v>
+      </c>
+      <c r="G226" s="68">
+        <f t="shared" ref="G226:J226" si="130">G230</f>
+        <v>0</v>
+      </c>
+      <c r="H226" s="68">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="I226" s="68">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="J226" s="68">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="2:10">
-      <c r="B227" s="103" t="s">
+      <c r="B227" s="102" t="s">
         <v>123</v>
       </c>
       <c r="C227"/>
       <c r="D227"/>
       <c r="E227"/>
-      <c r="F227"/>
-      <c r="G227"/>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
+      <c r="F227" s="72">
+        <f>F231</f>
+        <v>2212.6002930107998</v>
+      </c>
+      <c r="G227" s="72">
+        <f t="shared" ref="G227:J227" si="131">G231</f>
+        <v>2187.0654505218836</v>
+      </c>
+      <c r="H227" s="72">
+        <f t="shared" si="131"/>
+        <v>2285.0340049994029</v>
+      </c>
+      <c r="I227" s="72">
+        <f t="shared" si="131"/>
+        <v>2397.4217865745363</v>
+      </c>
+      <c r="J227" s="72">
+        <f t="shared" si="131"/>
+        <v>2526.5820669059194</v>
+      </c>
     </row>
     <row r="228" spans="2:10">
       <c r="B228" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C228"/>
-      <c r="D228"/>
-      <c r="E228"/>
-      <c r="F228"/>
-      <c r="G228"/>
-      <c r="H228"/>
-      <c r="I228"/>
-      <c r="J228"/>
+      <c r="D228" s="72">
+        <f>D104</f>
+        <v>16422</v>
+      </c>
+      <c r="E228" s="72">
+        <f>E104</f>
+        <v>19764</v>
+      </c>
+      <c r="F228" s="72">
+        <f>SUM(F225:F227)</f>
+        <v>21976.600293010801</v>
+      </c>
+      <c r="G228" s="72">
+        <f t="shared" ref="G228:J228" si="132">SUM(G225:G227)</f>
+        <v>24163.665743532685</v>
+      </c>
+      <c r="H228" s="72">
+        <f t="shared" si="132"/>
+        <v>26448.69974853209</v>
+      </c>
+      <c r="I228" s="72">
+        <f t="shared" si="132"/>
+        <v>28846.121535106628</v>
+      </c>
+      <c r="J228" s="72">
+        <f t="shared" si="132"/>
+        <v>31372.703602012545</v>
+      </c>
     </row>
     <row r="229" spans="2:10">
       <c r="B229" s="20"/>
@@ -8752,39 +9243,88 @@
         <v>124</v>
       </c>
       <c r="C230"/>
-      <c r="D230"/>
-      <c r="E230"/>
-      <c r="F230"/>
-      <c r="G230"/>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
+      <c r="D230" s="124">
+        <v>665</v>
+      </c>
+      <c r="E230" s="124">
+        <v>530</v>
+      </c>
+      <c r="F230" s="63">
+        <v>0</v>
+      </c>
+      <c r="G230" s="63">
+        <v>0</v>
+      </c>
+      <c r="H230" s="63">
+        <v>0</v>
+      </c>
+      <c r="I230" s="63">
+        <v>0</v>
+      </c>
+      <c r="J230" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="2:10">
       <c r="B231" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C231"/>
-      <c r="D231"/>
-      <c r="E231"/>
-      <c r="F231"/>
-      <c r="G231"/>
-      <c r="H231"/>
-      <c r="I231"/>
-      <c r="J231"/>
+      <c r="D231" s="63">
+        <v>1740</v>
+      </c>
+      <c r="E231" s="63">
+        <v>2253</v>
+      </c>
+      <c r="F231" s="72">
+        <f>-(F232*SUM(F17,F19:F20))</f>
+        <v>2212.6002930107998</v>
+      </c>
+      <c r="G231" s="72">
+        <f t="shared" ref="G231:J231" si="133">-(G232*SUM(G17,G19:G20))</f>
+        <v>2187.0654505218836</v>
+      </c>
+      <c r="H231" s="72">
+        <f t="shared" si="133"/>
+        <v>2285.0340049994029</v>
+      </c>
+      <c r="I231" s="72">
+        <f t="shared" si="133"/>
+        <v>2397.4217865745363</v>
+      </c>
+      <c r="J231" s="72">
+        <f t="shared" si="133"/>
+        <v>2526.5820669059194</v>
+      </c>
     </row>
     <row r="232" spans="2:10">
       <c r="B232" s="20" t="s">
         <v>125</v>
       </c>
       <c r="C232"/>
-      <c r="D232"/>
-      <c r="E232"/>
-      <c r="F232"/>
-      <c r="G232"/>
-      <c r="H232"/>
-      <c r="I232"/>
-      <c r="J232"/>
+      <c r="D232" s="65">
+        <f>-(D231/SUM(D19:D20,D17))</f>
+        <v>1.7182300255759526E-2</v>
+      </c>
+      <c r="E232" s="65">
+        <f>-(E231/SUM(E19:E20,E17))</f>
+        <v>1.8480694933188966E-2</v>
+      </c>
+      <c r="F232" s="69">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G232" s="69">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H232" s="69">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I232" s="69">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J232" s="69">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="233" spans="2:10">
       <c r="B233" s="20"/>
@@ -8817,37 +9357,88 @@
       <c r="C235"/>
       <c r="D235"/>
       <c r="E235"/>
-      <c r="F235"/>
-      <c r="G235"/>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
+      <c r="F235" s="72">
+        <f>E237</f>
+        <v>0</v>
+      </c>
+      <c r="G235" s="72">
+        <f t="shared" ref="G235:J235" si="134">F237</f>
+        <v>-23968</v>
+      </c>
+      <c r="H235" s="72">
+        <f t="shared" si="134"/>
+        <v>-47936</v>
+      </c>
+      <c r="I235" s="72">
+        <f t="shared" si="134"/>
+        <v>-71904</v>
+      </c>
+      <c r="J235" s="72">
+        <f t="shared" si="134"/>
+        <v>-95872</v>
+      </c>
     </row>
     <row r="236" spans="2:10">
-      <c r="B236" s="103" t="s">
+      <c r="B236" s="102" t="s">
         <v>126</v>
       </c>
       <c r="C236"/>
       <c r="D236"/>
-      <c r="E236"/>
-      <c r="F236"/>
-      <c r="G236"/>
-      <c r="H236"/>
-      <c r="I236"/>
-      <c r="J236"/>
+      <c r="E236" s="70"/>
+      <c r="F236" s="72">
+        <f>F239</f>
+        <v>-23968</v>
+      </c>
+      <c r="G236" s="72">
+        <f t="shared" ref="G236:J236" si="135">G239</f>
+        <v>-23968</v>
+      </c>
+      <c r="H236" s="72">
+        <f t="shared" si="135"/>
+        <v>-23968</v>
+      </c>
+      <c r="I236" s="72">
+        <f t="shared" si="135"/>
+        <v>-23968</v>
+      </c>
+      <c r="J236" s="72">
+        <f t="shared" si="135"/>
+        <v>-23968</v>
+      </c>
     </row>
     <row r="237" spans="2:10">
       <c r="B237" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C237"/>
-      <c r="D237"/>
-      <c r="E237"/>
-      <c r="F237"/>
-      <c r="G237"/>
-      <c r="H237"/>
-      <c r="I237"/>
-      <c r="J237"/>
+      <c r="D237" s="72">
+        <f>D105</f>
+        <v>0</v>
+      </c>
+      <c r="E237" s="72">
+        <f>E105</f>
+        <v>0</v>
+      </c>
+      <c r="F237" s="72">
+        <f>SUM(F235:F236)</f>
+        <v>-23968</v>
+      </c>
+      <c r="G237" s="72">
+        <f t="shared" ref="G237:J237" si="136">SUM(G235:G236)</f>
+        <v>-47936</v>
+      </c>
+      <c r="H237" s="72">
+        <f t="shared" si="136"/>
+        <v>-71904</v>
+      </c>
+      <c r="I237" s="72">
+        <f t="shared" si="136"/>
+        <v>-95872</v>
+      </c>
+      <c r="J237" s="72">
+        <f t="shared" si="136"/>
+        <v>-119840</v>
+      </c>
     </row>
     <row r="238" spans="2:10">
       <c r="B238" s="3"/>
@@ -8861,17 +9452,1791 @@
       <c r="J238"/>
     </row>
     <row r="239" spans="2:10">
-      <c r="B239" s="103" t="s">
+      <c r="B239" s="102" t="s">
         <v>127</v>
       </c>
       <c r="C239"/>
-      <c r="D239"/>
-      <c r="E239"/>
-      <c r="F239"/>
-      <c r="G239"/>
-      <c r="H239"/>
-      <c r="I239"/>
-      <c r="J239"/>
+      <c r="D239" s="63">
+        <v>0</v>
+      </c>
+      <c r="E239" s="76">
+        <v>-22860</v>
+      </c>
+      <c r="F239" s="76">
+        <v>-23968</v>
+      </c>
+      <c r="G239" s="76">
+        <v>-23968</v>
+      </c>
+      <c r="H239" s="76">
+        <v>-23968</v>
+      </c>
+      <c r="I239" s="76">
+        <v>-23968</v>
+      </c>
+      <c r="J239" s="76">
+        <v>-23968</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="B242" s="79" t="str">
+        <f t="shared" ref="B242:J243" si="137">B13</f>
+        <v xml:space="preserve">Fiscal year  </v>
+      </c>
+      <c r="C242" s="80">
+        <f t="shared" si="137"/>
+        <v>2011</v>
+      </c>
+      <c r="D242" s="80">
+        <f t="shared" si="137"/>
+        <v>2012</v>
+      </c>
+      <c r="E242" s="80">
+        <f t="shared" si="137"/>
+        <v>2013</v>
+      </c>
+      <c r="F242" s="81">
+        <f t="shared" si="137"/>
+        <v>2014</v>
+      </c>
+      <c r="G242" s="81">
+        <f t="shared" si="137"/>
+        <v>2015</v>
+      </c>
+      <c r="H242" s="81">
+        <f t="shared" si="137"/>
+        <v>2016</v>
+      </c>
+      <c r="I242" s="81">
+        <f t="shared" si="137"/>
+        <v>2017</v>
+      </c>
+      <c r="J242" s="81">
+        <f t="shared" si="137"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="B243" s="2" t="str">
+        <f t="shared" si="137"/>
+        <v>Fiscal year end date</v>
+      </c>
+      <c r="C243" s="82">
+        <f t="shared" si="137"/>
+        <v>40810</v>
+      </c>
+      <c r="D243" s="82">
+        <f t="shared" si="137"/>
+        <v>41181</v>
+      </c>
+      <c r="E243" s="82">
+        <f t="shared" si="137"/>
+        <v>41545</v>
+      </c>
+      <c r="F243" s="82">
+        <f t="shared" si="137"/>
+        <v>41912</v>
+      </c>
+      <c r="G243" s="82">
+        <f t="shared" si="137"/>
+        <v>42277</v>
+      </c>
+      <c r="H243" s="82">
+        <f t="shared" si="137"/>
+        <v>42643</v>
+      </c>
+      <c r="I243" s="82">
+        <f t="shared" si="137"/>
+        <v>43008</v>
+      </c>
+      <c r="J243" s="82">
+        <f t="shared" si="137"/>
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="B245" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="B246" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246" s="64">
+        <f>E249</f>
+        <v>104256</v>
+      </c>
+      <c r="G246" s="64">
+        <f t="shared" ref="G246:J246" ca="1" si="138">F249</f>
+        <v>129430.41820870283</v>
+      </c>
+      <c r="H246" s="64">
+        <f t="shared" ca="1" si="138"/>
+        <v>158407.81634816097</v>
+      </c>
+      <c r="I246" s="64">
+        <f t="shared" ca="1" si="138"/>
+        <v>188691.40557688577</v>
+      </c>
+      <c r="J246" s="64">
+        <f t="shared" ca="1" si="138"/>
+        <v>220473.4339692666</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="B247" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247" s="64">
+        <f ca="1">F251</f>
+        <v>35963.454583861196</v>
+      </c>
+      <c r="G247" s="64">
+        <f t="shared" ref="G247:J247" ca="1" si="139">G251</f>
+        <v>38128.155446655452</v>
+      </c>
+      <c r="H247" s="64">
+        <f t="shared" ca="1" si="139"/>
+        <v>39846.827932532637</v>
+      </c>
+      <c r="I247" s="64">
+        <f t="shared" ca="1" si="139"/>
+        <v>41818.458411027415</v>
+      </c>
+      <c r="J247" s="64">
+        <f t="shared" ca="1" si="139"/>
+        <v>44084.330570289167</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="B248" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248" s="72">
+        <f ca="1">(F253)</f>
+        <v>-10789.036375158359</v>
+      </c>
+      <c r="G248" s="72">
+        <f t="shared" ref="G248:J248" ca="1" si="140">(G253)</f>
+        <v>-9150.7573071973075</v>
+      </c>
+      <c r="H248" s="72">
+        <f t="shared" ca="1" si="140"/>
+        <v>-9563.2387038078323</v>
+      </c>
+      <c r="I248" s="72">
+        <f t="shared" ca="1" si="140"/>
+        <v>-10036.430018646579</v>
+      </c>
+      <c r="J248" s="72">
+        <f t="shared" ca="1" si="140"/>
+        <v>-10580.239336869399</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="B249" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C249"/>
+      <c r="D249" s="60">
+        <v>101289</v>
+      </c>
+      <c r="E249" s="60">
+        <v>104256</v>
+      </c>
+      <c r="F249" s="64">
+        <f ca="1">SUM(F246:F248)</f>
+        <v>129430.41820870283</v>
+      </c>
+      <c r="G249" s="64">
+        <f t="shared" ref="G249:J249" ca="1" si="141">SUM(G246:G248)</f>
+        <v>158407.81634816097</v>
+      </c>
+      <c r="H249" s="64">
+        <f t="shared" ca="1" si="141"/>
+        <v>188691.40557688577</v>
+      </c>
+      <c r="I249" s="64">
+        <f t="shared" ca="1" si="141"/>
+        <v>220473.4339692666</v>
+      </c>
+      <c r="J249" s="64">
+        <f t="shared" ca="1" si="141"/>
+        <v>253977.52520268637</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="B250" s="3"/>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="B251" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251"/>
+      <c r="D251" s="64">
+        <f>D27</f>
+        <v>41733</v>
+      </c>
+      <c r="E251" s="64">
+        <f t="shared" ref="E251:J251" si="142">E27</f>
+        <v>37037</v>
+      </c>
+      <c r="F251" s="64">
+        <f t="shared" ca="1" si="142"/>
+        <v>35963.454583861196</v>
+      </c>
+      <c r="G251" s="64">
+        <f t="shared" ca="1" si="142"/>
+        <v>38128.155446655452</v>
+      </c>
+      <c r="H251" s="64">
+        <f t="shared" ca="1" si="142"/>
+        <v>39846.827932532637</v>
+      </c>
+      <c r="I251" s="64">
+        <f t="shared" ca="1" si="142"/>
+        <v>41818.458411027415</v>
+      </c>
+      <c r="J251" s="64">
+        <f t="shared" ca="1" si="142"/>
+        <v>44084.330570289167</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="B252" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252" s="65">
+        <f>-(D253/D251)</f>
+        <v>5.961708959336736E-2</v>
+      </c>
+      <c r="E252" s="65">
+        <f>-(E253/E251)</f>
+        <v>0.28522828522828525</v>
+      </c>
+      <c r="F252" s="69">
+        <v>0.3</v>
+      </c>
+      <c r="G252" s="69">
+        <v>0.24</v>
+      </c>
+      <c r="H252" s="69">
+        <v>0.24</v>
+      </c>
+      <c r="I252" s="69">
+        <v>0.24</v>
+      </c>
+      <c r="J252" s="69">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="B253" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C253"/>
+      <c r="D253" s="76">
+        <v>-2488</v>
+      </c>
+      <c r="E253" s="76">
+        <v>-10564</v>
+      </c>
+      <c r="F253" s="72">
+        <f ca="1">-(F252*F251)</f>
+        <v>-10789.036375158359</v>
+      </c>
+      <c r="G253" s="72">
+        <f ca="1">-(G252*G251)</f>
+        <v>-9150.7573071973075</v>
+      </c>
+      <c r="H253" s="72">
+        <f ca="1">-(H252*H251)</f>
+        <v>-9563.2387038078323</v>
+      </c>
+      <c r="I253" s="72">
+        <f ca="1">-(I252*I251)</f>
+        <v>-10036.430018646579</v>
+      </c>
+      <c r="J253" s="72">
+        <f ca="1">-(J252*J251)</f>
+        <v>-10580.239336869399</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="B254" s="3"/>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="B255" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="B256" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256" s="96">
+        <f>E258</f>
+        <v>-471</v>
+      </c>
+      <c r="G256" s="96">
+        <f t="shared" ref="G256:J256" si="143">F258</f>
+        <v>-471</v>
+      </c>
+      <c r="H256" s="96">
+        <f t="shared" si="143"/>
+        <v>-471</v>
+      </c>
+      <c r="I256" s="96">
+        <f t="shared" si="143"/>
+        <v>-471</v>
+      </c>
+      <c r="J256" s="96">
+        <f t="shared" si="143"/>
+        <v>-471</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="B257" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257" s="63">
+        <v>0</v>
+      </c>
+      <c r="G257" s="63">
+        <v>0</v>
+      </c>
+      <c r="H257" s="63">
+        <v>0</v>
+      </c>
+      <c r="I257" s="63">
+        <v>0</v>
+      </c>
+      <c r="J257" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="B258" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258" s="96">
+        <f>D107</f>
+        <v>499</v>
+      </c>
+      <c r="E258" s="96">
+        <f>E107</f>
+        <v>-471</v>
+      </c>
+      <c r="F258" s="96">
+        <f>SUM(F256:F257)</f>
+        <v>-471</v>
+      </c>
+      <c r="G258" s="96">
+        <f t="shared" ref="G258:J258" si="144">SUM(G256:G257)</f>
+        <v>-471</v>
+      </c>
+      <c r="H258" s="96">
+        <f t="shared" si="144"/>
+        <v>-471</v>
+      </c>
+      <c r="I258" s="96">
+        <f t="shared" si="144"/>
+        <v>-471</v>
+      </c>
+      <c r="J258" s="96">
+        <f t="shared" si="144"/>
+        <v>-471</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C260" s="78"/>
+      <c r="D260" s="78"/>
+      <c r="E260" s="78"/>
+      <c r="F260" s="78"/>
+      <c r="G260" s="78"/>
+      <c r="H260" s="78"/>
+      <c r="I260" s="78"/>
+      <c r="J260" s="78"/>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="B261" s="79" t="str">
+        <f>B13</f>
+        <v xml:space="preserve">Fiscal year  </v>
+      </c>
+      <c r="C261" s="80"/>
+      <c r="D261" s="80">
+        <f t="shared" ref="D261:J262" si="145">D13</f>
+        <v>2012</v>
+      </c>
+      <c r="E261" s="80">
+        <f t="shared" si="145"/>
+        <v>2013</v>
+      </c>
+      <c r="F261" s="81">
+        <f t="shared" si="145"/>
+        <v>2014</v>
+      </c>
+      <c r="G261" s="81">
+        <f t="shared" si="145"/>
+        <v>2015</v>
+      </c>
+      <c r="H261" s="81">
+        <f t="shared" si="145"/>
+        <v>2016</v>
+      </c>
+      <c r="I261" s="81">
+        <f t="shared" si="145"/>
+        <v>2017</v>
+      </c>
+      <c r="J261" s="81">
+        <f t="shared" si="145"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="B262" s="2" t="str">
+        <f>B14</f>
+        <v>Fiscal year end date</v>
+      </c>
+      <c r="C262" s="82"/>
+      <c r="D262" s="82">
+        <f t="shared" si="145"/>
+        <v>41181</v>
+      </c>
+      <c r="E262" s="82">
+        <f t="shared" si="145"/>
+        <v>41545</v>
+      </c>
+      <c r="F262" s="82">
+        <f t="shared" si="145"/>
+        <v>41912</v>
+      </c>
+      <c r="G262" s="82">
+        <f t="shared" si="145"/>
+        <v>42277</v>
+      </c>
+      <c r="H262" s="82">
+        <f t="shared" si="145"/>
+        <v>42643</v>
+      </c>
+      <c r="I262" s="82">
+        <f t="shared" si="145"/>
+        <v>43008</v>
+      </c>
+      <c r="J262" s="82">
+        <f t="shared" si="145"/>
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="B264" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="126"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264" s="52">
+        <f ca="1">F27</f>
+        <v>35963.454583861196</v>
+      </c>
+      <c r="G264" s="52">
+        <f t="shared" ref="G264:J264" ca="1" si="146">G27</f>
+        <v>38128.155446655452</v>
+      </c>
+      <c r="H264" s="52">
+        <f t="shared" ca="1" si="146"/>
+        <v>39846.827932532637</v>
+      </c>
+      <c r="I264" s="52">
+        <f t="shared" ca="1" si="146"/>
+        <v>41818.458411027415</v>
+      </c>
+      <c r="J264" s="52">
+        <f t="shared" ca="1" si="146"/>
+        <v>44084.330570289167</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="B265" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C265" s="126"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265" s="96">
+        <f>F44</f>
+        <v>7145.3176115999995</v>
+      </c>
+      <c r="G265" s="96">
+        <f t="shared" ref="G265:J265" si="147">G44</f>
+        <v>7540.5401478143021</v>
+      </c>
+      <c r="H265" s="96">
+        <f t="shared" si="147"/>
+        <v>7682.1924442956242</v>
+      </c>
+      <c r="I265" s="96">
+        <f t="shared" si="147"/>
+        <v>7792.0651309652267</v>
+      </c>
+      <c r="J265" s="96">
+        <f t="shared" si="147"/>
+        <v>8007.2119367516216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="B266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C266" s="126"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266" s="96">
+        <f>F231</f>
+        <v>2212.6002930107998</v>
+      </c>
+      <c r="G266" s="96">
+        <f t="shared" ref="G266:J266" si="148">G231</f>
+        <v>2187.0654505218836</v>
+      </c>
+      <c r="H266" s="96">
+        <f t="shared" si="148"/>
+        <v>2285.0340049994029</v>
+      </c>
+      <c r="I266" s="96">
+        <f t="shared" si="148"/>
+        <v>2397.4217865745363</v>
+      </c>
+      <c r="J266" s="96">
+        <f t="shared" si="148"/>
+        <v>2526.5820669059194</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="B267" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C267" s="110"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267" s="109">
+        <f>-(F125)</f>
+        <v>-433.19057869999779</v>
+      </c>
+      <c r="G267" s="109">
+        <f t="shared" ref="G267:J267" si="149">-(G125)</f>
+        <v>-793.85892471924126</v>
+      </c>
+      <c r="H267" s="109">
+        <f t="shared" si="149"/>
+        <v>-641.86294312857353</v>
+      </c>
+      <c r="I267" s="109">
+        <f t="shared" si="149"/>
+        <v>-736.33374135432132</v>
+      </c>
+      <c r="J267" s="109">
+        <f t="shared" si="149"/>
+        <v>-846.22252630906041</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="B268" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268" s="96">
+        <f>-(F133)</f>
+        <v>-40.21401303359994</v>
+      </c>
+      <c r="G268" s="96">
+        <f t="shared" ref="G268:J268" si="150">-(G133)</f>
+        <v>-143.2169385561017</v>
+      </c>
+      <c r="H268" s="96">
+        <f t="shared" si="150"/>
+        <v>-87.234241310197831</v>
+      </c>
+      <c r="I268" s="96">
+        <f t="shared" si="150"/>
+        <v>-100.07356861116841</v>
+      </c>
+      <c r="J268" s="96">
+        <f t="shared" si="150"/>
+        <v>-115.00832202955644</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="B269" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269" s="96">
+        <f>F141</f>
+        <v>523.96529036379798</v>
+      </c>
+      <c r="G269" s="96">
+        <f t="shared" ref="G269:J269" si="151">G141</f>
+        <v>1422.4150749379296</v>
+      </c>
+      <c r="H269" s="96">
+        <f t="shared" si="151"/>
+        <v>1089.1062854485281</v>
+      </c>
+      <c r="I269" s="96">
+        <f t="shared" si="151"/>
+        <v>1249.4033414485275</v>
+      </c>
+      <c r="J269" s="96">
+        <f t="shared" si="151"/>
+        <v>1435.8614750356755</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="B270" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270" s="96">
+        <f>F149</f>
+        <v>-72.551695800000743</v>
+      </c>
+      <c r="G270" s="96">
+        <f t="shared" ref="G270:J270" si="152">G149</f>
+        <v>6.8775139912322629</v>
+      </c>
+      <c r="H270" s="96">
+        <f t="shared" si="152"/>
+        <v>-15.057317766426422</v>
+      </c>
+      <c r="I270" s="96">
+        <f t="shared" si="152"/>
+        <v>138.9493653205609</v>
+      </c>
+      <c r="J270" s="96">
+        <f t="shared" si="152"/>
+        <v>-15.249989913376339</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="B271" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271">
+        <f>-(F257)</f>
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <f t="shared" ref="G271:J271" si="153">-(G257)</f>
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="B272" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272">
+        <f>-(F191)</f>
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <f t="shared" ref="G272:J272" si="154">-(G191)</f>
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12">
+      <c r="B273" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273">
+        <f>-(F196)</f>
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <f t="shared" ref="G273:J273" si="155">-(G196)</f>
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12">
+      <c r="B274" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274" s="96">
+        <f>F201</f>
+        <v>3000</v>
+      </c>
+      <c r="G274" s="96">
+        <f t="shared" ref="G274:J274" si="156">G201</f>
+        <v>3000</v>
+      </c>
+      <c r="H274" s="96">
+        <f t="shared" si="156"/>
+        <v>3000</v>
+      </c>
+      <c r="I274" s="96">
+        <f t="shared" si="156"/>
+        <v>3000</v>
+      </c>
+      <c r="J274" s="96">
+        <f t="shared" si="156"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12">
+      <c r="B275" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275">
+        <f>F211</f>
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <f t="shared" ref="G275:J275" si="157">G211</f>
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12">
+      <c r="B276" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276" s="127">
+        <f ca="1">SUM(F264:F275)</f>
+        <v>48299.381491302192</v>
+      </c>
+      <c r="G276" s="127">
+        <f t="shared" ref="G276:J276" ca="1" si="158">SUM(G264:G275)</f>
+        <v>51347.977770645462</v>
+      </c>
+      <c r="H276" s="127">
+        <f t="shared" ca="1" si="158"/>
+        <v>53159.006165070998</v>
+      </c>
+      <c r="I276" s="127">
+        <f t="shared" ca="1" si="158"/>
+        <v>55559.890725370773</v>
+      </c>
+      <c r="J276" s="127">
+        <f t="shared" ca="1" si="158"/>
+        <v>58077.505210730385</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12">
+      <c r="B277" s="3"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277"/>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+    </row>
+    <row r="278" spans="2:12">
+      <c r="B278" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278" s="96">
+        <f>-(F171)</f>
+        <v>-8963.7023699999991</v>
+      </c>
+      <c r="G278" s="96">
+        <f t="shared" ref="G278:J278" si="159">-(G171)</f>
+        <v>-10746.78712756443</v>
+      </c>
+      <c r="H278" s="96">
+        <f t="shared" si="159"/>
+        <v>-11228.18433491086</v>
+      </c>
+      <c r="I278" s="96">
+        <f t="shared" si="159"/>
+        <v>-11780.434640926602</v>
+      </c>
+      <c r="J278" s="96">
+        <f t="shared" si="159"/>
+        <v>-12415.101535658396</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12">
+      <c r="B279" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279">
+        <f>-(F159)</f>
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <f t="shared" ref="G279:J279" si="160">-(G159)</f>
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12">
+      <c r="B280" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280" s="128">
+        <f>SUM(F278:F279)</f>
+        <v>-8963.7023699999991</v>
+      </c>
+      <c r="G280" s="128">
+        <f t="shared" ref="G280:J280" si="161">SUM(G278:G279)</f>
+        <v>-10746.78712756443</v>
+      </c>
+      <c r="H280" s="128">
+        <f t="shared" si="161"/>
+        <v>-11228.18433491086</v>
+      </c>
+      <c r="I280" s="128">
+        <f t="shared" si="161"/>
+        <v>-11780.434640926602</v>
+      </c>
+      <c r="J280" s="128">
+        <f t="shared" si="161"/>
+        <v>-12415.101535658396</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12">
+      <c r="B281" s="3"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+    </row>
+    <row r="282" spans="2:12">
+      <c r="B282" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282" s="70">
+        <f>F210</f>
+        <v>0</v>
+      </c>
+      <c r="G282" s="70">
+        <f t="shared" ref="G282:J282" si="162">G210</f>
+        <v>0</v>
+      </c>
+      <c r="H282" s="70">
+        <f t="shared" si="162"/>
+        <v>-2500</v>
+      </c>
+      <c r="I282" s="70">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="J282" s="70">
+        <f t="shared" si="162"/>
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12">
+      <c r="B283" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283" s="96">
+        <f ca="1">F248</f>
+        <v>-10789.036375158359</v>
+      </c>
+      <c r="G283" s="96">
+        <f t="shared" ref="G283:J283" ca="1" si="163">G248</f>
+        <v>-9150.7573071973075</v>
+      </c>
+      <c r="H283" s="96">
+        <f t="shared" ca="1" si="163"/>
+        <v>-9563.2387038078323</v>
+      </c>
+      <c r="I283" s="96">
+        <f t="shared" ca="1" si="163"/>
+        <v>-10036.430018646579</v>
+      </c>
+      <c r="J283" s="96">
+        <f t="shared" ca="1" si="163"/>
+        <v>-10580.239336869399</v>
+      </c>
+      <c r="L283" s="116"/>
+    </row>
+    <row r="284" spans="2:12">
+      <c r="B284" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284">
+        <f>F226</f>
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <f t="shared" ref="G284:J284" si="164">G226</f>
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12">
+      <c r="B285" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285" s="96">
+        <f>F239</f>
+        <v>-23968</v>
+      </c>
+      <c r="G285" s="96">
+        <f t="shared" ref="G285:J285" si="165">G239</f>
+        <v>-23968</v>
+      </c>
+      <c r="H285" s="96">
+        <f t="shared" si="165"/>
+        <v>-23968</v>
+      </c>
+      <c r="I285" s="96">
+        <f t="shared" si="165"/>
+        <v>-23968</v>
+      </c>
+      <c r="J285" s="96">
+        <f t="shared" si="165"/>
+        <v>-23968</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12">
+      <c r="B286" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286">
+        <f>F257</f>
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <f t="shared" ref="G286:J286" si="166">G257</f>
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:12">
+      <c r="B287" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287" s="96">
+        <f ca="1">-(F298)</f>
+        <v>0</v>
+      </c>
+      <c r="G287" s="96">
+        <f ca="1">-(G298)</f>
+        <v>0</v>
+      </c>
+      <c r="H287" s="96">
+        <f ca="1">-(H298)</f>
+        <v>0</v>
+      </c>
+      <c r="I287" s="96">
+        <f ca="1">-(I298)</f>
+        <v>0</v>
+      </c>
+      <c r="J287" s="96">
+        <f ca="1">-(J298)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12">
+      <c r="B288" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288" s="128">
+        <f ca="1">SUM(F282:F287)</f>
+        <v>-34757.036375158357</v>
+      </c>
+      <c r="G288" s="128">
+        <f t="shared" ref="G288:J288" ca="1" si="167">SUM(G282:G287)</f>
+        <v>-33118.757307197309</v>
+      </c>
+      <c r="H288" s="128">
+        <f t="shared" ca="1" si="167"/>
+        <v>-36031.23870380783</v>
+      </c>
+      <c r="I288" s="128">
+        <f t="shared" ca="1" si="167"/>
+        <v>-34004.430018646577</v>
+      </c>
+      <c r="J288" s="128">
+        <f t="shared" ca="1" si="167"/>
+        <v>-40548.239336869403</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="B290" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290" s="128">
+        <f ca="1">SUM(F288,F280,F276)</f>
+        <v>4578.6427461438361</v>
+      </c>
+      <c r="G290" s="128">
+        <f t="shared" ref="G290:J290" ca="1" si="168">SUM(G288,G280,G276)</f>
+        <v>7482.4333358837248</v>
+      </c>
+      <c r="H290" s="128">
+        <f t="shared" ca="1" si="168"/>
+        <v>5899.5831263523069</v>
+      </c>
+      <c r="I290" s="128">
+        <f t="shared" ca="1" si="168"/>
+        <v>9775.0260657975959</v>
+      </c>
+      <c r="J290" s="128">
+        <f t="shared" ca="1" si="168"/>
+        <v>5114.1643382025868</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
+      <c r="A292" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="B293" s="79" t="str">
+        <f>B13</f>
+        <v xml:space="preserve">Fiscal year  </v>
+      </c>
+      <c r="C293" s="80"/>
+      <c r="D293" s="80">
+        <f t="shared" ref="D293:J294" si="169">D13</f>
+        <v>2012</v>
+      </c>
+      <c r="E293" s="80">
+        <f t="shared" si="169"/>
+        <v>2013</v>
+      </c>
+      <c r="F293" s="81">
+        <f t="shared" si="169"/>
+        <v>2014</v>
+      </c>
+      <c r="G293" s="81">
+        <f t="shared" si="169"/>
+        <v>2015</v>
+      </c>
+      <c r="H293" s="81">
+        <f t="shared" si="169"/>
+        <v>2016</v>
+      </c>
+      <c r="I293" s="81">
+        <f t="shared" si="169"/>
+        <v>2017</v>
+      </c>
+      <c r="J293" s="81">
+        <f t="shared" si="169"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="B294" s="2" t="str">
+        <f>B14</f>
+        <v>Fiscal year end date</v>
+      </c>
+      <c r="C294" s="82"/>
+      <c r="D294" s="82">
+        <f t="shared" si="169"/>
+        <v>41181</v>
+      </c>
+      <c r="E294" s="82">
+        <f t="shared" si="169"/>
+        <v>41545</v>
+      </c>
+      <c r="F294" s="82">
+        <f t="shared" si="169"/>
+        <v>41912</v>
+      </c>
+      <c r="G294" s="82">
+        <f t="shared" si="169"/>
+        <v>42277</v>
+      </c>
+      <c r="H294" s="82">
+        <f t="shared" si="169"/>
+        <v>42643</v>
+      </c>
+      <c r="I294" s="82">
+        <f t="shared" si="169"/>
+        <v>43008</v>
+      </c>
+      <c r="J294" s="82">
+        <f t="shared" si="169"/>
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="B295" s="5"/>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="B296" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296"/>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="B297" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297" s="96">
+        <f>E299</f>
+        <v>0</v>
+      </c>
+      <c r="G297" s="96">
+        <f t="shared" ref="G297:J297" ca="1" si="170">F299</f>
+        <v>0</v>
+      </c>
+      <c r="H297" s="96">
+        <f t="shared" ca="1" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="I297" s="96">
+        <f t="shared" ca="1" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="J297" s="96">
+        <f t="shared" ca="1" si="170"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="B298" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298" s="96">
+        <f ca="1">-MIN(F297,F309)</f>
+        <v>0</v>
+      </c>
+      <c r="G298" s="96">
+        <f t="shared" ref="G298:J298" ca="1" si="171">-MIN(G297,G309)</f>
+        <v>0</v>
+      </c>
+      <c r="H298" s="96">
+        <f t="shared" ca="1" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="I298" s="96">
+        <f t="shared" ca="1" si="171"/>
+        <v>0</v>
+      </c>
+      <c r="J298" s="96">
+        <f t="shared" ca="1" si="171"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="B299" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D299" s="96">
+        <f>D99</f>
+        <v>0</v>
+      </c>
+      <c r="E299" s="96">
+        <f>E99</f>
+        <v>0</v>
+      </c>
+      <c r="F299" s="96">
+        <f ca="1">SUM(F297:F298)</f>
+        <v>0</v>
+      </c>
+      <c r="G299" s="96">
+        <f t="shared" ref="G299:J299" ca="1" si="172">SUM(G297:G298)</f>
+        <v>0</v>
+      </c>
+      <c r="H299" s="96">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="I299" s="96">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="J299" s="96">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="B300" s="20"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="B301" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301" s="109">
+        <f>SUM(F88:F89)</f>
+        <v>15339.404591733597</v>
+      </c>
+      <c r="G301" s="109">
+        <f t="shared" ref="G301:J301" si="173">SUM(G88:G89)</f>
+        <v>16276.480455008941</v>
+      </c>
+      <c r="H301" s="109">
+        <f t="shared" si="173"/>
+        <v>17005.577639447711</v>
+      </c>
+      <c r="I301" s="109">
+        <f t="shared" si="173"/>
+        <v>17841.984949413203</v>
+      </c>
+      <c r="J301" s="109">
+        <f t="shared" si="173"/>
+        <v>18803.215797751818</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
+      <c r="B302" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302" s="131" t="str">
+        <f ca="1">IF(F299&gt;F301,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G302" s="131" t="str">
+        <f t="shared" ref="G302:J302" ca="1" si="174">IF(G299&gt;G301,"OVERDRAWN","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="H302" s="131" t="str">
+        <f t="shared" ca="1" si="174"/>
+        <v>OK</v>
+      </c>
+      <c r="I302" s="131" t="str">
+        <f t="shared" ca="1" si="174"/>
+        <v>OK</v>
+      </c>
+      <c r="J302" s="131" t="str">
+        <f t="shared" ca="1" si="174"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="B303" s="3"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="B304" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+    </row>
+    <row r="305" spans="2:10">
+      <c r="B305" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305" s="96">
+        <f>E87</f>
+        <v>146761</v>
+      </c>
+      <c r="G305" s="96">
+        <f t="shared" ref="G305:J305" si="175">F87</f>
+        <v>0</v>
+      </c>
+      <c r="H305" s="96">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="I305" s="96">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="J305" s="96">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10">
+      <c r="B306" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306" s="70">
+        <v>5000</v>
+      </c>
+      <c r="G306" s="70">
+        <v>5000</v>
+      </c>
+      <c r="H306" s="70">
+        <v>5000</v>
+      </c>
+      <c r="I306" s="70">
+        <v>5000</v>
+      </c>
+      <c r="J306" s="70">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10">
+      <c r="B307" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307" s="96">
+        <f>F305-F306</f>
+        <v>141761</v>
+      </c>
+      <c r="G307" s="96">
+        <f t="shared" ref="G307:J307" si="176">G305-G306</f>
+        <v>-5000</v>
+      </c>
+      <c r="H307" s="96">
+        <f t="shared" si="176"/>
+        <v>-5000</v>
+      </c>
+      <c r="I307" s="96">
+        <f t="shared" si="176"/>
+        <v>-5000</v>
+      </c>
+      <c r="J307" s="96">
+        <f t="shared" si="176"/>
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10">
+      <c r="B308" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308" s="96">
+        <f ca="1">SUM(F282:F286,F280,F276)</f>
+        <v>4578.6427461438361</v>
+      </c>
+      <c r="G308" s="96">
+        <f t="shared" ref="G308:J308" ca="1" si="177">SUM(G282:G286,G280,G276)</f>
+        <v>7482.4333358837248</v>
+      </c>
+      <c r="H308" s="96">
+        <f t="shared" ca="1" si="177"/>
+        <v>5899.5831263523069</v>
+      </c>
+      <c r="I308" s="96">
+        <f t="shared" ca="1" si="177"/>
+        <v>9775.0260657975959</v>
+      </c>
+      <c r="J308" s="96">
+        <f t="shared" ca="1" si="177"/>
+        <v>5114.1643382025868</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10">
+      <c r="B309" s="130" t="s">
+        <v>154</v>
+      </c>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309" s="96">
+        <f ca="1">SUM(F307:F308)</f>
+        <v>146339.64274614383</v>
+      </c>
+      <c r="G309" s="96">
+        <f t="shared" ref="G309:J309" ca="1" si="178">SUM(G307:G308)</f>
+        <v>2482.4333358837248</v>
+      </c>
+      <c r="H309" s="96">
+        <f t="shared" ca="1" si="178"/>
+        <v>899.58312635230686</v>
+      </c>
+      <c r="I309" s="96">
+        <f t="shared" ca="1" si="178"/>
+        <v>4775.0260657975959</v>
+      </c>
+      <c r="J309" s="96">
+        <f t="shared" ca="1" si="178"/>
+        <v>114.1643382025868</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10">
+      <c r="B310" s="3"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+    </row>
+    <row r="311" spans="2:10">
+      <c r="B311" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="G311" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="H311" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="I311" s="56">
+        <v>0.02</v>
+      </c>
+      <c r="J311" s="56">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10">
+      <c r="B312" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312">
+        <f ca="1">F311*AVERAGE(F297,F299)</f>
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <f t="shared" ref="G312:J312" ca="1" si="179">G311*AVERAGE(G297,G299)</f>
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <f t="shared" ca="1" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="I312">
+        <f t="shared" ca="1" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <f t="shared" ca="1" si="179"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:10">
+      <c r="B314" s="87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="315" spans="2:10">
+      <c r="B315" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+    </row>
+    <row r="316" spans="2:10">
+      <c r="B316" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+    </row>
+    <row r="317" spans="2:10">
+      <c r="B317" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317"/>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+    </row>
+    <row r="318" spans="2:10">
+      <c r="B318" s="20"/>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+    </row>
+    <row r="319" spans="2:10">
+      <c r="B319" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+    </row>
+    <row r="320" spans="2:10">
+      <c r="B320" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40">

--- a/Apple 3 Statement Model.xlsx
+++ b/Apple 3 Statement Model.xlsx
@@ -648,7 +648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="84">
+  <numFmts count="85">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -733,6 +733,7 @@
     <numFmt numFmtId="240" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="241" formatCode="0.00\x_);\(0.00\x\);@_)"/>
     <numFmt numFmtId="242" formatCode="0.0"/>
+    <numFmt numFmtId="245" formatCode="0.00%_);\(0.00%\);@_)"/>
   </numFmts>
   <fonts count="105">
     <font>
@@ -2266,7 +2267,7 @@
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="231" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2466,6 +2467,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="245" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="$" xfId="1"/>
@@ -3767,10 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A302" activePane="bottomLeft"/>
-      <selection activeCell="D220" sqref="D220"/>
-      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" topLeftCell="B303" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -4215,11 +4215,26 @@
       <c r="E22" s="60">
         <v>1616</v>
       </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="F22" s="96">
+        <f ca="1">F320</f>
+        <v>1539.3080746766282</v>
+      </c>
+      <c r="G22" s="96">
+        <f t="shared" ref="G22:J22" ca="1" si="16">G320</f>
+        <v>1610.1760304807001</v>
+      </c>
+      <c r="H22" s="96">
+        <f t="shared" ca="1" si="16"/>
+        <v>1688.6479972221034</v>
+      </c>
+      <c r="I22" s="96">
+        <f t="shared" ca="1" si="16"/>
+        <v>1779.4169992947996</v>
+      </c>
+      <c r="J22" s="96">
+        <f t="shared" ca="1" si="16"/>
+        <v>1866.6566718140152</v>
+      </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3" t="s">
@@ -4239,19 +4254,19 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:J23" ca="1" si="16">G312</f>
+        <f t="shared" ref="G23:J23" ca="1" si="17">G312</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4293,32 +4308,32 @@
         <v>34205</v>
       </c>
       <c r="D25" s="62">
-        <f t="shared" ref="D25:E25" si="17">D21+D24+D23+D22</f>
+        <f t="shared" ref="D25:E25" si="18">D21+D24+D23+D22</f>
         <v>55763</v>
       </c>
       <c r="E25" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>50155</v>
       </c>
       <c r="F25" s="62">
-        <f t="shared" ref="F25" ca="1" si="18">F21+F24+F23+F22</f>
-        <v>48797.088987599993</v>
+        <f t="shared" ref="F25" ca="1" si="19">F21+F24+F23+F22</f>
+        <v>50336.397062276621</v>
       </c>
       <c r="G25" s="62">
-        <f t="shared" ref="G25" ca="1" si="19">G21+G24+G23+G22</f>
-        <v>51524.534387372238</v>
+        <f t="shared" ref="G25" ca="1" si="20">G21+G24+G23+G22</f>
+        <v>53134.710417852941</v>
       </c>
       <c r="H25" s="62">
-        <f t="shared" ref="H25" ca="1" si="20">H21+H24+H23+H22</f>
-        <v>53847.064773692749</v>
+        <f t="shared" ref="H25" ca="1" si="21">H21+H24+H23+H22</f>
+        <v>55535.712770914855</v>
       </c>
       <c r="I25" s="62">
-        <f t="shared" ref="I25" ca="1" si="21">I21+I24+I23+I22</f>
-        <v>56511.430285172188</v>
+        <f t="shared" ref="I25" ca="1" si="22">I21+I24+I23+I22</f>
+        <v>58290.847284466989</v>
       </c>
       <c r="J25" s="62">
-        <f t="shared" ref="J25" ca="1" si="22">J21+J24+J23+J22</f>
-        <v>59573.419689579961</v>
+        <f t="shared" ref="J25" ca="1" si="23">J21+J24+J23+J22</f>
+        <v>61440.076361393978</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -4336,23 +4351,23 @@
       </c>
       <c r="F26" s="72">
         <f ca="1">-(F25*F41)</f>
-        <v>-12833.634403738799</v>
+        <v>-13238.472427378752</v>
       </c>
       <c r="G26" s="72">
         <f ca="1">-(G25*G41)</f>
-        <v>-13396.378940716782</v>
+        <v>-13815.024708641766</v>
       </c>
       <c r="H26" s="72">
         <f ca="1">-(H25*H41)</f>
-        <v>-14000.236841160115</v>
+        <v>-14439.285320437863</v>
       </c>
       <c r="I26" s="72">
         <f ca="1">-(I25*I41)</f>
-        <v>-14692.971874144769</v>
+        <v>-15155.620293961418</v>
       </c>
       <c r="J26" s="70">
         <f ca="1">-(J25*J41)</f>
-        <v>-15489.089119290791</v>
+        <v>-15974.419853962434</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -4364,32 +4379,32 @@
         <v>25922</v>
       </c>
       <c r="D27" s="62">
-        <f t="shared" ref="D27:E27" si="23">D25+D26</f>
+        <f t="shared" ref="D27:E27" si="24">D25+D26</f>
         <v>41733</v>
       </c>
       <c r="E27" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37037</v>
       </c>
       <c r="F27" s="62">
-        <f t="shared" ref="F27" ca="1" si="24">F25+F26</f>
-        <v>35963.454583861196</v>
+        <f t="shared" ref="F27" ca="1" si="25">F25+F26</f>
+        <v>37097.92463489787</v>
       </c>
       <c r="G27" s="62">
-        <f t="shared" ref="G27" ca="1" si="25">G25+G26</f>
-        <v>38128.155446655452</v>
+        <f t="shared" ref="G27" ca="1" si="26">G25+G26</f>
+        <v>39319.685709211175</v>
       </c>
       <c r="H27" s="62">
-        <f t="shared" ref="H27" ca="1" si="26">H25+H26</f>
-        <v>39846.827932532637</v>
+        <f t="shared" ref="H27" ca="1" si="27">H25+H26</f>
+        <v>41096.427450476993</v>
       </c>
       <c r="I27" s="62">
-        <f t="shared" ref="I27" ca="1" si="27">I25+I26</f>
-        <v>41818.458411027415</v>
+        <f t="shared" ref="I27" ca="1" si="28">I25+I26</f>
+        <v>43135.226990505573</v>
       </c>
       <c r="J27" s="62">
-        <f t="shared" ref="J27" ca="1" si="28">J25+J26</f>
-        <v>44084.330570289167</v>
+        <f t="shared" ref="J27" ca="1" si="29">J25+J26</f>
+        <v>45465.656507431544</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -4430,11 +4445,11 @@
         <v>6331</v>
       </c>
       <c r="D30" s="64">
-        <f t="shared" ref="D30:E30" si="29">D31-D29</f>
+        <f t="shared" ref="D30:E30" si="30">D31-D29</f>
         <v>10537</v>
       </c>
       <c r="E30" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6331</v>
       </c>
       <c r="F30"/>
@@ -4537,23 +4552,23 @@
         <v>9.2020855163953197E-2</v>
       </c>
       <c r="F37" s="65">
-        <f t="shared" ref="F37:J37" si="30">F16/E16-1</f>
+        <f t="shared" ref="F37:J37" si="31">F16/E16-1</f>
         <v>4.893831490258016E-2</v>
       </c>
       <c r="G37" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.1686665077156135E-2</v>
       </c>
       <c r="H37" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.4794523389385388E-2</v>
       </c>
       <c r="I37" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.9184292806689678E-2</v>
       </c>
       <c r="J37" s="65">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.3874658624808891E-2</v>
       </c>
     </row>
@@ -4566,11 +4581,11 @@
         <v>0.40478895878945764</v>
       </c>
       <c r="D38" s="65">
-        <f t="shared" ref="D38:E38" si="31">D18/D16</f>
+        <f t="shared" ref="D38:E38" si="32">D18/D16</f>
         <v>0.43871239808827661</v>
       </c>
       <c r="E38" s="65">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.37624480720847231</v>
       </c>
       <c r="F38" s="56">
@@ -4726,19 +4741,19 @@
         <v>7145.3176115999995</v>
       </c>
       <c r="G44" s="96">
-        <f t="shared" ref="G44:J44" si="32">-(G177+G164)</f>
+        <f t="shared" ref="G44:J44" si="33">-(G177+G164)</f>
         <v>7540.5401478143021</v>
       </c>
       <c r="H44" s="96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7682.1924442956242</v>
       </c>
       <c r="I44" s="96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7792.0651309652267</v>
       </c>
       <c r="J44" s="96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>8007.2119367516216</v>
       </c>
     </row>
@@ -4760,19 +4775,19 @@
         <v>2212.6002930107998</v>
       </c>
       <c r="G45" s="96">
-        <f t="shared" ref="G45:J45" si="33">G231</f>
+        <f t="shared" ref="G45:J45" si="34">G231</f>
         <v>2187.0654505218836</v>
       </c>
       <c r="H45" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2285.0340049994029</v>
       </c>
       <c r="I45" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2397.4217865745363</v>
       </c>
       <c r="J45" s="96">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2526.5820669059194</v>
       </c>
     </row>
@@ -4785,31 +4800,31 @@
         <v>36772</v>
       </c>
       <c r="D46" s="62">
-        <f t="shared" ref="D46:J46" si="34">D21+D45+D44</f>
+        <f t="shared" ref="D46:J46" si="35">D21+D45+D44</f>
         <v>60258</v>
       </c>
       <c r="E46" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>58009</v>
       </c>
       <c r="F46" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>58479.006892210789</v>
       </c>
       <c r="G46" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>61576.139985708425</v>
       </c>
       <c r="H46" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>64138.291222987777</v>
       </c>
       <c r="I46" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>67024.917202711949</v>
       </c>
       <c r="J46" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>70431.2136932375</v>
       </c>
     </row>
@@ -4841,7 +4856,7 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="3" t="str">
-        <f t="shared" ref="B49:B50" si="35">B13</f>
+        <f t="shared" ref="B49:B50" si="36">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C49" s="58">
@@ -4861,25 +4876,25 @@
         <v>2014</v>
       </c>
       <c r="G49" s="59">
-        <f t="shared" ref="G49:J49" si="36">F49+1</f>
+        <f t="shared" ref="G49:J49" si="37">F49+1</f>
         <v>2015</v>
       </c>
       <c r="H49" s="59">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2016</v>
       </c>
       <c r="I49" s="59">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2017</v>
       </c>
       <c r="J49" s="59">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2018</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="15" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C50" s="34">
@@ -4899,19 +4914,19 @@
         <v>41912</v>
       </c>
       <c r="G50" s="57">
-        <f t="shared" ref="G50:J50" si="37">EOMONTH(F50,12)</f>
+        <f t="shared" ref="G50:J50" si="38">EOMONTH(F50,12)</f>
         <v>42277</v>
       </c>
       <c r="H50" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>42643</v>
       </c>
       <c r="I50" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43008</v>
       </c>
       <c r="J50" s="57">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>43373</v>
       </c>
     </row>
@@ -4946,19 +4961,19 @@
         <v>97967.925119999971</v>
       </c>
       <c r="G52" s="70">
-        <f t="shared" ref="G52:J52" si="38">(G62*G72)/1000</f>
+        <f t="shared" ref="G52:J52" si="39">(G62*G72)/1000</f>
         <v>105021.61572863998</v>
       </c>
       <c r="H52" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>108172.26420049919</v>
       </c>
       <c r="I52" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>111417.43212651416</v>
       </c>
       <c r="J52" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>114759.95509030961</v>
       </c>
     </row>
@@ -4980,19 +4995,19 @@
         <v>31590.195779999995</v>
       </c>
       <c r="G53" s="70">
-        <f t="shared" ref="G53:J53" si="39">(G64*G74)/1000</f>
+        <f t="shared" ref="G53:J53" si="40">(G64*G74)/1000</f>
         <v>31590.195779999995</v>
       </c>
       <c r="H53" s="70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>31590.195779999995</v>
       </c>
       <c r="I53" s="70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>31590.195779999995</v>
       </c>
       <c r="J53" s="70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>31590.195779999995</v>
       </c>
     </row>
@@ -5014,19 +5029,19 @@
         <v>20902.958999999999</v>
       </c>
       <c r="G54" s="70">
-        <f t="shared" ref="G54:J54" si="40">(G66*G76)/1000</f>
+        <f t="shared" ref="G54:J54" si="41">(G66*G76)/1000</f>
         <v>18860.217331724998</v>
       </c>
       <c r="H54" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18860.217331724998</v>
       </c>
       <c r="I54" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18860.217331724998</v>
       </c>
       <c r="J54" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18860.217331724998</v>
       </c>
     </row>
@@ -5048,19 +5063,19 @@
         <v>3275.1675</v>
       </c>
       <c r="G55" s="70">
-        <f t="shared" ref="G55:J55" si="41">(G68*G78)/1000</f>
+        <f t="shared" ref="G55:J55" si="42">(G68*G78)/1000</f>
         <v>2736.566204625</v>
       </c>
       <c r="H55" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2326.0812739312501</v>
       </c>
       <c r="I55" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1977.1690828415624</v>
       </c>
       <c r="J55" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1680.5937204153279</v>
       </c>
     </row>
@@ -5082,19 +5097,19 @@
         <v>19261.2</v>
       </c>
       <c r="G56" s="70">
-        <f t="shared" ref="G56:J56" si="42">F56*(1+G81)</f>
+        <f t="shared" ref="G56:J56" si="43">F56*(1+G81)</f>
         <v>23113.439999999999</v>
       </c>
       <c r="H56" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>27736.127999999997</v>
       </c>
       <c r="I56" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>33283.353599999995</v>
       </c>
       <c r="J56" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>39940.02431999999</v>
       </c>
     </row>
@@ -5116,19 +5131,19 @@
         <v>6276.6</v>
       </c>
       <c r="G57" s="70">
-        <f t="shared" ref="G57:J57" si="43">F57*(1+G82)</f>
+        <f t="shared" ref="G57:J57" si="44">F57*(1+G82)</f>
         <v>7218.09</v>
       </c>
       <c r="H57" s="70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8300.8035</v>
       </c>
       <c r="I57" s="70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>9545.9240249999984</v>
       </c>
       <c r="J57" s="70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>10977.812628749998</v>
       </c>
     </row>
@@ -5141,31 +5156,31 @@
         <v>108249</v>
       </c>
       <c r="D58" s="64">
-        <f t="shared" ref="D58:E58" si="44">SUM(D52:D57)</f>
+        <f t="shared" ref="D58:E58" si="45">SUM(D52:D57)</f>
         <v>156508</v>
       </c>
       <c r="E58" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>170910</v>
       </c>
       <c r="F58" s="64">
-        <f t="shared" ref="F58" si="45">SUM(F52:F57)</f>
+        <f t="shared" ref="F58" si="46">SUM(F52:F57)</f>
         <v>179274.04739999998</v>
       </c>
       <c r="G58" s="64">
-        <f t="shared" ref="G58" si="46">SUM(G52:G57)</f>
+        <f t="shared" ref="G58" si="47">SUM(G52:G57)</f>
         <v>188540.12504498998</v>
       </c>
       <c r="H58" s="64">
-        <f t="shared" ref="H58" si="47">SUM(H52:H57)</f>
+        <f t="shared" ref="H58" si="48">SUM(H52:H57)</f>
         <v>196985.69008615543</v>
       </c>
       <c r="I58" s="64">
-        <f t="shared" ref="I58" si="48">SUM(I52:I57)</f>
+        <f t="shared" ref="I58" si="49">SUM(I52:I57)</f>
         <v>206674.29194608072</v>
       </c>
       <c r="J58" s="64">
-        <f t="shared" ref="J58" si="49">SUM(J52:J57)</f>
+        <f t="shared" ref="J58" si="50">SUM(J52:J57)</f>
         <v>217808.79887119992</v>
       </c>
     </row>
@@ -5183,23 +5198,23 @@
         <v>9.2020855163953197E-2</v>
       </c>
       <c r="F59" s="65">
-        <f t="shared" ref="F59:J59" si="50">F58/E58-1</f>
+        <f t="shared" ref="F59:J59" si="51">F58/E58-1</f>
         <v>4.893831490258016E-2</v>
       </c>
       <c r="G59" s="65">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5.1686665077156135E-2</v>
       </c>
       <c r="H59" s="65">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.4794523389385388E-2</v>
       </c>
       <c r="I59" s="65">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>4.9184292806689678E-2</v>
       </c>
       <c r="J59" s="65">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5.3874658624808891E-2</v>
       </c>
     </row>
@@ -5245,19 +5260,19 @@
         <v>167987.32599999997</v>
       </c>
       <c r="G62" s="72">
-        <f t="shared" ref="G62:J62" si="51">F62*(1+G63)</f>
+        <f t="shared" ref="G62:J62" si="52">F62*(1+G63)</f>
         <v>180082.41347199999</v>
       </c>
       <c r="H62" s="72">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>185484.88587616</v>
       </c>
       <c r="I62" s="72">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>191049.4324524448</v>
       </c>
       <c r="J62" s="72">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>196780.91542601815</v>
       </c>
     </row>
@@ -5308,19 +5323,19 @@
         <v>71672.296999999991</v>
       </c>
       <c r="G64" s="72">
-        <f t="shared" ref="G64:J64" si="52">F64*(G65+1)</f>
+        <f t="shared" ref="G64:J64" si="53">F64*(G65+1)</f>
         <v>71672.296999999991</v>
       </c>
       <c r="H64" s="72">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>71672.296999999991</v>
       </c>
       <c r="I64" s="72">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>71672.296999999991</v>
       </c>
       <c r="J64" s="72">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>71672.296999999991</v>
       </c>
     </row>
@@ -5371,19 +5386,19 @@
         <v>15899.793000000003</v>
       </c>
       <c r="G66" s="72">
-        <f t="shared" ref="G66:J66" si="53">F66*(1+G67)</f>
+        <f t="shared" ref="G66:J66" si="54">F66*(1+G67)</f>
         <v>15343.300245000002</v>
       </c>
       <c r="H66" s="72">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15343.300245000002</v>
       </c>
       <c r="I66" s="72">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15343.300245000002</v>
       </c>
       <c r="J66" s="72">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>15343.300245000002</v>
       </c>
     </row>
@@ -5434,19 +5449,19 @@
         <v>19784.25</v>
       </c>
       <c r="G68" s="72">
-        <f t="shared" ref="G68:J68" si="54">F68*(1+G69)</f>
+        <f t="shared" ref="G68:J68" si="55">F68*(1+G69)</f>
         <v>16816.612499999999</v>
       </c>
       <c r="H68" s="72">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>14294.120625</v>
       </c>
       <c r="I68" s="72">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>12150.00253125</v>
       </c>
       <c r="J68" s="72">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>10327.502151562499</v>
       </c>
     </row>
@@ -5512,11 +5527,11 @@
         <v>636.27183821393487</v>
       </c>
       <c r="D72" s="66">
-        <f t="shared" ref="D72:E72" si="55">D52/D62*1000</f>
+        <f t="shared" ref="D72:E72" si="56">D52/D62*1000</f>
         <v>629.30441597492131</v>
       </c>
       <c r="E72" s="66">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>607.48584092588032</v>
       </c>
       <c r="F72" s="66">
@@ -5524,19 +5539,19 @@
         <v>583.18640728884509</v>
       </c>
       <c r="G72" s="66">
-        <f t="shared" ref="G72:J72" si="56">F72*(1+G73)</f>
+        <f t="shared" ref="G72:J72" si="57">F72*(1+G73)</f>
         <v>583.18640728884509</v>
       </c>
       <c r="H72" s="66">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>583.18640728884509</v>
       </c>
       <c r="I72" s="66">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>583.18640728884509</v>
       </c>
       <c r="J72" s="66">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>583.18640728884509</v>
       </c>
     </row>
@@ -5578,11 +5593,11 @@
         <v>591.71451503364824</v>
       </c>
       <c r="D74" s="66">
-        <f t="shared" ref="D74:E74" si="57">D53/D64*1000</f>
+        <f t="shared" ref="D74:E74" si="58">D53/D64*1000</f>
         <v>530.69799348310755</v>
       </c>
       <c r="E74" s="66">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>450.21328115101431</v>
       </c>
       <c r="F74" s="66">
@@ -5590,19 +5605,19 @@
         <v>440.758802246843</v>
       </c>
       <c r="G74" s="66">
-        <f t="shared" ref="G74:J74" si="58">F74*(1+G75)</f>
+        <f t="shared" ref="G74:J74" si="59">F74*(1+G75)</f>
         <v>440.758802246843</v>
       </c>
       <c r="H74" s="66">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>440.758802246843</v>
       </c>
       <c r="I74" s="66">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>440.758802246843</v>
       </c>
       <c r="J74" s="66">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>440.758802246843</v>
       </c>
     </row>
@@ -5644,11 +5659,11 @@
         <v>1301.6432626232445</v>
       </c>
       <c r="D76" s="66">
-        <f t="shared" ref="D76:E76" si="59">D54/D66*1000</f>
+        <f t="shared" ref="D76:E76" si="60">D54/D66*1000</f>
         <v>1278.8302676506225</v>
       </c>
       <c r="E76" s="66">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1314.6686249311545</v>
       </c>
       <c r="F76" s="66">
@@ -5656,19 +5671,19 @@
         <v>1314.6686249311545</v>
       </c>
       <c r="G76" s="66">
-        <f t="shared" ref="G76:J76" si="60">F76*(1+G77)</f>
+        <f t="shared" ref="G76:J76" si="61">F76*(1+G77)</f>
         <v>1229.2151643106295</v>
       </c>
       <c r="H76" s="66">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1229.2151643106295</v>
       </c>
       <c r="I76" s="66">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1229.2151643106295</v>
       </c>
       <c r="J76" s="66">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1229.2151643106295</v>
       </c>
     </row>
@@ -5710,11 +5725,11 @@
         <v>174.87095260441106</v>
       </c>
       <c r="D78" s="66">
-        <f t="shared" ref="D78:E78" si="61">D55/D68*1000</f>
+        <f t="shared" ref="D78:E78" si="62">D55/D68*1000</f>
         <v>159.67581401962178</v>
       </c>
       <c r="E78" s="66">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>167.21634633610068</v>
       </c>
       <c r="F78" s="66">
@@ -5722,19 +5737,19 @@
         <v>165.54418287273967</v>
       </c>
       <c r="G78" s="66">
-        <f t="shared" ref="G78:J78" si="62">F78*(1+G79)</f>
+        <f t="shared" ref="G78:J78" si="63">F78*(1+G79)</f>
         <v>162.7299317639031</v>
       </c>
       <c r="H78" s="66">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>162.7299317639031</v>
       </c>
       <c r="I78" s="66">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>162.7299317639031</v>
       </c>
       <c r="J78" s="66">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>162.7299317639031</v>
       </c>
     </row>
@@ -5868,31 +5883,31 @@
       </c>
       <c r="C85" s="80"/>
       <c r="D85" s="80">
-        <f t="shared" ref="D85:J86" si="63">D13</f>
+        <f t="shared" ref="D85:J86" si="64">D13</f>
         <v>2012</v>
       </c>
       <c r="E85" s="80">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2013</v>
       </c>
       <c r="F85" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2014</v>
       </c>
       <c r="G85" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2015</v>
       </c>
       <c r="H85" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2016</v>
       </c>
       <c r="I85" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2017</v>
       </c>
       <c r="J85" s="81">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2018</v>
       </c>
     </row>
@@ -5903,31 +5918,31 @@
       </c>
       <c r="C86" s="82"/>
       <c r="D86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>41181</v>
       </c>
       <c r="E86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>41545</v>
       </c>
       <c r="F86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>41912</v>
       </c>
       <c r="G86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>42277</v>
       </c>
       <c r="H86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>42643</v>
       </c>
       <c r="I86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>43008</v>
       </c>
       <c r="J86" s="82">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>43373</v>
       </c>
     </row>
@@ -5944,11 +5959,26 @@
         <f>14259+26287+106215</f>
         <v>146761</v>
       </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
+      <c r="F87" s="96">
+        <f ca="1">E87+F290</f>
+        <v>152133.77178186952</v>
+      </c>
+      <c r="G87" s="96">
+        <f t="shared" ref="G87:J87" ca="1" si="65">F87+G290</f>
+        <v>160521.76811729561</v>
+      </c>
+      <c r="H87" s="96">
+        <f t="shared" ca="1" si="65"/>
+        <v>167371.04687728541</v>
+      </c>
+      <c r="I87" s="96">
+        <f t="shared" ca="1" si="65"/>
+        <v>178146.81706348865</v>
+      </c>
+      <c r="J87" s="96">
+        <f t="shared" ca="1" si="65"/>
+        <v>184310.78911391232</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" s="3" t="s">
@@ -5966,19 +5996,19 @@
         <v>13535.190578699998</v>
       </c>
       <c r="G88" s="109">
-        <f t="shared" ref="G88:J88" si="64">G126</f>
+        <f t="shared" ref="G88:J88" si="66">G126</f>
         <v>14329.049503419239</v>
       </c>
       <c r="H88" s="109">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>14970.912446547813</v>
       </c>
       <c r="I88" s="109">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>15707.246187902134</v>
       </c>
       <c r="J88" s="109">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>16553.468714211194</v>
       </c>
     </row>
@@ -5998,19 +6028,19 @@
         <v>1804.2140130335999</v>
       </c>
       <c r="G89" s="96">
-        <f t="shared" ref="G89:J89" si="65">G134</f>
+        <f t="shared" ref="G89:J89" si="67">G134</f>
         <v>1947.4309515897016</v>
       </c>
       <c r="H89" s="96">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2034.6651928998995</v>
       </c>
       <c r="I89" s="96">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2134.7387615110679</v>
       </c>
       <c r="J89" s="96">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2249.7470835406243</v>
       </c>
     </row>
@@ -6030,19 +6060,19 @@
         <v>3453</v>
       </c>
       <c r="G90" s="96">
-        <f t="shared" ref="G90:J90" si="66">G192</f>
+        <f t="shared" ref="G90:J90" si="68">G192</f>
         <v>3453</v>
       </c>
       <c r="H90" s="96">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3453</v>
       </c>
       <c r="I90" s="96">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3453</v>
       </c>
       <c r="J90" s="96">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>3453</v>
       </c>
     </row>
@@ -6064,19 +6094,19 @@
         <v>14421</v>
       </c>
       <c r="G91" s="96">
-        <f t="shared" ref="G91:J91" si="67">G187</f>
+        <f t="shared" ref="G91:J91" si="69">G187</f>
         <v>14421</v>
       </c>
       <c r="H91" s="96">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>14421</v>
       </c>
       <c r="I91" s="96">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>14421</v>
       </c>
       <c r="J91" s="96">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>14421</v>
       </c>
     </row>
@@ -6096,19 +6126,19 @@
         <v>19465.3847584</v>
       </c>
       <c r="G92" s="96">
-        <f t="shared" ref="G92:J92" si="68">G173</f>
+        <f t="shared" ref="G92:J92" si="70">G173</f>
         <v>23656.631738150129</v>
       </c>
       <c r="H92" s="96">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>28035.623628765366</v>
       </c>
       <c r="I92" s="96">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>32629.993138726739</v>
       </c>
       <c r="J92" s="96">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>37471.882737633518</v>
       </c>
     </row>
@@ -6130,19 +6160,19 @@
         <v>4706</v>
       </c>
       <c r="G93" s="96">
-        <f t="shared" ref="G93:J93" si="69">G161</f>
+        <f t="shared" ref="G93:J93" si="71">G161</f>
         <v>3721</v>
       </c>
       <c r="H93" s="96">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>2888</v>
       </c>
       <c r="I93" s="96">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>2282</v>
       </c>
       <c r="J93" s="96">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>1848</v>
       </c>
     </row>
@@ -6162,19 +6192,19 @@
         <v>5146</v>
       </c>
       <c r="G94" s="96">
-        <f t="shared" ref="G94:J94" si="70">G197</f>
+        <f t="shared" ref="G94:J94" si="72">G197</f>
         <v>5146</v>
       </c>
       <c r="H94" s="96">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5146</v>
       </c>
       <c r="I94" s="96">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5146</v>
       </c>
       <c r="J94" s="96">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>5146</v>
       </c>
     </row>
@@ -6192,24 +6222,24 @@
         <v>207000</v>
       </c>
       <c r="F95" s="89">
-        <f t="shared" ref="F95:J95" si="71">SUM(F87:F94)</f>
-        <v>62530.789350133593</v>
+        <f t="shared" ref="F95:J95" ca="1" si="73">SUM(F87:F94)</f>
+        <v>214664.56113200312</v>
       </c>
       <c r="G95" s="89">
-        <f t="shared" si="71"/>
-        <v>66674.112193159061</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>227195.88031045464</v>
       </c>
       <c r="H95" s="89">
-        <f t="shared" si="71"/>
-        <v>70949.201268213073</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>238320.24814549851</v>
       </c>
       <c r="I95" s="89">
-        <f t="shared" si="71"/>
-        <v>75773.978088139949</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>253920.79515162861</v>
       </c>
       <c r="J95" s="89">
-        <f t="shared" si="71"/>
-        <v>81143.098535385332</v>
+        <f t="shared" ca="1" si="73"/>
+        <v>265453.88764929766</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6239,19 +6269,19 @@
         <v>22890.965290363798</v>
       </c>
       <c r="G97" s="96">
-        <f t="shared" ref="G97:J97" si="72">G142</f>
+        <f t="shared" ref="G97:J97" si="74">G142</f>
         <v>24313.380365301728</v>
       </c>
       <c r="H97" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>25402.486650750256</v>
       </c>
       <c r="I97" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>26651.889992198783</v>
       </c>
       <c r="J97" s="96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>28087.751467234459</v>
       </c>
     </row>
@@ -6273,19 +6303,19 @@
         <v>23843.448304199999</v>
       </c>
       <c r="G98" s="96">
-        <f t="shared" ref="G98:J98" si="73">G150</f>
+        <f t="shared" ref="G98:J98" si="75">G150</f>
         <v>23850.325818191232</v>
       </c>
       <c r="H98" s="96">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>23835.268500424805</v>
       </c>
       <c r="I98" s="96">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>23974.217865745366</v>
       </c>
       <c r="J98" s="96">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>23958.96787583199</v>
       </c>
     </row>
@@ -6337,19 +6367,19 @@
         <v>16960</v>
       </c>
       <c r="G100" s="96">
-        <f t="shared" ref="G100:J100" si="74">G212</f>
+        <f t="shared" ref="G100:J100" si="76">G212</f>
         <v>16960</v>
       </c>
       <c r="H100" s="96">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>14460</v>
       </c>
       <c r="I100" s="96">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>14460</v>
       </c>
       <c r="J100" s="96">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>8460</v>
       </c>
     </row>
@@ -6369,19 +6399,19 @@
         <v>23208</v>
       </c>
       <c r="G101" s="96">
-        <f t="shared" ref="G101:J101" si="75">G202</f>
+        <f t="shared" ref="G101:J101" si="77">G202</f>
         <v>26208</v>
       </c>
       <c r="H101" s="96">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>29208</v>
       </c>
       <c r="I101" s="96">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>32208</v>
       </c>
       <c r="J101" s="96">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>35208</v>
       </c>
     </row>
@@ -6399,23 +6429,23 @@
         <v>83451</v>
       </c>
       <c r="F102" s="89">
-        <f t="shared" ref="F102:J102" ca="1" si="76">SUM(F97:F101)</f>
+        <f t="shared" ref="F102:J102" ca="1" si="78">SUM(F97:F101)</f>
         <v>86902.413594563797</v>
       </c>
       <c r="G102" s="89">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="78"/>
         <v>91331.706183492963</v>
       </c>
       <c r="H102" s="89">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="78"/>
         <v>92905.755151175064</v>
       </c>
       <c r="I102" s="89">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="78"/>
         <v>97294.107857944153</v>
       </c>
       <c r="J102" s="89">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="78"/>
         <v>95714.719343066448</v>
       </c>
     </row>
@@ -6446,19 +6476,19 @@
         <v>21976.600293010801</v>
       </c>
       <c r="G104" s="96">
-        <f t="shared" ref="G104:J104" si="77">G228</f>
+        <f t="shared" ref="G104:J104" si="79">G228</f>
         <v>24163.665743532685</v>
       </c>
       <c r="H104" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>26448.69974853209</v>
       </c>
       <c r="I104" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>28846.121535106628</v>
       </c>
       <c r="J104" s="96">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>31372.703602012545</v>
       </c>
     </row>
@@ -6478,19 +6508,19 @@
         <v>-23968</v>
       </c>
       <c r="G105" s="96">
-        <f t="shared" ref="G105:J105" si="78">G237</f>
+        <f t="shared" ref="G105:J105" si="80">G237</f>
         <v>-47936</v>
       </c>
       <c r="H105" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-71904</v>
       </c>
       <c r="I105" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-95872</v>
       </c>
       <c r="J105" s="96">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>-119840</v>
       </c>
     </row>
@@ -6507,23 +6537,23 @@
       </c>
       <c r="F106" s="52">
         <f ca="1">F249</f>
-        <v>129430.41820870283</v>
+        <v>130224.54724442851</v>
       </c>
       <c r="G106" s="52">
-        <f t="shared" ref="G106:J106" ca="1" si="79">G249</f>
-        <v>158407.81634816097</v>
+        <f t="shared" ref="G106:J106" ca="1" si="81">G249</f>
+        <v>160107.508383429</v>
       </c>
       <c r="H106" s="52">
-        <f t="shared" ca="1" si="79"/>
-        <v>188691.40557688577</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>191340.79324579198</v>
       </c>
       <c r="I106" s="52">
-        <f t="shared" ca="1" si="79"/>
-        <v>220473.4339692666</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>224123.56575856666</v>
       </c>
       <c r="J106" s="52">
-        <f t="shared" ca="1" si="79"/>
-        <v>253977.52520268637</v>
+        <f t="shared" ca="1" si="81"/>
+        <v>258677.46470433022</v>
       </c>
     </row>
     <row r="107" spans="2:10">
@@ -6542,19 +6572,19 @@
         <v>-471</v>
       </c>
       <c r="G107" s="96">
-        <f t="shared" ref="G107:J107" si="80">G258</f>
+        <f t="shared" ref="G107:J107" si="82">G258</f>
         <v>-471</v>
       </c>
       <c r="H107" s="96">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-471</v>
       </c>
       <c r="I107" s="96">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-471</v>
       </c>
       <c r="J107" s="96">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-471</v>
       </c>
     </row>
@@ -6572,24 +6602,24 @@
         <v>123549</v>
       </c>
       <c r="F108" s="89">
-        <f t="shared" ref="F108:J108" ca="1" si="81">SUM(F104:F107)</f>
-        <v>126968.01850171364</v>
+        <f t="shared" ref="F108:J108" ca="1" si="83">SUM(F104:F107)</f>
+        <v>127762.1475374393</v>
       </c>
       <c r="G108" s="89">
-        <f t="shared" ca="1" si="81"/>
-        <v>134164.48209169364</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>135864.17412696168</v>
       </c>
       <c r="H108" s="89">
-        <f t="shared" ca="1" si="81"/>
-        <v>142765.10532541786</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>145414.49299432407</v>
       </c>
       <c r="I108" s="89">
-        <f t="shared" ca="1" si="81"/>
-        <v>152976.55550437322</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>156626.68729367328</v>
       </c>
       <c r="J108" s="89">
-        <f t="shared" ca="1" si="81"/>
-        <v>165039.22880469891</v>
+        <f t="shared" ca="1" si="83"/>
+        <v>169739.16830634276</v>
       </c>
     </row>
     <row r="109" spans="2:10">
@@ -6617,24 +6647,24 @@
         <v>0</v>
       </c>
       <c r="F110" s="96">
-        <f t="shared" ref="F110:J110" ca="1" si="82">F95-(F102+F108)</f>
-        <v>-151339.64274614383</v>
+        <f t="shared" ref="F110:J110" ca="1" si="84">F95-(F102+F108)</f>
+        <v>0</v>
       </c>
       <c r="G110" s="96">
-        <f t="shared" ca="1" si="82"/>
-        <v>-158822.07608202755</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>0</v>
       </c>
       <c r="H110" s="96">
-        <f t="shared" ca="1" si="82"/>
-        <v>-164721.65920837983</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-6.4028427004814148E-10</v>
       </c>
       <c r="I110" s="96">
-        <f t="shared" ca="1" si="82"/>
-        <v>-174496.68527417741</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>1.1175870895385742E-8</v>
       </c>
       <c r="J110" s="96">
-        <f t="shared" ca="1" si="82"/>
-        <v>-179610.84961238003</v>
+        <f t="shared" ca="1" si="84"/>
+        <v>-1.1158408597111702E-7</v>
       </c>
     </row>
     <row r="111" spans="2:10">
@@ -6778,31 +6808,31 @@
       </c>
       <c r="C120" s="80"/>
       <c r="D120" s="80">
-        <f t="shared" ref="D120:J121" si="83">D13</f>
+        <f t="shared" ref="D120:J121" si="85">D13</f>
         <v>2012</v>
       </c>
       <c r="E120" s="80">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2013</v>
       </c>
       <c r="F120" s="81">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2014</v>
       </c>
       <c r="G120" s="81">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2015</v>
       </c>
       <c r="H120" s="81">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2016</v>
       </c>
       <c r="I120" s="81">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2017</v>
       </c>
       <c r="J120" s="81">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2018</v>
       </c>
     </row>
@@ -6813,31 +6843,31 @@
       </c>
       <c r="C121" s="82"/>
       <c r="D121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>41181</v>
       </c>
       <c r="E121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>41545</v>
       </c>
       <c r="F121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>41912</v>
       </c>
       <c r="G121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>42277</v>
       </c>
       <c r="H121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>42643</v>
       </c>
       <c r="I121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>43008</v>
       </c>
       <c r="J121" s="82">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>43373</v>
       </c>
     </row>
@@ -6863,23 +6893,23 @@
       <c r="D124" s="3"/>
       <c r="E124" s="110"/>
       <c r="F124" s="111">
-        <f t="shared" ref="F124:J124" si="84">E126</f>
+        <f t="shared" ref="F124:J124" si="86">E126</f>
         <v>13102</v>
       </c>
       <c r="G124" s="111">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>13535.190578699998</v>
       </c>
       <c r="H124" s="111">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>14329.049503419239</v>
       </c>
       <c r="I124" s="111">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>14970.912446547813</v>
       </c>
       <c r="J124" s="111">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>15707.246187902134</v>
       </c>
     </row>
@@ -6895,19 +6925,19 @@
         <v>433.19057869999779</v>
       </c>
       <c r="G125" s="101">
-        <f t="shared" ref="G125:J125" si="85">G126-G124</f>
+        <f t="shared" ref="G125:J125" si="87">G126-G124</f>
         <v>793.85892471924126</v>
       </c>
       <c r="H125" s="101">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>641.86294312857353</v>
       </c>
       <c r="I125" s="101">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>736.33374135432132</v>
       </c>
       <c r="J125" s="101">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>846.22252630906041</v>
       </c>
     </row>
@@ -6929,19 +6959,19 @@
         <v>13535.190578699998</v>
       </c>
       <c r="G126" s="101">
-        <f t="shared" ref="G126:J126" si="86">IF(G128,(G128*G16), G124*(G16/F16))</f>
+        <f t="shared" ref="G126:J126" si="88">IF(G128,(G128*G16), G124*(G16/F16))</f>
         <v>14329.049503419239</v>
       </c>
       <c r="H126" s="101">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>14970.912446547813</v>
       </c>
       <c r="I126" s="101">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>15707.246187902134</v>
       </c>
       <c r="J126" s="101">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>16553.468714211194</v>
       </c>
     </row>
@@ -6992,23 +7022,23 @@
         <v>27.980984143701363</v>
       </c>
       <c r="F129" s="107">
-        <f t="shared" ref="F129:J129" si="87">365*F128</f>
+        <f t="shared" ref="F129:J129" si="89">365*F128</f>
         <v>27.557499999999997</v>
       </c>
       <c r="G129" s="107">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>27.74</v>
       </c>
       <c r="H129" s="107">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>27.74</v>
       </c>
       <c r="I129" s="107">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>27.74</v>
       </c>
       <c r="J129" s="107">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>27.74</v>
       </c>
     </row>
@@ -7052,15 +7082,15 @@
         <v>1804.2140130335999</v>
       </c>
       <c r="H132" s="108">
-        <f t="shared" ref="H132:J132" si="88">G134</f>
+        <f t="shared" ref="H132:J132" si="90">G134</f>
         <v>1947.4309515897016</v>
       </c>
       <c r="I132" s="108">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2034.6651928998995</v>
       </c>
       <c r="J132" s="108">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>2134.7387615110679</v>
       </c>
     </row>
@@ -7076,19 +7106,19 @@
         <v>40.21401303359994</v>
       </c>
       <c r="G133" s="72">
-        <f t="shared" ref="G133:J133" si="89">G134-G132</f>
+        <f t="shared" ref="G133:J133" si="91">G134-G132</f>
         <v>143.2169385561017</v>
       </c>
       <c r="H133" s="72">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>87.234241310197831</v>
       </c>
       <c r="I133" s="72">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>100.07356861116841</v>
       </c>
       <c r="J133" s="72">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>115.00832202955644</v>
       </c>
     </row>
@@ -7114,15 +7144,15 @@
         <v>1947.4309515897016</v>
       </c>
       <c r="H134" s="72">
-        <f t="shared" ref="H134:J134" si="90">-(IF(H136,(H136*H17),(G134*(H16/G16))))</f>
+        <f t="shared" ref="H134:J134" si="92">-(IF(H136,(H136*H17),(G134*(H16/G16))))</f>
         <v>2034.6651928998995</v>
       </c>
       <c r="I134" s="72">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>2134.7387615110679</v>
       </c>
       <c r="J134" s="72">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>2249.7470835406243</v>
       </c>
     </row>
@@ -7172,31 +7202,31 @@
       </c>
       <c r="C137" s="105"/>
       <c r="D137" s="73">
-        <f t="shared" ref="D137:J137" si="91">-(D17/D134)</f>
+        <f t="shared" ref="D137:J137" si="93">-(D17/D134)</f>
         <v>111.05689001264223</v>
       </c>
       <c r="E137" s="73">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>60.434240362811792</v>
       </c>
       <c r="F137" s="73">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>62.499999999999993</v>
       </c>
       <c r="G137" s="73">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>60.606060606060602</v>
       </c>
       <c r="H137" s="73">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>60.606060606060602</v>
       </c>
       <c r="I137" s="73">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>60.606060606060602</v>
       </c>
       <c r="J137" s="73">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>60.606060606060602</v>
       </c>
     </row>
@@ -7236,19 +7266,19 @@
         <v>22367</v>
       </c>
       <c r="G140" s="108">
-        <f t="shared" ref="G140:J140" si="92">F142</f>
+        <f t="shared" ref="G140:J140" si="94">F142</f>
         <v>22890.965290363798</v>
       </c>
       <c r="H140" s="108">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>24313.380365301728</v>
       </c>
       <c r="I140" s="108">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>25402.486650750256</v>
       </c>
       <c r="J140" s="108">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>26651.889992198783</v>
       </c>
     </row>
@@ -7264,19 +7294,19 @@
         <v>523.96529036379798</v>
       </c>
       <c r="G141" s="72">
-        <f t="shared" ref="G141:J141" si="93">G142-G140</f>
+        <f t="shared" ref="G141:J141" si="95">G142-G140</f>
         <v>1422.4150749379296</v>
       </c>
       <c r="H141" s="72">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1089.1062854485281</v>
       </c>
       <c r="I141" s="72">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1249.4033414485275</v>
       </c>
       <c r="J141" s="72">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>1435.8614750356755</v>
       </c>
     </row>
@@ -7298,19 +7328,19 @@
         <v>22890.965290363798</v>
       </c>
       <c r="G142" s="72">
-        <f t="shared" ref="G142:J142" si="94">-IF(G144,(G144*G17),(F142*(G17/F17)))</f>
+        <f t="shared" ref="G142:J142" si="96">-IF(G144,(G144*G17),(F142*(G17/F17)))</f>
         <v>24313.380365301728</v>
       </c>
       <c r="H142" s="72">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>25402.486650750256</v>
       </c>
       <c r="I142" s="72">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>26651.889992198783</v>
       </c>
       <c r="J142" s="72">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>28087.751467234459</v>
       </c>
     </row>
@@ -7368,23 +7398,23 @@
         <v>76.580633360223629</v>
       </c>
       <c r="F145" s="71">
-        <f t="shared" ref="F145:J145" si="95">365*F144</f>
+        <f t="shared" ref="F145:J145" si="97">365*F144</f>
         <v>74.094999999999999</v>
       </c>
       <c r="G145" s="71">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>75.19</v>
       </c>
       <c r="H145" s="71">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>75.19</v>
       </c>
       <c r="I145" s="71">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>75.19</v>
       </c>
       <c r="J145" s="71">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>75.19</v>
       </c>
     </row>
@@ -7424,19 +7454,19 @@
         <v>23916</v>
       </c>
       <c r="G148" s="108">
-        <f t="shared" ref="G148:J148" si="96">F150</f>
+        <f t="shared" ref="G148:J148" si="98">F150</f>
         <v>23843.448304199999</v>
       </c>
       <c r="H148" s="108">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>23850.325818191232</v>
       </c>
       <c r="I148" s="108">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>23835.268500424805</v>
       </c>
       <c r="J148" s="108">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>23974.217865745366</v>
       </c>
     </row>
@@ -7452,19 +7482,19 @@
         <v>-72.551695800000743</v>
       </c>
       <c r="G149" s="72">
-        <f t="shared" ref="G149:J149" si="97">G150-G148</f>
+        <f t="shared" ref="G149:J149" si="99">G150-G148</f>
         <v>6.8775139912322629</v>
       </c>
       <c r="H149" s="72">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>-15.057317766426422</v>
       </c>
       <c r="I149" s="72">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>138.9493653205609</v>
       </c>
       <c r="J149" s="72">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>-15.249989913376339</v>
       </c>
     </row>
@@ -7486,19 +7516,19 @@
         <v>23843.448304199999</v>
       </c>
       <c r="G150" s="72">
-        <f t="shared" ref="G150:J150" si="98">IF(G152, (G16*G152), (F150*(G16/F16)))</f>
+        <f t="shared" ref="G150:J150" si="100">IF(G152, (G16*G152), (F150*(G16/F16)))</f>
         <v>23850.325818191232</v>
       </c>
       <c r="H150" s="72">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>23835.268500424805</v>
       </c>
       <c r="I150" s="72">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>23974.217865745366</v>
       </c>
       <c r="J150" s="72">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>23958.96787583199</v>
       </c>
     </row>
@@ -7560,77 +7590,77 @@
     </row>
     <row r="155" spans="1:10">
       <c r="B155" s="79" t="str">
-        <f t="shared" ref="B155:J156" si="99">B13</f>
+        <f t="shared" ref="B155:J156" si="101">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C155" s="80">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2011</v>
       </c>
       <c r="D155" s="80">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2012</v>
       </c>
       <c r="E155" s="80">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2013</v>
       </c>
       <c r="F155" s="81">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2014</v>
       </c>
       <c r="G155" s="81">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2015</v>
       </c>
       <c r="H155" s="81">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2016</v>
       </c>
       <c r="I155" s="81">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2017</v>
       </c>
       <c r="J155" s="81">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>2018</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="B156" s="2" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>40810</v>
       </c>
       <c r="D156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>41181</v>
       </c>
       <c r="E156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>41545</v>
       </c>
       <c r="F156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>41912</v>
       </c>
       <c r="G156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>42277</v>
       </c>
       <c r="H156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>42643</v>
       </c>
       <c r="I156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>43008</v>
       </c>
       <c r="J156" s="82">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>43373</v>
       </c>
     </row>
@@ -7649,19 +7679,19 @@
         <v>5756</v>
       </c>
       <c r="G158" s="72">
-        <f t="shared" ref="G158:J158" si="100">F161</f>
+        <f t="shared" ref="G158:J158" si="102">F161</f>
         <v>4706</v>
       </c>
       <c r="H158" s="72">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>3721</v>
       </c>
       <c r="I158" s="72">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2888</v>
       </c>
       <c r="J158" s="72">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2282</v>
       </c>
     </row>
@@ -7677,19 +7707,19 @@
         <v>0</v>
       </c>
       <c r="G159" s="68">
-        <f t="shared" ref="G159:J159" si="101">G163</f>
+        <f t="shared" ref="G159:J159" si="103">G163</f>
         <v>0</v>
       </c>
       <c r="H159" s="68">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I159" s="68">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="J159" s="68">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
     </row>
@@ -7705,19 +7735,19 @@
         <v>-1050</v>
       </c>
       <c r="G160" s="72">
-        <f t="shared" ref="G160:J160" si="102">G164</f>
+        <f t="shared" ref="G160:J160" si="104">G164</f>
         <v>-985</v>
       </c>
       <c r="H160" s="72">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>-833</v>
       </c>
       <c r="I160" s="72">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>-606</v>
       </c>
       <c r="J160" s="72">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>-434</v>
       </c>
     </row>
@@ -7739,19 +7769,19 @@
         <v>4706</v>
       </c>
       <c r="G161" s="72">
-        <f t="shared" ref="G161:J161" si="103">SUM(G158:G160)</f>
+        <f t="shared" ref="G161:J161" si="105">SUM(G158:G160)</f>
         <v>3721</v>
       </c>
       <c r="H161" s="72">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2888</v>
       </c>
       <c r="I161" s="72">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2282</v>
       </c>
       <c r="J161" s="72">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1848</v>
       </c>
     </row>
@@ -7845,77 +7875,77 @@
     </row>
     <row r="167" spans="1:10">
       <c r="B167" s="79" t="str">
-        <f t="shared" ref="B167:J168" si="104">B13</f>
+        <f t="shared" ref="B167:J168" si="106">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C167" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2011</v>
       </c>
       <c r="D167" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2012</v>
       </c>
       <c r="E167" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2013</v>
       </c>
       <c r="F167" s="81">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2014</v>
       </c>
       <c r="G167" s="81">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2015</v>
       </c>
       <c r="H167" s="81">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2016</v>
       </c>
       <c r="I167" s="81">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2017</v>
       </c>
       <c r="J167" s="81">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>2018</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="B168" s="2" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>40810</v>
       </c>
       <c r="D168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>41181</v>
       </c>
       <c r="E168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>41545</v>
       </c>
       <c r="F168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>41912</v>
       </c>
       <c r="G168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>42277</v>
       </c>
       <c r="H168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>42643</v>
       </c>
       <c r="I168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>43008</v>
       </c>
       <c r="J168" s="82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>43373</v>
       </c>
     </row>
@@ -7934,19 +7964,19 @@
         <v>16597</v>
       </c>
       <c r="G170" s="72">
-        <f t="shared" ref="G170:J170" si="105">F173</f>
+        <f t="shared" ref="G170:J170" si="107">F173</f>
         <v>19465.3847584</v>
       </c>
       <c r="H170" s="72">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>23656.631738150129</v>
       </c>
       <c r="I170" s="72">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>28035.623628765366</v>
       </c>
       <c r="J170" s="72">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>32629.993138726739</v>
       </c>
     </row>
@@ -7962,19 +7992,19 @@
         <v>8963.7023699999991</v>
       </c>
       <c r="G171" s="72">
-        <f t="shared" ref="G171:J171" si="106">G175</f>
+        <f t="shared" ref="G171:J171" si="108">G175</f>
         <v>10746.78712756443</v>
       </c>
       <c r="H171" s="72">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>11228.18433491086</v>
       </c>
       <c r="I171" s="72">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>11780.434640926602</v>
       </c>
       <c r="J171" s="72">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>12415.101535658396</v>
       </c>
     </row>
@@ -8030,19 +8060,19 @@
         <v>19465.3847584</v>
       </c>
       <c r="G173" s="72">
-        <f t="shared" ref="G173:J173" si="107">SUM(G170:G172)</f>
+        <f t="shared" ref="G173:J173" si="109">SUM(G170:G172)</f>
         <v>23656.631738150129</v>
       </c>
       <c r="H173" s="72">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>28035.623628765366</v>
       </c>
       <c r="I173" s="72">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>32629.993138726739</v>
       </c>
       <c r="J173" s="72">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>37471.882737633518</v>
       </c>
     </row>
@@ -8075,19 +8105,19 @@
         <v>8963.7023699999991</v>
       </c>
       <c r="G175" s="72">
-        <f t="shared" ref="G175:J175" si="108">IF(G176,G176*G16,(F175*(G16/F16)))</f>
+        <f t="shared" ref="G175:J175" si="110">IF(G176,G176*G16,(F175*(G16/F16)))</f>
         <v>10746.78712756443</v>
       </c>
       <c r="H175" s="72">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>11228.18433491086</v>
       </c>
       <c r="I175" s="72">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>11780.434640926602</v>
       </c>
       <c r="J175" s="72">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>12415.101535658396</v>
       </c>
     </row>
@@ -8100,11 +8130,11 @@
         <v>3.9353712274478286E-2</v>
       </c>
       <c r="D176" s="65">
-        <f t="shared" ref="D176:E176" si="109">D175/D16</f>
+        <f t="shared" ref="D176:E176" si="111">D175/D16</f>
         <v>5.3000485598180283E-2</v>
       </c>
       <c r="E176" s="65">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>4.7773682054882687E-2</v>
       </c>
       <c r="F176" s="69">
@@ -8144,19 +8174,19 @@
         <v>-6095.3176115999995</v>
       </c>
       <c r="G177" s="72">
-        <f t="shared" ref="G177:J177" si="110">-(G178*G175)</f>
+        <f t="shared" ref="G177:J177" si="112">-(G178*G175)</f>
         <v>-6555.5401478143021</v>
       </c>
       <c r="H177" s="72">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>-6849.1924442956242</v>
       </c>
       <c r="I177" s="72">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>-7186.0651309652267</v>
       </c>
       <c r="J177" s="72">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>-7573.2119367516216</v>
       </c>
     </row>
@@ -8210,77 +8240,77 @@
     </row>
     <row r="181" spans="1:10">
       <c r="B181" s="79" t="str">
-        <f t="shared" ref="B181:J182" si="111">B13</f>
+        <f t="shared" ref="B181:J182" si="113">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C181" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2011</v>
       </c>
       <c r="D181" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2012</v>
       </c>
       <c r="E181" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2013</v>
       </c>
       <c r="F181" s="81">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2014</v>
       </c>
       <c r="G181" s="81">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2015</v>
       </c>
       <c r="H181" s="81">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2016</v>
       </c>
       <c r="I181" s="81">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2017</v>
       </c>
       <c r="J181" s="81">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2018</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="B182" s="2" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>40810</v>
       </c>
       <c r="D182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>41181</v>
       </c>
       <c r="E182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>41545</v>
       </c>
       <c r="F182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>41912</v>
       </c>
       <c r="G182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>42277</v>
       </c>
       <c r="H182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>42643</v>
       </c>
       <c r="I182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>43008</v>
       </c>
       <c r="J182" s="82">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>43373</v>
       </c>
     </row>
@@ -8303,19 +8333,19 @@
         <v>14421</v>
       </c>
       <c r="G185" s="72">
-        <f t="shared" ref="G185:J185" si="112">F187</f>
+        <f t="shared" ref="G185:J185" si="114">F187</f>
         <v>14421</v>
       </c>
       <c r="H185" s="72">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>14421</v>
       </c>
       <c r="I185" s="72">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>14421</v>
       </c>
       <c r="J185" s="72">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>14421</v>
       </c>
     </row>
@@ -8358,19 +8388,19 @@
         <v>14421</v>
       </c>
       <c r="G187" s="72">
-        <f t="shared" ref="G187:J187" si="113">SUM(G185:G186)</f>
+        <f t="shared" ref="G187:J187" si="115">SUM(G185:G186)</f>
         <v>14421</v>
       </c>
       <c r="H187" s="72">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>14421</v>
       </c>
       <c r="I187" s="72">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>14421</v>
       </c>
       <c r="J187" s="72">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>14421</v>
       </c>
     </row>
@@ -8407,19 +8437,19 @@
         <v>3453</v>
       </c>
       <c r="G190" s="72">
-        <f t="shared" ref="G190:J190" si="114">F192</f>
+        <f t="shared" ref="G190:J190" si="116">F192</f>
         <v>3453</v>
       </c>
       <c r="H190" s="72">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>3453</v>
       </c>
       <c r="I190" s="72">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>3453</v>
       </c>
       <c r="J190" s="72">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>3453</v>
       </c>
     </row>
@@ -8462,19 +8492,19 @@
         <v>3453</v>
       </c>
       <c r="G192" s="72">
-        <f t="shared" ref="G192:J192" si="115">SUM(G190:G191)</f>
+        <f t="shared" ref="G192:J192" si="117">SUM(G190:G191)</f>
         <v>3453</v>
       </c>
       <c r="H192" s="72">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>3453</v>
       </c>
       <c r="I192" s="72">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>3453</v>
       </c>
       <c r="J192" s="72">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>3453</v>
       </c>
     </row>
@@ -8511,19 +8541,19 @@
         <v>5146</v>
       </c>
       <c r="G195" s="72">
-        <f t="shared" ref="G195:J195" si="116">F197</f>
+        <f t="shared" ref="G195:J195" si="118">F197</f>
         <v>5146</v>
       </c>
       <c r="H195" s="72">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>5146</v>
       </c>
       <c r="I195" s="72">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>5146</v>
       </c>
       <c r="J195" s="72">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>5146</v>
       </c>
     </row>
@@ -8566,19 +8596,19 @@
         <v>5146</v>
       </c>
       <c r="G197" s="72">
-        <f t="shared" ref="G197:J197" si="117">SUM(G195:G196)</f>
+        <f t="shared" ref="G197:J197" si="119">SUM(G195:G196)</f>
         <v>5146</v>
       </c>
       <c r="H197" s="72">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>5146</v>
       </c>
       <c r="I197" s="72">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>5146</v>
       </c>
       <c r="J197" s="72">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>5146</v>
       </c>
     </row>
@@ -8615,19 +8645,19 @@
         <v>20208</v>
       </c>
       <c r="G200" s="72">
-        <f t="shared" ref="G200:J200" si="118">F202</f>
+        <f t="shared" ref="G200:J200" si="120">F202</f>
         <v>23208</v>
       </c>
       <c r="H200" s="72">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>26208</v>
       </c>
       <c r="I200" s="72">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>29208</v>
       </c>
       <c r="J200" s="72">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>32208</v>
       </c>
     </row>
@@ -8675,15 +8705,15 @@
         <v>26208</v>
       </c>
       <c r="H202" s="72">
-        <f t="shared" ref="G202:J202" si="119">SUM(H200:H201)</f>
+        <f t="shared" ref="G202:J202" si="121">SUM(H200:H201)</f>
         <v>29208</v>
       </c>
       <c r="I202" s="72">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>32208</v>
       </c>
       <c r="J202" s="72">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>35208</v>
       </c>
     </row>
@@ -8710,31 +8740,31 @@
       </c>
       <c r="C205" s="80"/>
       <c r="D205" s="80">
-        <f t="shared" ref="D205:J206" si="120">D13</f>
+        <f t="shared" ref="D205:J206" si="122">D13</f>
         <v>2012</v>
       </c>
       <c r="E205" s="80">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2013</v>
       </c>
       <c r="F205" s="81">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2014</v>
       </c>
       <c r="G205" s="81">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2015</v>
       </c>
       <c r="H205" s="81">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2016</v>
       </c>
       <c r="I205" s="81">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2017</v>
       </c>
       <c r="J205" s="81">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>2018</v>
       </c>
     </row>
@@ -8745,31 +8775,31 @@
       </c>
       <c r="C206" s="82"/>
       <c r="D206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>41181</v>
       </c>
       <c r="E206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>41545</v>
       </c>
       <c r="F206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>41912</v>
       </c>
       <c r="G206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>42277</v>
       </c>
       <c r="H206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>42643</v>
       </c>
       <c r="I206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>43008</v>
       </c>
       <c r="J206" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>43373</v>
       </c>
     </row>
@@ -8792,19 +8822,19 @@
         <v>16960</v>
       </c>
       <c r="G209" s="96">
-        <f t="shared" ref="G209:J209" si="121">F212</f>
+        <f t="shared" ref="G209:J209" si="123">F212</f>
         <v>16960</v>
       </c>
       <c r="H209" s="96">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>16960</v>
       </c>
       <c r="I209" s="96">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>14460</v>
       </c>
       <c r="J209" s="96">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>14460</v>
       </c>
     </row>
@@ -8843,19 +8873,19 @@
         <v>0</v>
       </c>
       <c r="G211">
-        <f t="shared" ref="G211:J211" si="122">G214*G218</f>
+        <f t="shared" ref="G211:J211" si="124">G214*G218</f>
         <v>0</v>
       </c>
       <c r="H211">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="I211">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
     </row>
@@ -8876,19 +8906,19 @@
         <v>16960</v>
       </c>
       <c r="G212" s="96">
-        <f t="shared" ref="G212:J212" si="123">SUM(G209:G211)</f>
+        <f t="shared" ref="G212:J212" si="125">SUM(G209:G211)</f>
         <v>16960</v>
       </c>
       <c r="H212" s="96">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>14460</v>
       </c>
       <c r="I212" s="96">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>14460</v>
       </c>
       <c r="J212" s="96">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>8460</v>
       </c>
     </row>
@@ -8921,7 +8951,7 @@
         <v>316.70000000000005</v>
       </c>
       <c r="I214" s="120">
-        <f t="shared" ref="I214:J214" si="124">0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
+        <f t="shared" ref="I214:J214" si="126">0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
         <v>316.70000000000005</v>
       </c>
       <c r="J214" s="120">
@@ -8940,19 +8970,19 @@
         <v>1.9425117924528303E-2</v>
       </c>
       <c r="G215" s="56">
-        <f t="shared" ref="G215:J215" si="125">G214/AVERAGE(G212,G209)</f>
+        <f t="shared" ref="G215:J215" si="127">G214/AVERAGE(G212,G209)</f>
         <v>1.9425117924528303E-2</v>
       </c>
       <c r="H215" s="56">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.0159134309357101E-2</v>
       </c>
       <c r="I215" s="56">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.1901798063623794E-2</v>
       </c>
       <c r="J215" s="56">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2.1945898778359514E-2</v>
       </c>
     </row>
@@ -8999,19 +9029,19 @@
         <v>0</v>
       </c>
       <c r="G218" s="121">
-        <f t="shared" ref="G218:J218" si="126">1-G217</f>
+        <f t="shared" ref="G218:J218" si="128">1-G217</f>
         <v>0</v>
       </c>
       <c r="H218" s="121">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I218" s="121">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="J218" s="121">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
     </row>
@@ -9033,71 +9063,71 @@
     </row>
     <row r="221" spans="1:10">
       <c r="B221" s="79" t="str">
-        <f t="shared" ref="B221:B222" si="127">B13</f>
+        <f t="shared" ref="B221:B222" si="129">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C221" s="80"/>
       <c r="D221" s="80">
-        <f t="shared" ref="D221:J222" si="128">D13</f>
+        <f t="shared" ref="D221:J222" si="130">D13</f>
         <v>2012</v>
       </c>
       <c r="E221" s="80">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2013</v>
       </c>
       <c r="F221" s="81">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2014</v>
       </c>
       <c r="G221" s="81">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2015</v>
       </c>
       <c r="H221" s="81">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2016</v>
       </c>
       <c r="I221" s="81">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2017</v>
       </c>
       <c r="J221" s="81">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>2018</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="B222" s="2" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C222" s="82"/>
       <c r="D222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>41181</v>
       </c>
       <c r="E222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>41545</v>
       </c>
       <c r="F222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>41912</v>
       </c>
       <c r="G222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>42277</v>
       </c>
       <c r="H222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>42643</v>
       </c>
       <c r="I222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>43008</v>
       </c>
       <c r="J222" s="82">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>43373</v>
       </c>
     </row>
@@ -9121,19 +9151,19 @@
         <v>19764</v>
       </c>
       <c r="G225" s="72">
-        <f t="shared" ref="G225:J225" si="129">F228</f>
+        <f t="shared" ref="G225:J225" si="131">F228</f>
         <v>21976.600293010801</v>
       </c>
       <c r="H225" s="72">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>24163.665743532685</v>
       </c>
       <c r="I225" s="72">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>26448.69974853209</v>
       </c>
       <c r="J225" s="72">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>28846.121535106628</v>
       </c>
     </row>
@@ -9149,19 +9179,19 @@
         <v>0</v>
       </c>
       <c r="G226" s="68">
-        <f t="shared" ref="G226:J226" si="130">G230</f>
+        <f t="shared" ref="G226:J226" si="132">G230</f>
         <v>0</v>
       </c>
       <c r="H226" s="68">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="I226" s="68">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
       <c r="J226" s="68">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
     </row>
@@ -9177,19 +9207,19 @@
         <v>2212.6002930107998</v>
       </c>
       <c r="G227" s="72">
-        <f t="shared" ref="G227:J227" si="131">G231</f>
+        <f t="shared" ref="G227:J227" si="133">G231</f>
         <v>2187.0654505218836</v>
       </c>
       <c r="H227" s="72">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>2285.0340049994029</v>
       </c>
       <c r="I227" s="72">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>2397.4217865745363</v>
       </c>
       <c r="J227" s="72">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>2526.5820669059194</v>
       </c>
     </row>
@@ -9211,19 +9241,19 @@
         <v>21976.600293010801</v>
       </c>
       <c r="G228" s="72">
-        <f t="shared" ref="G228:J228" si="132">SUM(G225:G227)</f>
+        <f t="shared" ref="G228:J228" si="134">SUM(G225:G227)</f>
         <v>24163.665743532685</v>
       </c>
       <c r="H228" s="72">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>26448.69974853209</v>
       </c>
       <c r="I228" s="72">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>28846.121535106628</v>
       </c>
       <c r="J228" s="72">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>31372.703602012545</v>
       </c>
     </row>
@@ -9281,19 +9311,19 @@
         <v>2212.6002930107998</v>
       </c>
       <c r="G231" s="72">
-        <f t="shared" ref="G231:J231" si="133">-(G232*SUM(G17,G19:G20))</f>
+        <f t="shared" ref="G231:J231" si="135">-(G232*SUM(G17,G19:G20))</f>
         <v>2187.0654505218836</v>
       </c>
       <c r="H231" s="72">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>2285.0340049994029</v>
       </c>
       <c r="I231" s="72">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>2397.4217865745363</v>
       </c>
       <c r="J231" s="72">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>2526.5820669059194</v>
       </c>
     </row>
@@ -9362,19 +9392,19 @@
         <v>0</v>
       </c>
       <c r="G235" s="72">
-        <f t="shared" ref="G235:J235" si="134">F237</f>
+        <f t="shared" ref="G235:J235" si="136">F237</f>
         <v>-23968</v>
       </c>
       <c r="H235" s="72">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>-47936</v>
       </c>
       <c r="I235" s="72">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>-71904</v>
       </c>
       <c r="J235" s="72">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>-95872</v>
       </c>
     </row>
@@ -9390,19 +9420,19 @@
         <v>-23968</v>
       </c>
       <c r="G236" s="72">
-        <f t="shared" ref="G236:J236" si="135">G239</f>
+        <f t="shared" ref="G236:J236" si="137">G239</f>
         <v>-23968</v>
       </c>
       <c r="H236" s="72">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>-23968</v>
       </c>
       <c r="I236" s="72">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>-23968</v>
       </c>
       <c r="J236" s="72">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>-23968</v>
       </c>
     </row>
@@ -9424,19 +9454,19 @@
         <v>-23968</v>
       </c>
       <c r="G237" s="72">
-        <f t="shared" ref="G237:J237" si="136">SUM(G235:G236)</f>
+        <f t="shared" ref="G237:J237" si="138">SUM(G235:G236)</f>
         <v>-47936</v>
       </c>
       <c r="H237" s="72">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>-71904</v>
       </c>
       <c r="I237" s="72">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>-95872</v>
       </c>
       <c r="J237" s="72">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>-119840</v>
       </c>
     </row>
@@ -9496,77 +9526,77 @@
     </row>
     <row r="242" spans="1:10">
       <c r="B242" s="79" t="str">
-        <f t="shared" ref="B242:J243" si="137">B13</f>
+        <f t="shared" ref="B242:J243" si="139">B13</f>
         <v xml:space="preserve">Fiscal year  </v>
       </c>
       <c r="C242" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2011</v>
       </c>
       <c r="D242" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2012</v>
       </c>
       <c r="E242" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2013</v>
       </c>
       <c r="F242" s="81">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2014</v>
       </c>
       <c r="G242" s="81">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2015</v>
       </c>
       <c r="H242" s="81">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2016</v>
       </c>
       <c r="I242" s="81">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2017</v>
       </c>
       <c r="J242" s="81">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2018</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="B243" s="2" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>Fiscal year end date</v>
       </c>
       <c r="C243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>40810</v>
       </c>
       <c r="D243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>41181</v>
       </c>
       <c r="E243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>41545</v>
       </c>
       <c r="F243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>41912</v>
       </c>
       <c r="G243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>42277</v>
       </c>
       <c r="H243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>42643</v>
       </c>
       <c r="I243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>43008</v>
       </c>
       <c r="J243" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>43373</v>
       </c>
     </row>
@@ -9598,20 +9628,20 @@
         <v>104256</v>
       </c>
       <c r="G246" s="64">
-        <f t="shared" ref="G246:J246" ca="1" si="138">F249</f>
-        <v>129430.41820870283</v>
+        <f t="shared" ref="G246:J246" ca="1" si="140">F249</f>
+        <v>130224.54724442851</v>
       </c>
       <c r="H246" s="64">
-        <f t="shared" ca="1" si="138"/>
-        <v>158407.81634816097</v>
+        <f t="shared" ca="1" si="140"/>
+        <v>160107.508383429</v>
       </c>
       <c r="I246" s="64">
-        <f t="shared" ca="1" si="138"/>
-        <v>188691.40557688577</v>
+        <f t="shared" ca="1" si="140"/>
+        <v>191340.79324579198</v>
       </c>
       <c r="J246" s="64">
-        <f t="shared" ca="1" si="138"/>
-        <v>220473.4339692666</v>
+        <f t="shared" ca="1" si="140"/>
+        <v>224123.56575856666</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9623,23 +9653,23 @@
       <c r="E247"/>
       <c r="F247" s="64">
         <f ca="1">F251</f>
-        <v>35963.454583861196</v>
+        <v>37097.92463489787</v>
       </c>
       <c r="G247" s="64">
-        <f t="shared" ref="G247:J247" ca="1" si="139">G251</f>
-        <v>38128.155446655452</v>
+        <f t="shared" ref="G247:J247" ca="1" si="141">G251</f>
+        <v>39319.685709211175</v>
       </c>
       <c r="H247" s="64">
-        <f t="shared" ca="1" si="139"/>
-        <v>39846.827932532637</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>41096.427450476906</v>
       </c>
       <c r="I247" s="64">
-        <f t="shared" ca="1" si="139"/>
-        <v>41818.458411027415</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>43135.226990506402</v>
       </c>
       <c r="J247" s="64">
-        <f t="shared" ca="1" si="139"/>
-        <v>44084.330570289167</v>
+        <f t="shared" ca="1" si="141"/>
+        <v>45465.656507429085</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -9651,23 +9681,23 @@
       <c r="E248"/>
       <c r="F248" s="72">
         <f ca="1">(F253)</f>
-        <v>-10789.036375158359</v>
+        <v>-11129.377390469361</v>
       </c>
       <c r="G248" s="72">
-        <f t="shared" ref="G248:J248" ca="1" si="140">(G253)</f>
-        <v>-9150.7573071973075</v>
+        <f t="shared" ref="G248:J248" ca="1" si="142">(G253)</f>
+        <v>-9436.7245702106811</v>
       </c>
       <c r="H248" s="72">
-        <f t="shared" ca="1" si="140"/>
-        <v>-9563.2387038078323</v>
+        <f t="shared" ca="1" si="142"/>
+        <v>-9863.1425881144569</v>
       </c>
       <c r="I248" s="72">
-        <f t="shared" ca="1" si="140"/>
-        <v>-10036.430018646579</v>
+        <f t="shared" ca="1" si="142"/>
+        <v>-10352.454477721536</v>
       </c>
       <c r="J248" s="72">
-        <f t="shared" ca="1" si="140"/>
-        <v>-10580.239336869399</v>
+        <f t="shared" ca="1" si="142"/>
+        <v>-10911.757561782981</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9683,23 +9713,23 @@
       </c>
       <c r="F249" s="64">
         <f ca="1">SUM(F246:F248)</f>
-        <v>129430.41820870283</v>
+        <v>130224.54724442851</v>
       </c>
       <c r="G249" s="64">
-        <f t="shared" ref="G249:J249" ca="1" si="141">SUM(G246:G248)</f>
-        <v>158407.81634816097</v>
+        <f t="shared" ref="G249:J249" ca="1" si="143">SUM(G246:G248)</f>
+        <v>160107.50838342903</v>
       </c>
       <c r="H249" s="64">
-        <f t="shared" ca="1" si="141"/>
-        <v>188691.40557688577</v>
+        <f t="shared" ca="1" si="143"/>
+        <v>191340.79324579146</v>
       </c>
       <c r="I249" s="64">
-        <f t="shared" ca="1" si="141"/>
-        <v>220473.4339692666</v>
+        <f t="shared" ca="1" si="143"/>
+        <v>224123.56575857685</v>
       </c>
       <c r="J249" s="64">
-        <f t="shared" ca="1" si="141"/>
-        <v>253977.52520268637</v>
+        <f t="shared" ca="1" si="143"/>
+        <v>258677.46470421276</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9723,28 +9753,28 @@
         <v>41733</v>
       </c>
       <c r="E251" s="64">
-        <f t="shared" ref="E251:J251" si="142">E27</f>
+        <f t="shared" ref="E251:J251" si="144">E27</f>
         <v>37037</v>
       </c>
       <c r="F251" s="64">
-        <f t="shared" ca="1" si="142"/>
-        <v>35963.454583861196</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>37097.92463489787</v>
       </c>
       <c r="G251" s="64">
-        <f t="shared" ca="1" si="142"/>
-        <v>38128.155446655452</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>39319.685709211175</v>
       </c>
       <c r="H251" s="64">
-        <f t="shared" ca="1" si="142"/>
-        <v>39846.827932532637</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>41096.427450476993</v>
       </c>
       <c r="I251" s="64">
-        <f t="shared" ca="1" si="142"/>
-        <v>41818.458411027415</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>43135.226990505573</v>
       </c>
       <c r="J251" s="64">
-        <f t="shared" ca="1" si="142"/>
-        <v>44084.330570289167</v>
+        <f t="shared" ca="1" si="144"/>
+        <v>45465.656507431544</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -9789,23 +9819,23 @@
       </c>
       <c r="F253" s="72">
         <f ca="1">-(F252*F251)</f>
-        <v>-10789.036375158359</v>
+        <v>-11129.377390469361</v>
       </c>
       <c r="G253" s="72">
         <f ca="1">-(G252*G251)</f>
-        <v>-9150.7573071973075</v>
+        <v>-9436.7245702106811</v>
       </c>
       <c r="H253" s="72">
         <f ca="1">-(H252*H251)</f>
-        <v>-9563.2387038078323</v>
+        <v>-9863.1425881144787</v>
       </c>
       <c r="I253" s="72">
         <f ca="1">-(I252*I251)</f>
-        <v>-10036.430018646579</v>
+        <v>-10352.454477721338</v>
       </c>
       <c r="J253" s="72">
         <f ca="1">-(J252*J251)</f>
-        <v>-10580.239336869399</v>
+        <v>-10911.75756178357</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9844,19 +9874,19 @@
         <v>-471</v>
       </c>
       <c r="G256" s="96">
-        <f t="shared" ref="G256:J256" si="143">F258</f>
+        <f t="shared" ref="G256:J256" si="145">F258</f>
         <v>-471</v>
       </c>
       <c r="H256" s="96">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-471</v>
       </c>
       <c r="I256" s="96">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-471</v>
       </c>
       <c r="J256" s="96">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>-471</v>
       </c>
     </row>
@@ -9901,19 +9931,19 @@
         <v>-471</v>
       </c>
       <c r="G258" s="96">
-        <f t="shared" ref="G258:J258" si="144">SUM(G256:G257)</f>
+        <f t="shared" ref="G258:J258" si="146">SUM(G256:G257)</f>
         <v>-471</v>
       </c>
       <c r="H258" s="96">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>-471</v>
       </c>
       <c r="I258" s="96">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>-471</v>
       </c>
       <c r="J258" s="96">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>-471</v>
       </c>
     </row>
@@ -9940,31 +9970,31 @@
       </c>
       <c r="C261" s="80"/>
       <c r="D261" s="80">
-        <f t="shared" ref="D261:J262" si="145">D13</f>
+        <f t="shared" ref="D261:J262" si="147">D13</f>
         <v>2012</v>
       </c>
       <c r="E261" s="80">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2013</v>
       </c>
       <c r="F261" s="81">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2014</v>
       </c>
       <c r="G261" s="81">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2015</v>
       </c>
       <c r="H261" s="81">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2016</v>
       </c>
       <c r="I261" s="81">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2017</v>
       </c>
       <c r="J261" s="81">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>2018</v>
       </c>
     </row>
@@ -9975,31 +10005,31 @@
       </c>
       <c r="C262" s="82"/>
       <c r="D262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>41181</v>
       </c>
       <c r="E262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>41545</v>
       </c>
       <c r="F262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>41912</v>
       </c>
       <c r="G262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>42277</v>
       </c>
       <c r="H262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>42643</v>
       </c>
       <c r="I262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>43008</v>
       </c>
       <c r="J262" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>43373</v>
       </c>
     </row>
@@ -10021,23 +10051,23 @@
       <c r="E264"/>
       <c r="F264" s="52">
         <f ca="1">F27</f>
-        <v>35963.454583861196</v>
+        <v>37097.92463489787</v>
       </c>
       <c r="G264" s="52">
-        <f t="shared" ref="G264:J264" ca="1" si="146">G27</f>
-        <v>38128.155446655452</v>
+        <f t="shared" ref="G264:J264" ca="1" si="148">G27</f>
+        <v>39319.685709211175</v>
       </c>
       <c r="H264" s="52">
-        <f t="shared" ca="1" si="146"/>
-        <v>39846.827932532637</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>41096.427450476993</v>
       </c>
       <c r="I264" s="52">
-        <f t="shared" ca="1" si="146"/>
-        <v>41818.458411027415</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>43135.226990505573</v>
       </c>
       <c r="J264" s="52">
-        <f t="shared" ca="1" si="146"/>
-        <v>44084.330570289167</v>
+        <f t="shared" ca="1" si="148"/>
+        <v>45465.656507431544</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -10052,19 +10082,19 @@
         <v>7145.3176115999995</v>
       </c>
       <c r="G265" s="96">
-        <f t="shared" ref="G265:J265" si="147">G44</f>
+        <f t="shared" ref="G265:J265" si="149">G44</f>
         <v>7540.5401478143021</v>
       </c>
       <c r="H265" s="96">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>7682.1924442956242</v>
       </c>
       <c r="I265" s="96">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>7792.0651309652267</v>
       </c>
       <c r="J265" s="96">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>8007.2119367516216</v>
       </c>
     </row>
@@ -10080,19 +10110,19 @@
         <v>2212.6002930107998</v>
       </c>
       <c r="G266" s="96">
-        <f t="shared" ref="G266:J266" si="148">G231</f>
+        <f t="shared" ref="G266:J266" si="150">G231</f>
         <v>2187.0654505218836</v>
       </c>
       <c r="H266" s="96">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2285.0340049994029</v>
       </c>
       <c r="I266" s="96">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2397.4217865745363</v>
       </c>
       <c r="J266" s="96">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2526.5820669059194</v>
       </c>
     </row>
@@ -10108,19 +10138,19 @@
         <v>-433.19057869999779</v>
       </c>
       <c r="G267" s="109">
-        <f t="shared" ref="G267:J267" si="149">-(G125)</f>
+        <f t="shared" ref="G267:J267" si="151">-(G125)</f>
         <v>-793.85892471924126</v>
       </c>
       <c r="H267" s="109">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>-641.86294312857353</v>
       </c>
       <c r="I267" s="109">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>-736.33374135432132</v>
       </c>
       <c r="J267" s="109">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>-846.22252630906041</v>
       </c>
     </row>
@@ -10135,19 +10165,19 @@
         <v>-40.21401303359994</v>
       </c>
       <c r="G268" s="96">
-        <f t="shared" ref="G268:J268" si="150">-(G133)</f>
+        <f t="shared" ref="G268:J268" si="152">-(G133)</f>
         <v>-143.2169385561017</v>
       </c>
       <c r="H268" s="96">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>-87.234241310197831</v>
       </c>
       <c r="I268" s="96">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>-100.07356861116841</v>
       </c>
       <c r="J268" s="96">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>-115.00832202955644</v>
       </c>
     </row>
@@ -10162,19 +10192,19 @@
         <v>523.96529036379798</v>
       </c>
       <c r="G269" s="96">
-        <f t="shared" ref="G269:J269" si="151">G141</f>
+        <f t="shared" ref="G269:J269" si="153">G141</f>
         <v>1422.4150749379296</v>
       </c>
       <c r="H269" s="96">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1089.1062854485281</v>
       </c>
       <c r="I269" s="96">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1249.4033414485275</v>
       </c>
       <c r="J269" s="96">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1435.8614750356755</v>
       </c>
     </row>
@@ -10189,19 +10219,19 @@
         <v>-72.551695800000743</v>
       </c>
       <c r="G270" s="96">
-        <f t="shared" ref="G270:J270" si="152">G149</f>
+        <f t="shared" ref="G270:J270" si="154">G149</f>
         <v>6.8775139912322629</v>
       </c>
       <c r="H270" s="96">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>-15.057317766426422</v>
       </c>
       <c r="I270" s="96">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>138.9493653205609</v>
       </c>
       <c r="J270" s="96">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>-15.249989913376339</v>
       </c>
     </row>
@@ -10216,19 +10246,19 @@
         <v>0</v>
       </c>
       <c r="G271">
-        <f t="shared" ref="G271:J271" si="153">-(G257)</f>
+        <f t="shared" ref="G271:J271" si="155">-(G257)</f>
         <v>0</v>
       </c>
       <c r="H271">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="I271">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
       <c r="J271">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
@@ -10243,19 +10273,19 @@
         <v>0</v>
       </c>
       <c r="G272">
-        <f t="shared" ref="G272:J272" si="154">-(G191)</f>
+        <f t="shared" ref="G272:J272" si="156">-(G191)</f>
         <v>0</v>
       </c>
       <c r="H272">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="I272">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="J272">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
     </row>
@@ -10270,19 +10300,19 @@
         <v>0</v>
       </c>
       <c r="G273">
-        <f t="shared" ref="G273:J273" si="155">-(G196)</f>
+        <f t="shared" ref="G273:J273" si="157">-(G196)</f>
         <v>0</v>
       </c>
       <c r="H273">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="I273">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="J273">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
     </row>
@@ -10297,19 +10327,19 @@
         <v>3000</v>
       </c>
       <c r="G274" s="96">
-        <f t="shared" ref="G274:J274" si="156">G201</f>
+        <f t="shared" ref="G274:J274" si="158">G201</f>
         <v>3000</v>
       </c>
       <c r="H274" s="96">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>3000</v>
       </c>
       <c r="I274" s="96">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>3000</v>
       </c>
       <c r="J274" s="96">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>3000</v>
       </c>
     </row>
@@ -10324,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="G275">
-        <f t="shared" ref="G275:J275" si="157">G211</f>
+        <f t="shared" ref="G275:J275" si="159">G211</f>
         <v>0</v>
       </c>
       <c r="H275">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="I275">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="J275">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -10348,23 +10378,23 @@
       <c r="E276"/>
       <c r="F276" s="127">
         <f ca="1">SUM(F264:F275)</f>
-        <v>48299.381491302192</v>
+        <v>49433.851542338874</v>
       </c>
       <c r="G276" s="127">
-        <f t="shared" ref="G276:J276" ca="1" si="158">SUM(G264:G275)</f>
-        <v>51347.977770645462</v>
+        <f t="shared" ref="G276:J276" ca="1" si="160">SUM(G264:G275)</f>
+        <v>52539.508033201186</v>
       </c>
       <c r="H276" s="127">
-        <f t="shared" ca="1" si="158"/>
-        <v>53159.006165070998</v>
+        <f t="shared" ca="1" si="160"/>
+        <v>54408.605683015354</v>
       </c>
       <c r="I276" s="127">
-        <f t="shared" ca="1" si="158"/>
-        <v>55559.890725370773</v>
+        <f t="shared" ca="1" si="160"/>
+        <v>56876.65930484893</v>
       </c>
       <c r="J276" s="127">
-        <f t="shared" ca="1" si="158"/>
-        <v>58077.505210730385</v>
+        <f t="shared" ca="1" si="160"/>
+        <v>59458.831147872763</v>
       </c>
     </row>
     <row r="277" spans="2:12">
@@ -10388,19 +10418,19 @@
         <v>-8963.7023699999991</v>
       </c>
       <c r="G278" s="96">
-        <f t="shared" ref="G278:J278" si="159">-(G171)</f>
+        <f t="shared" ref="G278:J278" si="161">-(G171)</f>
         <v>-10746.78712756443</v>
       </c>
       <c r="H278" s="96">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>-11228.18433491086</v>
       </c>
       <c r="I278" s="96">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>-11780.434640926602</v>
       </c>
       <c r="J278" s="96">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>-12415.101535658396</v>
       </c>
     </row>
@@ -10415,19 +10445,19 @@
         <v>0</v>
       </c>
       <c r="G279">
-        <f t="shared" ref="G279:J279" si="160">-(G159)</f>
+        <f t="shared" ref="G279:J279" si="162">-(G159)</f>
         <v>0</v>
       </c>
       <c r="H279">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="I279">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="J279">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
     </row>
@@ -10442,19 +10472,19 @@
         <v>-8963.7023699999991</v>
       </c>
       <c r="G280" s="128">
-        <f t="shared" ref="G280:J280" si="161">SUM(G278:G279)</f>
+        <f t="shared" ref="G280:J280" si="163">SUM(G278:G279)</f>
         <v>-10746.78712756443</v>
       </c>
       <c r="H280" s="128">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>-11228.18433491086</v>
       </c>
       <c r="I280" s="128">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>-11780.434640926602</v>
       </c>
       <c r="J280" s="128">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>-12415.101535658396</v>
       </c>
     </row>
@@ -10479,19 +10509,19 @@
         <v>0</v>
       </c>
       <c r="G282" s="70">
-        <f t="shared" ref="G282:J282" si="162">G210</f>
+        <f t="shared" ref="G282:J282" si="164">G210</f>
         <v>0</v>
       </c>
       <c r="H282" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>-2500</v>
       </c>
       <c r="I282" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="J282" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>-6000</v>
       </c>
     </row>
@@ -10503,23 +10533,23 @@
       <c r="E283"/>
       <c r="F283" s="96">
         <f ca="1">F248</f>
-        <v>-10789.036375158359</v>
+        <v>-11129.377390469361</v>
       </c>
       <c r="G283" s="96">
-        <f t="shared" ref="G283:J283" ca="1" si="163">G248</f>
-        <v>-9150.7573071973075</v>
+        <f t="shared" ref="G283:J283" ca="1" si="165">G248</f>
+        <v>-9436.7245702106811</v>
       </c>
       <c r="H283" s="96">
-        <f t="shared" ca="1" si="163"/>
-        <v>-9563.2387038078323</v>
+        <f t="shared" ca="1" si="165"/>
+        <v>-9863.1425881144569</v>
       </c>
       <c r="I283" s="96">
-        <f t="shared" ca="1" si="163"/>
-        <v>-10036.430018646579</v>
+        <f t="shared" ca="1" si="165"/>
+        <v>-10352.454477721536</v>
       </c>
       <c r="J283" s="96">
-        <f t="shared" ca="1" si="163"/>
-        <v>-10580.239336869399</v>
+        <f t="shared" ca="1" si="165"/>
+        <v>-10911.757561782981</v>
       </c>
       <c r="L283" s="116"/>
     </row>
@@ -10534,19 +10564,19 @@
         <v>0</v>
       </c>
       <c r="G284">
-        <f t="shared" ref="G284:J284" si="164">G226</f>
+        <f t="shared" ref="G284:J284" si="166">G226</f>
         <v>0</v>
       </c>
       <c r="H284">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="I284">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="J284">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
     </row>
@@ -10561,19 +10591,19 @@
         <v>-23968</v>
       </c>
       <c r="G285" s="96">
-        <f t="shared" ref="G285:J285" si="165">G239</f>
+        <f t="shared" ref="G285:J285" si="167">G239</f>
         <v>-23968</v>
       </c>
       <c r="H285" s="96">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-23968</v>
       </c>
       <c r="I285" s="96">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-23968</v>
       </c>
       <c r="J285" s="96">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>-23968</v>
       </c>
     </row>
@@ -10588,19 +10618,19 @@
         <v>0</v>
       </c>
       <c r="G286">
-        <f t="shared" ref="G286:J286" si="166">G257</f>
+        <f t="shared" ref="G286:J286" si="168">G257</f>
         <v>0</v>
       </c>
       <c r="H286">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="I286">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="J286">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
     </row>
@@ -10639,23 +10669,23 @@
       <c r="E288"/>
       <c r="F288" s="128">
         <f ca="1">SUM(F282:F287)</f>
-        <v>-34757.036375158357</v>
+        <v>-35097.377390469359</v>
       </c>
       <c r="G288" s="128">
-        <f t="shared" ref="G288:J288" ca="1" si="167">SUM(G282:G287)</f>
-        <v>-33118.757307197309</v>
+        <f t="shared" ref="G288:J288" ca="1" si="169">SUM(G282:G287)</f>
+        <v>-33404.724570210681</v>
       </c>
       <c r="H288" s="128">
-        <f t="shared" ca="1" si="167"/>
-        <v>-36031.23870380783</v>
+        <f t="shared" ca="1" si="169"/>
+        <v>-36331.142588114453</v>
       </c>
       <c r="I288" s="128">
-        <f t="shared" ca="1" si="167"/>
-        <v>-34004.430018646577</v>
+        <f t="shared" ca="1" si="169"/>
+        <v>-34320.454477721534</v>
       </c>
       <c r="J288" s="128">
-        <f t="shared" ca="1" si="167"/>
-        <v>-40548.239336869403</v>
+        <f t="shared" ca="1" si="169"/>
+        <v>-40879.757561782979</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10675,23 +10705,23 @@
       <c r="E290"/>
       <c r="F290" s="128">
         <f ca="1">SUM(F288,F280,F276)</f>
-        <v>4578.6427461438361</v>
+        <v>5372.7717818695164</v>
       </c>
       <c r="G290" s="128">
-        <f t="shared" ref="G290:J290" ca="1" si="168">SUM(G288,G280,G276)</f>
-        <v>7482.4333358837248</v>
+        <f t="shared" ref="G290:J290" ca="1" si="170">SUM(G288,G280,G276)</f>
+        <v>8387.9963354260763</v>
       </c>
       <c r="H290" s="128">
-        <f t="shared" ca="1" si="168"/>
-        <v>5899.5831263523069</v>
+        <f t="shared" ca="1" si="170"/>
+        <v>6849.2787599900403</v>
       </c>
       <c r="I290" s="128">
-        <f t="shared" ca="1" si="168"/>
-        <v>9775.0260657975959</v>
+        <f t="shared" ca="1" si="170"/>
+        <v>10775.770186200796</v>
       </c>
       <c r="J290" s="128">
-        <f t="shared" ca="1" si="168"/>
-        <v>5114.1643382025868</v>
+        <f t="shared" ca="1" si="170"/>
+        <v>6163.9720504313882</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10717,31 +10747,31 @@
       </c>
       <c r="C293" s="80"/>
       <c r="D293" s="80">
-        <f t="shared" ref="D293:J294" si="169">D13</f>
+        <f t="shared" ref="D293:J294" si="171">D13</f>
         <v>2012</v>
       </c>
       <c r="E293" s="80">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2013</v>
       </c>
       <c r="F293" s="81">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2014</v>
       </c>
       <c r="G293" s="81">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2015</v>
       </c>
       <c r="H293" s="81">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2016</v>
       </c>
       <c r="I293" s="81">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2017</v>
       </c>
       <c r="J293" s="81">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>2018</v>
       </c>
     </row>
@@ -10752,31 +10782,31 @@
       </c>
       <c r="C294" s="82"/>
       <c r="D294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>41181</v>
       </c>
       <c r="E294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>41545</v>
       </c>
       <c r="F294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>41912</v>
       </c>
       <c r="G294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>42277</v>
       </c>
       <c r="H294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>42643</v>
       </c>
       <c r="I294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>43008</v>
       </c>
       <c r="J294" s="82">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>43373</v>
       </c>
     </row>
@@ -10801,24 +10831,24 @@
       </c>
       <c r="D297"/>
       <c r="E297"/>
-      <c r="F297" s="96">
+      <c r="F297" s="72">
         <f>E299</f>
         <v>0</v>
       </c>
-      <c r="G297" s="96">
-        <f t="shared" ref="G297:J297" ca="1" si="170">F299</f>
-        <v>0</v>
-      </c>
-      <c r="H297" s="96">
-        <f t="shared" ca="1" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="I297" s="96">
-        <f t="shared" ca="1" si="170"/>
-        <v>0</v>
-      </c>
-      <c r="J297" s="96">
-        <f t="shared" ca="1" si="170"/>
+      <c r="G297" s="72">
+        <f t="shared" ref="G297:J297" ca="1" si="172">F299</f>
+        <v>0</v>
+      </c>
+      <c r="H297" s="72">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="I297" s="72">
+        <f t="shared" ca="1" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="J297" s="72">
+        <f t="shared" ca="1" si="172"/>
         <v>0</v>
       </c>
     </row>
@@ -10828,24 +10858,24 @@
       </c>
       <c r="D298"/>
       <c r="E298"/>
-      <c r="F298" s="96">
+      <c r="F298" s="72">
         <f ca="1">-MIN(F297,F309)</f>
         <v>0</v>
       </c>
-      <c r="G298" s="96">
-        <f t="shared" ref="G298:J298" ca="1" si="171">-MIN(G297,G309)</f>
-        <v>0</v>
-      </c>
-      <c r="H298" s="96">
-        <f t="shared" ca="1" si="171"/>
-        <v>0</v>
-      </c>
-      <c r="I298" s="96">
-        <f t="shared" ca="1" si="171"/>
-        <v>0</v>
-      </c>
-      <c r="J298" s="96">
-        <f t="shared" ca="1" si="171"/>
+      <c r="G298" s="72">
+        <f t="shared" ref="G298:J298" ca="1" si="173">-MIN(G297,G309)</f>
+        <v>0</v>
+      </c>
+      <c r="H298" s="72">
+        <f t="shared" ca="1" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="I298" s="72">
+        <f t="shared" ca="1" si="173"/>
+        <v>0</v>
+      </c>
+      <c r="J298" s="72">
+        <f t="shared" ca="1" si="173"/>
         <v>0</v>
       </c>
     </row>
@@ -10853,32 +10883,32 @@
       <c r="B299" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D299" s="96">
+      <c r="D299" s="72">
         <f>D99</f>
         <v>0</v>
       </c>
-      <c r="E299" s="96">
+      <c r="E299" s="72">
         <f>E99</f>
         <v>0</v>
       </c>
-      <c r="F299" s="96">
+      <c r="F299" s="72">
         <f ca="1">SUM(F297:F298)</f>
         <v>0</v>
       </c>
-      <c r="G299" s="96">
-        <f t="shared" ref="G299:J299" ca="1" si="172">SUM(G297:G298)</f>
-        <v>0</v>
-      </c>
-      <c r="H299" s="96">
-        <f t="shared" ca="1" si="172"/>
-        <v>0</v>
-      </c>
-      <c r="I299" s="96">
-        <f t="shared" ca="1" si="172"/>
-        <v>0</v>
-      </c>
-      <c r="J299" s="96">
-        <f t="shared" ca="1" si="172"/>
+      <c r="G299" s="72">
+        <f t="shared" ref="G299:J299" ca="1" si="174">SUM(G297:G298)</f>
+        <v>0</v>
+      </c>
+      <c r="H299" s="72">
+        <f t="shared" ca="1" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="I299" s="72">
+        <f t="shared" ca="1" si="174"/>
+        <v>0</v>
+      </c>
+      <c r="J299" s="72">
+        <f t="shared" ca="1" si="174"/>
         <v>0</v>
       </c>
     </row>
@@ -10898,24 +10928,24 @@
       </c>
       <c r="D301"/>
       <c r="E301"/>
-      <c r="F301" s="109">
+      <c r="F301" s="108">
         <f>SUM(F88:F89)</f>
         <v>15339.404591733597</v>
       </c>
-      <c r="G301" s="109">
-        <f t="shared" ref="G301:J301" si="173">SUM(G88:G89)</f>
+      <c r="G301" s="108">
+        <f t="shared" ref="G301:J301" si="175">SUM(G88:G89)</f>
         <v>16276.480455008941</v>
       </c>
-      <c r="H301" s="109">
-        <f t="shared" si="173"/>
+      <c r="H301" s="108">
+        <f t="shared" si="175"/>
         <v>17005.577639447711</v>
       </c>
-      <c r="I301" s="109">
-        <f t="shared" si="173"/>
+      <c r="I301" s="108">
+        <f t="shared" si="175"/>
         <v>17841.984949413203</v>
       </c>
-      <c r="J301" s="109">
-        <f t="shared" si="173"/>
+      <c r="J301" s="108">
+        <f t="shared" si="175"/>
         <v>18803.215797751818</v>
       </c>
     </row>
@@ -10930,19 +10960,19 @@
         <v>OK</v>
       </c>
       <c r="G302" s="131" t="str">
-        <f t="shared" ref="G302:J302" ca="1" si="174">IF(G299&gt;G301,"OVERDRAWN","OK")</f>
+        <f t="shared" ref="G302:J302" ca="1" si="176">IF(G299&gt;G301,"OVERDRAWN","OK")</f>
         <v>OK</v>
       </c>
       <c r="H302" s="131" t="str">
-        <f t="shared" ca="1" si="174"/>
+        <f t="shared" ca="1" si="176"/>
         <v>OK</v>
       </c>
       <c r="I302" s="131" t="str">
-        <f t="shared" ca="1" si="174"/>
+        <f t="shared" ca="1" si="176"/>
         <v>OK</v>
       </c>
       <c r="J302" s="131" t="str">
-        <f t="shared" ca="1" si="174"/>
+        <f t="shared" ca="1" si="176"/>
         <v>OK</v>
       </c>
     </row>
@@ -10974,25 +11004,25 @@
       </c>
       <c r="D305"/>
       <c r="E305"/>
-      <c r="F305" s="96">
+      <c r="F305" s="72">
         <f>E87</f>
         <v>146761</v>
       </c>
-      <c r="G305" s="96">
-        <f t="shared" ref="G305:J305" si="175">F87</f>
-        <v>0</v>
-      </c>
-      <c r="H305" s="96">
-        <f t="shared" si="175"/>
-        <v>0</v>
-      </c>
-      <c r="I305" s="96">
-        <f t="shared" si="175"/>
-        <v>0</v>
-      </c>
-      <c r="J305" s="96">
-        <f t="shared" si="175"/>
-        <v>0</v>
+      <c r="G305" s="72">
+        <f t="shared" ref="G305:J305" ca="1" si="177">F87</f>
+        <v>152133.77178186952</v>
+      </c>
+      <c r="H305" s="72">
+        <f t="shared" ca="1" si="177"/>
+        <v>160521.76811729561</v>
+      </c>
+      <c r="I305" s="72">
+        <f t="shared" ca="1" si="177"/>
+        <v>167371.04687728541</v>
+      </c>
+      <c r="J305" s="72">
+        <f t="shared" ca="1" si="177"/>
+        <v>178146.81706348865</v>
       </c>
     </row>
     <row r="306" spans="2:10">
@@ -11001,19 +11031,19 @@
       </c>
       <c r="D306"/>
       <c r="E306"/>
-      <c r="F306" s="70">
+      <c r="F306" s="76">
         <v>5000</v>
       </c>
-      <c r="G306" s="70">
+      <c r="G306" s="76">
         <v>5000</v>
       </c>
-      <c r="H306" s="70">
+      <c r="H306" s="76">
         <v>5000</v>
       </c>
-      <c r="I306" s="70">
+      <c r="I306" s="76">
         <v>5000</v>
       </c>
-      <c r="J306" s="70">
+      <c r="J306" s="76">
         <v>5000</v>
       </c>
     </row>
@@ -11023,25 +11053,25 @@
       </c>
       <c r="D307"/>
       <c r="E307"/>
-      <c r="F307" s="96">
+      <c r="F307" s="72">
         <f>F305-F306</f>
         <v>141761</v>
       </c>
-      <c r="G307" s="96">
-        <f t="shared" ref="G307:J307" si="176">G305-G306</f>
-        <v>-5000</v>
-      </c>
-      <c r="H307" s="96">
-        <f t="shared" si="176"/>
-        <v>-5000</v>
-      </c>
-      <c r="I307" s="96">
-        <f t="shared" si="176"/>
-        <v>-5000</v>
-      </c>
-      <c r="J307" s="96">
-        <f t="shared" si="176"/>
-        <v>-5000</v>
+      <c r="G307" s="72">
+        <f t="shared" ref="G307:J307" ca="1" si="178">G305-G306</f>
+        <v>147133.77178186952</v>
+      </c>
+      <c r="H307" s="72">
+        <f t="shared" ca="1" si="178"/>
+        <v>155521.76811729561</v>
+      </c>
+      <c r="I307" s="72">
+        <f t="shared" ca="1" si="178"/>
+        <v>162371.04687728541</v>
+      </c>
+      <c r="J307" s="72">
+        <f t="shared" ca="1" si="178"/>
+        <v>173146.81706348865</v>
       </c>
     </row>
     <row r="308" spans="2:10">
@@ -11050,25 +11080,25 @@
       </c>
       <c r="D308"/>
       <c r="E308"/>
-      <c r="F308" s="96">
+      <c r="F308" s="72">
         <f ca="1">SUM(F282:F286,F280,F276)</f>
-        <v>4578.6427461438361</v>
-      </c>
-      <c r="G308" s="96">
-        <f t="shared" ref="G308:J308" ca="1" si="177">SUM(G282:G286,G280,G276)</f>
-        <v>7482.4333358837248</v>
-      </c>
-      <c r="H308" s="96">
-        <f t="shared" ca="1" si="177"/>
-        <v>5899.5831263523069</v>
-      </c>
-      <c r="I308" s="96">
-        <f t="shared" ca="1" si="177"/>
-        <v>9775.0260657975959</v>
-      </c>
-      <c r="J308" s="96">
-        <f t="shared" ca="1" si="177"/>
-        <v>5114.1643382025868</v>
+        <v>5372.7717818695164</v>
+      </c>
+      <c r="G308" s="72">
+        <f t="shared" ref="G308:J308" ca="1" si="179">SUM(G282:G286,G280,G276)</f>
+        <v>8387.9963354260763</v>
+      </c>
+      <c r="H308" s="72">
+        <f t="shared" ca="1" si="179"/>
+        <v>6849.2787599900403</v>
+      </c>
+      <c r="I308" s="72">
+        <f t="shared" ca="1" si="179"/>
+        <v>10775.770186200796</v>
+      </c>
+      <c r="J308" s="72">
+        <f t="shared" ca="1" si="179"/>
+        <v>6163.9720504313882</v>
       </c>
     </row>
     <row r="309" spans="2:10">
@@ -11077,25 +11107,25 @@
       </c>
       <c r="D309"/>
       <c r="E309"/>
-      <c r="F309" s="96">
+      <c r="F309" s="72">
         <f ca="1">SUM(F307:F308)</f>
-        <v>146339.64274614383</v>
-      </c>
-      <c r="G309" s="96">
-        <f t="shared" ref="G309:J309" ca="1" si="178">SUM(G307:G308)</f>
-        <v>2482.4333358837248</v>
-      </c>
-      <c r="H309" s="96">
-        <f t="shared" ca="1" si="178"/>
-        <v>899.58312635230686</v>
-      </c>
-      <c r="I309" s="96">
-        <f t="shared" ca="1" si="178"/>
-        <v>4775.0260657975959</v>
-      </c>
-      <c r="J309" s="96">
-        <f t="shared" ca="1" si="178"/>
-        <v>114.1643382025868</v>
+        <v>147133.77178186952</v>
+      </c>
+      <c r="G309" s="72">
+        <f t="shared" ref="G309:J309" ca="1" si="180">SUM(G307:G308)</f>
+        <v>155521.76811729561</v>
+      </c>
+      <c r="H309" s="72">
+        <f t="shared" ca="1" si="180"/>
+        <v>162371.04687728564</v>
+      </c>
+      <c r="I309" s="72">
+        <f t="shared" ca="1" si="180"/>
+        <v>173146.8170634862</v>
+      </c>
+      <c r="J309" s="72">
+        <f t="shared" ca="1" si="180"/>
+        <v>179310.78911392004</v>
       </c>
     </row>
     <row r="310" spans="2:10">
@@ -11114,19 +11144,19 @@
       </c>
       <c r="D311"/>
       <c r="E311"/>
-      <c r="F311" s="56">
+      <c r="F311" s="69">
         <v>0.02</v>
       </c>
-      <c r="G311" s="56">
+      <c r="G311" s="69">
         <v>0.02</v>
       </c>
-      <c r="H311" s="56">
+      <c r="H311" s="69">
         <v>0.02</v>
       </c>
-      <c r="I311" s="56">
+      <c r="I311" s="69">
         <v>0.02</v>
       </c>
-      <c r="J311" s="56">
+      <c r="J311" s="69">
         <v>0.02</v>
       </c>
     </row>
@@ -11136,24 +11166,24 @@
       </c>
       <c r="D312"/>
       <c r="E312"/>
-      <c r="F312">
+      <c r="F312" s="68">
         <f ca="1">F311*AVERAGE(F297,F299)</f>
         <v>0</v>
       </c>
-      <c r="G312">
-        <f t="shared" ref="G312:J312" ca="1" si="179">G311*AVERAGE(G297,G299)</f>
-        <v>0</v>
-      </c>
-      <c r="H312">
-        <f t="shared" ca="1" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="I312">
-        <f t="shared" ca="1" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="J312">
-        <f t="shared" ca="1" si="179"/>
+      <c r="G312" s="68">
+        <f t="shared" ref="G312:J312" ca="1" si="181">G311*AVERAGE(G297,G299)</f>
+        <v>0</v>
+      </c>
+      <c r="H312" s="68">
+        <f t="shared" ca="1" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="I312" s="68">
+        <f t="shared" ca="1" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="J312" s="68">
+        <f t="shared" ca="1" si="181"/>
         <v>0</v>
       </c>
     </row>
@@ -11169,11 +11199,26 @@
       <c r="C315"/>
       <c r="D315"/>
       <c r="E315"/>
-      <c r="F315"/>
-      <c r="G315"/>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
+      <c r="F315" s="72">
+        <f>E317</f>
+        <v>146761</v>
+      </c>
+      <c r="G315" s="72">
+        <f t="shared" ref="G315:J315" ca="1" si="182">F317</f>
+        <v>152133.77178186952</v>
+      </c>
+      <c r="H315" s="72">
+        <f t="shared" ca="1" si="182"/>
+        <v>160521.76811729555</v>
+      </c>
+      <c r="I315" s="72">
+        <f t="shared" ca="1" si="182"/>
+        <v>167371.04687728718</v>
+      </c>
+      <c r="J315" s="72">
+        <f t="shared" ca="1" si="182"/>
+        <v>178146.8170634683</v>
+      </c>
     </row>
     <row r="316" spans="2:10">
       <c r="B316" s="132" t="s">
@@ -11182,24 +11227,60 @@
       <c r="C316"/>
       <c r="D316"/>
       <c r="E316"/>
-      <c r="F316"/>
-      <c r="G316"/>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
+      <c r="F316" s="72">
+        <f ca="1">F317-F315</f>
+        <v>5372.7717818695237</v>
+      </c>
+      <c r="G316" s="72">
+        <f t="shared" ref="G316:J316" ca="1" si="183">G317-G315</f>
+        <v>8387.9963354260253</v>
+      </c>
+      <c r="H316" s="72">
+        <f t="shared" ca="1" si="183"/>
+        <v>6849.2787599916337</v>
+      </c>
+      <c r="I316" s="72">
+        <f t="shared" ca="1" si="183"/>
+        <v>10775.770186181122</v>
+      </c>
+      <c r="J316" s="72">
+        <f t="shared" ca="1" si="183"/>
+        <v>6163.9720504382276</v>
+      </c>
     </row>
     <row r="317" spans="2:10">
       <c r="B317" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317"/>
-      <c r="H317"/>
-      <c r="I317"/>
-      <c r="J317"/>
+      <c r="C317" s="96"/>
+      <c r="D317" s="72">
+        <f>D87</f>
+        <v>121251</v>
+      </c>
+      <c r="E317" s="72">
+        <f>E87</f>
+        <v>146761</v>
+      </c>
+      <c r="F317" s="72">
+        <f ca="1">F87</f>
+        <v>152133.77178186952</v>
+      </c>
+      <c r="G317" s="72">
+        <f t="shared" ref="G317:J317" ca="1" si="184">G87</f>
+        <v>160521.76811729561</v>
+      </c>
+      <c r="H317" s="72">
+        <f t="shared" ca="1" si="184"/>
+        <v>167371.04687728541</v>
+      </c>
+      <c r="I317" s="72">
+        <f t="shared" ca="1" si="184"/>
+        <v>178146.81706348865</v>
+      </c>
+      <c r="J317" s="72">
+        <f t="shared" ca="1" si="184"/>
+        <v>184310.78911391232</v>
+      </c>
     </row>
     <row r="318" spans="2:10">
       <c r="B318" s="20"/>
@@ -11217,26 +11298,59 @@
         <v>159</v>
       </c>
       <c r="C319"/>
-      <c r="D319"/>
-      <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
+      <c r="D319" s="56"/>
+      <c r="E319" s="133">
+        <v>1.03E-2</v>
+      </c>
+      <c r="F319" s="133">
+        <v>1.03E-2</v>
+      </c>
+      <c r="G319" s="133">
+        <v>1.03E-2</v>
+      </c>
+      <c r="H319" s="133">
+        <v>1.03E-2</v>
+      </c>
+      <c r="I319" s="133">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J319" s="133">
+        <v>1.03E-2</v>
+      </c>
     </row>
     <row r="320" spans="2:10">
       <c r="B320" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C320"/>
-      <c r="D320"/>
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
+      <c r="C320" s="64"/>
+      <c r="D320" s="64">
+        <f t="shared" ref="D320:E320" si="185">D22</f>
+        <v>1088</v>
+      </c>
+      <c r="E320" s="64">
+        <f t="shared" si="185"/>
+        <v>1616</v>
+      </c>
+      <c r="F320" s="72">
+        <f ca="1">AVERAGE(F317,F315)*F319</f>
+        <v>1539.3080746766282</v>
+      </c>
+      <c r="G320" s="72">
+        <f t="shared" ref="G320:J320" ca="1" si="186">AVERAGE(G317,G315)*G319</f>
+        <v>1610.1760304807005</v>
+      </c>
+      <c r="H320" s="72">
+        <f t="shared" ca="1" si="186"/>
+        <v>1688.6479972220918</v>
+      </c>
+      <c r="I320" s="72">
+        <f t="shared" ca="1" si="186"/>
+        <v>1779.4169992949958</v>
+      </c>
+      <c r="J320" s="72">
+        <f t="shared" ca="1" si="186"/>
+        <v>1866.6566718135105</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40">

--- a/Apple 3 Statement Model.xlsx
+++ b/Apple 3 Statement Model.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="736" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="736" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BoostToolkitClipBoard2010" sheetId="11" state="veryHidden" r:id="rId1"/>
     <sheet name="Cover" sheetId="67" r:id="rId2"/>
     <sheet name="Model" sheetId="48" r:id="rId3"/>
     <sheet name="Dep. Waterfall" sheetId="68" r:id="rId4"/>
+    <sheet name="DCF" sheetId="69" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"a611639b-bab1-425e-aaa5-008c326fdfdb"</definedName>
@@ -164,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="279">
   <si>
     <t>Tax rate</t>
   </si>
@@ -728,13 +730,325 @@
   </si>
   <si>
     <t>Total depreciation</t>
+  </si>
+  <si>
+    <t>General assumptions</t>
+  </si>
+  <si>
+    <t>Latest basic share count</t>
+  </si>
+  <si>
+    <t>Weighted average cost of capital</t>
+  </si>
+  <si>
+    <t>Free cash flow buildup</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>tax rate</t>
+  </si>
+  <si>
+    <t>EBIAT (NOPAT)</t>
+  </si>
+  <si>
+    <t>Unlevered CFO</t>
+  </si>
+  <si>
+    <t>Less: Capital expenditures</t>
+  </si>
+  <si>
+    <t>Less: Purchases of intangible assets</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Discount factor</t>
+  </si>
+  <si>
+    <t>Present value of Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Perpetuity approach</t>
+  </si>
+  <si>
+    <t>Exit EBITDA multiple approach</t>
+  </si>
+  <si>
+    <t>Terminal year EBITDA</t>
+  </si>
+  <si>
+    <t>Terminal value EBITDA multiple</t>
+  </si>
+  <si>
+    <t>Long term growth rate (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal value </t>
+  </si>
+  <si>
+    <t>Present value of terminal value</t>
+  </si>
+  <si>
+    <t>Present value of stage 1 cash flows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise value </t>
+  </si>
+  <si>
+    <t>Net Debt</t>
+  </si>
+  <si>
+    <t>Fair value per share</t>
+  </si>
+  <si>
+    <t>Perpetuity</t>
+  </si>
+  <si>
+    <t>Enterprise value</t>
+  </si>
+  <si>
+    <t>Less: Net debt</t>
+  </si>
+  <si>
+    <t>Less: Trapped cash</t>
+  </si>
+  <si>
+    <t>Tax on undistributed trapped cash</t>
+  </si>
+  <si>
+    <t>Equity value</t>
+  </si>
+  <si>
+    <t>Options / Warrants Data</t>
+  </si>
+  <si>
+    <t>Exercisable options</t>
+  </si>
+  <si>
+    <t>Exercise price</t>
+  </si>
+  <si>
+    <t>In-the-money exercisable options</t>
+  </si>
+  <si>
+    <t>Total proceeds ($mm)</t>
+  </si>
+  <si>
+    <t>Total shares repurchased (mm)</t>
+  </si>
+  <si>
+    <t>Net dilutive options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilutive impact of shares from other securities </t>
+  </si>
+  <si>
+    <t>Net diluted shares outstanding</t>
+  </si>
+  <si>
+    <t>Diluted shares</t>
+  </si>
+  <si>
+    <t>Equity value per share</t>
+  </si>
+  <si>
+    <t>Market premium / (discount) to fair value</t>
+  </si>
+  <si>
+    <t>Cost of capital assumptions</t>
+  </si>
+  <si>
+    <t>Cost of debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After tax cost of debt </t>
+  </si>
+  <si>
+    <t>Risk free rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market risk premium</t>
+  </si>
+  <si>
+    <t>Cost of equity</t>
+  </si>
+  <si>
+    <t>Capital weights</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>% of total</t>
+  </si>
+  <si>
+    <t>Market value of equity</t>
+  </si>
+  <si>
+    <t>Cost of capital (WACC)</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Long term growth rate (g):</t>
+  </si>
+  <si>
+    <t>WACC:</t>
+  </si>
+  <si>
+    <t>Exit EBITDA Multiple</t>
+  </si>
+  <si>
+    <t>EBITDA % of plan</t>
+  </si>
+  <si>
+    <t>Football field</t>
+  </si>
+  <si>
+    <t>LTM EBITDA multiple</t>
+  </si>
+  <si>
+    <t>LTM calculations</t>
+  </si>
+  <si>
+    <t>Operating income</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>LTM EBITDA</t>
+  </si>
+  <si>
+    <t>Market cap</t>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Comps derived EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Diff.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>52 Week Market High/Low</t>
+  </si>
+  <si>
+    <t>Assume cash flows are generated at:</t>
+  </si>
+  <si>
+    <t>Midperiod adjustment factor</t>
+  </si>
+  <si>
+    <t>Normalized FCF in last forecast period (t)</t>
+  </si>
+  <si>
+    <r>
+      <t>Normalized FCF</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t+1 </t>
+    </r>
+  </si>
+  <si>
+    <t>Middle of Period</t>
+  </si>
+  <si>
+    <t>Beta calculation</t>
+  </si>
+  <si>
+    <t>Observed b</t>
+  </si>
+  <si>
+    <t>Share price</t>
+  </si>
+  <si>
+    <t>Dil. shares</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Delev. b</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Industry average delevered beta</t>
+  </si>
+  <si>
+    <t>AAPL beta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Observed </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="singleAccounting"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="singleAccounting"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b:</t>
+    </r>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="85">
+  <numFmts count="89">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -819,9 +1133,13 @@
     <numFmt numFmtId="240" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
     <numFmt numFmtId="241" formatCode="0.00\x_);\(0.00\x\);@_)"/>
     <numFmt numFmtId="242" formatCode="0.0"/>
-    <numFmt numFmtId="245" formatCode="0.00%_);\(0.00%\);@_)"/>
+    <numFmt numFmtId="243" formatCode="0.00%_);\(0.00%\);@_)"/>
+    <numFmt numFmtId="245" formatCode="#,##0.0_);\(#,##0.0\);\-_);@_)"/>
+    <numFmt numFmtId="246" formatCode="#,##0.00_);\(#,##0.00\);@_)"/>
+    <numFmt numFmtId="250" formatCode="#,##0.000"/>
+    <numFmt numFmtId="251" formatCode="#,##0_);\(#,##0\);\-_);@_)"/>
   </numFmts>
-  <fonts count="107">
+  <fonts count="119">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1505,6 +1823,99 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -1719,7 +2130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2091,13 +2502,136 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF010000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2469,7 +3003,7 @@
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="231" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2641,12 +3175,6 @@
     <xf numFmtId="37" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="232" fontId="100" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" xfId="119" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="119" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="236" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2672,7 +3200,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="245" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="243" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="224" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="224" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="224" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2680,14 +3208,8 @@
     <xf numFmtId="239" fontId="98" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="232" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="224" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2744,14 +3266,198 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="104" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="38" fontId="62" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="104" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" xfId="119" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="32" borderId="0" xfId="119" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="104" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="104" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="61" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="61" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="62" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="62" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="98" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="238" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="239" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="232" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="245" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="108" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="232" fontId="110" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="246" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="236" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="236" fontId="109" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="235" fontId="102" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="233" fontId="99" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="246" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="246" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="242" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="242" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="245" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="245" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="196" fontId="2" fillId="38" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="232" fontId="60" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="235" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="196" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="203" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="250" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="233" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="38" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="38" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="38" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="116" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="233" fontId="2" fillId="38" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="224" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="245" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="233" fontId="2" fillId="38" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="233" fontId="1" fillId="38" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="233" fontId="2" fillId="38" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="224" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="1" fillId="38" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="196" fontId="2" fillId="38" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="196" fontId="1" fillId="38" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="2" fillId="38" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="2" fillId="38" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="224" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="115" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="196" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="251" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="250" fontId="98" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="250" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="232" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="232" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="233" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="232" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="$" xfId="1"/>
@@ -2967,7 +3673,27 @@
     <cellStyle name="Year&quot;E&quot;" xfId="185"/>
     <cellStyle name="Years" xfId="211"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3066,6 +3792,1105 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Equity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Value Per Share Ranges</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DCF!$C$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCF!$B$127:$B$129</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DCF Value at 7.3x-11.3x Exit EBITDA Range</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCF Value at 2.0%-4.0% Perpetuity Range</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52 Week Market High/Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCF!$C$127:$C$129</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>680.01467641596105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650.17149969736488</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>393.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68CE-4C3E-932C-809C8FAFD175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DCF!$D$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCF!$B$127:$B$129</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DCF Value at 7.3x-11.3x Exit EBITDA Range</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCF Value at 2.0%-4.0% Perpetuity Range</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52 Week Market High/Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCF!$D$127:$D$129</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>192.21451914716886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.830503216239322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68CE-4C3E-932C-809C8FAFD175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DCF!$E$126</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>DCF!$B$127:$B$129</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DCF Value at 7.3x-11.3x Exit EBITDA Range</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCF Value at 2.0%-4.0% Perpetuity Range</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52 Week Market High/Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DCF!$E$127:$E$129</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>872.22919556312991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730.0020029136042</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>604.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68CE-4C3E-932C-809C8FAFD175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="594327384"/>
+        <c:axId val="594329352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="594327384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594329352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594329352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594327384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3116,6 +4941,47 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711BC926-0FE4-4CA8-8EEB-DF49DDB4035F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3500,6 +5366,53 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Financial Statement Model"/>
+      <sheetName val="DCF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Apple</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>40810</v>
+          </cell>
+          <cell r="D14">
+            <v>41181</v>
+          </cell>
+          <cell r="E14">
+            <v>41545</v>
+          </cell>
+          <cell r="F14">
+            <v>41912</v>
+          </cell>
+          <cell r="G14">
+            <v>42277</v>
+          </cell>
+          <cell r="H14">
+            <v>42643</v>
+          </cell>
+          <cell r="I14">
+            <v>43008</v>
+          </cell>
+          <cell r="J14">
+            <v>43373</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3839,7 +5752,7 @@
   </sheetPr>
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4033,84 +5946,84 @@
     </row>
     <row r="13" spans="2:15" ht="12.75" customHeight="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="2:15" ht="12.75" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
       <c r="O14" s="39"/>
     </row>
     <row r="15" spans="2:15" ht="12.75" customHeight="1">
       <c r="B15" s="36"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="2:15" ht="11.25" customHeight="1">
       <c r="B16" s="36"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
       <c r="O16" s="39"/>
     </row>
     <row r="17" spans="2:15" ht="11.25" customHeight="1">
       <c r="B17" s="36"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
     </row>
     <row r="18" spans="2:15">
@@ -4179,8 +6092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L384"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -4406,7 +6319,7 @@
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="122">
         <v>108249</v>
       </c>
       <c r="D16" s="77">
@@ -4440,7 +6353,7 @@
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="122">
         <v>-64431</v>
       </c>
       <c r="D17" s="77">
@@ -4474,15 +6387,15 @@
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="123">
         <f>C16+C17</f>
         <v>43818</v>
       </c>
-      <c r="D18" s="125">
+      <c r="D18" s="123">
         <f t="shared" ref="D18:E18" si="4">D16+D17</f>
         <v>68662</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="123">
         <f t="shared" si="4"/>
         <v>64304</v>
       </c>
@@ -4511,7 +6424,7 @@
       <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="124">
+      <c r="C19" s="122">
         <v>-2429</v>
       </c>
       <c r="D19" s="77">
@@ -4545,7 +6458,7 @@
       <c r="B20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="124">
+      <c r="C20" s="122">
         <v>-7599</v>
       </c>
       <c r="D20" s="77">
@@ -4995,23 +6908,23 @@
         <f t="shared" si="30"/>
         <v>39.753687496109102</v>
       </c>
-      <c r="F34" s="138">
+      <c r="F34" s="136">
         <f ca="1">(((F27/F31)*10)*10)*10</f>
         <v>41.495304208829573</v>
       </c>
-      <c r="G34" s="138">
+      <c r="G34" s="136">
         <f ca="1">(((G27/G31)*10)*10)*10</f>
         <v>45.78145402446313</v>
       </c>
-      <c r="H34" s="138">
+      <c r="H34" s="136">
         <f ca="1">(((H27/H31)*10)*10)*10</f>
         <v>49.677218048054414</v>
       </c>
-      <c r="I34" s="138">
+      <c r="I34" s="136">
         <f ca="1">(((I27/I31)*10)*10)*10</f>
         <v>54.02746950716022</v>
       </c>
-      <c r="J34" s="138">
+      <c r="J34" s="136">
         <f ca="1">(((J27/J31)*10)*10)*10</f>
         <v>59.007214023788414</v>
       </c>
@@ -9280,7 +11193,7 @@
       <c r="B202" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C202" s="119"/>
+      <c r="C202" s="117"/>
       <c r="D202" s="73">
         <f>D101</f>
         <v>16664</v>
@@ -9317,14 +11230,14 @@
       <c r="B204" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C204" s="120"/>
-      <c r="D204" s="120"/>
-      <c r="E204" s="120"/>
-      <c r="F204" s="121"/>
-      <c r="G204" s="121"/>
-      <c r="H204" s="121"/>
-      <c r="I204" s="121"/>
-      <c r="J204" s="121"/>
+      <c r="C204" s="118"/>
+      <c r="D204" s="118"/>
+      <c r="E204" s="118"/>
+      <c r="F204" s="119"/>
+      <c r="G204" s="119"/>
+      <c r="H204" s="119"/>
+      <c r="I204" s="119"/>
+      <c r="J204" s="119"/>
     </row>
     <row r="205" spans="1:10">
       <c r="B205" s="80" t="str">
@@ -9531,23 +11444,23 @@
       </c>
       <c r="D214"/>
       <c r="E214"/>
-      <c r="F214" s="122">
+      <c r="F214" s="120">
         <f>0.0051*1000+0.011*2000+0.0051*1500+0.0108*4000+0.0244*5500+0.0391*3000</f>
         <v>329.45000000000005</v>
       </c>
-      <c r="G214" s="122">
+      <c r="G214" s="120">
         <f>0.0051*1000+0.011*2000+0.0051*1500+0.0108*4000+0.0244*5500+0.0391*3000</f>
         <v>329.45000000000005</v>
       </c>
-      <c r="H214" s="122">
+      <c r="H214" s="120">
         <f>0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
         <v>316.70000000000005</v>
       </c>
-      <c r="I214" s="122">
-        <f t="shared" ref="I214:J214" si="132">0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
+      <c r="I214" s="120">
+        <f t="shared" ref="I214" si="132">0.011*2000+0.0108*4000+0.0244*5500+0.0391*3000</f>
         <v>316.70000000000005</v>
       </c>
-      <c r="J214" s="122">
+      <c r="J214" s="120">
         <f>0.0244*5500+0.0391*3000</f>
         <v>251.50000000000003</v>
       </c>
@@ -9595,19 +11508,19 @@
       </c>
       <c r="D217"/>
       <c r="E217"/>
-      <c r="F217" s="123">
+      <c r="F217" s="121">
         <v>1</v>
       </c>
-      <c r="G217" s="123">
+      <c r="G217" s="121">
         <v>1</v>
       </c>
-      <c r="H217" s="123">
+      <c r="H217" s="121">
         <v>1</v>
       </c>
-      <c r="I217" s="123">
+      <c r="I217" s="121">
         <v>1</v>
       </c>
-      <c r="J217" s="123">
+      <c r="J217" s="121">
         <v>1</v>
       </c>
     </row>
@@ -9617,23 +11530,23 @@
       </c>
       <c r="D218"/>
       <c r="E218"/>
-      <c r="F218" s="123">
+      <c r="F218" s="121">
         <f>1-F217</f>
         <v>0</v>
       </c>
-      <c r="G218" s="123">
+      <c r="G218" s="121">
         <f t="shared" ref="G218:J218" si="134">1-G217</f>
         <v>0</v>
       </c>
-      <c r="H218" s="123">
+      <c r="H218" s="121">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="I218" s="123">
+      <c r="I218" s="121">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
-      <c r="J218" s="123">
+      <c r="J218" s="121">
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
@@ -9866,10 +11779,10 @@
         <v>124</v>
       </c>
       <c r="C230"/>
-      <c r="D230" s="126">
+      <c r="D230" s="124">
         <v>665</v>
       </c>
-      <c r="E230" s="126">
+      <c r="E230" s="124">
         <v>530</v>
       </c>
       <c r="F230" s="64">
@@ -10443,7 +12356,7 @@
       <c r="J254"/>
     </row>
     <row r="255" spans="1:10">
-      <c r="B255" s="127" t="s">
+      <c r="B255" s="125" t="s">
         <v>75</v>
       </c>
       <c r="C255"/>
@@ -10639,7 +12552,7 @@
       <c r="B264" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C264" s="128"/>
+      <c r="C264" s="126"/>
       <c r="D264"/>
       <c r="E264"/>
       <c r="F264" s="52">
@@ -10667,7 +12580,7 @@
       <c r="B265" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C265" s="128"/>
+      <c r="C265" s="126"/>
       <c r="D265"/>
       <c r="E265"/>
       <c r="F265" s="97">
@@ -10695,7 +12608,7 @@
       <c r="B266" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C266" s="128"/>
+      <c r="C266" s="126"/>
       <c r="D266"/>
       <c r="E266"/>
       <c r="F266" s="97">
@@ -10969,23 +12882,23 @@
       </c>
       <c r="D276"/>
       <c r="E276"/>
-      <c r="F276" s="129">
+      <c r="F276" s="127">
         <f ca="1">SUM(F264:F275)</f>
         <v>49190.400069773183</v>
       </c>
-      <c r="G276" s="129">
+      <c r="G276" s="127">
         <f t="shared" ref="G276:J276" ca="1" si="166">SUM(G264:G275)</f>
         <v>52303.166592318623</v>
       </c>
-      <c r="H276" s="129">
+      <c r="H276" s="127">
         <f t="shared" ca="1" si="166"/>
         <v>54170.891205534121</v>
       </c>
-      <c r="I276" s="129">
+      <c r="I276" s="127">
         <f t="shared" ca="1" si="166"/>
         <v>56685.951963545609</v>
       </c>
-      <c r="J276" s="129">
+      <c r="J276" s="127">
         <f t="shared" ca="1" si="166"/>
         <v>59453.666490744617</v>
       </c>
@@ -11060,23 +12973,23 @@
       </c>
       <c r="D280"/>
       <c r="E280"/>
-      <c r="F280" s="131">
+      <c r="F280" s="129">
         <f ca="1">SUM(F278:F279)</f>
         <v>-8963.7023699999991</v>
       </c>
-      <c r="G280" s="131">
+      <c r="G280" s="129">
         <f t="shared" ref="G280:J280" ca="1" si="169">SUM(G278:G279)</f>
         <v>-10746.78712756443</v>
       </c>
-      <c r="H280" s="131">
+      <c r="H280" s="129">
         <f t="shared" ca="1" si="169"/>
         <v>-11228.18433491086</v>
       </c>
-      <c r="I280" s="131">
+      <c r="I280" s="129">
         <f t="shared" ca="1" si="169"/>
         <v>-11780.434640926602</v>
       </c>
-      <c r="J280" s="131">
+      <c r="J280" s="129">
         <f t="shared" ca="1" si="169"/>
         <v>-12415.101535658394</v>
       </c>
@@ -11144,7 +13057,7 @@
         <f t="shared" ca="1" si="171"/>
         <v>-10910.518044096685</v>
       </c>
-      <c r="L283" s="118"/>
+      <c r="L283" s="116"/>
     </row>
     <row r="284" spans="2:12">
       <c r="B284" s="17" t="s">
@@ -11260,23 +13173,23 @@
       </c>
       <c r="D288"/>
       <c r="E288"/>
-      <c r="F288" s="131">
+      <c r="F288" s="129">
         <f ca="1">SUM(F282:F287)</f>
         <v>-35024.341948699643</v>
       </c>
-      <c r="G288" s="131">
+      <c r="G288" s="129">
         <f t="shared" ref="G288:J288" ca="1" si="175">SUM(G282:G287)</f>
         <v>-33348.002624399072</v>
       </c>
-      <c r="H288" s="131">
+      <c r="H288" s="129">
         <f t="shared" ca="1" si="175"/>
         <v>-36274.091113517061</v>
       </c>
-      <c r="I288" s="131">
+      <c r="I288" s="129">
         <f t="shared" ca="1" si="175"/>
         <v>-34274.684715814641</v>
       </c>
-      <c r="J288" s="131">
+      <c r="J288" s="129">
         <f t="shared" ca="1" si="175"/>
         <v>-40878.518044096687</v>
       </c>
@@ -11296,23 +13209,23 @@
       </c>
       <c r="D290"/>
       <c r="E290"/>
-      <c r="F290" s="131">
+      <c r="F290" s="129">
         <f ca="1">SUM(F288,F280,F276)</f>
         <v>5202.3557510735409</v>
       </c>
-      <c r="G290" s="131">
+      <c r="G290" s="129">
         <f t="shared" ref="G290:J290" ca="1" si="176">SUM(G288,G280,G276)</f>
         <v>8208.3768403551221</v>
       </c>
-      <c r="H290" s="131">
+      <c r="H290" s="129">
         <f t="shared" ca="1" si="176"/>
         <v>6668.6157571061995</v>
       </c>
-      <c r="I290" s="131">
+      <c r="I290" s="129">
         <f t="shared" ca="1" si="176"/>
         <v>10630.832606804368</v>
       </c>
-      <c r="J290" s="131">
+      <c r="J290" s="129">
         <f t="shared" ca="1" si="176"/>
         <v>6160.0469109895348</v>
       </c>
@@ -11548,23 +13461,23 @@
       </c>
       <c r="D302"/>
       <c r="E302"/>
-      <c r="F302" s="134" t="str">
+      <c r="F302" s="132" t="str">
         <f ca="1">IF(F299&gt;F301,"OVERDRAWN","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G302" s="134" t="str">
+      <c r="G302" s="132" t="str">
         <f t="shared" ref="G302:J302" ca="1" si="182">IF(G299&gt;G301,"OVERDRAWN","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H302" s="134" t="str">
+      <c r="H302" s="132" t="str">
         <f t="shared" ca="1" si="182"/>
         <v>OK</v>
       </c>
-      <c r="I302" s="134" t="str">
+      <c r="I302" s="132" t="str">
         <f t="shared" ca="1" si="182"/>
         <v>OK</v>
       </c>
-      <c r="J302" s="134" t="str">
+      <c r="J302" s="132" t="str">
         <f t="shared" ca="1" si="182"/>
         <v>OK</v>
       </c>
@@ -11580,7 +13493,7 @@
       <c r="J303"/>
     </row>
     <row r="304" spans="1:10">
-      <c r="B304" s="132" t="s">
+      <c r="B304" s="130" t="s">
         <v>150</v>
       </c>
       <c r="D304"/>
@@ -11695,7 +13608,7 @@
       </c>
     </row>
     <row r="309" spans="2:10">
-      <c r="B309" s="133" t="s">
+      <c r="B309" s="131" t="s">
         <v>154</v>
       </c>
       <c r="D309"/>
@@ -11814,7 +13727,7 @@
       </c>
     </row>
     <row r="316" spans="2:10">
-      <c r="B316" s="135" t="s">
+      <c r="B316" s="133" t="s">
         <v>158</v>
       </c>
       <c r="C316"/>
@@ -11892,22 +13805,22 @@
       </c>
       <c r="C319"/>
       <c r="D319" s="56"/>
-      <c r="E319" s="136">
+      <c r="E319" s="134">
         <v>1.03E-2</v>
       </c>
-      <c r="F319" s="136">
+      <c r="F319" s="134">
         <v>1.03E-2</v>
       </c>
-      <c r="G319" s="136">
+      <c r="G319" s="134">
         <v>1.03E-2</v>
       </c>
-      <c r="H319" s="136">
+      <c r="H319" s="134">
         <v>1.03E-2</v>
       </c>
-      <c r="I319" s="136">
+      <c r="I319" s="134">
         <v>1.03E-2</v>
       </c>
-      <c r="J319" s="136">
+      <c r="J319" s="134">
         <v>1.03E-2</v>
       </c>
     </row>
@@ -12073,57 +13986,57 @@
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="B328" s="135" t="s">
+      <c r="B328" s="133" t="s">
         <v>161</v>
       </c>
       <c r="C328"/>
       <c r="D328" s="53"/>
       <c r="E328" s="53"/>
-      <c r="F328" s="117">
+      <c r="F328" s="115">
         <f>F230/F334</f>
         <v>0</v>
       </c>
-      <c r="G328" s="117">
+      <c r="G328" s="115">
         <f t="shared" ref="G328:J328" si="194">G230/G334</f>
         <v>0</v>
       </c>
-      <c r="H328" s="117">
+      <c r="H328" s="115">
         <f t="shared" si="194"/>
         <v>0</v>
       </c>
-      <c r="I328" s="117">
+      <c r="I328" s="115">
         <f t="shared" si="194"/>
         <v>0</v>
       </c>
-      <c r="J328" s="117">
+      <c r="J328" s="115">
         <f t="shared" si="194"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="B329" s="135" t="s">
+      <c r="B329" s="133" t="s">
         <v>162</v>
       </c>
       <c r="C329"/>
       <c r="D329" s="53"/>
       <c r="E329" s="53"/>
-      <c r="F329" s="117">
+      <c r="F329" s="115">
         <f>F239/F334</f>
         <v>-35.817817992990399</v>
       </c>
-      <c r="G329" s="117">
+      <c r="G329" s="115">
         <f>G239/G334</f>
         <v>-33.114728512333777</v>
       </c>
-      <c r="H329" s="117">
+      <c r="H329" s="115">
         <f>H239/H334</f>
         <v>-29.305069479941395</v>
       </c>
-      <c r="I329" s="117">
+      <c r="I329" s="115">
         <f>I239/I334</f>
         <v>-25.933689805257874</v>
       </c>
-      <c r="J329" s="117">
+      <c r="J329" s="115">
         <f>J239/J334</f>
         <v>-22.95016796925476</v>
       </c>
@@ -12185,10 +14098,10 @@
         <f t="shared" si="196"/>
         <v>39.753687496109102</v>
       </c>
-      <c r="F332" s="139">
+      <c r="F332" s="137">
         <v>43.98</v>
       </c>
-      <c r="G332" s="139">
+      <c r="G332" s="137">
         <v>47.57</v>
       </c>
       <c r="H332" s="67">
@@ -12241,7 +14154,7 @@
       </c>
       <c r="C334"/>
       <c r="D334"/>
-      <c r="E334" s="139">
+      <c r="E334" s="137">
         <v>604.86</v>
       </c>
       <c r="F334" s="67">
@@ -12266,61 +14179,61 @@
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="B336" s="140" t="s">
+      <c r="B336" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="C336" s="140"/>
-      <c r="D336" s="140"/>
-      <c r="E336" s="140"/>
-      <c r="F336" s="140"/>
-      <c r="G336" s="140"/>
-      <c r="H336" s="140"/>
-      <c r="I336" s="140"/>
-      <c r="J336" s="140"/>
+      <c r="C336" s="138"/>
+      <c r="D336" s="138"/>
+      <c r="E336" s="138"/>
+      <c r="F336" s="138"/>
+      <c r="G336" s="138"/>
+      <c r="H336" s="138"/>
+      <c r="I336" s="138"/>
+      <c r="J336" s="138"/>
     </row>
     <row r="337" spans="1:10">
-      <c r="B337" s="130"/>
-      <c r="C337" s="119"/>
-      <c r="D337" s="119"/>
-      <c r="E337" s="119"/>
-      <c r="F337" s="119"/>
-      <c r="G337" s="119"/>
-      <c r="H337" s="119"/>
-      <c r="I337" s="119"/>
-      <c r="J337" s="119"/>
+      <c r="B337" s="128"/>
+      <c r="C337" s="117"/>
+      <c r="D337" s="117"/>
+      <c r="E337" s="117"/>
+      <c r="F337" s="117"/>
+      <c r="G337" s="117"/>
+      <c r="H337" s="117"/>
+      <c r="I337" s="117"/>
+      <c r="J337" s="117"/>
     </row>
     <row r="338" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B338" s="141" t="str">
+      <c r="B338" s="139" t="str">
         <f>F13&amp;" EPS sensitivity"</f>
         <v>2014 EPS sensitivity</v>
       </c>
-      <c r="C338" s="141"/>
-      <c r="D338" s="142"/>
-      <c r="E338" s="142"/>
-      <c r="F338" s="142"/>
-      <c r="G338" s="142"/>
-      <c r="H338" s="142"/>
-      <c r="I338" s="119"/>
-      <c r="J338" s="119"/>
+      <c r="C338" s="139"/>
+      <c r="D338" s="140"/>
+      <c r="E338" s="140"/>
+      <c r="F338" s="140"/>
+      <c r="G338" s="140"/>
+      <c r="H338" s="140"/>
+      <c r="I338" s="117"/>
+      <c r="J338" s="117"/>
     </row>
     <row r="339" spans="1:10">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
-      <c r="D339" s="144" t="s">
+      <c r="D339" s="189" t="s">
         <v>167</v>
       </c>
-      <c r="E339" s="144"/>
-      <c r="F339" s="144"/>
-      <c r="G339" s="144"/>
-      <c r="H339" s="144"/>
+      <c r="E339" s="189"/>
+      <c r="F339" s="189"/>
+      <c r="G339" s="189"/>
+      <c r="H339" s="189"/>
       <c r="I339"/>
       <c r="J339"/>
     </row>
     <row r="340" spans="1:10">
       <c r="A340"/>
       <c r="B340"/>
-      <c r="C340" s="137">
+      <c r="C340" s="135">
         <f ca="1">F34</f>
         <v>41.495304208829573</v>
       </c>
@@ -12378,23 +14291,23 @@
       <c r="B342" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="C342" s="145">
+      <c r="C342" s="142">
         <f>C341-0.01</f>
         <v>0.38</v>
       </c>
-      <c r="D342" s="146">
+      <c r="D342" s="143">
         <v>40.860841446883484</v>
       </c>
-      <c r="E342" s="146">
+      <c r="E342" s="143">
         <v>41.870010935187601</v>
       </c>
-      <c r="F342" s="146">
+      <c r="F342" s="143">
         <v>42.879180423491974</v>
       </c>
-      <c r="G342" s="146">
+      <c r="G342" s="143">
         <v>43.88834991179634</v>
       </c>
-      <c r="H342" s="146">
+      <c r="H342" s="143">
         <v>44.897519400100698</v>
       </c>
       <c r="I342"/>
@@ -12405,23 +14318,23 @@
       <c r="B343" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C343" s="145">
+      <c r="C343" s="142">
         <f t="shared" ref="C343:C345" si="200">C342-0.01</f>
         <v>0.37</v>
       </c>
-      <c r="D343" s="146">
+      <c r="D343" s="143">
         <v>39.44033697917547</v>
       </c>
-      <c r="E343" s="146">
+      <c r="E343" s="143">
         <v>40.41399385578687</v>
       </c>
-      <c r="F343" s="146">
+      <c r="F343" s="143">
         <v>41.387650732398562</v>
       </c>
-      <c r="G343" s="146">
+      <c r="G343" s="143">
         <v>42.361307609010225</v>
       </c>
-      <c r="H343" s="146">
+      <c r="H343" s="143">
         <v>43.33496448562191</v>
       </c>
       <c r="I343"/>
@@ -12430,23 +14343,23 @@
     <row r="344" spans="1:10">
       <c r="A344"/>
       <c r="B344"/>
-      <c r="C344" s="145">
+      <c r="C344" s="142">
         <f t="shared" si="200"/>
         <v>0.36</v>
       </c>
-      <c r="D344" s="146">
+      <c r="D344" s="143">
         <v>38.01983251146747</v>
       </c>
-      <c r="E344" s="146">
+      <c r="E344" s="143">
         <v>38.957976776386175</v>
       </c>
-      <c r="F344" s="146">
+      <c r="F344" s="143">
         <v>39.896121041305157</v>
       </c>
-      <c r="G344" s="146">
+      <c r="G344" s="143">
         <v>40.834265306224125</v>
       </c>
-      <c r="H344" s="146">
+      <c r="H344" s="143">
         <v>41.772409571143115</v>
       </c>
       <c r="I344"/>
@@ -12455,23 +14368,23 @@
     <row r="345" spans="1:10">
       <c r="A345"/>
       <c r="B345"/>
-      <c r="C345" s="145">
+      <c r="C345" s="142">
         <f t="shared" si="200"/>
         <v>0.35</v>
       </c>
-      <c r="D345" s="146">
+      <c r="D345" s="143">
         <v>36.599328043759449</v>
       </c>
-      <c r="E345" s="146">
+      <c r="E345" s="143">
         <v>37.50195969698548</v>
       </c>
-      <c r="F345" s="146">
+      <c r="F345" s="143">
         <v>38.404591350211746</v>
       </c>
-      <c r="G345" s="146">
+      <c r="G345" s="143">
         <v>39.307223003438025</v>
       </c>
-      <c r="H345" s="146">
+      <c r="H345" s="143">
         <v>40.209854656664291</v>
       </c>
       <c r="I345"/>
@@ -12490,43 +14403,43 @@
       <c r="J346"/>
     </row>
     <row r="347" spans="1:10">
-      <c r="B347" s="119"/>
-      <c r="C347" s="119"/>
-      <c r="D347" s="119"/>
-      <c r="E347" s="119"/>
-      <c r="F347" s="119"/>
-      <c r="G347" s="119"/>
-      <c r="H347" s="119"/>
-      <c r="I347" s="119"/>
-      <c r="J347" s="119"/>
+      <c r="B347" s="117"/>
+      <c r="C347" s="117"/>
+      <c r="D347" s="117"/>
+      <c r="E347" s="117"/>
+      <c r="F347" s="117"/>
+      <c r="G347" s="117"/>
+      <c r="H347" s="117"/>
+      <c r="I347" s="117"/>
+      <c r="J347" s="117"/>
     </row>
     <row r="348" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A348" s="119"/>
-      <c r="B348" s="143"/>
-      <c r="C348" s="141"/>
-      <c r="D348" s="142"/>
-      <c r="E348" s="142"/>
-      <c r="F348" s="142"/>
-      <c r="G348" s="142"/>
-      <c r="H348" s="142"/>
-      <c r="I348" s="119"/>
-      <c r="J348" s="119"/>
+      <c r="A348" s="117"/>
+      <c r="B348" s="141"/>
+      <c r="C348" s="139"/>
+      <c r="D348" s="140"/>
+      <c r="E348" s="140"/>
+      <c r="F348" s="140"/>
+      <c r="G348" s="140"/>
+      <c r="H348" s="140"/>
+      <c r="I348" s="117"/>
+      <c r="J348" s="117"/>
     </row>
     <row r="349" spans="1:10">
-      <c r="A349" s="119"/>
-      <c r="B349" s="119"/>
-      <c r="C349" s="119"/>
-      <c r="D349" s="147" t="s">
+      <c r="A349" s="117"/>
+      <c r="B349" s="117"/>
+      <c r="C349" s="117"/>
+      <c r="D349" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="E349" s="147"/>
-      <c r="F349" s="147"/>
-      <c r="G349" s="147"/>
-      <c r="H349" s="147"/>
+      <c r="E349" s="190"/>
+      <c r="F349" s="190"/>
+      <c r="G349" s="190"/>
+      <c r="H349" s="190"/>
     </row>
     <row r="350" spans="1:10">
-      <c r="A350" s="119"/>
-      <c r="B350" s="119"/>
+      <c r="A350" s="117"/>
+      <c r="B350" s="117"/>
       <c r="C350" s="54">
         <f ca="1">F34</f>
         <v>41.495304208829573</v>
@@ -12552,8 +14465,8 @@
       </c>
     </row>
     <row r="351" spans="1:10">
-      <c r="A351" s="119"/>
-      <c r="B351" s="119"/>
+      <c r="A351" s="117"/>
+      <c r="B351" s="117"/>
       <c r="C351" s="56">
         <f>0.25</f>
         <v>0.25</v>
@@ -12576,8 +14489,8 @@
       </c>
     </row>
     <row r="352" spans="1:10">
-      <c r="A352" s="119"/>
-      <c r="B352" s="148" t="s">
+      <c r="A352" s="117"/>
+      <c r="B352" s="144" t="s">
         <v>37</v>
       </c>
       <c r="C352" s="56">
@@ -12601,8 +14514,8 @@
       </c>
     </row>
     <row r="353" spans="1:10">
-      <c r="A353" s="119"/>
-      <c r="B353" s="148" t="s">
+      <c r="A353" s="117"/>
+      <c r="B353" s="144" t="s">
         <v>172</v>
       </c>
       <c r="C353" s="56">
@@ -12626,8 +14539,8 @@
       </c>
     </row>
     <row r="354" spans="1:10">
-      <c r="A354" s="119"/>
-      <c r="B354" s="148" t="s">
+      <c r="A354" s="117"/>
+      <c r="B354" s="144" t="s">
         <v>173</v>
       </c>
       <c r="C354" s="56">
@@ -12651,8 +14564,8 @@
       </c>
     </row>
     <row r="355" spans="1:10">
-      <c r="A355" s="119"/>
-      <c r="B355" s="119"/>
+      <c r="A355" s="117"/>
+      <c r="B355" s="117"/>
       <c r="C355" s="56">
         <f t="shared" si="202"/>
         <v>5.0000000000000017E-2</v>
@@ -12674,8 +14587,8 @@
       </c>
     </row>
     <row r="356" spans="1:10">
-      <c r="A356" s="119"/>
-      <c r="B356" s="119"/>
+      <c r="A356" s="117"/>
+      <c r="B356" s="117"/>
       <c r="C356" s="56">
         <f t="shared" si="202"/>
         <v>0</v>
@@ -12697,116 +14610,116 @@
       </c>
     </row>
     <row r="358" spans="1:10">
-      <c r="B358" s="140" t="s">
+      <c r="B358" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C358" s="140"/>
-      <c r="D358" s="140"/>
-      <c r="E358" s="140"/>
-      <c r="F358" s="140"/>
-      <c r="G358" s="140"/>
-      <c r="H358" s="140"/>
-      <c r="I358" s="140"/>
-      <c r="J358" s="140"/>
+      <c r="C358" s="138"/>
+      <c r="D358" s="138"/>
+      <c r="E358" s="138"/>
+      <c r="F358" s="138"/>
+      <c r="G358" s="138"/>
+      <c r="H358" s="138"/>
+      <c r="I358" s="138"/>
+      <c r="J358" s="138"/>
     </row>
     <row r="359" spans="1:10">
-      <c r="B359" s="149" t="s">
+      <c r="B359" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C359" s="150"/>
-      <c r="D359" s="150">
+      <c r="C359" s="146"/>
+      <c r="D359" s="146">
         <v>2012</v>
       </c>
-      <c r="E359" s="150">
+      <c r="E359" s="146">
         <v>2013</v>
       </c>
-      <c r="F359" s="151">
+      <c r="F359" s="147">
         <v>2014</v>
       </c>
-      <c r="G359" s="151">
+      <c r="G359" s="147">
         <v>2015</v>
       </c>
-      <c r="H359" s="151">
+      <c r="H359" s="147">
         <v>2016</v>
       </c>
-      <c r="I359" s="151">
+      <c r="I359" s="147">
         <v>2017</v>
       </c>
-      <c r="J359" s="151">
+      <c r="J359" s="147">
         <v>2018</v>
       </c>
     </row>
     <row r="360" spans="1:10">
-      <c r="B360" s="152" t="s">
+      <c r="B360" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C360" s="153"/>
-      <c r="D360" s="153">
+      <c r="C360" s="149"/>
+      <c r="D360" s="149">
         <v>41181</v>
       </c>
-      <c r="E360" s="153">
+      <c r="E360" s="149">
         <v>41545</v>
       </c>
-      <c r="F360" s="153">
+      <c r="F360" s="149">
         <v>41912</v>
       </c>
-      <c r="G360" s="153">
+      <c r="G360" s="149">
         <v>42277</v>
       </c>
-      <c r="H360" s="153">
+      <c r="H360" s="149">
         <v>42643</v>
       </c>
-      <c r="I360" s="153">
+      <c r="I360" s="149">
         <v>43008</v>
       </c>
-      <c r="J360" s="153">
+      <c r="J360" s="149">
         <v>43373</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B361" s="119"/>
-      <c r="C361" s="119"/>
-      <c r="D361" s="119"/>
-      <c r="E361" s="119"/>
-      <c r="F361" s="119"/>
-      <c r="G361" s="119"/>
-      <c r="H361" s="119"/>
-      <c r="I361" s="119"/>
-      <c r="J361" s="119"/>
+      <c r="B361" s="117"/>
+      <c r="C361" s="117"/>
+      <c r="D361" s="117"/>
+      <c r="E361" s="117"/>
+      <c r="F361" s="117"/>
+      <c r="G361" s="117"/>
+      <c r="H361" s="117"/>
+      <c r="I361" s="117"/>
+      <c r="J361" s="117"/>
     </row>
     <row r="362" spans="1:10" ht="16.2" thickBot="1">
-      <c r="B362" s="154" t="s">
+      <c r="B362" s="150" t="s">
         <v>175</v>
       </c>
-      <c r="C362" s="155"/>
-      <c r="D362" s="155"/>
-      <c r="E362" s="156" t="s">
+      <c r="C362" s="151"/>
+      <c r="D362" s="151"/>
+      <c r="E362" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="F362" s="119"/>
-      <c r="G362" s="119"/>
-      <c r="H362" s="119"/>
-      <c r="I362" s="119"/>
-      <c r="J362" s="119"/>
+      <c r="F362" s="117"/>
+      <c r="G362" s="117"/>
+      <c r="H362" s="117"/>
+      <c r="I362" s="117"/>
+      <c r="J362" s="117"/>
     </row>
     <row r="363" spans="1:10">
-      <c r="B363" s="119"/>
-      <c r="C363" s="119"/>
-      <c r="D363" s="119"/>
-      <c r="E363" s="119"/>
-      <c r="F363" s="157"/>
-      <c r="G363" s="157"/>
-      <c r="H363" s="157"/>
-      <c r="I363" s="157"/>
-      <c r="J363" s="157"/>
+      <c r="B363" s="117"/>
+      <c r="C363" s="117"/>
+      <c r="D363" s="117"/>
+      <c r="E363" s="117"/>
+      <c r="F363" s="153"/>
+      <c r="G363" s="153"/>
+      <c r="H363" s="153"/>
+      <c r="I363" s="153"/>
+      <c r="J363" s="153"/>
     </row>
     <row r="364" spans="1:10">
-      <c r="B364" s="158" t="s">
+      <c r="B364" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="C364" s="119"/>
-      <c r="D364" s="119"/>
-      <c r="E364" s="119"/>
+      <c r="C364" s="117"/>
+      <c r="D364" s="117"/>
+      <c r="E364" s="117"/>
       <c r="F364" s="56">
         <f ca="1">OFFSET(F$369,MATCH($E$362,$B$370:$B$372,0)+MATCH($B364,$B$369:$B$384,0)-1,0)</f>
         <v>4.893831490258016E-2</v>
@@ -12829,12 +14742,12 @@
       </c>
     </row>
     <row r="365" spans="1:10">
-      <c r="B365" s="158" t="s">
+      <c r="B365" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="C365" s="119"/>
-      <c r="D365" s="119"/>
-      <c r="E365" s="119"/>
+      <c r="C365" s="117"/>
+      <c r="D365" s="117"/>
+      <c r="E365" s="117"/>
       <c r="F365" s="56">
         <f t="shared" ref="F365:J367" ca="1" si="204">OFFSET(F$369,MATCH($E$362,$B$370:$B$372,0)+MATCH($B365,$B$369:$B$384,0)-1,0)</f>
         <v>0.371</v>
@@ -12857,12 +14770,12 @@
       </c>
     </row>
     <row r="366" spans="1:10">
-      <c r="B366" s="159" t="s">
+      <c r="B366" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C366" s="119"/>
-      <c r="D366" s="119"/>
-      <c r="E366" s="119"/>
+      <c r="C366" s="117"/>
+      <c r="D366" s="117"/>
+      <c r="E366" s="117"/>
       <c r="F366" s="56">
         <f t="shared" ca="1" si="204"/>
         <v>2.9000000000000001E-2</v>
@@ -12885,12 +14798,12 @@
       </c>
     </row>
     <row r="367" spans="1:10">
-      <c r="B367" s="158" t="s">
+      <c r="B367" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="C367" s="119"/>
-      <c r="D367" s="119"/>
-      <c r="E367" s="119"/>
+      <c r="C367" s="117"/>
+      <c r="D367" s="117"/>
+      <c r="E367" s="117"/>
       <c r="F367" s="56">
         <f t="shared" ca="1" si="204"/>
         <v>6.8000000000000005E-2</v>
@@ -12913,36 +14826,36 @@
       </c>
     </row>
     <row r="368" spans="1:10">
-      <c r="B368" s="119"/>
-      <c r="C368" s="119"/>
-      <c r="D368" s="119"/>
-      <c r="E368" s="119"/>
-      <c r="F368" s="119"/>
-      <c r="G368" s="119"/>
-      <c r="H368" s="119"/>
-      <c r="I368" s="119"/>
-      <c r="J368" s="119"/>
+      <c r="B368" s="117"/>
+      <c r="C368" s="117"/>
+      <c r="D368" s="117"/>
+      <c r="E368" s="117"/>
+      <c r="F368" s="117"/>
+      <c r="G368" s="117"/>
+      <c r="H368" s="117"/>
+      <c r="I368" s="117"/>
+      <c r="J368" s="117"/>
     </row>
     <row r="369" spans="2:10">
-      <c r="B369" s="160" t="s">
+      <c r="B369" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C369" s="119"/>
-      <c r="D369" s="119"/>
-      <c r="E369" s="119"/>
-      <c r="F369" s="119"/>
-      <c r="G369" s="119"/>
-      <c r="H369" s="119"/>
-      <c r="I369" s="119"/>
-      <c r="J369" s="119"/>
+      <c r="C369" s="117"/>
+      <c r="D369" s="117"/>
+      <c r="E369" s="117"/>
+      <c r="F369" s="117"/>
+      <c r="G369" s="117"/>
+      <c r="H369" s="117"/>
+      <c r="I369" s="117"/>
+      <c r="J369" s="117"/>
     </row>
     <row r="370" spans="2:10">
-      <c r="B370" s="161" t="s">
+      <c r="B370" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="C370" s="119"/>
-      <c r="D370" s="119"/>
-      <c r="E370" s="119"/>
+      <c r="C370" s="117"/>
+      <c r="D370" s="117"/>
+      <c r="E370" s="117"/>
       <c r="F370" s="75">
         <v>0.1</v>
       </c>
@@ -12960,40 +14873,40 @@
       </c>
     </row>
     <row r="371" spans="2:10">
-      <c r="B371" s="161" t="s">
+      <c r="B371" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="C371" s="119"/>
-      <c r="D371" s="119"/>
-      <c r="E371" s="119"/>
-      <c r="F371" s="165">
+      <c r="C371" s="117"/>
+      <c r="D371" s="117"/>
+      <c r="E371" s="117"/>
+      <c r="F371" s="161">
         <f>F59</f>
         <v>4.893831490258016E-2</v>
       </c>
-      <c r="G371" s="165">
+      <c r="G371" s="161">
         <f t="shared" ref="G371:J371" si="205">G59</f>
         <v>5.1686665077156135E-2</v>
       </c>
-      <c r="H371" s="165">
+      <c r="H371" s="161">
         <f t="shared" si="205"/>
         <v>4.4794523389385388E-2</v>
       </c>
-      <c r="I371" s="165">
+      <c r="I371" s="161">
         <f t="shared" si="205"/>
         <v>4.9184292806689678E-2</v>
       </c>
-      <c r="J371" s="165">
+      <c r="J371" s="161">
         <f t="shared" si="205"/>
         <v>5.3874658624808891E-2</v>
       </c>
     </row>
     <row r="372" spans="2:10">
-      <c r="B372" s="161" t="s">
+      <c r="B372" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C372" s="119"/>
-      <c r="D372" s="119"/>
-      <c r="E372" s="119"/>
+      <c r="C372" s="117"/>
+      <c r="D372" s="117"/>
+      <c r="E372" s="117"/>
       <c r="F372" s="75">
         <v>0</v>
       </c>
@@ -13011,25 +14924,25 @@
       </c>
     </row>
     <row r="373" spans="2:10">
-      <c r="B373" s="160" t="s">
+      <c r="B373" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C373" s="119"/>
-      <c r="D373" s="119"/>
-      <c r="E373" s="119"/>
-      <c r="F373" s="162"/>
-      <c r="G373" s="162"/>
-      <c r="H373" s="162"/>
-      <c r="I373" s="162"/>
-      <c r="J373" s="162"/>
+      <c r="C373" s="117"/>
+      <c r="D373" s="117"/>
+      <c r="E373" s="117"/>
+      <c r="F373" s="158"/>
+      <c r="G373" s="158"/>
+      <c r="H373" s="158"/>
+      <c r="I373" s="158"/>
+      <c r="J373" s="158"/>
     </row>
     <row r="374" spans="2:10">
-      <c r="B374" s="161" t="s">
+      <c r="B374" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="C374" s="119"/>
-      <c r="D374" s="119"/>
-      <c r="E374" s="119"/>
+      <c r="C374" s="117"/>
+      <c r="D374" s="117"/>
+      <c r="E374" s="117"/>
       <c r="F374" s="75">
         <v>0.375</v>
       </c>
@@ -13047,13 +14960,13 @@
       </c>
     </row>
     <row r="375" spans="2:10">
-      <c r="B375" s="161" t="s">
+      <c r="B375" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="C375" s="119"/>
-      <c r="D375" s="119"/>
-      <c r="E375" s="119"/>
-      <c r="F375" s="163">
+      <c r="C375" s="117"/>
+      <c r="D375" s="117"/>
+      <c r="E375" s="117"/>
+      <c r="F375" s="159">
         <v>0.371</v>
       </c>
       <c r="G375" s="75">
@@ -13070,12 +14983,12 @@
       </c>
     </row>
     <row r="376" spans="2:10">
-      <c r="B376" s="161" t="s">
+      <c r="B376" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C376" s="119"/>
-      <c r="D376" s="119"/>
-      <c r="E376" s="119"/>
+      <c r="C376" s="117"/>
+      <c r="D376" s="117"/>
+      <c r="E376" s="117"/>
       <c r="F376" s="75">
         <v>0.36499999999999999</v>
       </c>
@@ -13093,25 +15006,25 @@
       </c>
     </row>
     <row r="377" spans="2:10">
-      <c r="B377" s="164" t="s">
+      <c r="B377" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="C377" s="119"/>
-      <c r="D377" s="119"/>
-      <c r="E377" s="119"/>
-      <c r="F377" s="162"/>
-      <c r="G377" s="162"/>
-      <c r="H377" s="162"/>
-      <c r="I377" s="162"/>
-      <c r="J377" s="162"/>
+      <c r="C377" s="117"/>
+      <c r="D377" s="117"/>
+      <c r="E377" s="117"/>
+      <c r="F377" s="158"/>
+      <c r="G377" s="158"/>
+      <c r="H377" s="158"/>
+      <c r="I377" s="158"/>
+      <c r="J377" s="158"/>
     </row>
     <row r="378" spans="2:10">
-      <c r="B378" s="161" t="s">
+      <c r="B378" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="C378" s="119"/>
-      <c r="D378" s="119"/>
-      <c r="E378" s="119"/>
+      <c r="C378" s="117"/>
+      <c r="D378" s="117"/>
+      <c r="E378" s="117"/>
       <c r="F378" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -13129,13 +15042,13 @@
       </c>
     </row>
     <row r="379" spans="2:10">
-      <c r="B379" s="161" t="s">
+      <c r="B379" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="C379" s="119"/>
-      <c r="D379" s="119"/>
-      <c r="E379" s="119"/>
-      <c r="F379" s="163">
+      <c r="C379" s="117"/>
+      <c r="D379" s="117"/>
+      <c r="E379" s="117"/>
+      <c r="F379" s="159">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="G379" s="75">
@@ -13152,12 +15065,12 @@
       </c>
     </row>
     <row r="380" spans="2:10">
-      <c r="B380" s="161" t="s">
+      <c r="B380" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C380" s="119"/>
-      <c r="D380" s="119"/>
-      <c r="E380" s="119"/>
+      <c r="C380" s="117"/>
+      <c r="D380" s="117"/>
+      <c r="E380" s="117"/>
       <c r="F380" s="75">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -13175,25 +15088,25 @@
       </c>
     </row>
     <row r="381" spans="2:10">
-      <c r="B381" s="160" t="s">
+      <c r="B381" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C381" s="119"/>
-      <c r="D381" s="119"/>
-      <c r="E381" s="119"/>
-      <c r="F381" s="162"/>
-      <c r="G381" s="162"/>
-      <c r="H381" s="162"/>
-      <c r="I381" s="162"/>
-      <c r="J381" s="162"/>
+      <c r="C381" s="117"/>
+      <c r="D381" s="117"/>
+      <c r="E381" s="117"/>
+      <c r="F381" s="158"/>
+      <c r="G381" s="158"/>
+      <c r="H381" s="158"/>
+      <c r="I381" s="158"/>
+      <c r="J381" s="158"/>
     </row>
     <row r="382" spans="2:10">
-      <c r="B382" s="161" t="s">
+      <c r="B382" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="C382" s="119"/>
-      <c r="D382" s="119"/>
-      <c r="E382" s="119"/>
+      <c r="C382" s="117"/>
+      <c r="D382" s="117"/>
+      <c r="E382" s="117"/>
       <c r="F382" s="75">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -13211,48 +15124,48 @@
       </c>
     </row>
     <row r="383" spans="2:10">
-      <c r="B383" s="161" t="s">
+      <c r="B383" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="C383" s="119"/>
-      <c r="D383" s="119"/>
-      <c r="E383" s="119"/>
-      <c r="F383" s="163">
+      <c r="C383" s="117"/>
+      <c r="D383" s="117"/>
+      <c r="E383" s="117"/>
+      <c r="F383" s="159">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G383" s="163">
+      <c r="G383" s="159">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H383" s="163">
+      <c r="H383" s="159">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="I383" s="163">
+      <c r="I383" s="159">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J383" s="163">
+      <c r="J383" s="159">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="384" spans="2:10">
-      <c r="B384" s="161" t="s">
+      <c r="B384" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="C384" s="119"/>
-      <c r="D384" s="119"/>
-      <c r="E384" s="119"/>
-      <c r="F384" s="163">
+      <c r="C384" s="117"/>
+      <c r="D384" s="117"/>
+      <c r="E384" s="117"/>
+      <c r="F384" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G384" s="163">
+      <c r="G384" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H384" s="163">
+      <c r="H384" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I384" s="163">
+      <c r="I384" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J384" s="163">
+      <c r="J384" s="159">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -13262,27 +15175,27 @@
     <mergeCell ref="D349:H349"/>
   </mergeCells>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>#REF!=$B40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D341:H345">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>$F$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D351:H356">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>$F$34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B381">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!=$B381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B367">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!=$B367</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13310,8 +15223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13454,26 +15367,26 @@
       <c r="B7" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="167">
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="163">
         <f>F12</f>
         <v>8969.0310809999992</v>
       </c>
-      <c r="G7" s="167">
+      <c r="G7" s="163">
         <f t="shared" ref="G7:J7" si="2">G12</f>
         <v>10738.187351778486</v>
       </c>
-      <c r="H7" s="167">
+      <c r="H7" s="163">
         <f t="shared" si="2"/>
         <v>11219.320915660426</v>
       </c>
-      <c r="I7" s="167">
+      <c r="I7" s="163">
         <f t="shared" si="2"/>
         <v>11771.286815676644</v>
       </c>
-      <c r="J7" s="167">
+      <c r="J7" s="163">
         <f t="shared" si="2"/>
         <v>12405.6498469825</v>
       </c>
@@ -13482,26 +15395,26 @@
       <c r="B8" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="169">
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165">
         <f>F14</f>
         <v>-5879.2364414333333</v>
       </c>
-      <c r="G8" s="169">
+      <c r="G8" s="165">
         <f t="shared" ref="G8:J8" si="3">G14</f>
         <v>-6853.4916180445152</v>
       </c>
-      <c r="H8" s="169">
+      <c r="H8" s="165">
         <f t="shared" si="3"/>
         <v>-8052.7757781217406</v>
       </c>
-      <c r="I8" s="169">
+      <c r="I8" s="165">
         <f t="shared" si="3"/>
         <v>-9355.3698845887811</v>
       </c>
-      <c r="J8" s="169">
+      <c r="J8" s="165">
         <f t="shared" si="3"/>
         <v>-10776.596884188029</v>
       </c>
@@ -13511,31 +15424,31 @@
         <v>87</v>
       </c>
       <c r="C9" s="104"/>
-      <c r="D9" s="170">
+      <c r="D9" s="166">
         <f>[3]Model!D173</f>
         <v>15452</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="166">
         <f>[3]Model!E173</f>
         <v>16597</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="167">
         <f>SUM(F6:F8)</f>
         <v>19686.794639566666</v>
       </c>
-      <c r="G9" s="171">
+      <c r="G9" s="167">
         <f t="shared" ref="G9:J9" si="4">SUM(G6:G8)</f>
         <v>23571.490373300636</v>
       </c>
-      <c r="H9" s="171">
+      <c r="H9" s="167">
         <f t="shared" si="4"/>
         <v>26738.035510839323</v>
       </c>
-      <c r="I9" s="171">
+      <c r="I9" s="167">
         <f t="shared" si="4"/>
         <v>29153.952441927187</v>
       </c>
-      <c r="J9" s="171">
+      <c r="J9" s="167">
         <f t="shared" si="4"/>
         <v>30783.005404721654</v>
       </c>
@@ -13555,35 +15468,35 @@
       <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="172">
+      <c r="C11" s="168">
         <f>[3]Model!C16</f>
         <v>108249</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="168">
         <f>[3]Model!D16</f>
         <v>156508</v>
       </c>
-      <c r="E11" s="172">
+      <c r="E11" s="168">
         <f>[3]Model!E16</f>
         <v>170910</v>
       </c>
-      <c r="F11" s="172">
+      <c r="F11" s="168">
         <f>[3]Model!F16</f>
         <v>179380.62161999999</v>
       </c>
-      <c r="G11" s="172">
+      <c r="G11" s="168">
         <f>[3]Model!G16</f>
         <v>188389.25178558746</v>
       </c>
-      <c r="H11" s="172">
+      <c r="H11" s="168">
         <f>[3]Model!H16</f>
         <v>196830.19150281447</v>
       </c>
-      <c r="I11" s="172">
+      <c r="I11" s="168">
         <f>[3]Model!I16</f>
         <v>206513.80378380074</v>
       </c>
-      <c r="J11" s="172">
+      <c r="J11" s="168">
         <f>[3]Model!J16</f>
         <v>217642.97977162281</v>
       </c>
@@ -13592,32 +15505,32 @@
       <c r="B12" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="173">
+      <c r="C12" s="169">
         <v>4260</v>
       </c>
-      <c r="D12" s="173">
+      <c r="D12" s="169">
         <v>8295</v>
       </c>
-      <c r="E12" s="173">
+      <c r="E12" s="169">
         <v>8165</v>
       </c>
-      <c r="F12" s="167">
+      <c r="F12" s="163">
         <f>F11*F13</f>
         <v>8969.0310809999992</v>
       </c>
-      <c r="G12" s="167">
+      <c r="G12" s="163">
         <f t="shared" ref="G12:J12" si="5">G11*G13</f>
         <v>10738.187351778486</v>
       </c>
-      <c r="H12" s="167">
+      <c r="H12" s="163">
         <f t="shared" si="5"/>
         <v>11219.320915660426</v>
       </c>
-      <c r="I12" s="167">
+      <c r="I12" s="163">
         <f t="shared" si="5"/>
         <v>11771.286815676644</v>
       </c>
-      <c r="J12" s="167">
+      <c r="J12" s="163">
         <f t="shared" si="5"/>
         <v>12405.6498469825</v>
       </c>
@@ -13626,31 +15539,31 @@
       <c r="B13" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="174">
+      <c r="C13" s="170">
         <f>C12/C11</f>
         <v>3.9353712274478286E-2</v>
       </c>
-      <c r="D13" s="174">
+      <c r="D13" s="170">
         <f>D12/D11</f>
         <v>5.3000485598180283E-2</v>
       </c>
-      <c r="E13" s="174">
+      <c r="E13" s="170">
         <f>E12/E11</f>
         <v>4.7773682054882687E-2</v>
       </c>
-      <c r="F13" s="175">
+      <c r="F13" s="171">
         <v>0.05</v>
       </c>
-      <c r="G13" s="175">
+      <c r="G13" s="171">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H13" s="175">
+      <c r="H13" s="171">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I13" s="175">
+      <c r="I13" s="171">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J13" s="175">
+      <c r="J13" s="171">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
@@ -13658,35 +15571,35 @@
       <c r="B14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="168">
         <f>[3]Model!C177</f>
         <v>-1622</v>
       </c>
-      <c r="D14" s="172">
+      <c r="D14" s="168">
         <f>[3]Model!D177</f>
         <v>-2672</v>
       </c>
-      <c r="E14" s="172">
+      <c r="E14" s="168">
         <f>[3]Model!E177</f>
         <v>-5797</v>
       </c>
-      <c r="F14" s="176">
+      <c r="F14" s="172">
         <f>-F31</f>
         <v>-5879.2364414333333</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="172">
         <f t="shared" ref="G14:J14" si="6">-G31</f>
         <v>-6853.4916180445152</v>
       </c>
-      <c r="H14" s="176">
+      <c r="H14" s="172">
         <f t="shared" si="6"/>
         <v>-8052.7757781217406</v>
       </c>
-      <c r="I14" s="176">
+      <c r="I14" s="172">
         <f t="shared" si="6"/>
         <v>-9355.3698845887811</v>
       </c>
-      <c r="J14" s="176">
+      <c r="J14" s="172">
         <f t="shared" si="6"/>
         <v>-10776.596884188029</v>
       </c>
@@ -13695,35 +15608,35 @@
       <c r="B15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="177">
+      <c r="C15" s="173">
         <f t="shared" ref="C15:J15" si="7">-(C14/C12)</f>
         <v>0.3807511737089202</v>
       </c>
-      <c r="D15" s="177">
+      <c r="D15" s="173">
         <f t="shared" si="7"/>
         <v>0.32212176009644367</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="173">
         <f t="shared" si="7"/>
         <v>0.70998162890385796</v>
       </c>
-      <c r="F15" s="178">
+      <c r="F15" s="174">
         <f t="shared" si="7"/>
         <v>0.6555040771224343</v>
       </c>
-      <c r="G15" s="178">
+      <c r="G15" s="174">
         <f t="shared" si="7"/>
         <v>0.63823542964254787</v>
       </c>
-      <c r="H15" s="178">
+      <c r="H15" s="174">
         <f t="shared" si="7"/>
         <v>0.71775964326693953</v>
       </c>
-      <c r="I15" s="178">
+      <c r="I15" s="174">
         <f t="shared" si="7"/>
         <v>0.7947618668274723</v>
       </c>
-      <c r="J15" s="178">
+      <c r="J15" s="174">
         <f t="shared" si="7"/>
         <v>0.86868459267446474</v>
       </c>
@@ -13763,11 +15676,11 @@
       <c r="E18" s="60">
         <v>28519</v>
       </c>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="2:10" ht="15.6">
       <c r="B19" s="23" t="s">
@@ -13780,72 +15693,72 @@
       <c r="E19" s="60">
         <v>1650</v>
       </c>
-      <c r="F19" s="179"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="2:10" ht="15.6">
       <c r="B20" s="23" t="s">
         <v>182</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="181">
+      <c r="D20" s="177">
         <f>D18-D9</f>
         <v>6435</v>
       </c>
-      <c r="E20" s="181">
+      <c r="E20" s="177">
         <f>E18-E9</f>
         <v>11922</v>
       </c>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
     </row>
     <row r="21" spans="2:10" ht="15.6">
       <c r="B21" s="23" t="s">
         <v>183</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="181">
+      <c r="D21" s="177">
         <f>D18-D19-D20</f>
         <v>14252</v>
       </c>
-      <c r="E21" s="181">
+      <c r="E21" s="177">
         <f t="shared" ref="E21" si="8">E18-E19-E20</f>
         <v>14947</v>
       </c>
-      <c r="F21" s="181"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
       <c r="J21" s="62"/>
     </row>
     <row r="22" spans="2:10" ht="15.6">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="183" t="s">
+      <c r="D22" s="179" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
     </row>
     <row r="23" spans="2:10" ht="15.6">
       <c r="B23" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="184">
+      <c r="D23" s="180">
         <v>5</v>
       </c>
-      <c r="E23" s="185">
+      <c r="E23" s="181">
         <f>IF(D23,D23,ROUND((E18-E19)/E14,0))</f>
         <v>5</v>
       </c>
@@ -13860,11 +15773,11 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="2:10" ht="15.6">
       <c r="B25" s="1" t="s">
@@ -13873,23 +15786,23 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="186">
+      <c r="F25" s="192">
         <f>SYD($E$21,0,$E$23,F3-$E$3)</f>
         <v>4982.333333333333</v>
       </c>
-      <c r="G25" s="186">
+      <c r="G25" s="192">
         <f t="shared" ref="G25:J25" si="9">SYD($E$21,0,$E$23,G3-$E$3)</f>
         <v>3985.8666666666668</v>
       </c>
-      <c r="H25" s="186">
+      <c r="H25" s="192">
         <f t="shared" si="9"/>
         <v>2989.4</v>
       </c>
-      <c r="I25" s="186">
+      <c r="I25" s="191">
         <f t="shared" si="9"/>
         <v>1992.9333333333334</v>
       </c>
-      <c r="J25" s="186">
+      <c r="J25" s="192">
         <f t="shared" si="9"/>
         <v>996.4666666666667</v>
       </c>
@@ -13900,27 +15813,27 @@
         <v>Depreciation from capex purchased in 2014</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="126">
+      <c r="D26" s="124">
         <v>0.5</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="187">
+      <c r="F26" s="182">
         <f>D26*$F$12/$E$23</f>
         <v>896.90310809999994</v>
       </c>
-      <c r="G26" s="187">
+      <c r="G26" s="182">
         <f>$F$12/$E$23</f>
         <v>1793.8062161999999</v>
       </c>
-      <c r="H26" s="187">
+      <c r="H26" s="182">
         <f t="shared" ref="H26:J26" si="10">$F$12/$E$23</f>
         <v>1793.8062161999999</v>
       </c>
-      <c r="I26" s="187">
+      <c r="I26" s="182">
         <f t="shared" si="10"/>
         <v>1793.8062161999999</v>
       </c>
-      <c r="J26" s="187">
+      <c r="J26" s="192">
         <f t="shared" si="10"/>
         <v>1793.8062161999999</v>
       </c>
@@ -13933,20 +15846,20 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="188"/>
-      <c r="G27" s="187">
+      <c r="F27" s="183"/>
+      <c r="G27" s="182">
         <f>D26*$G$12/$E$23</f>
         <v>1073.8187351778486</v>
       </c>
-      <c r="H27" s="187">
+      <c r="H27" s="192">
         <f>$G$12/$E$23</f>
         <v>2147.6374703556971</v>
       </c>
-      <c r="I27" s="187">
+      <c r="I27" s="191">
         <f t="shared" ref="I27:J27" si="11">$G$12/$E$23</f>
         <v>2147.6374703556971</v>
       </c>
-      <c r="J27" s="187">
+      <c r="J27" s="192">
         <f t="shared" si="11"/>
         <v>2147.6374703556971</v>
       </c>
@@ -13959,13 +15872,13 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="188"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="183"/>
       <c r="H28" s="193">
         <f>$D$26*$H$12/$E$23</f>
         <v>1121.9320915660426</v>
       </c>
-      <c r="I28" s="193">
+      <c r="I28" s="194">
         <f>$H$12/$E$23</f>
         <v>2243.8641831320851</v>
       </c>
@@ -13982,10 +15895,10 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="193">
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="194">
         <f>$D$26*$I$12/$E$23</f>
         <v>1177.1286815676644</v>
       </c>
@@ -14002,10 +15915,10 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="192"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
       <c r="J30" s="193">
         <f>$D$26*J$12/$E$23</f>
         <v>1240.5649846982501</v>
@@ -14018,28 +15931,2750 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="190">
+      <c r="F31" s="185">
         <f>SUM(F25:F30)</f>
         <v>5879.2364414333333</v>
       </c>
-      <c r="G31" s="190">
+      <c r="G31" s="185">
         <f t="shared" ref="G31:J31" si="12">SUM(G25:G30)</f>
         <v>6853.4916180445152</v>
       </c>
-      <c r="H31" s="190">
+      <c r="H31" s="185">
         <f t="shared" si="12"/>
         <v>8052.7757781217406</v>
       </c>
-      <c r="I31" s="190">
+      <c r="I31" s="195">
         <f t="shared" si="12"/>
         <v>9355.3698845887811</v>
       </c>
-      <c r="J31" s="190">
+      <c r="J31" s="196">
         <f t="shared" si="12"/>
         <v>10776.596884188029</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.4" thickBot="1">
+      <c r="A2" s="117"/>
+      <c r="B2" s="27" t="str">
+        <f>"Discounted Cash Flow Model for "&amp;'[4]Financial Statement Model'!C5</f>
+        <v>Discounted Cash Flow Model for Apple</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="117"/>
+      <c r="B4" s="197" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="140"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="117"/>
+      <c r="B5" s="153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="219">
+        <f>Model!C7</f>
+        <v>604.86</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="117"/>
+      <c r="B6" s="198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="214">
+        <f>Model!C8</f>
+        <v>41778</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="117"/>
+      <c r="B7" s="198" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="279">
+        <v>861.38100000000009</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="117"/>
+      <c r="B8" s="198" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="70">
+        <f>J74</f>
+        <v>0.11713491883679933</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="117"/>
+      <c r="B10" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="117"/>
+      <c r="B11" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="200">
+        <f>D11-1</f>
+        <v>2011</v>
+      </c>
+      <c r="D11" s="200">
+        <f>E11-1</f>
+        <v>2012</v>
+      </c>
+      <c r="E11" s="200">
+        <f>YEAR(E12)</f>
+        <v>2013</v>
+      </c>
+      <c r="F11" s="201">
+        <f>E11+1</f>
+        <v>2014</v>
+      </c>
+      <c r="G11" s="201">
+        <f>F11+1</f>
+        <v>2015</v>
+      </c>
+      <c r="H11" s="201">
+        <f>G11+1</f>
+        <v>2016</v>
+      </c>
+      <c r="I11" s="201">
+        <f>H11+1</f>
+        <v>2017</v>
+      </c>
+      <c r="J11" s="201">
+        <f>I11+1</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="117"/>
+      <c r="B12" s="202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="149">
+        <f>'[4]Financial Statement Model'!C14</f>
+        <v>40810</v>
+      </c>
+      <c r="D12" s="149">
+        <f>'[4]Financial Statement Model'!D14</f>
+        <v>41181</v>
+      </c>
+      <c r="E12" s="149">
+        <f>'[4]Financial Statement Model'!E14</f>
+        <v>41545</v>
+      </c>
+      <c r="F12" s="149">
+        <f>'[4]Financial Statement Model'!F14</f>
+        <v>41912</v>
+      </c>
+      <c r="G12" s="149">
+        <f>'[4]Financial Statement Model'!G14</f>
+        <v>42277</v>
+      </c>
+      <c r="H12" s="149">
+        <f>'[4]Financial Statement Model'!H14</f>
+        <v>42643</v>
+      </c>
+      <c r="I12" s="149">
+        <f>'[4]Financial Statement Model'!I14</f>
+        <v>43008</v>
+      </c>
+      <c r="J12" s="149">
+        <f>'[4]Financial Statement Model'!J14</f>
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="117"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="117"/>
+      <c r="B14" s="153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="210">
+        <f>Model!C46</f>
+        <v>36772</v>
+      </c>
+      <c r="D14" s="210">
+        <f>Model!D46</f>
+        <v>60258</v>
+      </c>
+      <c r="E14" s="210">
+        <f>Model!E46</f>
+        <v>58009</v>
+      </c>
+      <c r="F14" s="210">
+        <f ca="1">Model!F46</f>
+        <v>58479.006892210789</v>
+      </c>
+      <c r="G14" s="210">
+        <f ca="1">Model!G46</f>
+        <v>61576.139985708425</v>
+      </c>
+      <c r="H14" s="210">
+        <f ca="1">Model!H46</f>
+        <v>64138.291222987777</v>
+      </c>
+      <c r="I14" s="210">
+        <f ca="1">Model!I46</f>
+        <v>67024.917202711949</v>
+      </c>
+      <c r="J14" s="210">
+        <f ca="1">Model!J46</f>
+        <v>70431.2136932375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="117"/>
+      <c r="B15" s="153" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="211">
+        <f>Model!C21</f>
+        <v>33790</v>
+      </c>
+      <c r="D15" s="211">
+        <f>Model!D21</f>
+        <v>55241</v>
+      </c>
+      <c r="E15" s="211">
+        <f>Model!E21</f>
+        <v>48999</v>
+      </c>
+      <c r="F15" s="211">
+        <f ca="1">Model!F21</f>
+        <v>49121.088987599993</v>
+      </c>
+      <c r="G15" s="211">
+        <f ca="1">Model!G21</f>
+        <v>51848.534387372238</v>
+      </c>
+      <c r="H15" s="211">
+        <f ca="1">Model!H21</f>
+        <v>54171.064773692749</v>
+      </c>
+      <c r="I15" s="211">
+        <f ca="1">Model!I21</f>
+        <v>56835.430285172188</v>
+      </c>
+      <c r="J15" s="211">
+        <f ca="1">Model!J21</f>
+        <v>59897.419689579969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="117"/>
+      <c r="B16" s="153" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="212">
+        <f>Model!C41</f>
+        <v>0.24215757930127174</v>
+      </c>
+      <c r="D16" s="212">
+        <f>Model!D41</f>
+        <v>0.25160052364471064</v>
+      </c>
+      <c r="E16" s="212">
+        <f>Model!E41</f>
+        <v>0.26154919748778788</v>
+      </c>
+      <c r="F16" s="212">
+        <f>Model!F41</f>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G16" s="212">
+        <f>Model!G41</f>
+        <v>0.26</v>
+      </c>
+      <c r="H16" s="212">
+        <f>Model!H41</f>
+        <v>0.26</v>
+      </c>
+      <c r="I16" s="212">
+        <f>Model!I41</f>
+        <v>0.26</v>
+      </c>
+      <c r="J16" s="212">
+        <f>Model!J41</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="117"/>
+      <c r="B17" s="205" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="129">
+        <f>C15*(1-C16)</f>
+        <v>25607.495395410027</v>
+      </c>
+      <c r="D17" s="129">
+        <f t="shared" ref="D17:J17" si="0">D15*(1-D16)</f>
+        <v>41342.335473342537</v>
+      </c>
+      <c r="E17" s="129">
+        <f t="shared" si="0"/>
+        <v>36183.35087229588</v>
+      </c>
+      <c r="F17" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>36202.242583861196</v>
+      </c>
+      <c r="G17" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>38367.915446655454</v>
+      </c>
+      <c r="H17" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>40086.587932532631</v>
+      </c>
+      <c r="I17" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>42058.218411027417</v>
+      </c>
+      <c r="J17" s="129">
+        <f t="shared" ca="1" si="0"/>
+        <v>44324.090570289176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="117"/>
+      <c r="B18" s="205"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="117"/>
+      <c r="B19" s="154" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="216">
+        <f ca="1">Model!F265</f>
+        <v>7145.3176115999995</v>
+      </c>
+      <c r="G19" s="216">
+        <f ca="1">Model!G265</f>
+        <v>7540.5401478143021</v>
+      </c>
+      <c r="H19" s="216">
+        <f ca="1">Model!H265</f>
+        <v>7682.1924442956242</v>
+      </c>
+      <c r="I19" s="216">
+        <f ca="1">Model!I265</f>
+        <v>7792.0651309652267</v>
+      </c>
+      <c r="J19" s="216">
+        <f ca="1">Model!J265</f>
+        <v>8007.2119367516198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="117"/>
+      <c r="B20" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="216">
+        <f ca="1">Model!F266</f>
+        <v>2212.6002930107998</v>
+      </c>
+      <c r="G20" s="216">
+        <f ca="1">Model!G266</f>
+        <v>2187.0654505218836</v>
+      </c>
+      <c r="H20" s="216">
+        <f ca="1">Model!H266</f>
+        <v>2285.0340049994029</v>
+      </c>
+      <c r="I20" s="216">
+        <f ca="1">Model!I266</f>
+        <v>2397.4217865745363</v>
+      </c>
+      <c r="J20" s="216">
+        <f ca="1">Model!J266</f>
+        <v>2526.582066905919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="117"/>
+      <c r="B21" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="217">
+        <f ca="1">Model!F267</f>
+        <v>-433.19057869999779</v>
+      </c>
+      <c r="G21" s="217">
+        <f ca="1">Model!G267</f>
+        <v>-793.85892471924126</v>
+      </c>
+      <c r="H21" s="217">
+        <f ca="1">Model!H267</f>
+        <v>-641.86294312857353</v>
+      </c>
+      <c r="I21" s="217">
+        <f ca="1">Model!I267</f>
+        <v>-736.33374135432132</v>
+      </c>
+      <c r="J21" s="217">
+        <f ca="1">Model!J267</f>
+        <v>-846.22252630905678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="117"/>
+      <c r="B22" s="154" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="216">
+        <f ca="1">Model!F268</f>
+        <v>-40.21401303359994</v>
+      </c>
+      <c r="G22" s="216">
+        <f ca="1">Model!G268</f>
+        <v>-143.2169385561017</v>
+      </c>
+      <c r="H22" s="216">
+        <f ca="1">Model!H268</f>
+        <v>-87.234241310197831</v>
+      </c>
+      <c r="I22" s="216">
+        <f ca="1">Model!I268</f>
+        <v>-100.07356861116841</v>
+      </c>
+      <c r="J22" s="216">
+        <f ca="1">Model!J268</f>
+        <v>-115.00832202955598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="117"/>
+      <c r="B23" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="216">
+        <f ca="1">Model!F269</f>
+        <v>523.96529036379798</v>
+      </c>
+      <c r="G23" s="216">
+        <f ca="1">Model!G269</f>
+        <v>1422.4150749379296</v>
+      </c>
+      <c r="H23" s="216">
+        <f ca="1">Model!H269</f>
+        <v>1089.1062854485281</v>
+      </c>
+      <c r="I23" s="216">
+        <f ca="1">Model!I269</f>
+        <v>1249.4033414485275</v>
+      </c>
+      <c r="J23" s="216">
+        <f ca="1">Model!J269</f>
+        <v>1435.8614750356683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="117"/>
+      <c r="B24" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="216">
+        <f ca="1">Model!F270</f>
+        <v>-72.551695800000743</v>
+      </c>
+      <c r="G24" s="216">
+        <f ca="1">Model!G270</f>
+        <v>6.8775139912322629</v>
+      </c>
+      <c r="H24" s="216">
+        <f ca="1">Model!H270</f>
+        <v>-15.057317766426422</v>
+      </c>
+      <c r="I24" s="216">
+        <f ca="1">Model!I270</f>
+        <v>138.9493653205609</v>
+      </c>
+      <c r="J24" s="216">
+        <f ca="1">Model!J270</f>
+        <v>-15.249989913376339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="117"/>
+      <c r="B25" s="154" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="216">
+        <f>Model!F271</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="216">
+        <f>Model!G271</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="216">
+        <f>Model!H271</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="216">
+        <f>Model!I271</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="216">
+        <f>Model!J271</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="117"/>
+      <c r="B26" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="216">
+        <f>Model!F272</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="216">
+        <f>Model!G272</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="216">
+        <f>Model!H272</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="216">
+        <f>Model!I272</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="216">
+        <f>Model!J272</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="117"/>
+      <c r="B27" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="216">
+        <f>Model!F273</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="216">
+        <f>Model!G273</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="216">
+        <f>Model!H273</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="216">
+        <f>Model!I273</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="216">
+        <f>Model!J273</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="117"/>
+      <c r="B28" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="216">
+        <f>Model!F274</f>
+        <v>3000</v>
+      </c>
+      <c r="G28" s="216">
+        <f>Model!G274</f>
+        <v>3000</v>
+      </c>
+      <c r="H28" s="216">
+        <f>Model!H274</f>
+        <v>3000</v>
+      </c>
+      <c r="I28" s="216">
+        <f>Model!I274</f>
+        <v>3000</v>
+      </c>
+      <c r="J28" s="216">
+        <f>Model!J274</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="117"/>
+      <c r="B29" s="205" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="90">
+        <f ca="1">SUM(F17:F28)</f>
+        <v>48538.169491302193</v>
+      </c>
+      <c r="G29" s="90">
+        <f t="shared" ref="G29:J29" ca="1" si="1">SUM(G17:G28)</f>
+        <v>51587.737770645457</v>
+      </c>
+      <c r="H29" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>53398.766165070992</v>
+      </c>
+      <c r="I29" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>55799.650725370782</v>
+      </c>
+      <c r="J29" s="90">
+        <f t="shared" ca="1" si="1"/>
+        <v>58317.265210730395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="117"/>
+      <c r="B30" s="206" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="218">
+        <f ca="1">Model!F278</f>
+        <v>-8963.7023699999991</v>
+      </c>
+      <c r="G30" s="218">
+        <f ca="1">Model!G278</f>
+        <v>-10746.78712756443</v>
+      </c>
+      <c r="H30" s="218">
+        <f ca="1">Model!H278</f>
+        <v>-11228.18433491086</v>
+      </c>
+      <c r="I30" s="218">
+        <f ca="1">Model!I278</f>
+        <v>-11780.434640926602</v>
+      </c>
+      <c r="J30" s="218">
+        <f ca="1">Model!J278</f>
+        <v>-12415.101535658394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="117"/>
+      <c r="B31" s="154" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="218">
+        <f>Model!F279</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="218">
+        <f>Model!G279</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="218">
+        <f>Model!H279</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="218">
+        <f>Model!I279</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="218">
+        <f>Model!J279</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="117"/>
+      <c r="B32" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="90">
+        <f ca="1">SUM(F29:F31)</f>
+        <v>39574.467121302194</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" ref="G32:J32" ca="1" si="2">SUM(G29:G31)</f>
+        <v>40840.950643081029</v>
+      </c>
+      <c r="H32" s="90">
+        <f t="shared" ca="1" si="2"/>
+        <v>42170.581830160132</v>
+      </c>
+      <c r="I32" s="90">
+        <f t="shared" ca="1" si="2"/>
+        <v>44019.216084444182</v>
+      </c>
+      <c r="J32" s="90">
+        <f t="shared" ca="1" si="2"/>
+        <v>45902.163675071999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="117"/>
+      <c r="B33" s="207" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="66">
+        <f ca="1">G32/F32-1</f>
+        <v>3.2002541383484795E-2</v>
+      </c>
+      <c r="H33" s="66">
+        <f t="shared" ref="H33:J33" ca="1" si="3">H32/G32-1</f>
+        <v>3.2556323154646183E-2</v>
+      </c>
+      <c r="I33" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.3837058301195109E-2</v>
+      </c>
+      <c r="J33" s="66">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2775582077964946E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="117"/>
+      <c r="B34" s="128"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="117"/>
+      <c r="B35" s="203" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="68">
+        <f>YEARFRAC($C$6,F12)</f>
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="G35" s="68">
+        <f t="shared" ref="G35:J35" si="4">YEARFRAC($C$6,G12)</f>
+        <v>1.3638888888888889</v>
+      </c>
+      <c r="H35" s="68">
+        <f t="shared" si="4"/>
+        <v>2.3638888888888889</v>
+      </c>
+      <c r="I35" s="68">
+        <f t="shared" si="4"/>
+        <v>3.3638888888888889</v>
+      </c>
+      <c r="J35" s="68">
+        <f t="shared" si="4"/>
+        <v>4.3638888888888889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="292" customFormat="1">
+      <c r="A36" s="295"/>
+      <c r="B36" s="296" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="228" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+    </row>
+    <row r="37" spans="1:10" s="292" customFormat="1">
+      <c r="A37" s="295"/>
+      <c r="B37" s="295" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="56">
+        <f>IF(C36="End of Period", 1, (1+C8)^0.5)</f>
+        <v>1.0569460340229293</v>
+      </c>
+      <c r="F37" s="229">
+        <f>F35</f>
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="G37" s="229">
+        <f>G35-F35</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="229">
+        <f t="shared" ref="H37:J37" si="5">H35-G35</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="229">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="229">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="117"/>
+      <c r="B38" s="208" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" s="90">
+        <f ca="1">IF(C36="End of period",F32/((1+$C$8)^F35),F32/((1+$C$8)^(F35-0.5*F37)))</f>
+        <v>38784.886434435197</v>
+      </c>
+      <c r="G38" s="90">
+        <f t="shared" ref="G38:J38" ca="1" si="6">G32/((1+$C$8)^(G35-0.5*G37))</f>
+        <v>37114.013880715334</v>
+      </c>
+      <c r="H38" s="90">
+        <f t="shared" ca="1" si="6"/>
+        <v>34304.101558372633</v>
+      </c>
+      <c r="I38" s="90">
+        <f t="shared" ca="1" si="6"/>
+        <v>32053.328433813149</v>
+      </c>
+      <c r="J38" s="90">
+        <f t="shared" ca="1" si="6"/>
+        <v>29919.777505396032</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="282"/>
+      <c r="B39" s="286"/>
+      <c r="C39" s="281"/>
+      <c r="D39" s="281"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="281"/>
+      <c r="G39" s="281"/>
+      <c r="H39" s="281"/>
+      <c r="I39" s="281"/>
+      <c r="J39" s="281"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1">
+      <c r="A40" s="282"/>
+      <c r="B40" s="288" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="287"/>
+      <c r="D40" s="281"/>
+      <c r="E40" s="288" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="287"/>
+      <c r="G40" s="287"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="287"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="282"/>
+      <c r="B41" s="282" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="73">
+        <f ca="1">J17+SUM(J20:J27)</f>
+        <v>47310.053273978774</v>
+      </c>
+      <c r="D41" s="281"/>
+      <c r="E41" s="282" t="s">
+        <v>203</v>
+      </c>
+      <c r="F41" s="282"/>
+      <c r="G41" s="282"/>
+      <c r="H41" s="282"/>
+      <c r="I41" s="282"/>
+      <c r="J41" s="300">
+        <f ca="1">J14</f>
+        <v>70431.2136932375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.2">
+      <c r="A42" s="282"/>
+      <c r="B42" s="282" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" s="73">
+        <f ca="1">C41*(1+C43)</f>
+        <v>48729.354872198135</v>
+      </c>
+      <c r="D42" s="281"/>
+      <c r="E42" s="282" t="s">
+        <v>204</v>
+      </c>
+      <c r="F42" s="282"/>
+      <c r="G42" s="282"/>
+      <c r="H42" s="282"/>
+      <c r="I42" s="282"/>
+      <c r="J42" s="318">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="282"/>
+      <c r="B43" s="282" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="220">
+        <v>0.03</v>
+      </c>
+      <c r="D43" s="281"/>
+      <c r="E43" s="282" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="282"/>
+      <c r="G43" s="282"/>
+      <c r="H43" s="282"/>
+      <c r="I43" s="282"/>
+      <c r="J43" s="73">
+        <f ca="1">J42*J41</f>
+        <v>655010.28734710882</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="282"/>
+      <c r="B44" s="282" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="73">
+        <f ca="1">C42*C37/(C8-C43)</f>
+        <v>591086.77738176915</v>
+      </c>
+      <c r="D44" s="281"/>
+      <c r="E44" s="283" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="282"/>
+      <c r="G44" s="282"/>
+      <c r="H44" s="282"/>
+      <c r="I44" s="282"/>
+      <c r="J44" s="73">
+        <f ca="1">J43/((1+C8)^J35)</f>
+        <v>403943.39368900872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="282"/>
+      <c r="B45" s="283" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="73">
+        <f ca="1">C44/(1+C8)^J35</f>
+        <v>364521.90665176936</v>
+      </c>
+      <c r="D45" s="281"/>
+      <c r="E45" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="282"/>
+      <c r="G45" s="282"/>
+      <c r="H45" s="282"/>
+      <c r="I45" s="282"/>
+      <c r="J45" s="73">
+        <f ca="1">SUM(F38:J38)</f>
+        <v>172176.10781273234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="282"/>
+      <c r="B46" s="285" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="73">
+        <f ca="1">SUM(F38:J38)</f>
+        <v>172176.10781273234</v>
+      </c>
+      <c r="D46" s="281"/>
+      <c r="E46" s="284" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="282"/>
+      <c r="G46" s="282"/>
+      <c r="H46" s="282"/>
+      <c r="I46" s="282"/>
+      <c r="J46" s="90">
+        <f ca="1">SUM(J44:J45)</f>
+        <v>576119.50150174112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="282"/>
+      <c r="B47" s="284" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="90">
+        <f ca="1">SUM(C45:C46)</f>
+        <v>536698.01446450176</v>
+      </c>
+      <c r="D47" s="282"/>
+      <c r="E47" s="283"/>
+      <c r="F47" s="282"/>
+      <c r="G47" s="282"/>
+      <c r="H47" s="282"/>
+      <c r="I47" s="282"/>
+      <c r="J47" s="289"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1">
+      <c r="B49" s="316" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" s="320"/>
+      <c r="D49" s="292"/>
+      <c r="E49" s="316" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" s="320"/>
+      <c r="G49" s="320"/>
+      <c r="H49" s="320"/>
+      <c r="I49" s="320"/>
+      <c r="J49" s="320"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.2">
+      <c r="B50" s="292"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="292"/>
+      <c r="E50" s="292"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="292"/>
+      <c r="H50" s="292"/>
+      <c r="I50" s="321" t="s">
+        <v>212</v>
+      </c>
+      <c r="J50" s="321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="295" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="73">
+        <f>18949+22401+109239</f>
+        <v>150589</v>
+      </c>
+      <c r="D51" s="292"/>
+      <c r="E51" s="292" t="s">
+        <v>213</v>
+      </c>
+      <c r="F51" s="292"/>
+      <c r="G51" s="292"/>
+      <c r="H51" s="292"/>
+      <c r="I51" s="73">
+        <f ca="1">C47</f>
+        <v>536698.01446450176</v>
+      </c>
+      <c r="J51" s="73">
+        <f ca="1">J46</f>
+        <v>576119.50150174112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="299" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="77">
+        <v>16962</v>
+      </c>
+      <c r="D52" s="292"/>
+      <c r="E52" s="292" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="292"/>
+      <c r="G52" s="292"/>
+      <c r="H52" s="292"/>
+      <c r="I52" s="73">
+        <f>C53</f>
+        <v>-133627</v>
+      </c>
+      <c r="J52" s="73">
+        <f>C53</f>
+        <v>-133627</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" s="311" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="73">
+        <f>C52-C51</f>
+        <v>-133627</v>
+      </c>
+      <c r="D53" s="292"/>
+      <c r="E53" s="292" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="292"/>
+      <c r="G53" s="292"/>
+      <c r="H53" s="292"/>
+      <c r="I53" s="73">
+        <f>C54</f>
+        <v>18400</v>
+      </c>
+      <c r="J53" s="73">
+        <f>I53</f>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="299" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" s="77">
+        <v>18400</v>
+      </c>
+      <c r="D54" s="292"/>
+      <c r="E54" s="301" t="s">
+        <v>217</v>
+      </c>
+      <c r="F54" s="301"/>
+      <c r="G54" s="301"/>
+      <c r="H54" s="292"/>
+      <c r="I54" s="90">
+        <f ca="1">I51-I52-I53</f>
+        <v>651925.01446450176</v>
+      </c>
+      <c r="J54" s="90">
+        <f ca="1">J51-J52-J53</f>
+        <v>691346.50150174112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" s="292"/>
+      <c r="C55" s="292"/>
+      <c r="D55" s="292"/>
+      <c r="E55" s="299" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" s="295"/>
+      <c r="G55" s="295"/>
+      <c r="H55" s="295"/>
+      <c r="I55" s="239">
+        <f>$C$65</f>
+        <v>863.15435581787528</v>
+      </c>
+      <c r="J55" s="239">
+        <f>$C$65</f>
+        <v>863.15435581787528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" thickBot="1">
+      <c r="A56" s="295"/>
+      <c r="B56" s="316" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="314"/>
+      <c r="E56" s="301" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="295"/>
+      <c r="G56" s="295"/>
+      <c r="H56" s="295"/>
+      <c r="I56" s="136">
+        <f ca="1">I54/I55</f>
+        <v>755.28207680395144</v>
+      </c>
+      <c r="J56" s="136">
+        <f ca="1">J54/J55</f>
+        <v>800.95349903744739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="295"/>
+      <c r="B57" s="291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="239">
+        <f>C7</f>
+        <v>861.38100000000009</v>
+      </c>
+      <c r="E57" s="291" t="s">
+        <v>229</v>
+      </c>
+      <c r="F57" s="295"/>
+      <c r="G57" s="295"/>
+      <c r="H57" s="295"/>
+      <c r="I57" s="294">
+        <f ca="1">$C$5/I56-1</f>
+        <v>-0.19916013026613433</v>
+      </c>
+      <c r="J57" s="294">
+        <f ca="1">$C$5/J56-1</f>
+        <v>-0.24482507320725155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="295"/>
+      <c r="B58" s="306" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="313">
+        <v>2.4</v>
+      </c>
+      <c r="I58" s="290"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1">
+      <c r="A59" s="295"/>
+      <c r="B59" s="306" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="137">
+        <v>157.93</v>
+      </c>
+      <c r="E59" s="316" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" s="314"/>
+      <c r="G59" s="314"/>
+      <c r="H59" s="314"/>
+      <c r="I59" s="314"/>
+      <c r="J59" s="314"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="295"/>
+      <c r="B60" s="295" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" s="238">
+        <f>IF(C59&lt;C5,C58,0)</f>
+        <v>2.4</v>
+      </c>
+      <c r="E60" s="278" t="s">
+        <v>231</v>
+      </c>
+      <c r="F60" s="295"/>
+      <c r="G60" s="295"/>
+      <c r="H60" s="295"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="295"/>
+      <c r="B61" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="305">
+        <f>C60*C59</f>
+        <v>379.03199999999998</v>
+      </c>
+      <c r="E61" s="296" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="295"/>
+      <c r="G61" s="295"/>
+      <c r="H61" s="295"/>
+      <c r="I61" s="293"/>
+      <c r="J61" s="294">
+        <f>$J$16</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="295"/>
+      <c r="B62" s="308" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="238">
+        <f>C61/C5</f>
+        <v>0.62664418212478912</v>
+      </c>
+      <c r="E62" s="295" t="s">
+        <v>232</v>
+      </c>
+      <c r="F62" s="295"/>
+      <c r="G62" s="295"/>
+      <c r="H62" s="295"/>
+      <c r="I62" s="295"/>
+      <c r="J62" s="294">
+        <f>J60*(1-J61)</f>
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="295"/>
+      <c r="B63" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="238">
+        <f>C60-C62</f>
+        <v>1.7733558178752107</v>
+      </c>
+      <c r="E63" s="295"/>
+      <c r="F63" s="295"/>
+      <c r="G63" s="295"/>
+      <c r="H63" s="295"/>
+      <c r="I63" s="295"/>
+      <c r="J63" s="295"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="295"/>
+      <c r="B64" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="310">
+        <v>0</v>
+      </c>
+      <c r="E64" s="295" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="295"/>
+      <c r="G64" s="295"/>
+      <c r="H64" s="295"/>
+      <c r="I64" s="295"/>
+      <c r="J64" s="237">
+        <f>0.025</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K64" s="223" t="s">
+        <v>276</v>
+      </c>
+      <c r="L64" s="223" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="295"/>
+      <c r="B65" s="307" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="280">
+        <f>C57+C63-C64</f>
+        <v>863.15435581787528</v>
+      </c>
+      <c r="E65" s="295" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="295"/>
+      <c r="G65" s="295"/>
+      <c r="H65" s="295"/>
+      <c r="I65" s="295"/>
+      <c r="J65" s="277">
+        <f>IF(L65="Observed", C137,C140)</f>
+        <v>0.82428190634618725</v>
+      </c>
+      <c r="K65" s="312">
+        <v>0.93</v>
+      </c>
+      <c r="L65" s="228" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="E66" s="296" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="295"/>
+      <c r="G66" s="295"/>
+      <c r="H66" s="295"/>
+      <c r="I66" s="295"/>
+      <c r="J66" s="276">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="E67" s="299" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="295"/>
+      <c r="G67" s="295"/>
+      <c r="H67" s="295"/>
+      <c r="I67" s="295"/>
+      <c r="J67" s="275">
+        <f>J64+J66*J65</f>
+        <v>9.0942552507694979E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="E68" s="295"/>
+      <c r="F68" s="295"/>
+      <c r="G68" s="295"/>
+      <c r="H68" s="295"/>
+      <c r="I68" s="295"/>
+      <c r="J68" s="295"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="E69" s="297" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="297"/>
+      <c r="G69" s="297"/>
+      <c r="H69" s="297"/>
+      <c r="I69" s="297"/>
+      <c r="J69" s="297"/>
+    </row>
+    <row r="70" spans="1:12" ht="16.2">
+      <c r="E70" s="299"/>
+      <c r="F70" s="295"/>
+      <c r="G70" s="295"/>
+      <c r="H70" s="295"/>
+      <c r="I70" s="274" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="273" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="E71" s="299" t="s">
+        <v>240</v>
+      </c>
+      <c r="F71" s="295"/>
+      <c r="G71" s="295"/>
+      <c r="H71" s="295"/>
+      <c r="I71" s="305">
+        <f>C65*C5</f>
+        <v>522087.54366000008</v>
+      </c>
+      <c r="J71" s="236">
+        <f>I71/(I72+I71)</f>
+        <v>1.3439911779481959</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="E72" s="299" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="295"/>
+      <c r="G72" s="295"/>
+      <c r="H72" s="295"/>
+      <c r="I72" s="305">
+        <f>C53</f>
+        <v>-133627</v>
+      </c>
+      <c r="J72" s="236">
+        <f>1-J71</f>
+        <v>-0.34399117794819589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="E73" s="295"/>
+      <c r="F73" s="295"/>
+      <c r="G73" s="295"/>
+      <c r="H73" s="295"/>
+      <c r="I73" s="295"/>
+      <c r="J73" s="295"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="E74" s="272" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="271"/>
+      <c r="G74" s="271"/>
+      <c r="H74" s="271"/>
+      <c r="I74" s="271"/>
+      <c r="J74" s="235">
+        <f>J72*(1-J61)*(J60)+J67*J71</f>
+        <v>0.11713491883679933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" thickBot="1">
+      <c r="A76" s="295"/>
+      <c r="B76" s="316" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="314"/>
+      <c r="D76" s="314"/>
+      <c r="E76" s="314"/>
+      <c r="F76" s="314"/>
+      <c r="G76" s="314"/>
+      <c r="H76" s="314"/>
+      <c r="I76" s="295"/>
+      <c r="J76" s="295"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="295"/>
+      <c r="B77" s="298"/>
+      <c r="C77" s="296"/>
+      <c r="D77" s="296"/>
+      <c r="E77" s="296"/>
+      <c r="F77" s="296"/>
+      <c r="G77" s="296"/>
+      <c r="H77" s="296"/>
+      <c r="I77" s="295"/>
+      <c r="J77" s="295"/>
+    </row>
+    <row r="78" spans="1:12" ht="16.2">
+      <c r="A78" s="295"/>
+      <c r="B78" s="298"/>
+      <c r="C78" s="270" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="270"/>
+      <c r="E78" s="270"/>
+      <c r="F78" s="270"/>
+      <c r="G78" s="270"/>
+      <c r="H78" s="270"/>
+      <c r="I78" s="295"/>
+      <c r="J78" s="295"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="295"/>
+      <c r="B79" s="296"/>
+      <c r="C79" s="308"/>
+      <c r="D79" s="315" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" s="315"/>
+      <c r="F79" s="315"/>
+      <c r="G79" s="315"/>
+      <c r="H79" s="315"/>
+      <c r="I79" s="295"/>
+      <c r="J79" s="295"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="295"/>
+      <c r="B80" s="269"/>
+      <c r="C80" s="268">
+        <f ca="1">I56</f>
+        <v>755.28207680395144</v>
+      </c>
+      <c r="D80" s="267">
+        <f>F80-0.01</f>
+        <v>1.9999999999999997E-2</v>
+      </c>
+      <c r="E80" s="266">
+        <f>F80-0.005</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="F80" s="265">
+        <f>0.03</f>
+        <v>0.03</v>
+      </c>
+      <c r="G80" s="266">
+        <f>F80+0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="H80" s="266">
+        <f>G80+0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="I80" s="295"/>
+      <c r="J80" s="295"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="295"/>
+      <c r="B81" s="296"/>
+      <c r="C81" s="264">
+        <f>C83+0.02</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D81" s="209">
+        <f t="dataTable" ref="D81:H85" dt2D="1" dtr="1" r1="C43" r2="J74" ca="1"/>
+        <v>576.63336958547609</v>
+      </c>
+      <c r="E81" s="209">
+        <v>588.14332707247138</v>
+      </c>
+      <c r="F81" s="209">
+        <v>600.62050787770158</v>
+      </c>
+      <c r="G81" s="209">
+        <v>614.19217822725022</v>
+      </c>
+      <c r="H81" s="209">
+        <v>629.00895594831718</v>
+      </c>
+      <c r="I81" s="295"/>
+      <c r="J81" s="295"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="295"/>
+      <c r="B82" s="269" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="264">
+        <f>C83+0.01</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D82" s="209">
+        <v>610.30922022912125</v>
+      </c>
+      <c r="E82" s="209">
+        <v>624.22493430718316</v>
+      </c>
+      <c r="F82" s="209">
+        <v>639.41731940158081</v>
+      </c>
+      <c r="G82" s="209">
+        <v>656.07051075505524</v>
+      </c>
+      <c r="H82" s="209">
+        <v>674.40584264928464</v>
+      </c>
+      <c r="I82" s="295"/>
+      <c r="J82" s="295"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="295"/>
+      <c r="B83" s="296"/>
+      <c r="C83" s="263">
+        <f>0.129</f>
+        <v>0.129</v>
+      </c>
+      <c r="D83" s="209">
+        <v>650.17149969736488</v>
+      </c>
+      <c r="E83" s="209">
+        <v>667.25062177968539</v>
+      </c>
+      <c r="F83" s="209">
+        <v>686.05490770870483</v>
+      </c>
+      <c r="G83" s="209">
+        <v>706.85964958762008</v>
+      </c>
+      <c r="H83" s="209">
+        <v>730.0020029136042</v>
+      </c>
+      <c r="I83" s="295"/>
+      <c r="J83" s="295"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="295"/>
+      <c r="B84" s="296"/>
+      <c r="C84" s="234">
+        <f>C83-0.01</f>
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="D84" s="233">
+        <v>698.09583232161333</v>
+      </c>
+      <c r="E84" s="232">
+        <v>719.43748189009114</v>
+      </c>
+      <c r="F84" s="232">
+        <v>743.17706961233068</v>
+      </c>
+      <c r="G84" s="232">
+        <v>769.74279873007492</v>
+      </c>
+      <c r="H84" s="232">
+        <v>799.67127836905263</v>
+      </c>
+      <c r="I84" s="295"/>
+      <c r="J84" s="295"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="295"/>
+      <c r="B85" s="296"/>
+      <c r="C85" s="234">
+        <f>C84-0.01</f>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="D85" s="233">
+        <v>756.80089104264493</v>
+      </c>
+      <c r="E85" s="232">
+        <v>784.05843533349412</v>
+      </c>
+      <c r="F85" s="232">
+        <v>814.76630168647603</v>
+      </c>
+      <c r="G85" s="232">
+        <v>849.62387970878001</v>
+      </c>
+      <c r="H85" s="232">
+        <v>889.53328063286688</v>
+      </c>
+      <c r="I85" s="295"/>
+      <c r="J85" s="295"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="295"/>
+      <c r="B86" s="296"/>
+      <c r="C86" s="296"/>
+      <c r="D86" s="209"/>
+      <c r="E86" s="209"/>
+      <c r="F86" s="209"/>
+      <c r="G86" s="209"/>
+      <c r="H86" s="209"/>
+      <c r="I86" s="295"/>
+      <c r="J86" s="295"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.2">
+      <c r="A87" s="295"/>
+      <c r="B87" s="295"/>
+      <c r="C87" s="270" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="270"/>
+      <c r="E87" s="270"/>
+      <c r="F87" s="270"/>
+      <c r="G87" s="270"/>
+      <c r="H87" s="270"/>
+      <c r="I87" s="295"/>
+      <c r="J87" s="295"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="295"/>
+      <c r="B88" s="295"/>
+      <c r="C88" s="295"/>
+      <c r="D88" s="315" t="s">
+        <v>245</v>
+      </c>
+      <c r="E88" s="315"/>
+      <c r="F88" s="315"/>
+      <c r="G88" s="315"/>
+      <c r="H88" s="315"/>
+      <c r="I88" s="295"/>
+      <c r="J88" s="295"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="295"/>
+      <c r="B89" s="295"/>
+      <c r="C89" s="262">
+        <f ca="1">J56</f>
+        <v>800.95349903744739</v>
+      </c>
+      <c r="D89" s="261">
+        <f>F89-2</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="E89" s="261">
+        <f>F89-1</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F89" s="260">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G89" s="261">
+        <f>F89+1</f>
+        <v>10.3</v>
+      </c>
+      <c r="H89" s="261">
+        <f>G89+1</f>
+        <v>11.3</v>
+      </c>
+      <c r="I89" s="295"/>
+      <c r="J89" s="295"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="295"/>
+      <c r="B90" s="295"/>
+      <c r="C90" s="264">
+        <f>C92+0.02</f>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D90" s="258">
+        <f t="dataTable" ref="D90:H94" dt2D="1" dtr="1" r1="J42" r2="J74" ca="1"/>
+        <v>648.14891860294961</v>
+      </c>
+      <c r="E90" s="209">
+        <v>692.65781262778489</v>
+      </c>
+      <c r="F90" s="209">
+        <v>737.16670665262029</v>
+      </c>
+      <c r="G90" s="209">
+        <v>781.67560067745558</v>
+      </c>
+      <c r="H90" s="209">
+        <v>826.18449470229086</v>
+      </c>
+      <c r="I90" s="295"/>
+      <c r="J90" s="295"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="295"/>
+      <c r="B91" s="269" t="s">
+        <v>244</v>
+      </c>
+      <c r="C91" s="264">
+        <f>C92+0.01</f>
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D91" s="258">
+        <v>663.72801904283131</v>
+      </c>
+      <c r="E91" s="209">
+        <v>709.9675536560128</v>
+      </c>
+      <c r="F91" s="209">
+        <v>756.20708826919429</v>
+      </c>
+      <c r="G91" s="209">
+        <v>802.44662288237578</v>
+      </c>
+      <c r="H91" s="209">
+        <v>848.68615749555738</v>
+      </c>
+      <c r="I91" s="295"/>
+      <c r="J91" s="295"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="295"/>
+      <c r="B92" s="295"/>
+      <c r="C92" s="263">
+        <v>0.129</v>
+      </c>
+      <c r="D92" s="258">
+        <v>680.01467641596105</v>
+      </c>
+      <c r="E92" s="209">
+        <v>728.06830620275332</v>
+      </c>
+      <c r="F92" s="209">
+        <v>776.12193598954548</v>
+      </c>
+      <c r="G92" s="209">
+        <v>824.17556577633775</v>
+      </c>
+      <c r="H92" s="209">
+        <v>872.22919556312991</v>
+      </c>
+      <c r="I92" s="295"/>
+      <c r="J92" s="295"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="295"/>
+      <c r="B93" s="295"/>
+      <c r="C93" s="264">
+        <f>C92-0.01</f>
+        <v>0.11900000000000001</v>
+      </c>
+      <c r="D93" s="258">
+        <v>697.04854309188966</v>
+      </c>
+      <c r="E93" s="209">
+        <v>747.0045404326014</v>
+      </c>
+      <c r="F93" s="209">
+        <v>796.96053777331326</v>
+      </c>
+      <c r="G93" s="209">
+        <v>846.9165351140249</v>
+      </c>
+      <c r="H93" s="209">
+        <v>896.87253245473676</v>
+      </c>
+      <c r="I93" s="295"/>
+      <c r="J93" s="295"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="295"/>
+      <c r="B94" s="295"/>
+      <c r="C94" s="264">
+        <f>C93-0.01</f>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="D94" s="258">
+        <v>714.87189654169561</v>
+      </c>
+      <c r="E94" s="209">
+        <v>766.82367638364121</v>
+      </c>
+      <c r="F94" s="209">
+        <v>818.77545622558659</v>
+      </c>
+      <c r="G94" s="209">
+        <v>870.72723606753209</v>
+      </c>
+      <c r="H94" s="209">
+        <v>922.67901590947758</v>
+      </c>
+      <c r="I94" s="295"/>
+      <c r="J94" s="295"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="295"/>
+      <c r="B95" s="295"/>
+      <c r="C95" s="296"/>
+      <c r="D95" s="296"/>
+      <c r="E95" s="295"/>
+      <c r="F95" s="295"/>
+      <c r="G95" s="295"/>
+      <c r="H95" s="295"/>
+      <c r="I95" s="295"/>
+      <c r="J95" s="295"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.2">
+      <c r="A96" s="295"/>
+      <c r="B96" s="295"/>
+      <c r="C96" s="270" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="270"/>
+      <c r="E96" s="270"/>
+      <c r="F96" s="270"/>
+      <c r="G96" s="270"/>
+      <c r="H96" s="270"/>
+      <c r="I96" s="295"/>
+      <c r="J96" s="295"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="295"/>
+      <c r="B97" s="295"/>
+      <c r="C97" s="296"/>
+      <c r="D97" s="315" t="s">
+        <v>245</v>
+      </c>
+      <c r="E97" s="315"/>
+      <c r="F97" s="315"/>
+      <c r="G97" s="315"/>
+      <c r="H97" s="315"/>
+      <c r="I97" s="295"/>
+      <c r="J97" s="295"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="295"/>
+      <c r="B98" s="295"/>
+      <c r="C98" s="257" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="256">
+        <f ca="1">J56</f>
+        <v>800.95349903744739</v>
+      </c>
+      <c r="E98" s="255">
+        <f>G98-2</f>
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="F98" s="261">
+        <f>G98-1</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G98" s="260">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H98" s="259">
+        <f>G98+1</f>
+        <v>10.3</v>
+      </c>
+      <c r="I98" s="295"/>
+      <c r="J98" s="295"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="295"/>
+      <c r="B99" s="295"/>
+      <c r="C99" s="254">
+        <v>0.7</v>
+      </c>
+      <c r="D99" s="253">
+        <f>D101*C99</f>
+        <v>49301.7</v>
+      </c>
+      <c r="E99" s="209">
+        <f t="dataTable" ref="E99:H103" dt2D="1" dtr="1" r1="J42" r2="J14" ca="1"/>
+        <v>590.10781052537243</v>
+      </c>
+      <c r="F99" s="209">
+        <v>625.33239000716299</v>
+      </c>
+      <c r="G99" s="209">
+        <v>660.55696948895377</v>
+      </c>
+      <c r="H99" s="209">
+        <v>695.78154897074432</v>
+      </c>
+      <c r="I99" s="295"/>
+      <c r="J99" s="295"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="295"/>
+      <c r="B100" s="295"/>
+      <c r="C100" s="254">
+        <v>0.85</v>
+      </c>
+      <c r="D100" s="252">
+        <f>D101*C100</f>
+        <v>59866.35</v>
+      </c>
+      <c r="E100" s="209">
+        <v>645.20911700045917</v>
+      </c>
+      <c r="F100" s="209">
+        <v>687.98182065691935</v>
+      </c>
+      <c r="G100" s="209">
+        <v>730.75452431337942</v>
+      </c>
+      <c r="H100" s="209">
+        <v>773.5272279698396</v>
+      </c>
+      <c r="I100" s="295"/>
+      <c r="J100" s="295"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="295"/>
+      <c r="B101" s="295"/>
+      <c r="C101" s="254">
+        <v>1</v>
+      </c>
+      <c r="D101" s="251">
+        <f>70431*C101</f>
+        <v>70431</v>
+      </c>
+      <c r="E101" s="209">
+        <v>700.31042347554603</v>
+      </c>
+      <c r="F101" s="209">
+        <v>750.63125130667561</v>
+      </c>
+      <c r="G101" s="209">
+        <v>800.95207913780519</v>
+      </c>
+      <c r="H101" s="209">
+        <v>851.27290696893465</v>
+      </c>
+      <c r="I101" s="295"/>
+      <c r="J101" s="295"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="295"/>
+      <c r="B102" s="295"/>
+      <c r="C102" s="254">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D102" s="252">
+        <f>D101*C102</f>
+        <v>80995.649999999994</v>
+      </c>
+      <c r="E102" s="209">
+        <v>755.41172995063289</v>
+      </c>
+      <c r="F102" s="209">
+        <v>813.28068195643175</v>
+      </c>
+      <c r="G102" s="209">
+        <v>871.14963396223084</v>
+      </c>
+      <c r="H102" s="209">
+        <v>929.01858596802981</v>
+      </c>
+      <c r="I102" s="295"/>
+      <c r="J102" s="295"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="295"/>
+      <c r="B103" s="295"/>
+      <c r="C103" s="254">
+        <v>1.3</v>
+      </c>
+      <c r="D103" s="252">
+        <f>D101*C103</f>
+        <v>91560.3</v>
+      </c>
+      <c r="E103" s="209">
+        <v>810.51303642571986</v>
+      </c>
+      <c r="F103" s="209">
+        <v>875.93011260618812</v>
+      </c>
+      <c r="G103" s="209">
+        <v>941.34718878665649</v>
+      </c>
+      <c r="H103" s="209">
+        <v>1006.764264967125</v>
+      </c>
+      <c r="I103" s="295"/>
+      <c r="J103" s="295"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="295"/>
+      <c r="B104" s="295"/>
+      <c r="C104" s="295"/>
+      <c r="D104" s="295"/>
+      <c r="E104" s="295"/>
+      <c r="F104" s="295"/>
+      <c r="G104" s="295"/>
+      <c r="H104" s="295"/>
+      <c r="I104" s="295"/>
+      <c r="J104" s="295"/>
+    </row>
+    <row r="105" spans="1:10" ht="15" thickBot="1">
+      <c r="A105" s="295"/>
+      <c r="B105" s="316" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" s="314"/>
+      <c r="D105" s="314"/>
+      <c r="E105" s="314"/>
+      <c r="F105" s="295"/>
+      <c r="G105" s="250" t="s">
+        <v>248</v>
+      </c>
+      <c r="H105" s="314"/>
+      <c r="I105" s="314"/>
+      <c r="J105" s="314"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="295"/>
+      <c r="B106" s="295"/>
+      <c r="C106" s="295"/>
+      <c r="D106" s="295"/>
+      <c r="E106" s="295"/>
+      <c r="F106" s="295"/>
+      <c r="G106" s="302" t="s">
+        <v>249</v>
+      </c>
+      <c r="H106" s="295"/>
+      <c r="I106" s="295"/>
+      <c r="J106" s="295"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="295"/>
+      <c r="B107" s="295"/>
+      <c r="C107" s="295"/>
+      <c r="D107" s="295"/>
+      <c r="E107" s="295"/>
+      <c r="F107" s="295"/>
+      <c r="G107" s="303" t="s">
+        <v>250</v>
+      </c>
+      <c r="H107" s="295"/>
+      <c r="I107" s="295"/>
+      <c r="J107" s="310">
+        <f>E15</f>
+        <v>48999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="295"/>
+      <c r="B108" s="295"/>
+      <c r="C108" s="295"/>
+      <c r="D108" s="295"/>
+      <c r="E108" s="295"/>
+      <c r="F108" s="295"/>
+      <c r="G108" s="304" t="s">
+        <v>251</v>
+      </c>
+      <c r="H108" s="295"/>
+      <c r="I108" s="295"/>
+      <c r="J108" s="310">
+        <f ca="1">Model!F44</f>
+        <v>7145.3176115999995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="295"/>
+      <c r="B109" s="295"/>
+      <c r="C109" s="295"/>
+      <c r="D109" s="295"/>
+      <c r="E109" s="295"/>
+      <c r="F109" s="295"/>
+      <c r="G109" s="304" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" s="295"/>
+      <c r="I109" s="295"/>
+      <c r="J109" s="249"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="295"/>
+      <c r="B110" s="295"/>
+      <c r="C110" s="295"/>
+      <c r="D110" s="295"/>
+      <c r="E110" s="295"/>
+      <c r="F110" s="295"/>
+      <c r="G110" s="301" t="s">
+        <v>252</v>
+      </c>
+      <c r="H110" s="301"/>
+      <c r="I110" s="301"/>
+      <c r="J110" s="317"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="295"/>
+      <c r="B111" s="295"/>
+      <c r="C111" s="295"/>
+      <c r="D111" s="295"/>
+      <c r="E111" s="295"/>
+      <c r="F111" s="295"/>
+      <c r="G111" s="295" t="s">
+        <v>253</v>
+      </c>
+      <c r="H111" s="295"/>
+      <c r="I111" s="295"/>
+      <c r="J111" s="305"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="295"/>
+      <c r="B112" s="295"/>
+      <c r="C112" s="295"/>
+      <c r="D112" s="295"/>
+      <c r="E112" s="295"/>
+      <c r="F112" s="295"/>
+      <c r="G112" s="295" t="s">
+        <v>213</v>
+      </c>
+      <c r="H112" s="295"/>
+      <c r="I112" s="295"/>
+      <c r="J112" s="305"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="295"/>
+      <c r="B113" s="295"/>
+      <c r="C113" s="295"/>
+      <c r="D113" s="295"/>
+      <c r="E113" s="295"/>
+      <c r="F113" s="295"/>
+      <c r="G113" s="301" t="s">
+        <v>254</v>
+      </c>
+      <c r="H113" s="295"/>
+      <c r="I113" s="295"/>
+      <c r="J113" s="248"/>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="295"/>
+      <c r="B114" s="295"/>
+      <c r="C114" s="295"/>
+      <c r="D114" s="295"/>
+      <c r="E114" s="295"/>
+      <c r="F114" s="295"/>
+      <c r="G114" s="291" t="s">
+        <v>255</v>
+      </c>
+      <c r="H114" s="295"/>
+      <c r="I114" s="295"/>
+      <c r="J114" s="221"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="295"/>
+      <c r="B115" s="295"/>
+      <c r="C115" s="295"/>
+      <c r="D115" s="295"/>
+      <c r="E115" s="295"/>
+      <c r="F115" s="295"/>
+      <c r="G115" s="295"/>
+      <c r="H115" s="295"/>
+      <c r="I115" s="295"/>
+      <c r="J115" s="295"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="295"/>
+      <c r="B116" s="295"/>
+      <c r="C116" s="295"/>
+      <c r="D116" s="295"/>
+      <c r="E116" s="295"/>
+      <c r="F116" s="295"/>
+      <c r="G116" s="295"/>
+      <c r="H116" s="295"/>
+      <c r="I116" s="295"/>
+      <c r="J116" s="295"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="295"/>
+      <c r="B117" s="295"/>
+      <c r="C117" s="295"/>
+      <c r="D117" s="295"/>
+      <c r="E117" s="295"/>
+      <c r="F117" s="295"/>
+      <c r="G117" s="295"/>
+      <c r="H117" s="295"/>
+      <c r="I117" s="295"/>
+      <c r="J117" s="295"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="295"/>
+      <c r="B118" s="295"/>
+      <c r="C118" s="295"/>
+      <c r="D118" s="295"/>
+      <c r="E118" s="295"/>
+      <c r="F118" s="295"/>
+      <c r="G118" s="295"/>
+      <c r="H118" s="295"/>
+      <c r="I118" s="295"/>
+      <c r="J118" s="295"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="295"/>
+      <c r="B119" s="295"/>
+      <c r="C119" s="295"/>
+      <c r="D119" s="295"/>
+      <c r="E119" s="295"/>
+      <c r="F119" s="295"/>
+      <c r="G119" s="295"/>
+      <c r="H119" s="295"/>
+      <c r="I119" s="295"/>
+      <c r="J119" s="295"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="295"/>
+      <c r="B120" s="295"/>
+      <c r="C120" s="295"/>
+      <c r="D120" s="295"/>
+      <c r="E120" s="295"/>
+      <c r="F120" s="295"/>
+      <c r="G120" s="295"/>
+      <c r="H120" s="295"/>
+      <c r="I120" s="295"/>
+      <c r="J120" s="295"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="295"/>
+      <c r="B121" s="295"/>
+      <c r="C121" s="295"/>
+      <c r="D121" s="295"/>
+      <c r="E121" s="295"/>
+      <c r="F121" s="295"/>
+      <c r="G121" s="295"/>
+      <c r="H121" s="295"/>
+      <c r="I121" s="295"/>
+      <c r="J121" s="295"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="295"/>
+      <c r="B122" s="295"/>
+      <c r="C122" s="295"/>
+      <c r="D122" s="295"/>
+      <c r="E122" s="295"/>
+      <c r="F122" s="295"/>
+      <c r="G122" s="295"/>
+      <c r="H122" s="295"/>
+      <c r="I122" s="295"/>
+      <c r="J122" s="295"/>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="295"/>
+      <c r="B123" s="295"/>
+      <c r="C123" s="295"/>
+      <c r="D123" s="295"/>
+      <c r="E123" s="295"/>
+      <c r="F123" s="295"/>
+      <c r="G123" s="295"/>
+      <c r="H123" s="295"/>
+      <c r="I123" s="295"/>
+      <c r="J123" s="295"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="295"/>
+      <c r="B124" s="295"/>
+      <c r="C124" s="295"/>
+      <c r="D124" s="295"/>
+      <c r="E124" s="295"/>
+      <c r="F124" s="295"/>
+      <c r="G124" s="295"/>
+      <c r="H124" s="295"/>
+      <c r="I124" s="295"/>
+      <c r="J124" s="295"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="295"/>
+      <c r="B125" s="295"/>
+      <c r="C125" s="295"/>
+      <c r="D125" s="295"/>
+      <c r="E125" s="295"/>
+      <c r="F125" s="295"/>
+      <c r="G125" s="295"/>
+      <c r="H125" s="295"/>
+      <c r="I125" s="295"/>
+      <c r="J125" s="295"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="295"/>
+      <c r="B126" s="247"/>
+      <c r="C126" s="246" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" s="246" t="s">
+        <v>257</v>
+      </c>
+      <c r="E126" s="245" t="s">
+        <v>258</v>
+      </c>
+      <c r="F126" s="295"/>
+      <c r="G126" s="295"/>
+      <c r="H126" s="295"/>
+      <c r="I126" s="295"/>
+      <c r="J126" s="295"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="295"/>
+      <c r="B127" s="244" t="str">
+        <f>"DCF Value at "&amp;TEXT(D89,"0.0x")&amp;"-"&amp;TEXT(H89,"0.0x")&amp;" Exit EBITDA Range"</f>
+        <v>DCF Value at 7.3x-11.3x Exit EBITDA Range</v>
+      </c>
+      <c r="C127" s="309">
+        <f>D92</f>
+        <v>680.01467641596105</v>
+      </c>
+      <c r="D127" s="309">
+        <f>E127-C127</f>
+        <v>192.21451914716886</v>
+      </c>
+      <c r="E127" s="243">
+        <f>H92</f>
+        <v>872.22919556312991</v>
+      </c>
+      <c r="F127" s="295"/>
+      <c r="G127" s="295"/>
+      <c r="H127" s="295"/>
+      <c r="I127" s="295"/>
+      <c r="J127" s="295"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="295"/>
+      <c r="B128" s="242" t="str">
+        <f>"DCF Value at "&amp;TEXT(D80,"0.0%")&amp;"-"&amp;TEXT(H80,"0.0%")&amp;" Perpetuity Range"</f>
+        <v>DCF Value at 2.0%-4.0% Perpetuity Range</v>
+      </c>
+      <c r="C128" s="309">
+        <f>D83</f>
+        <v>650.17149969736488</v>
+      </c>
+      <c r="D128" s="309">
+        <f>E128-C128</f>
+        <v>79.830503216239322</v>
+      </c>
+      <c r="E128" s="243">
+        <f>H83</f>
+        <v>730.0020029136042</v>
+      </c>
+      <c r="F128" s="295"/>
+      <c r="G128" s="295"/>
+      <c r="H128" s="295"/>
+      <c r="I128" s="295"/>
+      <c r="J128" s="295"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="295"/>
+      <c r="B129" s="241" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="231">
+        <v>393.78</v>
+      </c>
+      <c r="D129" s="240">
+        <v>210.8</v>
+      </c>
+      <c r="E129" s="230">
+        <v>604.59</v>
+      </c>
+      <c r="F129" s="295"/>
+      <c r="G129" s="295"/>
+      <c r="H129" s="295"/>
+      <c r="I129" s="295"/>
+      <c r="J129" s="295"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="295"/>
+      <c r="B130" s="295"/>
+      <c r="C130" s="295"/>
+      <c r="D130" s="295"/>
+      <c r="E130" s="295"/>
+      <c r="F130" s="295"/>
+      <c r="G130" s="295"/>
+      <c r="H130" s="295"/>
+      <c r="I130" s="295"/>
+      <c r="J130" s="295"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="B131" s="222" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="C133" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" t="s">
+        <v>267</v>
+      </c>
+      <c r="E133" t="s">
+        <v>268</v>
+      </c>
+      <c r="F133" t="s">
+        <v>253</v>
+      </c>
+      <c r="G133" t="s">
+        <v>157</v>
+      </c>
+      <c r="H133" t="s">
+        <v>269</v>
+      </c>
+      <c r="I133" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="B134" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134">
+        <v>0.68</v>
+      </c>
+      <c r="D134">
+        <v>44.83</v>
+      </c>
+      <c r="E134" s="227">
+        <v>8260</v>
+      </c>
+      <c r="F134" s="215">
+        <f>D134*E134</f>
+        <v>370295.8</v>
+      </c>
+      <c r="G134" s="52">
+        <v>103217</v>
+      </c>
+      <c r="H134" s="52">
+        <v>23473</v>
+      </c>
+      <c r="I134" s="226">
+        <v>0.18</v>
+      </c>
+      <c r="J134" s="213">
+        <f>C134/(1+(1-I134)*((H134-G134)/F134))</f>
+        <v>0.82583279841388346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D135">
+        <v>589.47</v>
+      </c>
+      <c r="E135">
+        <v>675.9</v>
+      </c>
+      <c r="F135" s="215">
+        <f t="shared" ref="F135:F137" si="7">D135*E135</f>
+        <v>398422.77299999999</v>
+      </c>
+      <c r="G135" s="52">
+        <v>65375</v>
+      </c>
+      <c r="H135" s="52">
+        <v>8396</v>
+      </c>
+      <c r="I135" s="226">
+        <v>0.109</v>
+      </c>
+      <c r="J135" s="213">
+        <f t="shared" ref="J135:J137" si="8">C135/(1+(1-I135)*((H135-G135)/F135))</f>
+        <v>1.3064751991520407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="B136" t="s">
+        <v>273</v>
+      </c>
+      <c r="C136">
+        <v>0.77</v>
+      </c>
+      <c r="D136">
+        <v>359.76</v>
+      </c>
+      <c r="E136">
+        <v>460.2</v>
+      </c>
+      <c r="F136" s="215">
+        <f t="shared" si="7"/>
+        <v>165561.552</v>
+      </c>
+      <c r="G136" s="52">
+        <v>8666</v>
+      </c>
+      <c r="H136" s="52">
+        <v>3147</v>
+      </c>
+      <c r="I136" s="226">
+        <v>0.318</v>
+      </c>
+      <c r="J136" s="213">
+        <f t="shared" si="8"/>
+        <v>0.78791279825829796</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="225">
+        <f>K65</f>
+        <v>0.93</v>
+      </c>
+      <c r="D137">
+        <f>C5</f>
+        <v>604.86</v>
+      </c>
+      <c r="E137" s="290">
+        <f>C65</f>
+        <v>863.15435581787528</v>
+      </c>
+      <c r="F137" s="215">
+        <f t="shared" si="7"/>
+        <v>522087.54366000008</v>
+      </c>
+      <c r="G137" s="97">
+        <f>C51</f>
+        <v>150589</v>
+      </c>
+      <c r="H137" s="97">
+        <f>C52</f>
+        <v>16962</v>
+      </c>
+      <c r="I137" s="319">
+        <f>J61</f>
+        <v>0.26</v>
+      </c>
+      <c r="J137" s="213">
+        <f t="shared" si="8"/>
+        <v>1.1472999220627593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="B139" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="224">
+        <f>AVERAGE(J134:J137)</f>
+        <v>1.0168801794717455</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" s="213">
+        <f>C139*(1+(1-I137)*(H137-G137)/F137)</f>
+        <v>0.82428190634618725</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D81:H83 D90:H94">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$C$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99:H103">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$C$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36">
+      <formula1>"End of Period, Middle of Period"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L65">
+      <formula1>"Observed, Industry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>